--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R413"/>
+  <dimension ref="A1:R416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18573,29 +18573,29 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>430</v>
+        <v>60</v>
       </c>
       <c r="K253" t="n">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="L253" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="M253" t="n">
-        <v>15791</v>
+        <v>77083</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>632</v>
+        <v>3083</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18636,38 +18636,38 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K254" t="n">
-        <v>23000</v>
+        <v>70000</v>
       </c>
       <c r="L254" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M254" t="n">
-        <v>24095</v>
+        <v>70000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>964</v>
+        <v>2800</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,32 +18717,32 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="K255" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="L255" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M255" t="n">
-        <v>33116</v>
+        <v>37818</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1325</v>
+        <v>3152</v>
       </c>
       <c r="Q255" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18780,38 +18780,38 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>15</v>
+        <v>430</v>
       </c>
       <c r="K256" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L256" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M256" t="n">
-        <v>25000</v>
+        <v>15791</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1000</v>
+        <v>632</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,29 +18861,29 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="K257" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="L257" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M257" t="n">
-        <v>41963</v>
+        <v>24095</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1679</v>
+        <v>964</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,29 +18933,29 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="K258" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L258" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M258" t="n">
-        <v>28000</v>
+        <v>33116</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1120</v>
+        <v>1325</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K259" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L259" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M259" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19073,33 +19073,33 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="K260" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L260" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M260" t="n">
-        <v>20000</v>
+        <v>41963</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>800</v>
+        <v>1679</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K261" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L261" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M261" t="n">
-        <v>16133</v>
+        <v>28000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>645</v>
+        <v>1120</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19212,38 +19212,38 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K262" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="L262" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M262" t="n">
-        <v>17150</v>
+        <v>35000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>686</v>
+        <v>1400</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19289,33 +19289,33 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K263" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L263" t="n">
         <v>20000</v>
       </c>
       <c r="M263" t="n">
-        <v>19067</v>
+        <v>20000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>763</v>
+        <v>800</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K264" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L264" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M264" t="n">
-        <v>16800</v>
+        <v>16133</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19428,38 +19428,38 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K265" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L265" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M265" t="n">
-        <v>15000</v>
+        <v>17150</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>600</v>
+        <v>686</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,29 +19509,29 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K266" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L266" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M266" t="n">
-        <v>24150</v>
+        <v>19067</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>966</v>
+        <v>763</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19581,29 +19581,29 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="K267" t="n">
-        <v>85000</v>
+        <v>16000</v>
       </c>
       <c r="L267" t="n">
-        <v>85000</v>
+        <v>18000</v>
       </c>
       <c r="M267" t="n">
-        <v>85000</v>
+        <v>16800</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>3400</v>
+        <v>672</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K268" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L268" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M268" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44193</v>
+        <v>44313</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,29 +19725,29 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K269" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L269" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M269" t="n">
-        <v>37321</v>
+        <v>24150</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1493</v>
+        <v>966</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K270" t="n">
-        <v>30000</v>
+        <v>85000</v>
       </c>
       <c r="L270" t="n">
-        <v>30000</v>
+        <v>85000</v>
       </c>
       <c r="M270" t="n">
-        <v>30000</v>
+        <v>85000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1200</v>
+        <v>3400</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="K271" t="n">
-        <v>65000</v>
+        <v>9000</v>
       </c>
       <c r="L271" t="n">
-        <v>70000</v>
+        <v>9000</v>
       </c>
       <c r="M271" t="n">
-        <v>67667</v>
+        <v>9000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>2707</v>
+        <v>360</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19932,25 +19932,25 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="K272" t="n">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="L272" t="n">
-        <v>55000</v>
+        <v>40000</v>
       </c>
       <c r="M272" t="n">
-        <v>55000</v>
+        <v>37321</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>2200</v>
+        <v>1493</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44350</v>
+        <v>44193</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K273" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L273" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M273" t="n">
-        <v>37312</v>
+        <v>30000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1492</v>
+        <v>1200</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44350</v>
+        <v>44193</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20076,25 +20076,25 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K274" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="L274" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M274" t="n">
-        <v>25000</v>
+        <v>67667</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1000</v>
+        <v>2707</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44350</v>
+        <v>44193</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20148,41 +20148,41 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K275" t="n">
-        <v>27000</v>
+        <v>55000</v>
       </c>
       <c r="L275" t="n">
-        <v>28000</v>
+        <v>55000</v>
       </c>
       <c r="M275" t="n">
-        <v>27605</v>
+        <v>55000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1840</v>
+        <v>2200</v>
       </c>
       <c r="Q275" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,29 +20229,29 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K276" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L276" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="M276" t="n">
-        <v>28200</v>
+        <v>37312</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1128</v>
+        <v>1492</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20292,25 +20292,25 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K277" t="n">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="L277" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="M277" t="n">
-        <v>67875</v>
+        <v>25000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>2715</v>
+        <v>1000</v>
       </c>
       <c r="Q277" t="n">
         <v>25</v>
@@ -20364,41 +20364,41 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K278" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="L278" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="M278" t="n">
-        <v>48148</v>
+        <v>27605</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1926</v>
+        <v>1840</v>
       </c>
       <c r="Q278" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,29 +20445,29 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K279" t="n">
-        <v>50000</v>
+        <v>27000</v>
       </c>
       <c r="L279" t="n">
-        <v>50000</v>
+        <v>29000</v>
       </c>
       <c r="M279" t="n">
-        <v>50000</v>
+        <v>28200</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>2000</v>
+        <v>1128</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K280" t="n">
-        <v>40000</v>
+        <v>65000</v>
       </c>
       <c r="L280" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="M280" t="n">
-        <v>40000</v>
+        <v>67875</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>1600</v>
+        <v>2715</v>
       </c>
       <c r="Q280" t="n">
         <v>25</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20580,25 +20580,25 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="K281" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="L281" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M281" t="n">
-        <v>28958</v>
+        <v>48148</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1158</v>
+        <v>1926</v>
       </c>
       <c r="Q281" t="n">
         <v>25</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,29 +20661,29 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K282" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="L282" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M282" t="n">
-        <v>24103</v>
+        <v>50000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>964</v>
+        <v>2000</v>
       </c>
       <c r="Q282" t="n">
         <v>25</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K283" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L283" t="n">
         <v>40000</v>
       </c>
       <c r="M283" t="n">
-        <v>37763</v>
+        <v>40000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>1511</v>
+        <v>1600</v>
       </c>
       <c r="Q283" t="n">
         <v>25</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,29 +20805,29 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K284" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L284" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M284" t="n">
-        <v>24091</v>
+        <v>28958</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>964</v>
+        <v>1158</v>
       </c>
       <c r="Q284" t="n">
         <v>25</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="K285" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L285" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M285" t="n">
-        <v>20000</v>
+        <v>24103</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>800</v>
+        <v>964</v>
       </c>
       <c r="Q285" t="n">
         <v>25</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20945,33 +20945,33 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="K286" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L286" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="M286" t="n">
-        <v>18000</v>
+        <v>37763</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>720</v>
+        <v>1511</v>
       </c>
       <c r="Q286" t="n">
         <v>25</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,29 +21021,29 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K287" t="n">
-        <v>65000</v>
+        <v>23000</v>
       </c>
       <c r="L287" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="M287" t="n">
-        <v>67125</v>
+        <v>24091</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>2685</v>
+        <v>964</v>
       </c>
       <c r="Q287" t="n">
         <v>25</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21084,38 +21084,38 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K288" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="L288" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M288" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="Q288" t="n">
         <v>25</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K289" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L289" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="M289" t="n">
-        <v>31368</v>
+        <v>18000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>1255</v>
+        <v>720</v>
       </c>
       <c r="Q289" t="n">
         <v>25</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21240,13 +21240,13 @@
         <v>40</v>
       </c>
       <c r="K290" t="n">
-        <v>80000</v>
+        <v>65000</v>
       </c>
       <c r="L290" t="n">
-        <v>85000</v>
+        <v>70000</v>
       </c>
       <c r="M290" t="n">
-        <v>81875</v>
+        <v>67125</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>3275</v>
+        <v>2685</v>
       </c>
       <c r="Q290" t="n">
         <v>25</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K291" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="L291" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="M291" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q291" t="n">
         <v>25</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,29 +21381,29 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="K292" t="n">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="L292" t="n">
-        <v>95000</v>
+        <v>32000</v>
       </c>
       <c r="M292" t="n">
-        <v>92083</v>
+        <v>31368</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>3683</v>
+        <v>1255</v>
       </c>
       <c r="Q292" t="n">
         <v>25</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K293" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="L293" t="n">
-        <v>50000</v>
+        <v>85000</v>
       </c>
       <c r="M293" t="n">
-        <v>50000</v>
+        <v>81875</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>2000</v>
+        <v>3275</v>
       </c>
       <c r="Q293" t="n">
         <v>25</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21516,25 +21516,25 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K294" t="n">
-        <v>18000</v>
+        <v>75000</v>
       </c>
       <c r="L294" t="n">
-        <v>20000</v>
+        <v>75000</v>
       </c>
       <c r="M294" t="n">
-        <v>18750</v>
+        <v>75000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="Q294" t="n">
         <v>25</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,29 +21597,29 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K295" t="n">
-        <v>20000</v>
+        <v>90000</v>
       </c>
       <c r="L295" t="n">
-        <v>22000</v>
+        <v>95000</v>
       </c>
       <c r="M295" t="n">
-        <v>21077</v>
+        <v>92083</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>843</v>
+        <v>3683</v>
       </c>
       <c r="Q295" t="n">
         <v>25</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21660,38 +21660,38 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K296" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="L296" t="n">
-        <v>13000</v>
+        <v>50000</v>
       </c>
       <c r="M296" t="n">
-        <v>12395</v>
+        <v>50000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>496</v>
+        <v>2000</v>
       </c>
       <c r="Q296" t="n">
         <v>25</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,20 +21741,20 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K297" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L297" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M297" t="n">
-        <v>25000</v>
+        <v>18750</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q297" t="n">
         <v>25</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="K298" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L298" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M298" t="n">
-        <v>25000</v>
+        <v>21077</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>1000</v>
+        <v>843</v>
       </c>
       <c r="Q298" t="n">
         <v>25</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44294</v>
+        <v>44250</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,29 +21885,29 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="K299" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L299" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M299" t="n">
-        <v>24200</v>
+        <v>12395</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>968</v>
+        <v>496</v>
       </c>
       <c r="Q299" t="n">
         <v>25</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K300" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L300" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M300" t="n">
-        <v>20750</v>
+        <v>25000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>830</v>
+        <v>1000</v>
       </c>
       <c r="Q300" t="n">
         <v>25</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,32 +22029,32 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="K301" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L301" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M301" t="n">
-        <v>17605</v>
+        <v>25000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>1174</v>
+        <v>1000</v>
       </c>
       <c r="Q301" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22092,41 +22092,41 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="K302" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L302" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M302" t="n">
-        <v>15000</v>
+        <v>24200</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>1000</v>
+        <v>968</v>
       </c>
       <c r="Q302" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,29 +22173,29 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K303" t="n">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="L303" t="n">
-        <v>85000</v>
+        <v>22000</v>
       </c>
       <c r="M303" t="n">
-        <v>82727</v>
+        <v>20750</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>3309</v>
+        <v>830</v>
       </c>
       <c r="Q303" t="n">
         <v>25</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,32 +22245,32 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="K304" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L304" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="M304" t="n">
-        <v>30657</v>
+        <v>17605</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>1226</v>
+        <v>1174</v>
       </c>
       <c r="Q304" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22308,41 +22308,41 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="K305" t="n">
-        <v>85000</v>
+        <v>15000</v>
       </c>
       <c r="L305" t="n">
-        <v>90000</v>
+        <v>15000</v>
       </c>
       <c r="M305" t="n">
-        <v>87222</v>
+        <v>15000</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3489</v>
+        <v>1000</v>
       </c>
       <c r="Q305" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="K306" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L306" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="M306" t="n">
-        <v>75000</v>
+        <v>82727</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>3000</v>
+        <v>3309</v>
       </c>
       <c r="Q306" t="n">
         <v>25</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K307" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="L307" t="n">
-        <v>110000</v>
+        <v>32000</v>
       </c>
       <c r="M307" t="n">
-        <v>104444</v>
+        <v>30657</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22479,11 +22479,11 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>4178</v>
+        <v>1226</v>
       </c>
       <c r="Q307" t="n">
         <v>25</v>
@@ -22524,25 +22524,25 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="K308" t="n">
-        <v>90000</v>
+        <v>85000</v>
       </c>
       <c r="L308" t="n">
         <v>90000</v>
       </c>
       <c r="M308" t="n">
-        <v>90000</v>
+        <v>87222</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22551,11 +22551,11 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>3600</v>
+        <v>3489</v>
       </c>
       <c r="Q308" t="n">
         <v>25</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K309" t="n">
-        <v>12000</v>
+        <v>75000</v>
       </c>
       <c r="L309" t="n">
-        <v>14000</v>
+        <v>75000</v>
       </c>
       <c r="M309" t="n">
-        <v>13100</v>
+        <v>75000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>524</v>
+        <v>3000</v>
       </c>
       <c r="Q309" t="n">
         <v>25</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K310" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="L310" t="n">
-        <v>10000</v>
+        <v>110000</v>
       </c>
       <c r="M310" t="n">
-        <v>9552</v>
+        <v>104444</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>382</v>
+        <v>4178</v>
       </c>
       <c r="Q310" t="n">
         <v>25</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22740,25 +22740,25 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="K311" t="n">
-        <v>13000</v>
+        <v>90000</v>
       </c>
       <c r="L311" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="M311" t="n">
-        <v>14122</v>
+        <v>90000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22767,11 +22767,11 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>565</v>
+        <v>3600</v>
       </c>
       <c r="Q311" t="n">
         <v>25</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L312" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M312" t="n">
-        <v>13750</v>
+        <v>13100</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="Q312" t="n">
         <v>25</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,20 +22893,20 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K313" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L313" t="n">
         <v>10000</v>
       </c>
-      <c r="L313" t="n">
-        <v>12000</v>
-      </c>
       <c r="M313" t="n">
-        <v>11100</v>
+        <v>9552</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="Q313" t="n">
         <v>25</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K314" t="n">
-        <v>55000</v>
+        <v>13000</v>
       </c>
       <c r="L314" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="M314" t="n">
-        <v>57656</v>
+        <v>14122</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>2306</v>
+        <v>565</v>
       </c>
       <c r="Q314" t="n">
         <v>25</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23028,25 +23028,25 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K315" t="n">
-        <v>50000</v>
+        <v>13000</v>
       </c>
       <c r="L315" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="M315" t="n">
-        <v>50000</v>
+        <v>13750</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23055,11 +23055,11 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>2000</v>
+        <v>550</v>
       </c>
       <c r="Q315" t="n">
         <v>25</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,29 +23109,29 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K316" t="n">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="L316" t="n">
-        <v>75000</v>
+        <v>12000</v>
       </c>
       <c r="M316" t="n">
-        <v>72262</v>
+        <v>11100</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>2890</v>
+        <v>444</v>
       </c>
       <c r="Q316" t="n">
         <v>25</v>
@@ -23172,25 +23172,25 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K317" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="L317" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="M317" t="n">
-        <v>65000</v>
+        <v>57656</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>2600</v>
+        <v>2306</v>
       </c>
       <c r="Q317" t="n">
         <v>25</v>
@@ -23244,41 +23244,41 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="K318" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="L318" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M318" t="n">
-        <v>24179</v>
+        <v>50000</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="Q318" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23325,20 +23325,20 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K319" t="n">
-        <v>33000</v>
+        <v>70000</v>
       </c>
       <c r="L319" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M319" t="n">
-        <v>33686</v>
+        <v>72262</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>2246</v>
+        <v>2890</v>
       </c>
       <c r="Q319" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23388,38 +23388,38 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="K320" t="n">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L320" t="n">
-        <v>23000</v>
+        <v>65000</v>
       </c>
       <c r="M320" t="n">
-        <v>21875</v>
+        <v>65000</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>875</v>
+        <v>2600</v>
       </c>
       <c r="Q320" t="n">
         <v>25</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23469,32 +23469,32 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="K321" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L321" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M321" t="n">
-        <v>32045</v>
+        <v>24179</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>1282</v>
+        <v>2015</v>
       </c>
       <c r="Q321" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23532,41 +23532,41 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K322" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L322" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M322" t="n">
-        <v>25000</v>
+        <v>33686</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>1000</v>
+        <v>2246</v>
       </c>
       <c r="Q322" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23613,32 +23613,32 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="K323" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L323" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M323" t="n">
-        <v>19179</v>
+        <v>21875</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>1598</v>
+        <v>875</v>
       </c>
       <c r="Q323" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K324" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L324" t="n">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="M324" t="n">
-        <v>52083</v>
+        <v>32045</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>2083</v>
+        <v>1282</v>
       </c>
       <c r="Q324" t="n">
         <v>25</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="K325" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L325" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M325" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q325" t="n">
         <v>25</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,32 +23829,32 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="K326" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L326" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M326" t="n">
-        <v>24207</v>
+        <v>19179</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>1614</v>
+        <v>1598</v>
       </c>
       <c r="Q326" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23901,32 +23901,32 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K327" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="L327" t="n">
-        <v>20000</v>
+        <v>55000</v>
       </c>
       <c r="M327" t="n">
-        <v>19286</v>
+        <v>52083</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>1286</v>
+        <v>2083</v>
       </c>
       <c r="Q327" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,33 +23969,33 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="K328" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="L328" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="M328" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>560</v>
+        <v>1800</v>
       </c>
       <c r="Q328" t="n">
         <v>25</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24036,41 +24036,41 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="K329" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L329" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M329" t="n">
-        <v>12000</v>
+        <v>24207</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>480</v>
+        <v>1614</v>
       </c>
       <c r="Q329" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24117,32 +24117,32 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K330" t="n">
-        <v>60000</v>
+        <v>18000</v>
       </c>
       <c r="L330" t="n">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="M330" t="n">
-        <v>62273</v>
+        <v>19286</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>2491</v>
+        <v>1286</v>
       </c>
       <c r="Q330" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24185,33 +24185,33 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="K331" t="n">
-        <v>50000</v>
+        <v>14000</v>
       </c>
       <c r="L331" t="n">
-        <v>50000</v>
+        <v>14000</v>
       </c>
       <c r="M331" t="n">
-        <v>50000</v>
+        <v>14000</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>2000</v>
+        <v>560</v>
       </c>
       <c r="Q331" t="n">
         <v>25</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24252,41 +24252,41 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="K332" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L332" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M332" t="n">
-        <v>19282</v>
+        <v>12000</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>1607</v>
+        <v>480</v>
       </c>
       <c r="Q332" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44277</v>
+        <v>44159</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,29 +24333,29 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K333" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="L333" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="M333" t="n">
-        <v>23947</v>
+        <v>62273</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>958</v>
+        <v>2491</v>
       </c>
       <c r="Q333" t="n">
         <v>25</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44433</v>
+        <v>44159</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24396,41 +24396,41 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K334" t="n">
-        <v>33000</v>
+        <v>50000</v>
       </c>
       <c r="L334" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M334" t="n">
-        <v>33828</v>
+        <v>50000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>2819</v>
+        <v>2000</v>
       </c>
       <c r="Q334" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44309</v>
+        <v>44333</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24477,32 +24477,32 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K335" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L335" t="n">
         <v>20000</v>
       </c>
-      <c r="L335" t="n">
-        <v>22000</v>
-      </c>
       <c r="M335" t="n">
-        <v>21209</v>
+        <v>19282</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>848</v>
+        <v>1607</v>
       </c>
       <c r="Q335" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44188</v>
+        <v>44277</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24549,29 +24549,29 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="K336" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="L336" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M336" t="n">
-        <v>39103</v>
+        <v>23947</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>1564</v>
+        <v>958</v>
       </c>
       <c r="Q336" t="n">
         <v>25</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44188</v>
+        <v>44433</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24612,41 +24612,41 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K337" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="L337" t="n">
         <v>35000</v>
       </c>
       <c r="M337" t="n">
-        <v>35000</v>
+        <v>33828</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>1400</v>
+        <v>2819</v>
       </c>
       <c r="Q337" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24693,29 +24693,29 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K338" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L338" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M338" t="n">
-        <v>32700</v>
+        <v>21209</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>1308</v>
+        <v>848</v>
       </c>
       <c r="Q338" t="n">
         <v>25</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44319</v>
+        <v>44188</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24765,29 +24765,29 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K339" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="L339" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M339" t="n">
-        <v>24174</v>
+        <v>39103</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>967</v>
+        <v>1564</v>
       </c>
       <c r="Q339" t="n">
         <v>25</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44316</v>
+        <v>44188</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24828,38 +24828,38 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K340" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L340" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M340" t="n">
-        <v>24143</v>
+        <v>35000</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>966</v>
+        <v>1400</v>
       </c>
       <c r="Q340" t="n">
         <v>25</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24909,29 +24909,29 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K341" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L341" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M341" t="n">
-        <v>17150</v>
+        <v>32700</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>686</v>
+        <v>1308</v>
       </c>
       <c r="Q341" t="n">
         <v>25</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="K342" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L342" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M342" t="n">
-        <v>15850</v>
+        <v>24174</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>634</v>
+        <v>967</v>
       </c>
       <c r="Q342" t="n">
         <v>25</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="K343" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L343" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M343" t="n">
-        <v>11103</v>
+        <v>24143</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>444</v>
+        <v>966</v>
       </c>
       <c r="Q343" t="n">
         <v>25</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25125,32 +25125,32 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="K344" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L344" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M344" t="n">
-        <v>8857</v>
+        <v>17150</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>590</v>
+        <v>686</v>
       </c>
       <c r="Q344" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25197,29 +25197,29 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="K345" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L345" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M345" t="n">
-        <v>32887</v>
+        <v>15850</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>1315</v>
+        <v>634</v>
       </c>
       <c r="Q345" t="n">
         <v>25</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25260,38 +25260,38 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K346" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L346" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M346" t="n">
-        <v>25000</v>
+        <v>11103</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q346" t="n">
         <v>25</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25341,32 +25341,32 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K347" t="n">
-        <v>65000</v>
+        <v>8000</v>
       </c>
       <c r="L347" t="n">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="M347" t="n">
-        <v>67875</v>
+        <v>8857</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>2715</v>
+        <v>590</v>
       </c>
       <c r="Q347" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25404,25 +25404,25 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="K348" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L348" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M348" t="n">
-        <v>50000</v>
+        <v>32887</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25431,11 +25431,11 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>2000</v>
+        <v>1315</v>
       </c>
       <c r="Q348" t="n">
         <v>25</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K349" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="L349" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M349" t="n">
-        <v>38905</v>
+        <v>25000</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25503,11 +25503,11 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>1556</v>
+        <v>1000</v>
       </c>
       <c r="Q349" t="n">
         <v>25</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25560,13 +25560,13 @@
         <v>40</v>
       </c>
       <c r="K350" t="n">
-        <v>37000</v>
+        <v>65000</v>
       </c>
       <c r="L350" t="n">
-        <v>38000</v>
+        <v>70000</v>
       </c>
       <c r="M350" t="n">
-        <v>37575</v>
+        <v>67875</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25575,11 +25575,11 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>1503</v>
+        <v>2715</v>
       </c>
       <c r="Q350" t="n">
         <v>25</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K351" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="L351" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M351" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="Q351" t="n">
         <v>25</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K352" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="L352" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M352" t="n">
-        <v>35000</v>
+        <v>38905</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25719,11 +25719,11 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>1400</v>
+        <v>1556</v>
       </c>
       <c r="Q352" t="n">
         <v>25</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K353" t="n">
-        <v>70000</v>
+        <v>37000</v>
       </c>
       <c r="L353" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="M353" t="n">
-        <v>72738</v>
+        <v>37575</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>2910</v>
+        <v>1503</v>
       </c>
       <c r="Q353" t="n">
         <v>25</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25848,13 +25848,13 @@
         <v>12</v>
       </c>
       <c r="K354" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="L354" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="M354" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="Q354" t="n">
         <v>25</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="K355" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L355" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M355" t="n">
-        <v>10833</v>
+        <v>35000</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>433</v>
+        <v>1400</v>
       </c>
       <c r="Q355" t="n">
         <v>25</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25989,29 +25989,29 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="K356" t="n">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="L356" t="n">
-        <v>20000</v>
+        <v>75000</v>
       </c>
       <c r="M356" t="n">
-        <v>20000</v>
+        <v>72738</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>800</v>
+        <v>2910</v>
       </c>
       <c r="Q356" t="n">
         <v>25</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26057,33 +26057,33 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="K357" t="n">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="L357" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="M357" t="n">
-        <v>18923</v>
+        <v>60000</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>757</v>
+        <v>2400</v>
       </c>
       <c r="Q357" t="n">
         <v>25</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K358" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L358" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M358" t="n">
-        <v>21150</v>
+        <v>10833</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>846</v>
+        <v>433</v>
       </c>
       <c r="Q358" t="n">
         <v>25</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K359" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L359" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M359" t="n">
-        <v>16833</v>
+        <v>20000</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>673</v>
+        <v>800</v>
       </c>
       <c r="Q359" t="n">
         <v>25</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K360" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L360" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M360" t="n">
-        <v>17150</v>
+        <v>18923</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>686</v>
+        <v>757</v>
       </c>
       <c r="Q360" t="n">
         <v>25</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26349,32 +26349,32 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="K361" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L361" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M361" t="n">
-        <v>14753</v>
+        <v>21150</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>1229</v>
+        <v>846</v>
       </c>
       <c r="Q361" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,32 +26421,32 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="K362" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L362" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M362" t="n">
-        <v>15605</v>
+        <v>16833</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>1040</v>
+        <v>673</v>
       </c>
       <c r="Q362" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26496,26 +26496,26 @@
         <v>40</v>
       </c>
       <c r="K363" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L363" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M363" t="n">
-        <v>34150</v>
+        <v>17150</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>1366</v>
+        <v>686</v>
       </c>
       <c r="Q363" t="n">
         <v>25</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26561,36 +26561,36 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="K364" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L364" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M364" t="n">
-        <v>19133</v>
+        <v>14753</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>1276</v>
+        <v>1229</v>
       </c>
       <c r="Q364" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44230</v>
+        <v>44301</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26637,32 +26637,32 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K365" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L365" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M365" t="n">
-        <v>19150</v>
+        <v>15605</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>766</v>
+        <v>1040</v>
       </c>
       <c r="Q365" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26712,26 +26712,26 @@
         <v>40</v>
       </c>
       <c r="K366" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L366" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M366" t="n">
-        <v>19150</v>
+        <v>34150</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>766</v>
+        <v>1366</v>
       </c>
       <c r="Q366" t="n">
         <v>25</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26772,29 +26772,29 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K367" t="n">
-        <v>60000</v>
+        <v>18000</v>
       </c>
       <c r="L367" t="n">
-        <v>70000</v>
+        <v>20000</v>
       </c>
       <c r="M367" t="n">
-        <v>64000</v>
+        <v>19133</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>2560</v>
+        <v>1276</v>
       </c>
       <c r="Q367" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26844,38 +26844,38 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K368" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="L368" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M368" t="n">
-        <v>40000</v>
+        <v>19150</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>1600</v>
+        <v>766</v>
       </c>
       <c r="Q368" t="n">
         <v>25</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26921,33 +26921,33 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="K369" t="n">
-        <v>60000</v>
+        <v>18000</v>
       </c>
       <c r="L369" t="n">
-        <v>70000</v>
+        <v>20000</v>
       </c>
       <c r="M369" t="n">
-        <v>63750</v>
+        <v>19150</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>2550</v>
+        <v>766</v>
       </c>
       <c r="Q369" t="n">
         <v>25</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,32 +26997,32 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K370" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="L370" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M370" t="n">
-        <v>25000</v>
+        <v>64000</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>2083</v>
+        <v>2560</v>
       </c>
       <c r="Q370" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27060,41 +27060,41 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K371" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="L371" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M371" t="n">
-        <v>33857</v>
+        <v>40000</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>2257</v>
+        <v>1600</v>
       </c>
       <c r="Q371" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27141,32 +27141,32 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K372" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="L372" t="n">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="M372" t="n">
-        <v>20000</v>
+        <v>63750</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>1667</v>
+        <v>2550</v>
       </c>
       <c r="Q372" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27209,36 +27209,36 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="K373" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L373" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M373" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>2000</v>
+        <v>2083</v>
       </c>
       <c r="Q373" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,32 +27285,32 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="K374" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="L374" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M374" t="n">
-        <v>14667</v>
+        <v>33857</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>587</v>
+        <v>2257</v>
       </c>
       <c r="Q374" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27348,41 +27348,41 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K375" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L375" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M375" t="n">
-        <v>15425</v>
+        <v>20000</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>617</v>
+        <v>1667</v>
       </c>
       <c r="Q375" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27420,29 +27420,29 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K376" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L376" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M376" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="Q376" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27501,32 +27501,32 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>480</v>
+        <v>75</v>
       </c>
       <c r="K377" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="L377" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M377" t="n">
-        <v>25000</v>
+        <v>14667</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>2083</v>
+        <v>587</v>
       </c>
       <c r="Q377" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,29 +27573,29 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K378" t="n">
         <v>15000</v>
       </c>
       <c r="L378" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M378" t="n">
-        <v>16244</v>
+        <v>15425</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="Q378" t="n">
         <v>25</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,29 +27645,29 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K379" t="n">
-        <v>14000</v>
+        <v>80000</v>
       </c>
       <c r="L379" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="M379" t="n">
-        <v>14533</v>
+        <v>80000</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>581</v>
+        <v>3200</v>
       </c>
       <c r="Q379" t="n">
         <v>25</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,32 +27717,32 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>40</v>
+        <v>480</v>
       </c>
       <c r="K380" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L380" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M380" t="n">
-        <v>47125</v>
+        <v>25000</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>1885</v>
+        <v>2083</v>
       </c>
       <c r="Q380" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="K381" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L381" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="M381" t="n">
-        <v>40000</v>
+        <v>16244</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>1600</v>
+        <v>650</v>
       </c>
       <c r="Q381" t="n">
         <v>25</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K382" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="L382" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M382" t="n">
-        <v>28425</v>
+        <v>14533</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>1137</v>
+        <v>581</v>
       </c>
       <c r="Q382" t="n">
         <v>25</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27936,13 +27936,13 @@
         <v>40</v>
       </c>
       <c r="K383" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="L383" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="M383" t="n">
-        <v>67875</v>
+        <v>47125</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27951,11 +27951,11 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>2715</v>
+        <v>1885</v>
       </c>
       <c r="Q383" t="n">
         <v>25</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K384" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L384" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="M384" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28023,11 +28023,11 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="Q384" t="n">
         <v>25</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,29 +28077,29 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K385" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L385" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M385" t="n">
-        <v>15850</v>
+        <v>28425</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>634</v>
+        <v>1137</v>
       </c>
       <c r="Q385" t="n">
         <v>25</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,29 +28149,29 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K386" t="n">
-        <v>15000</v>
+        <v>65000</v>
       </c>
       <c r="L386" t="n">
-        <v>17000</v>
+        <v>70000</v>
       </c>
       <c r="M386" t="n">
-        <v>16077</v>
+        <v>67875</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>643</v>
+        <v>2715</v>
       </c>
       <c r="Q386" t="n">
         <v>25</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28212,25 +28212,25 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="K387" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="L387" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="M387" t="n">
-        <v>16125</v>
+        <v>50000</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28239,11 +28239,11 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>645</v>
+        <v>2000</v>
       </c>
       <c r="Q387" t="n">
         <v>25</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,29 +28293,29 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K388" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L388" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M388" t="n">
-        <v>14542</v>
+        <v>15850</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>582</v>
+        <v>634</v>
       </c>
       <c r="Q388" t="n">
         <v>25</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,29 +28365,29 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="K389" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L389" t="n">
-        <v>37000</v>
+        <v>17000</v>
       </c>
       <c r="M389" t="n">
-        <v>36143</v>
+        <v>16077</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>1446</v>
+        <v>643</v>
       </c>
       <c r="Q389" t="n">
         <v>25</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K390" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="L390" t="n">
-        <v>60000</v>
+        <v>18000</v>
       </c>
       <c r="M390" t="n">
-        <v>58250</v>
+        <v>16125</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28455,11 +28455,11 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P390" t="n">
-        <v>2330</v>
+        <v>645</v>
       </c>
       <c r="Q390" t="n">
         <v>25</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28505,33 +28505,33 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="K391" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="L391" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="M391" t="n">
-        <v>45000</v>
+        <v>14542</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>1800</v>
+        <v>582</v>
       </c>
       <c r="Q391" t="n">
         <v>25</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,29 +28581,29 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="K392" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L392" t="n">
-        <v>20000</v>
+        <v>37000</v>
       </c>
       <c r="M392" t="n">
-        <v>19091</v>
+        <v>36143</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>764</v>
+        <v>1446</v>
       </c>
       <c r="Q392" t="n">
         <v>25</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,29 +28653,29 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="K393" t="n">
-        <v>13000</v>
+        <v>55000</v>
       </c>
       <c r="L393" t="n">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="M393" t="n">
-        <v>14333</v>
+        <v>58250</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>573</v>
+        <v>2330</v>
       </c>
       <c r="Q393" t="n">
         <v>25</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28716,25 +28716,25 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K394" t="n">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="L394" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="M394" t="n">
-        <v>63286</v>
+        <v>45000</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,11 +28743,11 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2531</v>
+        <v>1800</v>
       </c>
       <c r="Q394" t="n">
         <v>25</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28788,38 +28788,38 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="K395" t="n">
-        <v>55000</v>
+        <v>18000</v>
       </c>
       <c r="L395" t="n">
-        <v>55000</v>
+        <v>20000</v>
       </c>
       <c r="M395" t="n">
-        <v>55000</v>
+        <v>19091</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>2200</v>
+        <v>764</v>
       </c>
       <c r="Q395" t="n">
         <v>25</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,29 +28869,29 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="K396" t="n">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="L396" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M396" t="n">
-        <v>29462</v>
+        <v>14333</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>1178</v>
+        <v>573</v>
       </c>
       <c r="Q396" t="n">
         <v>25</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K397" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="L397" t="n">
-        <v>70000</v>
+        <v>65000</v>
       </c>
       <c r="M397" t="n">
-        <v>70000</v>
+        <v>63286</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28959,11 +28959,11 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>2800</v>
+        <v>2531</v>
       </c>
       <c r="Q397" t="n">
         <v>25</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K398" t="n">
         <v>55000</v>
       </c>
       <c r="L398" t="n">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="M398" t="n">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29031,11 +29031,11 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>2320</v>
+        <v>2200</v>
       </c>
       <c r="Q398" t="n">
         <v>25</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29085,32 +29085,32 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K399" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L399" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M399" t="n">
-        <v>23960</v>
+        <v>29462</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>1997</v>
+        <v>1178</v>
       </c>
       <c r="Q399" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,20 +29157,20 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K400" t="n">
-        <v>33000</v>
+        <v>70000</v>
       </c>
       <c r="L400" t="n">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="M400" t="n">
-        <v>34314</v>
+        <v>70000</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>2288</v>
+        <v>2800</v>
       </c>
       <c r="Q400" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29220,25 +29220,25 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K401" t="n">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="L401" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="M401" t="n">
-        <v>32083</v>
+        <v>58000</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>1283</v>
+        <v>2320</v>
       </c>
       <c r="Q401" t="n">
         <v>25</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,32 +29301,32 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="K402" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L402" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M402" t="n">
-        <v>31056</v>
+        <v>23960</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>1242</v>
+        <v>1997</v>
       </c>
       <c r="Q402" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29373,32 +29373,32 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="K403" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L403" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M403" t="n">
-        <v>27308</v>
+        <v>34314</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1092</v>
+        <v>2288</v>
       </c>
       <c r="Q403" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K404" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L404" t="n">
         <v>35000</v>
       </c>
       <c r="M404" t="n">
-        <v>35000</v>
+        <v>32083</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1400</v>
+        <v>1283</v>
       </c>
       <c r="Q404" t="n">
         <v>25</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29508,38 +29508,38 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>35</v>
+        <v>360</v>
       </c>
       <c r="K405" t="n">
         <v>30000</v>
       </c>
       <c r="L405" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M405" t="n">
-        <v>30000</v>
+        <v>31056</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>1200</v>
+        <v>1242</v>
       </c>
       <c r="Q405" t="n">
         <v>25</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29589,32 +29589,32 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="K406" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L406" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M406" t="n">
-        <v>23000</v>
+        <v>27308</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>1917</v>
+        <v>1092</v>
       </c>
       <c r="Q406" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,29 +29661,29 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K407" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L407" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M407" t="n">
-        <v>27425</v>
+        <v>35000</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>1097</v>
+        <v>1400</v>
       </c>
       <c r="Q407" t="n">
         <v>25</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29724,41 +29724,41 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K408" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L408" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M408" t="n">
-        <v>18135</v>
+        <v>30000</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="Q408" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44168</v>
+        <v>44179</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,32 +29805,32 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K409" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L409" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M409" t="n">
-        <v>32917</v>
+        <v>23000</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>1317</v>
+        <v>1917</v>
       </c>
       <c r="Q409" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29868,38 +29868,38 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K410" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L410" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M410" t="n">
-        <v>25000</v>
+        <v>27425</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>1000</v>
+        <v>1097</v>
       </c>
       <c r="Q410" t="n">
         <v>25</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,20 +29949,20 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K411" t="n">
-        <v>60000</v>
+        <v>17000</v>
       </c>
       <c r="L411" t="n">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="M411" t="n">
-        <v>63182</v>
+        <v>18135</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>2527</v>
+        <v>1209</v>
       </c>
       <c r="Q411" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -30012,25 +30012,25 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K412" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L412" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M412" t="n">
-        <v>50000</v>
+        <v>32917</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30039,11 +30039,11 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>2000</v>
+        <v>1317</v>
       </c>
       <c r="Q412" t="n">
         <v>25</v>
@@ -30069,58 +30069,274 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E413" t="n">
+        <v>13</v>
+      </c>
+      <c r="F413" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J413" t="n">
+        <v>15</v>
+      </c>
+      <c r="K413" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L413" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M413" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P413" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>25</v>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>6</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D414" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E414" t="n">
+        <v>13</v>
+      </c>
+      <c r="F414" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J414" t="n">
+        <v>55</v>
+      </c>
+      <c r="K414" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L414" t="n">
+        <v>65000</v>
+      </c>
+      <c r="M414" t="n">
+        <v>63182</v>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P414" t="n">
+        <v>2527</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>25</v>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>6</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D415" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E415" t="n">
+        <v>13</v>
+      </c>
+      <c r="F415" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J415" t="n">
+        <v>15</v>
+      </c>
+      <c r="K415" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L415" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M415" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P415" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>25</v>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>6</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D416" s="2" t="n">
         <v>44418</v>
       </c>
-      <c r="E413" t="n">
-        <v>13</v>
-      </c>
-      <c r="F413" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H413" t="inlineStr">
+      <c r="E416" t="n">
+        <v>13</v>
+      </c>
+      <c r="F416" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
         <is>
           <t>Cacho cabra verde</t>
         </is>
       </c>
-      <c r="I413" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J413" t="n">
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J416" t="n">
         <v>55</v>
       </c>
-      <c r="K413" t="n">
+      <c r="K416" t="n">
         <v>60000</v>
       </c>
-      <c r="L413" t="n">
+      <c r="L416" t="n">
         <v>65000</v>
       </c>
-      <c r="M413" t="n">
+      <c r="M416" t="n">
         <v>62273</v>
       </c>
-      <c r="N413" t="inlineStr">
+      <c r="N416" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O413" t="inlineStr">
+      <c r="O416" t="inlineStr">
         <is>
           <t>La Ligua</t>
         </is>
       </c>
-      <c r="P413" t="n">
+      <c r="P416" t="n">
         <v>2491</v>
       </c>
-      <c r="Q413" t="n">
-        <v>25</v>
-      </c>
-      <c r="R413" t="inlineStr">
+      <c r="Q416" t="n">
+        <v>25</v>
+      </c>
+      <c r="R416" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R422"/>
+  <dimension ref="A1:R425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K411" t="n">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="L411" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="M411" t="n">
-        <v>32188</v>
+        <v>93077</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>1288</v>
+        <v>3723</v>
       </c>
       <c r="Q411" t="n">
         <v>25</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K412" t="n">
-        <v>25000</v>
+        <v>85000</v>
       </c>
       <c r="L412" t="n">
-        <v>25000</v>
+        <v>85000</v>
       </c>
       <c r="M412" t="n">
-        <v>25000</v>
+        <v>85000</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="Q412" t="n">
         <v>25</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30096,29 +30096,29 @@
         <v>40</v>
       </c>
       <c r="K413" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="L413" t="n">
-        <v>65000</v>
+        <v>40000</v>
       </c>
       <c r="M413" t="n">
-        <v>62875</v>
+        <v>38000</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>2515</v>
+        <v>3167</v>
       </c>
       <c r="Q413" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30156,25 +30156,25 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="K414" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L414" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M414" t="n">
-        <v>50000</v>
+        <v>32188</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30183,11 +30183,11 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>2000</v>
+        <v>1288</v>
       </c>
       <c r="Q414" t="n">
         <v>25</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,24 +30233,24 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="K415" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L415" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M415" t="n">
-        <v>16098</v>
+        <v>25000</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>644</v>
+        <v>1000</v>
       </c>
       <c r="Q415" t="n">
         <v>25</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30300,38 +30300,38 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K416" t="n">
-        <v>12000</v>
+        <v>60000</v>
       </c>
       <c r="L416" t="n">
-        <v>12000</v>
+        <v>65000</v>
       </c>
       <c r="M416" t="n">
-        <v>12000</v>
+        <v>62875</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>480</v>
+        <v>2515</v>
       </c>
       <c r="Q416" t="n">
         <v>25</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="K417" t="n">
-        <v>13000</v>
+        <v>50000</v>
       </c>
       <c r="L417" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="M417" t="n">
-        <v>14333</v>
+        <v>50000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>573</v>
+        <v>2000</v>
       </c>
       <c r="Q417" t="n">
         <v>25</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K418" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L418" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M418" t="n">
-        <v>11167</v>
+        <v>16098</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30471,11 +30471,11 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>447</v>
+        <v>644</v>
       </c>
       <c r="Q418" t="n">
         <v>25</v>
@@ -30516,41 +30516,41 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="K419" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L419" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M419" t="n">
-        <v>9600</v>
+        <v>12000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Q419" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30588,25 +30588,25 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
         <v>45</v>
       </c>
       <c r="K420" t="n">
-        <v>50000</v>
+        <v>13000</v>
       </c>
       <c r="L420" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="M420" t="n">
-        <v>50000</v>
+        <v>14333</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30615,11 +30615,11 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2000</v>
+        <v>573</v>
       </c>
       <c r="Q420" t="n">
         <v>25</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,29 +30669,29 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K421" t="n">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="L421" t="n">
-        <v>85000</v>
+        <v>12000</v>
       </c>
       <c r="M421" t="n">
-        <v>82500</v>
+        <v>11167</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>3300</v>
+        <v>447</v>
       </c>
       <c r="Q421" t="n">
         <v>25</v>
@@ -30717,58 +30717,274 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E422" t="n">
+        <v>13</v>
+      </c>
+      <c r="F422" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Inferno</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J422" t="n">
+        <v>200</v>
+      </c>
+      <c r="K422" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L422" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M422" t="n">
+        <v>9600</v>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P422" t="n">
+        <v>640</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>15</v>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>6</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D423" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E423" t="n">
+        <v>13</v>
+      </c>
+      <c r="F423" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J423" t="n">
+        <v>45</v>
+      </c>
+      <c r="K423" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L423" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M423" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P423" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>25</v>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>6</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D424" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E422" t="n">
-        <v>13</v>
-      </c>
-      <c r="F422" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H422" t="inlineStr">
+      <c r="E424" t="n">
+        <v>13</v>
+      </c>
+      <c r="F424" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J424" t="n">
+        <v>40</v>
+      </c>
+      <c r="K424" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L424" t="n">
+        <v>85000</v>
+      </c>
+      <c r="M424" t="n">
+        <v>82500</v>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P424" t="n">
+        <v>3300</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>25</v>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>6</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D425" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E425" t="n">
+        <v>13</v>
+      </c>
+      <c r="F425" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
         <is>
           <t>Cacho cabra rojo</t>
         </is>
       </c>
-      <c r="I422" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J422" t="n">
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J425" t="n">
         <v>55</v>
       </c>
-      <c r="K422" t="n">
+      <c r="K425" t="n">
         <v>50000</v>
       </c>
-      <c r="L422" t="n">
+      <c r="L425" t="n">
         <v>52000</v>
       </c>
-      <c r="M422" t="n">
+      <c r="M425" t="n">
         <v>50909</v>
       </c>
-      <c r="N422" t="inlineStr">
+      <c r="N425" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O422" t="inlineStr">
+      <c r="O425" t="inlineStr">
         <is>
           <t>Provincia de Huasco</t>
         </is>
       </c>
-      <c r="P422" t="n">
+      <c r="P425" t="n">
         <v>2036</v>
       </c>
-      <c r="Q422" t="n">
-        <v>25</v>
-      </c>
-      <c r="R422" t="inlineStr">
+      <c r="Q425" t="n">
+        <v>25</v>
+      </c>
+      <c r="R425" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R425"/>
+  <dimension ref="A1:R427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K281" t="n">
-        <v>65000</v>
+        <v>100000</v>
       </c>
       <c r="L281" t="n">
-        <v>70000</v>
+        <v>110000</v>
       </c>
       <c r="M281" t="n">
-        <v>67125</v>
+        <v>104737</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>2685</v>
+        <v>4189</v>
       </c>
       <c r="Q281" t="n">
         <v>25</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20652,41 +20652,41 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
+        <v>70</v>
+      </c>
+      <c r="K282" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L282" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M282" t="n">
+        <v>33943</v>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P282" t="n">
+        <v>2829</v>
+      </c>
+      <c r="Q282" t="n">
         <v>12</v>
-      </c>
-      <c r="K282" t="n">
-        <v>45000</v>
-      </c>
-      <c r="L282" t="n">
-        <v>45000</v>
-      </c>
-      <c r="M282" t="n">
-        <v>45000</v>
-      </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O282" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P282" t="n">
-        <v>1800</v>
-      </c>
-      <c r="Q282" t="n">
-        <v>25</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,29 +20733,29 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K283" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="L283" t="n">
-        <v>32000</v>
+        <v>70000</v>
       </c>
       <c r="M283" t="n">
-        <v>31368</v>
+        <v>67125</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>1255</v>
+        <v>2685</v>
       </c>
       <c r="Q283" t="n">
         <v>25</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20801,24 +20801,24 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="K284" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="L284" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="M284" t="n">
-        <v>15850</v>
+        <v>45000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>634</v>
+        <v>1800</v>
       </c>
       <c r="Q284" t="n">
         <v>25</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="K285" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L285" t="n">
-        <v>17000</v>
+        <v>32000</v>
       </c>
       <c r="M285" t="n">
-        <v>16231</v>
+        <v>31368</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>649</v>
+        <v>1255</v>
       </c>
       <c r="Q285" t="n">
         <v>25</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,32 +20949,32 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="K286" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L286" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M286" t="n">
-        <v>33828</v>
+        <v>15850</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>2819</v>
+        <v>634</v>
       </c>
       <c r="Q286" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,29 +21021,29 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="K287" t="n">
-        <v>90000</v>
+        <v>15000</v>
       </c>
       <c r="L287" t="n">
-        <v>90000</v>
+        <v>17000</v>
       </c>
       <c r="M287" t="n">
-        <v>90000</v>
+        <v>16231</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>3600</v>
+        <v>649</v>
       </c>
       <c r="Q287" t="n">
         <v>25</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44274</v>
+        <v>44433</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,32 +21093,32 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K288" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L288" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M288" t="n">
-        <v>16150</v>
+        <v>33828</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>646</v>
+        <v>2819</v>
       </c>
       <c r="Q288" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,29 +21165,29 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K289" t="n">
-        <v>17000</v>
+        <v>90000</v>
       </c>
       <c r="L289" t="n">
-        <v>18000</v>
+        <v>90000</v>
       </c>
       <c r="M289" t="n">
-        <v>17419</v>
+        <v>90000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>697</v>
+        <v>3600</v>
       </c>
       <c r="Q289" t="n">
         <v>25</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K290" t="n">
         <v>15000</v>
@@ -21246,23 +21246,23 @@
         <v>17000</v>
       </c>
       <c r="M290" t="n">
-        <v>16067</v>
+        <v>16150</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>1071</v>
+        <v>646</v>
       </c>
       <c r="Q290" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44335</v>
+        <v>44274</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,29 +21309,29 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K291" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L291" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M291" t="n">
-        <v>37869</v>
+        <v>17419</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>1515</v>
+        <v>697</v>
       </c>
       <c r="Q291" t="n">
         <v>25</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44335</v>
+        <v>44274</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21372,41 +21372,41 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
+        <v>45</v>
+      </c>
+      <c r="K292" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L292" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M292" t="n">
+        <v>16067</v>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
+        <v>1071</v>
+      </c>
+      <c r="Q292" t="n">
         <v>15</v>
-      </c>
-      <c r="K292" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L292" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M292" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O292" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P292" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Q292" t="n">
-        <v>25</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K293" t="n">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="L293" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="M293" t="n">
-        <v>58191</v>
+        <v>37869</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>2328</v>
+        <v>1515</v>
       </c>
       <c r="Q293" t="n">
         <v>25</v>
@@ -21516,38 +21516,38 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="K294" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L294" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M294" t="n">
-        <v>43378</v>
+        <v>30000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>1735</v>
+        <v>1200</v>
       </c>
       <c r="Q294" t="n">
         <v>25</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,32 +21597,32 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K295" t="n">
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="L295" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="M295" t="n">
-        <v>23769</v>
+        <v>58191</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>1981</v>
+        <v>2328</v>
       </c>
       <c r="Q295" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,32 +21669,32 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K296" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L296" t="n">
-        <v>32000</v>
+        <v>45000</v>
       </c>
       <c r="M296" t="n">
-        <v>30878</v>
+        <v>43378</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>2059</v>
+        <v>1735</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,32 +21741,32 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="K297" t="n">
-        <v>70000</v>
+        <v>23000</v>
       </c>
       <c r="L297" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M297" t="n">
-        <v>72115</v>
+        <v>23769</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>2885</v>
+        <v>1981</v>
       </c>
       <c r="Q297" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21804,41 +21804,41 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K298" t="n">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="L298" t="n">
-        <v>65000</v>
+        <v>32000</v>
       </c>
       <c r="M298" t="n">
-        <v>65000</v>
+        <v>30878</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>2600</v>
+        <v>2059</v>
       </c>
       <c r="Q298" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,32 +21885,32 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="K299" t="n">
-        <v>33000</v>
+        <v>70000</v>
       </c>
       <c r="L299" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M299" t="n">
-        <v>34424</v>
+        <v>72115</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>2869</v>
+        <v>2885</v>
       </c>
       <c r="Q299" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21948,38 +21948,38 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K300" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="L300" t="n">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="M300" t="n">
-        <v>57125</v>
+        <v>65000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>2285</v>
+        <v>2600</v>
       </c>
       <c r="Q300" t="n">
         <v>25</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,32 +22029,32 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K301" t="n">
-        <v>80000</v>
+        <v>33000</v>
       </c>
       <c r="L301" t="n">
-        <v>85000</v>
+        <v>35000</v>
       </c>
       <c r="M301" t="n">
-        <v>82667</v>
+        <v>34424</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>3307</v>
+        <v>2869</v>
       </c>
       <c r="Q301" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22092,38 +22092,38 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="K302" t="n">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="L302" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="M302" t="n">
-        <v>75000</v>
+        <v>57125</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>3000</v>
+        <v>2285</v>
       </c>
       <c r="Q302" t="n">
         <v>25</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,32 +22173,32 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K303" t="n">
-        <v>33000</v>
+        <v>80000</v>
       </c>
       <c r="L303" t="n">
-        <v>35000</v>
+        <v>85000</v>
       </c>
       <c r="M303" t="n">
-        <v>34040</v>
+        <v>82667</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>2837</v>
+        <v>3307</v>
       </c>
       <c r="Q303" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22236,38 +22236,38 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="K304" t="n">
-        <v>23000</v>
+        <v>75000</v>
       </c>
       <c r="L304" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M304" t="n">
-        <v>24200</v>
+        <v>75000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>968</v>
+        <v>3000</v>
       </c>
       <c r="Q304" t="n">
         <v>25</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44194</v>
+        <v>44434</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,32 +22317,32 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K305" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L305" t="n">
         <v>35000</v>
       </c>
-      <c r="L305" t="n">
-        <v>40000</v>
-      </c>
       <c r="M305" t="n">
-        <v>37917</v>
+        <v>34040</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>1517</v>
+        <v>2837</v>
       </c>
       <c r="Q305" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22380,38 +22380,38 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="K306" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L306" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M306" t="n">
-        <v>30000</v>
+        <v>24200</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>1200</v>
+        <v>968</v>
       </c>
       <c r="Q306" t="n">
         <v>25</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22461,29 +22461,29 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K307" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L307" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M307" t="n">
-        <v>15700</v>
+        <v>37917</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>628</v>
+        <v>1517</v>
       </c>
       <c r="Q307" t="n">
         <v>25</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="K308" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L308" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M308" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22551,11 +22551,11 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="Q308" t="n">
         <v>25</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22605,32 +22605,32 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="K309" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L309" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M309" t="n">
-        <v>25000</v>
+        <v>15700</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>2083</v>
+        <v>628</v>
       </c>
       <c r="Q309" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K310" t="n">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="L310" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="M310" t="n">
-        <v>87222</v>
+        <v>80000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>3489</v>
+        <v>3200</v>
       </c>
       <c r="Q310" t="n">
         <v>25</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22740,41 +22740,41 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="K311" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="L311" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M311" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>3000</v>
+        <v>2083</v>
       </c>
       <c r="Q311" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="K312" t="n">
-        <v>100000</v>
+        <v>85000</v>
       </c>
       <c r="L312" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="M312" t="n">
-        <v>104444</v>
+        <v>87222</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>4178</v>
+        <v>3489</v>
       </c>
       <c r="Q312" t="n">
         <v>25</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K313" t="n">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="L313" t="n">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="M313" t="n">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="Q313" t="n">
         <v>25</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="K314" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="L314" t="n">
-        <v>18000</v>
+        <v>110000</v>
       </c>
       <c r="M314" t="n">
-        <v>17571</v>
+        <v>104444</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>703</v>
+        <v>4178</v>
       </c>
       <c r="Q314" t="n">
         <v>25</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23033,33 +23033,33 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>390</v>
+        <v>5</v>
       </c>
       <c r="K315" t="n">
-        <v>13000</v>
+        <v>90000</v>
       </c>
       <c r="L315" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="M315" t="n">
-        <v>13821</v>
+        <v>90000</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>553</v>
+        <v>3600</v>
       </c>
       <c r="Q315" t="n">
         <v>25</v>
@@ -23100,38 +23100,38 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K316" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L316" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M316" t="n">
-        <v>11000</v>
+        <v>17571</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>440</v>
+        <v>703</v>
       </c>
       <c r="Q316" t="n">
         <v>25</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>51</v>
+        <v>390</v>
       </c>
       <c r="K317" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L317" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M317" t="n">
-        <v>19020</v>
+        <v>13821</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>1268</v>
+        <v>553</v>
       </c>
       <c r="Q317" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23244,25 +23244,25 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K318" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="L318" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="M318" t="n">
-        <v>29125</v>
+        <v>11000</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>1165</v>
+        <v>440</v>
       </c>
       <c r="Q318" t="n">
         <v>25</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="K319" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L319" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M319" t="n">
-        <v>29111</v>
+        <v>19020</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>1941</v>
+        <v>1268</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23397,29 +23397,29 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K320" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L320" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M320" t="n">
-        <v>18583</v>
+        <v>29125</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>743</v>
+        <v>1165</v>
       </c>
       <c r="Q320" t="n">
         <v>25</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23469,32 +23469,32 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="K321" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="L321" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M321" t="n">
-        <v>15000</v>
+        <v>29111</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>600</v>
+        <v>1941</v>
       </c>
       <c r="Q321" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23541,29 +23541,29 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="K322" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L322" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M322" t="n">
-        <v>24143</v>
+        <v>18583</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>966</v>
+        <v>743</v>
       </c>
       <c r="Q322" t="n">
         <v>25</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23613,29 +23613,29 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K323" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L323" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M323" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q323" t="n">
         <v>25</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="K324" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L324" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M324" t="n">
-        <v>30000</v>
+        <v>24143</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>1200</v>
+        <v>966</v>
       </c>
       <c r="Q324" t="n">
         <v>25</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23757,29 +23757,29 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K325" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L325" t="n">
         <v>25000</v>
       </c>
-      <c r="L325" t="n">
-        <v>30000</v>
-      </c>
       <c r="M325" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="Q325" t="n">
         <v>25</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K326" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L326" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M326" t="n">
-        <v>17150</v>
+        <v>30000</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>686</v>
+        <v>1200</v>
       </c>
       <c r="Q326" t="n">
         <v>25</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K327" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L327" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M327" t="n">
-        <v>15850</v>
+        <v>27500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>634</v>
+        <v>1100</v>
       </c>
       <c r="Q327" t="n">
         <v>25</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23973,29 +23973,29 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="K328" t="n">
-        <v>85000</v>
+        <v>16000</v>
       </c>
       <c r="L328" t="n">
-        <v>90000</v>
+        <v>18000</v>
       </c>
       <c r="M328" t="n">
-        <v>87069</v>
+        <v>17150</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>3483</v>
+        <v>686</v>
       </c>
       <c r="Q328" t="n">
         <v>25</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44341</v>
+        <v>44253</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,20 +24045,20 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="K329" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L329" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M329" t="n">
-        <v>28780</v>
+        <v>15850</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>2398</v>
+        <v>634</v>
       </c>
       <c r="Q329" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K330" t="n">
-        <v>20000</v>
+        <v>85000</v>
       </c>
       <c r="L330" t="n">
-        <v>22000</v>
+        <v>90000</v>
       </c>
       <c r="M330" t="n">
-        <v>21150</v>
+        <v>87069</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>846</v>
+        <v>3483</v>
       </c>
       <c r="Q330" t="n">
         <v>25</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,20 +24189,20 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="K331" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="L331" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M331" t="n">
-        <v>16833</v>
+        <v>28780</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>673</v>
+        <v>2398</v>
       </c>
       <c r="Q331" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24264,17 +24264,17 @@
         <v>40</v>
       </c>
       <c r="K332" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L332" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M332" t="n">
-        <v>17150</v>
+        <v>21150</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>686</v>
+        <v>846</v>
       </c>
       <c r="Q332" t="n">
         <v>25</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24333,32 +24333,32 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K333" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L333" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M333" t="n">
-        <v>14753</v>
+        <v>16833</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>1229</v>
+        <v>673</v>
       </c>
       <c r="Q333" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24405,32 +24405,32 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K334" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L334" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M334" t="n">
-        <v>15605</v>
+        <v>17150</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>1040</v>
+        <v>686</v>
       </c>
       <c r="Q334" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44176</v>
+        <v>44301</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,32 +24477,32 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K335" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L335" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M335" t="n">
-        <v>21974</v>
+        <v>14753</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>1465</v>
+        <v>1229</v>
       </c>
       <c r="Q335" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24549,32 +24549,32 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="K336" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="L336" t="n">
-        <v>85000</v>
+        <v>16000</v>
       </c>
       <c r="M336" t="n">
-        <v>82727</v>
+        <v>15605</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>3309</v>
+        <v>1040</v>
       </c>
       <c r="Q336" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,32 +24621,32 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="K337" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L337" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M337" t="n">
-        <v>30657</v>
+        <v>21974</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>1226</v>
+        <v>1465</v>
       </c>
       <c r="Q337" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,32 +24693,32 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K338" t="n">
-        <v>37000</v>
+        <v>80000</v>
       </c>
       <c r="L338" t="n">
-        <v>40000</v>
+        <v>85000</v>
       </c>
       <c r="M338" t="n">
-        <v>38725</v>
+        <v>82727</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>3227</v>
+        <v>3309</v>
       </c>
       <c r="Q338" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K339" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="L339" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="M339" t="n">
-        <v>71849</v>
+        <v>30657</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>2874</v>
+        <v>1226</v>
       </c>
       <c r="Q339" t="n">
         <v>25</v>
@@ -24833,36 +24833,36 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="K340" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="L340" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="M340" t="n">
-        <v>60000</v>
+        <v>38725</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>2400</v>
+        <v>3227</v>
       </c>
       <c r="Q340" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24909,29 +24909,29 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K341" t="n">
-        <v>16000</v>
+        <v>70000</v>
       </c>
       <c r="L341" t="n">
-        <v>18000</v>
+        <v>75000</v>
       </c>
       <c r="M341" t="n">
-        <v>17150</v>
+        <v>71849</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>686</v>
+        <v>2874</v>
       </c>
       <c r="Q341" t="n">
         <v>25</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24972,25 +24972,25 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K342" t="n">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="L342" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="M342" t="n">
-        <v>18789</v>
+        <v>60000</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>752</v>
+        <v>2400</v>
       </c>
       <c r="Q342" t="n">
         <v>25</v>
@@ -25044,38 +25044,38 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K343" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L343" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M343" t="n">
-        <v>15000</v>
+        <v>17150</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>600</v>
+        <v>686</v>
       </c>
       <c r="Q343" t="n">
         <v>25</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25125,32 +25125,32 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="K344" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L344" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M344" t="n">
-        <v>11343</v>
+        <v>18789</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="Q344" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44369</v>
+        <v>44237</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25188,25 +25188,25 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="K345" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="L345" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="M345" t="n">
-        <v>57656</v>
+        <v>15000</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25215,11 +25215,11 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>2306</v>
+        <v>600</v>
       </c>
       <c r="Q345" t="n">
         <v>25</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44369</v>
+        <v>44237</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25260,41 +25260,41 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="K346" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="L346" t="n">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="M346" t="n">
-        <v>50000</v>
+        <v>11343</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>2000</v>
+        <v>756</v>
       </c>
       <c r="Q346" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K347" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="L347" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="M347" t="n">
-        <v>72262</v>
+        <v>57656</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25359,11 +25359,11 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>2890</v>
+        <v>2306</v>
       </c>
       <c r="Q347" t="n">
         <v>25</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K348" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="L348" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="M348" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25431,11 +25431,11 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="Q348" t="n">
         <v>25</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,32 +25485,32 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K349" t="n">
-        <v>23000</v>
+        <v>70000</v>
       </c>
       <c r="L349" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M349" t="n">
-        <v>24179</v>
+        <v>72262</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>2015</v>
+        <v>2890</v>
       </c>
       <c r="Q349" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25548,29 +25548,29 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K350" t="n">
-        <v>33000</v>
+        <v>65000</v>
       </c>
       <c r="L350" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="M350" t="n">
-        <v>33686</v>
+        <v>65000</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>2246</v>
+        <v>2600</v>
       </c>
       <c r="Q350" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,32 +25629,32 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K351" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L351" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M351" t="n">
-        <v>14150</v>
+        <v>24179</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P351" t="n">
-        <v>566</v>
+        <v>2015</v>
       </c>
       <c r="Q351" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25701,32 +25701,32 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="K352" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="L352" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M352" t="n">
-        <v>13261</v>
+        <v>33686</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>530</v>
+        <v>2246</v>
       </c>
       <c r="Q352" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K353" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L353" t="n">
         <v>15000</v>
       </c>
-      <c r="L353" t="n">
-        <v>17000</v>
-      </c>
       <c r="M353" t="n">
-        <v>15850</v>
+        <v>14150</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>634</v>
+        <v>566</v>
       </c>
       <c r="Q353" t="n">
         <v>25</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>400</v>
+        <v>138</v>
       </c>
       <c r="K354" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L354" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="M354" t="n">
-        <v>73525</v>
+        <v>13261</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>2941</v>
+        <v>530</v>
       </c>
       <c r="Q354" t="n">
         <v>25</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25917,32 +25917,32 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K355" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L355" t="n">
-        <v>32000</v>
+        <v>17000</v>
       </c>
       <c r="M355" t="n">
-        <v>29700</v>
+        <v>15850</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>2475</v>
+        <v>634</v>
       </c>
       <c r="Q355" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25989,29 +25989,29 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K356" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L356" t="n">
-        <v>25000</v>
+        <v>150000</v>
       </c>
       <c r="M356" t="n">
-        <v>24200</v>
+        <v>73525</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>968</v>
+        <v>2941</v>
       </c>
       <c r="Q356" t="n">
         <v>25</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26061,32 +26061,32 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K357" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L357" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M357" t="n">
-        <v>20750</v>
+        <v>29700</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>830</v>
+        <v>2475</v>
       </c>
       <c r="Q357" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26133,32 +26133,32 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="K358" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L358" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M358" t="n">
-        <v>17605</v>
+        <v>24200</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>1174</v>
+        <v>968</v>
       </c>
       <c r="Q358" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26196,41 +26196,41 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K359" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L359" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M359" t="n">
-        <v>15000</v>
+        <v>20750</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="Q359" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26277,32 +26277,32 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K360" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="L360" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M360" t="n">
-        <v>28029</v>
+        <v>17605</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>1121</v>
+        <v>1174</v>
       </c>
       <c r="Q360" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44302</v>
+        <v>44294</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26340,41 +26340,41 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K361" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L361" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M361" t="n">
-        <v>22400</v>
+        <v>15000</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>896</v>
+        <v>1000</v>
       </c>
       <c r="Q361" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K362" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="L362" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M362" t="n">
-        <v>17575</v>
+        <v>28029</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26439,11 +26439,11 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>703</v>
+        <v>1121</v>
       </c>
       <c r="Q362" t="n">
         <v>25</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26493,32 +26493,32 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K363" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L363" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M363" t="n">
-        <v>15343</v>
+        <v>22400</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>1023</v>
+        <v>896</v>
       </c>
       <c r="Q363" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,29 +26565,29 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K364" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L364" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M364" t="n">
-        <v>28958</v>
+        <v>17575</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>1158</v>
+        <v>703</v>
       </c>
       <c r="Q364" t="n">
         <v>25</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26637,32 +26637,32 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="K365" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L365" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M365" t="n">
-        <v>24103</v>
+        <v>15343</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>964</v>
+        <v>1023</v>
       </c>
       <c r="Q365" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K366" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L366" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M366" t="n">
-        <v>37763</v>
+        <v>28958</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26727,11 +26727,11 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>1511</v>
+        <v>1158</v>
       </c>
       <c r="Q366" t="n">
         <v>25</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26781,29 +26781,29 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="K367" t="n">
-        <v>85000</v>
+        <v>23000</v>
       </c>
       <c r="L367" t="n">
-        <v>85000</v>
+        <v>25000</v>
       </c>
       <c r="M367" t="n">
-        <v>85000</v>
+        <v>24103</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>3400</v>
+        <v>964</v>
       </c>
       <c r="Q367" t="n">
         <v>25</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K368" t="n">
-        <v>9000</v>
+        <v>35000</v>
       </c>
       <c r="L368" t="n">
-        <v>9000</v>
+        <v>40000</v>
       </c>
       <c r="M368" t="n">
-        <v>9000</v>
+        <v>37763</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>360</v>
+        <v>1511</v>
       </c>
       <c r="Q368" t="n">
         <v>25</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44411</v>
+        <v>44391</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,29 +26925,29 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K369" t="n">
-        <v>55000</v>
+        <v>85000</v>
       </c>
       <c r="L369" t="n">
-        <v>65000</v>
+        <v>85000</v>
       </c>
       <c r="M369" t="n">
-        <v>60250</v>
+        <v>85000</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>2410</v>
+        <v>3400</v>
       </c>
       <c r="Q369" t="n">
         <v>25</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44313</v>
+        <v>44391</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,29 +26997,29 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K370" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="L370" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="M370" t="n">
-        <v>24150</v>
+        <v>9000</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>966</v>
+        <v>360</v>
       </c>
       <c r="Q370" t="n">
         <v>25</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27069,29 +27069,29 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K371" t="n">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="L371" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="M371" t="n">
-        <v>31526</v>
+        <v>60250</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>1261</v>
+        <v>2410</v>
       </c>
       <c r="Q371" t="n">
         <v>25</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27144,17 +27144,17 @@
         <v>40</v>
       </c>
       <c r="K372" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="L372" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M372" t="n">
-        <v>42125</v>
+        <v>24150</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>1685</v>
+        <v>966</v>
       </c>
       <c r="Q372" t="n">
         <v>25</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27213,32 +27213,32 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K373" t="n">
         <v>25000</v>
       </c>
       <c r="L373" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M373" t="n">
-        <v>26133</v>
+        <v>31526</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>1742</v>
+        <v>1261</v>
       </c>
       <c r="Q373" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K374" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L374" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M374" t="n">
-        <v>32045</v>
+        <v>42125</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27303,11 +27303,11 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>1282</v>
+        <v>1685</v>
       </c>
       <c r="Q374" t="n">
         <v>25</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27348,41 +27348,41 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K375" t="n">
         <v>25000</v>
       </c>
       <c r="L375" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M375" t="n">
-        <v>25000</v>
+        <v>26133</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>1000</v>
+        <v>1742</v>
       </c>
       <c r="Q375" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,32 +27429,32 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="K376" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L376" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M376" t="n">
-        <v>19179</v>
+        <v>32045</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>1598</v>
+        <v>1282</v>
       </c>
       <c r="Q376" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27497,20 +27497,20 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K377" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="L377" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M377" t="n">
-        <v>77083</v>
+        <v>25000</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>3083</v>
+        <v>1000</v>
       </c>
       <c r="Q377" t="n">
         <v>25</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,41 +27564,41 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K378" t="n">
-        <v>70000</v>
+        <v>18000</v>
       </c>
       <c r="L378" t="n">
-        <v>70000</v>
+        <v>20000</v>
       </c>
       <c r="M378" t="n">
-        <v>70000</v>
+        <v>19179</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>2800</v>
+        <v>1598</v>
       </c>
       <c r="Q378" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,32 +27645,32 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K379" t="n">
-        <v>37000</v>
+        <v>75000</v>
       </c>
       <c r="L379" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="M379" t="n">
-        <v>37818</v>
+        <v>77083</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>3152</v>
+        <v>3083</v>
       </c>
       <c r="Q379" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27708,25 +27708,25 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K380" t="n">
-        <v>18000</v>
+        <v>70000</v>
       </c>
       <c r="L380" t="n">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="M380" t="n">
-        <v>18750</v>
+        <v>70000</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>750</v>
+        <v>2800</v>
       </c>
       <c r="Q380" t="n">
         <v>25</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,32 +27789,32 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K381" t="n">
-        <v>20000</v>
+        <v>37000</v>
       </c>
       <c r="L381" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="M381" t="n">
-        <v>21077</v>
+        <v>37818</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>843</v>
+        <v>3152</v>
       </c>
       <c r="Q381" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K382" t="n">
-        <v>85000</v>
+        <v>18000</v>
       </c>
       <c r="L382" t="n">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="M382" t="n">
-        <v>87875</v>
+        <v>18750</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27879,11 +27879,11 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>3515</v>
+        <v>750</v>
       </c>
       <c r="Q382" t="n">
         <v>25</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27924,38 +27924,38 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="K383" t="n">
-        <v>75000</v>
+        <v>20000</v>
       </c>
       <c r="L383" t="n">
-        <v>75000</v>
+        <v>22000</v>
       </c>
       <c r="M383" t="n">
-        <v>75000</v>
+        <v>21077</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>3000</v>
+        <v>843</v>
       </c>
       <c r="Q383" t="n">
         <v>25</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>58</v>
+        <v>400</v>
       </c>
       <c r="K384" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="L384" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="M384" t="n">
-        <v>77241</v>
+        <v>87875</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28023,11 +28023,11 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>3090</v>
+        <v>3515</v>
       </c>
       <c r="Q384" t="n">
         <v>25</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K385" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="L385" t="n">
-        <v>85000</v>
+        <v>75000</v>
       </c>
       <c r="M385" t="n">
-        <v>78450</v>
+        <v>75000</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>3138</v>
+        <v>3000</v>
       </c>
       <c r="Q385" t="n">
         <v>25</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="K386" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="L386" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="M386" t="n">
-        <v>70000</v>
+        <v>77241</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>2800</v>
+        <v>3090</v>
       </c>
       <c r="Q386" t="n">
         <v>25</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K387" t="n">
-        <v>65000</v>
+        <v>70000</v>
       </c>
       <c r="L387" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="M387" t="n">
-        <v>71053</v>
+        <v>78450</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>2842</v>
+        <v>3138</v>
       </c>
       <c r="Q387" t="n">
         <v>25</v>
@@ -28284,41 +28284,41 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="K388" t="n">
-        <v>33000</v>
+        <v>70000</v>
       </c>
       <c r="L388" t="n">
-        <v>37000</v>
+        <v>70000</v>
       </c>
       <c r="M388" t="n">
-        <v>34654</v>
+        <v>70000</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>2888</v>
+        <v>2800</v>
       </c>
       <c r="Q388" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K389" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="L389" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M389" t="n">
-        <v>32700</v>
+        <v>71053</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>1308</v>
+        <v>2842</v>
       </c>
       <c r="Q389" t="n">
         <v>25</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,32 +28437,32 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="K390" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L390" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M390" t="n">
-        <v>24174</v>
+        <v>34654</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P390" t="n">
-        <v>967</v>
+        <v>2888</v>
       </c>
       <c r="Q390" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K391" t="n">
         <v>30000</v>
       </c>
       <c r="L391" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M391" t="n">
-        <v>31050</v>
+        <v>32700</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>1242</v>
+        <v>1308</v>
       </c>
       <c r="Q391" t="n">
         <v>25</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28572,38 +28572,38 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K392" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L392" t="n">
         <v>25000</v>
       </c>
       <c r="M392" t="n">
-        <v>25000</v>
+        <v>24174</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="Q392" t="n">
         <v>25</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K393" t="n">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="L393" t="n">
-        <v>70000</v>
+        <v>33000</v>
       </c>
       <c r="M393" t="n">
-        <v>67321</v>
+        <v>31050</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28671,11 +28671,11 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>2693</v>
+        <v>1242</v>
       </c>
       <c r="Q393" t="n">
         <v>25</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28728,13 +28728,13 @@
         <v>25</v>
       </c>
       <c r="K394" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L394" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M394" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,11 +28743,11 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q394" t="n">
         <v>25</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,20 +28797,20 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="K395" t="n">
-        <v>23000</v>
+        <v>65000</v>
       </c>
       <c r="L395" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M395" t="n">
-        <v>23929</v>
+        <v>67321</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>1595</v>
+        <v>2693</v>
       </c>
       <c r="Q395" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,25 +28860,25 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K396" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="L396" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="M396" t="n">
-        <v>63286</v>
+        <v>50000</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28887,11 +28887,11 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>2531</v>
+        <v>2000</v>
       </c>
       <c r="Q396" t="n">
         <v>25</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28932,41 +28932,41 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="K397" t="n">
-        <v>55000</v>
+        <v>23000</v>
       </c>
       <c r="L397" t="n">
-        <v>55000</v>
+        <v>25000</v>
       </c>
       <c r="M397" t="n">
-        <v>55000</v>
+        <v>23929</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>2200</v>
+        <v>1595</v>
       </c>
       <c r="Q397" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K398" t="n">
-        <v>29000</v>
+        <v>60000</v>
       </c>
       <c r="L398" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="M398" t="n">
-        <v>29462</v>
+        <v>63286</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29031,11 +29031,11 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>1178</v>
+        <v>2531</v>
       </c>
       <c r="Q398" t="n">
         <v>25</v>
@@ -29076,25 +29076,25 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K399" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="L399" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="M399" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="Q399" t="n">
         <v>25</v>
@@ -29148,25 +29148,25 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K400" t="n">
-        <v>55000</v>
+        <v>29000</v>
       </c>
       <c r="L400" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="M400" t="n">
-        <v>58000</v>
+        <v>29462</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29175,11 +29175,11 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>2320</v>
+        <v>1178</v>
       </c>
       <c r="Q400" t="n">
         <v>25</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,32 +29229,32 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="K401" t="n">
-        <v>23000</v>
+        <v>70000</v>
       </c>
       <c r="L401" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M401" t="n">
-        <v>23960</v>
+        <v>70000</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>1997</v>
+        <v>2800</v>
       </c>
       <c r="Q401" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29292,29 +29292,29 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K402" t="n">
-        <v>33000</v>
+        <v>55000</v>
       </c>
       <c r="L402" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="M402" t="n">
-        <v>34314</v>
+        <v>58000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>2288</v>
+        <v>2320</v>
       </c>
       <c r="Q402" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29373,32 +29373,32 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>290</v>
+        <v>25</v>
       </c>
       <c r="K403" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L403" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M403" t="n">
-        <v>21172</v>
+        <v>23960</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>847</v>
+        <v>1997</v>
       </c>
       <c r="Q403" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="K404" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L404" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M404" t="n">
-        <v>12850</v>
+        <v>34314</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29463,11 +29463,11 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>857</v>
+        <v>2288</v>
       </c>
       <c r="Q404" t="n">
         <v>15</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,29 +29517,29 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="K405" t="n">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="L405" t="n">
-        <v>90000</v>
+        <v>22000</v>
       </c>
       <c r="M405" t="n">
-        <v>86250</v>
+        <v>21172</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>3450</v>
+        <v>847</v>
       </c>
       <c r="Q405" t="n">
         <v>25</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29580,41 +29580,41 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K406" t="n">
-        <v>70000</v>
+        <v>12000</v>
       </c>
       <c r="L406" t="n">
-        <v>70000</v>
+        <v>14000</v>
       </c>
       <c r="M406" t="n">
-        <v>70000</v>
+        <v>12850</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>2800</v>
+        <v>857</v>
       </c>
       <c r="Q406" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29652,25 +29652,25 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K407" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="L407" t="n">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="M407" t="n">
-        <v>54250</v>
+        <v>86250</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>2170</v>
+        <v>3450</v>
       </c>
       <c r="Q407" t="n">
         <v>25</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29724,38 +29724,38 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="K408" t="n">
-        <v>18000</v>
+        <v>70000</v>
       </c>
       <c r="L408" t="n">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="M408" t="n">
-        <v>19091</v>
+        <v>70000</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>764</v>
+        <v>2800</v>
       </c>
       <c r="Q408" t="n">
         <v>25</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,33 +29801,33 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K409" t="n">
-        <v>13000</v>
+        <v>50000</v>
       </c>
       <c r="L409" t="n">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="M409" t="n">
-        <v>14333</v>
+        <v>54250</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>573</v>
+        <v>2170</v>
       </c>
       <c r="Q409" t="n">
         <v>25</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="K410" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L410" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M410" t="n">
-        <v>22575</v>
+        <v>19091</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>903</v>
+        <v>764</v>
       </c>
       <c r="Q410" t="n">
         <v>25</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,29 +29949,29 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K411" t="n">
-        <v>90000</v>
+        <v>13000</v>
       </c>
       <c r="L411" t="n">
-        <v>95000</v>
+        <v>15000</v>
       </c>
       <c r="M411" t="n">
-        <v>93077</v>
+        <v>14333</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>3723</v>
+        <v>573</v>
       </c>
       <c r="Q411" t="n">
         <v>25</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30012,38 +30012,38 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
         <v>40</v>
       </c>
       <c r="K412" t="n">
-        <v>85000</v>
+        <v>22000</v>
       </c>
       <c r="L412" t="n">
-        <v>85000</v>
+        <v>23000</v>
       </c>
       <c r="M412" t="n">
-        <v>85000</v>
+        <v>22575</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>3400</v>
+        <v>903</v>
       </c>
       <c r="Q412" t="n">
         <v>25</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,20 +30093,20 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K413" t="n">
-        <v>35000</v>
+        <v>90000</v>
       </c>
       <c r="L413" t="n">
-        <v>40000</v>
+        <v>95000</v>
       </c>
       <c r="M413" t="n">
-        <v>38000</v>
+        <v>93077</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>3167</v>
+        <v>3723</v>
       </c>
       <c r="Q413" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K414" t="n">
-        <v>30000</v>
+        <v>85000</v>
       </c>
       <c r="L414" t="n">
-        <v>35000</v>
+        <v>85000</v>
       </c>
       <c r="M414" t="n">
-        <v>32188</v>
+        <v>85000</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>1288</v>
+        <v>3400</v>
       </c>
       <c r="Q414" t="n">
         <v>25</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30228,29 +30228,29 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K415" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L415" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M415" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>1000</v>
+        <v>3167</v>
       </c>
       <c r="Q415" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K416" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="L416" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="M416" t="n">
-        <v>62875</v>
+        <v>32188</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>2515</v>
+        <v>1288</v>
       </c>
       <c r="Q416" t="n">
         <v>25</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K417" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L417" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M417" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q417" t="n">
         <v>25</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,29 +30453,29 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K418" t="n">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="L418" t="n">
-        <v>17000</v>
+        <v>65000</v>
       </c>
       <c r="M418" t="n">
-        <v>16098</v>
+        <v>62875</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>644</v>
+        <v>2515</v>
       </c>
       <c r="Q418" t="n">
         <v>25</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,29 +30525,29 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K419" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="L419" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="M419" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>480</v>
+        <v>2000</v>
       </c>
       <c r="Q419" t="n">
         <v>25</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,29 +30597,29 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K420" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L420" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M420" t="n">
-        <v>14333</v>
+        <v>16098</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="Q420" t="n">
         <v>25</v>
@@ -30660,25 +30660,25 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="K421" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L421" t="n">
         <v>12000</v>
       </c>
       <c r="M421" t="n">
-        <v>11167</v>
+        <v>12000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30687,11 +30687,11 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="Q421" t="n">
         <v>25</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,20 +30741,20 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="K422" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L422" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M422" t="n">
-        <v>9600</v>
+        <v>14333</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>640</v>
+        <v>573</v>
       </c>
       <c r="Q422" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30804,38 +30804,38 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="K423" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="L423" t="n">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="M423" t="n">
-        <v>50000</v>
+        <v>11167</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>2000</v>
+        <v>447</v>
       </c>
       <c r="Q423" t="n">
         <v>25</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,32 +30885,32 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K424" t="n">
-        <v>80000</v>
+        <v>9000</v>
       </c>
       <c r="L424" t="n">
-        <v>85000</v>
+        <v>10000</v>
       </c>
       <c r="M424" t="n">
-        <v>82500</v>
+        <v>9600</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>3300</v>
+        <v>640</v>
       </c>
       <c r="Q424" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30948,43 +30948,187 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K425" t="n">
         <v>50000</v>
       </c>
       <c r="L425" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M425" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P425" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>25</v>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>6</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D426" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E426" t="n">
+        <v>13</v>
+      </c>
+      <c r="F426" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J426" t="n">
+        <v>40</v>
+      </c>
+      <c r="K426" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L426" t="n">
+        <v>85000</v>
+      </c>
+      <c r="M426" t="n">
+        <v>82500</v>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P426" t="n">
+        <v>3300</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>25</v>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>6</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D427" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E427" t="n">
+        <v>13</v>
+      </c>
+      <c r="F427" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Cacho cabra rojo</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J427" t="n">
+        <v>55</v>
+      </c>
+      <c r="K427" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L427" t="n">
         <v>52000</v>
       </c>
-      <c r="M425" t="n">
+      <c r="M427" t="n">
         <v>50909</v>
       </c>
-      <c r="N425" t="inlineStr">
+      <c r="N427" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O425" t="inlineStr">
+      <c r="O427" t="inlineStr">
         <is>
           <t>Provincia de Huasco</t>
         </is>
       </c>
-      <c r="P425" t="n">
+      <c r="P427" t="n">
         <v>2036</v>
       </c>
-      <c r="Q425" t="n">
-        <v>25</v>
-      </c>
-      <c r="R425" t="inlineStr">
+      <c r="Q427" t="n">
+        <v>25</v>
+      </c>
+      <c r="R427" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R427"/>
+  <dimension ref="A1:R428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20157,32 +20157,32 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K275" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="L275" t="n">
-        <v>65000</v>
+        <v>36000</v>
       </c>
       <c r="M275" t="n">
-        <v>62273</v>
+        <v>35567</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>2491</v>
+        <v>2964</v>
       </c>
       <c r="Q275" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44165</v>
+        <v>44418</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,29 +20229,29 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K276" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="L276" t="n">
-        <v>37000</v>
+        <v>65000</v>
       </c>
       <c r="M276" t="n">
-        <v>36150</v>
+        <v>62273</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1446</v>
+        <v>2491</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K277" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L277" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M277" t="n">
-        <v>34100</v>
+        <v>36150</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1364</v>
+        <v>1446</v>
       </c>
       <c r="Q277" t="n">
         <v>25</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L278" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M278" t="n">
-        <v>28000</v>
+        <v>34100</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1120</v>
+        <v>1364</v>
       </c>
       <c r="Q278" t="n">
         <v>25</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K279" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L279" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M279" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20508,25 +20508,25 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K280" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="L280" t="n">
-        <v>65000</v>
+        <v>27000</v>
       </c>
       <c r="M280" t="n">
-        <v>62875</v>
+        <v>27000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>2515</v>
+        <v>1080</v>
       </c>
       <c r="Q280" t="n">
         <v>25</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K281" t="n">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="L281" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="M281" t="n">
-        <v>55000</v>
+        <v>62875</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>2200</v>
+        <v>2515</v>
       </c>
       <c r="Q281" t="n">
         <v>25</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20652,25 +20652,25 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K282" t="n">
-        <v>85000</v>
+        <v>55000</v>
       </c>
       <c r="L282" t="n">
-        <v>90000</v>
+        <v>55000</v>
       </c>
       <c r="M282" t="n">
-        <v>87069</v>
+        <v>55000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>3483</v>
+        <v>2200</v>
       </c>
       <c r="Q282" t="n">
         <v>25</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="K283" t="n">
-        <v>33000</v>
+        <v>85000</v>
       </c>
       <c r="L283" t="n">
-        <v>35000</v>
+        <v>90000</v>
       </c>
       <c r="M283" t="n">
-        <v>34167</v>
+        <v>87069</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>1367</v>
+        <v>3483</v>
       </c>
       <c r="Q283" t="n">
         <v>25</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="K284" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L284" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M284" t="n">
-        <v>28000</v>
+        <v>34167</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>1120</v>
+        <v>1367</v>
       </c>
       <c r="Q284" t="n">
         <v>25</v>
@@ -20868,25 +20868,25 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K285" t="n">
-        <v>65000</v>
+        <v>28000</v>
       </c>
       <c r="L285" t="n">
-        <v>70000</v>
+        <v>28000</v>
       </c>
       <c r="M285" t="n">
-        <v>68026</v>
+        <v>28000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>2721</v>
+        <v>1120</v>
       </c>
       <c r="Q285" t="n">
         <v>25</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K286" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="L286" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="M286" t="n">
-        <v>50000</v>
+        <v>68026</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>2000</v>
+        <v>2721</v>
       </c>
       <c r="Q286" t="n">
         <v>25</v>
@@ -21012,41 +21012,41 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="K287" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="L287" t="n">
-        <v>22000</v>
+        <v>50000</v>
       </c>
       <c r="M287" t="n">
-        <v>21135</v>
+        <v>50000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>1761</v>
+        <v>2000</v>
       </c>
       <c r="Q287" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21093,32 +21093,32 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="K288" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L288" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M288" t="n">
-        <v>27609</v>
+        <v>21135</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>1841</v>
+        <v>1761</v>
       </c>
       <c r="Q288" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,32 +21165,32 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K289" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="L289" t="n">
-        <v>85000</v>
+        <v>30000</v>
       </c>
       <c r="M289" t="n">
-        <v>81875</v>
+        <v>27609</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>3275</v>
+        <v>1841</v>
       </c>
       <c r="Q289" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K290" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L290" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="M290" t="n">
-        <v>75000</v>
+        <v>81875</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>3000</v>
+        <v>3275</v>
       </c>
       <c r="Q290" t="n">
         <v>25</v>
@@ -21300,25 +21300,25 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K291" t="n">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="L291" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="M291" t="n">
-        <v>92083</v>
+        <v>75000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>3683</v>
+        <v>3000</v>
       </c>
       <c r="Q291" t="n">
         <v>25</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,29 +21381,29 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K292" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="L292" t="n">
-        <v>13000</v>
+        <v>95000</v>
       </c>
       <c r="M292" t="n">
-        <v>12548</v>
+        <v>92083</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>502</v>
+        <v>3683</v>
       </c>
       <c r="Q292" t="n">
         <v>25</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="K293" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L293" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M293" t="n">
-        <v>14000</v>
+        <v>12548</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>560</v>
+        <v>502</v>
       </c>
       <c r="Q293" t="n">
         <v>25</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K294" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L294" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M294" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q294" t="n">
         <v>25</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21588,38 +21588,38 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="K295" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L295" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="M295" t="n">
-        <v>36143</v>
+        <v>12000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>1446</v>
+        <v>480</v>
       </c>
       <c r="Q295" t="n">
         <v>25</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K296" t="n">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="L296" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="M296" t="n">
-        <v>58250</v>
+        <v>36143</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21687,11 +21687,11 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>2330</v>
+        <v>1446</v>
       </c>
       <c r="Q296" t="n">
         <v>25</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K297" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="L297" t="n">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="M297" t="n">
-        <v>45000</v>
+        <v>58250</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>1800</v>
+        <v>2330</v>
       </c>
       <c r="Q297" t="n">
         <v>25</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21804,25 +21804,25 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="K298" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="L298" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M298" t="n">
-        <v>19048</v>
+        <v>45000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21831,11 +21831,11 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>762</v>
+        <v>1800</v>
       </c>
       <c r="Q298" t="n">
         <v>25</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,7 +21885,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="K299" t="n">
         <v>18000</v>
@@ -21894,20 +21894,20 @@
         <v>20000</v>
       </c>
       <c r="M299" t="n">
-        <v>18821</v>
+        <v>19048</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="Q299" t="n">
         <v>25</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,29 +21957,29 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K300" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L300" t="n">
         <v>20000</v>
       </c>
-      <c r="L300" t="n">
-        <v>22000</v>
-      </c>
       <c r="M300" t="n">
-        <v>20850</v>
+        <v>18821</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>834</v>
+        <v>753</v>
       </c>
       <c r="Q300" t="n">
         <v>25</v>
@@ -22029,29 +22029,29 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K301" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L301" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M301" t="n">
-        <v>16933</v>
+        <v>20850</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>677</v>
+        <v>834</v>
       </c>
       <c r="Q301" t="n">
         <v>25</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,29 +22101,29 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K302" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L302" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M302" t="n">
-        <v>16244</v>
+        <v>16933</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="Q302" t="n">
         <v>25</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,29 +22173,29 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K303" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L303" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M303" t="n">
-        <v>14533</v>
+        <v>16244</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="Q303" t="n">
         <v>25</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="K304" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L304" t="n">
         <v>15000</v>
       </c>
-      <c r="L304" t="n">
-        <v>17000</v>
-      </c>
       <c r="M304" t="n">
-        <v>15791</v>
+        <v>14533</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>632</v>
+        <v>581</v>
       </c>
       <c r="Q304" t="n">
         <v>25</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,20 +22317,20 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="K305" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L305" t="n">
         <v>17000</v>
       </c>
       <c r="M305" t="n">
-        <v>17000</v>
+        <v>15791</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>680</v>
+        <v>632</v>
       </c>
       <c r="Q305" t="n">
         <v>25</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,20 +22389,20 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K306" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L306" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M306" t="n">
-        <v>17158</v>
+        <v>17000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="Q306" t="n">
         <v>25</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="K307" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L307" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M307" t="n">
-        <v>12000</v>
+        <v>17158</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>480</v>
+        <v>686</v>
       </c>
       <c r="Q307" t="n">
         <v>25</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22524,38 +22524,38 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K308" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L308" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M308" t="n">
-        <v>29150</v>
+        <v>12000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>1166</v>
+        <v>480</v>
       </c>
       <c r="Q308" t="n">
         <v>25</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="K309" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L309" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M309" t="n">
-        <v>37289</v>
+        <v>29150</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>1492</v>
+        <v>1166</v>
       </c>
       <c r="Q309" t="n">
         <v>25</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="K310" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L310" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M310" t="n">
-        <v>30000</v>
+        <v>37289</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>1200</v>
+        <v>1492</v>
       </c>
       <c r="Q310" t="n">
         <v>25</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44308</v>
+        <v>44187</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K311" t="n">
         <v>30000</v>
       </c>
       <c r="L311" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M311" t="n">
-        <v>30850</v>
+        <v>30000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>1234</v>
+        <v>1200</v>
       </c>
       <c r="Q311" t="n">
         <v>25</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22821,29 +22821,29 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="K312" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L312" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M312" t="n">
-        <v>21700</v>
+        <v>30850</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>868</v>
+        <v>1234</v>
       </c>
       <c r="Q312" t="n">
         <v>25</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,29 +22893,29 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="K313" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L313" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M313" t="n">
-        <v>34150</v>
+        <v>21700</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>1366</v>
+        <v>868</v>
       </c>
       <c r="Q313" t="n">
         <v>25</v>
@@ -22965,29 +22965,29 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="K314" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L314" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M314" t="n">
-        <v>19111</v>
+        <v>34150</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>764</v>
+        <v>1366</v>
       </c>
       <c r="Q314" t="n">
         <v>25</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="K315" t="n">
         <v>18000</v>
@@ -23046,23 +23046,23 @@
         <v>20000</v>
       </c>
       <c r="M315" t="n">
-        <v>18791</v>
+        <v>19111</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>1253</v>
+        <v>764</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23109,32 +23109,32 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="K316" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L316" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M316" t="n">
-        <v>17571</v>
+        <v>18791</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>703</v>
+        <v>1253</v>
       </c>
       <c r="Q316" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,29 +23181,29 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="K317" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L317" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M317" t="n">
-        <v>13821</v>
+        <v>17571</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>553</v>
+        <v>703</v>
       </c>
       <c r="Q317" t="n">
         <v>25</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="K318" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L318" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M318" t="n">
-        <v>11000</v>
+        <v>13821</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>440</v>
+        <v>553</v>
       </c>
       <c r="Q318" t="n">
         <v>25</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23321,33 +23321,33 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K319" t="n">
-        <v>50000</v>
+        <v>11000</v>
       </c>
       <c r="L319" t="n">
-        <v>50000</v>
+        <v>11000</v>
       </c>
       <c r="M319" t="n">
-        <v>50000</v>
+        <v>11000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>2000</v>
+        <v>440</v>
       </c>
       <c r="Q319" t="n">
         <v>25</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K320" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L320" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="M320" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q320" t="n">
         <v>25</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23460,25 +23460,25 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K321" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L321" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="M321" t="n">
-        <v>21150</v>
+        <v>40000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>846</v>
+        <v>1600</v>
       </c>
       <c r="Q321" t="n">
         <v>25</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23541,20 +23541,20 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K322" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L322" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M322" t="n">
-        <v>16833</v>
+        <v>21150</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>673</v>
+        <v>846</v>
       </c>
       <c r="Q322" t="n">
         <v>25</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23613,7 +23613,7 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K323" t="n">
         <v>16000</v>
@@ -23622,7 +23622,7 @@
         <v>18000</v>
       </c>
       <c r="M323" t="n">
-        <v>17150</v>
+        <v>16833</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="Q323" t="n">
         <v>25</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23685,32 +23685,32 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="K324" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L324" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M324" t="n">
-        <v>14753</v>
+        <v>17150</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>1229</v>
+        <v>686</v>
       </c>
       <c r="Q324" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23757,32 +23757,32 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K325" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L325" t="n">
         <v>15000</v>
       </c>
-      <c r="L325" t="n">
-        <v>16000</v>
-      </c>
       <c r="M325" t="n">
-        <v>15605</v>
+        <v>14753</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>1040</v>
+        <v>1229</v>
       </c>
       <c r="Q325" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23829,32 +23829,32 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K326" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L326" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M326" t="n">
-        <v>18750</v>
+        <v>15605</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>750</v>
+        <v>1040</v>
       </c>
       <c r="Q326" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23901,20 +23901,20 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K327" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L327" t="n">
         <v>20000</v>
       </c>
-      <c r="L327" t="n">
-        <v>22000</v>
-      </c>
       <c r="M327" t="n">
-        <v>21077</v>
+        <v>18750</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>843</v>
+        <v>750</v>
       </c>
       <c r="Q327" t="n">
         <v>25</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K328" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L328" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M328" t="n">
-        <v>15425</v>
+        <v>21077</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>617</v>
+        <v>843</v>
       </c>
       <c r="Q328" t="n">
         <v>25</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K329" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L329" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M329" t="n">
-        <v>12615</v>
+        <v>15425</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>505</v>
+        <v>617</v>
       </c>
       <c r="Q329" t="n">
         <v>25</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24117,29 +24117,29 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K330" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L330" t="n">
         <v>13000</v>
       </c>
-      <c r="L330" t="n">
-        <v>15000</v>
-      </c>
       <c r="M330" t="n">
-        <v>14150</v>
+        <v>12615</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>566</v>
+        <v>505</v>
       </c>
       <c r="Q330" t="n">
         <v>25</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24189,29 +24189,29 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K331" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L331" t="n">
         <v>15000</v>
       </c>
-      <c r="L331" t="n">
-        <v>17000</v>
-      </c>
       <c r="M331" t="n">
-        <v>15686</v>
+        <v>14150</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="Q331" t="n">
         <v>25</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24261,29 +24261,29 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K332" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L332" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M332" t="n">
-        <v>32917</v>
+        <v>15686</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>1317</v>
+        <v>627</v>
       </c>
       <c r="Q332" t="n">
         <v>25</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K333" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L333" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M333" t="n">
-        <v>25000</v>
+        <v>32917</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>1000</v>
+        <v>1317</v>
       </c>
       <c r="Q333" t="n">
         <v>25</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K334" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L334" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M334" t="n">
-        <v>32917</v>
+        <v>25000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>1317</v>
+        <v>1000</v>
       </c>
       <c r="Q334" t="n">
         <v>25</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K335" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L335" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M335" t="n">
-        <v>25000</v>
+        <v>32917</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>1000</v>
+        <v>1317</v>
       </c>
       <c r="Q335" t="n">
         <v>25</v>
@@ -24540,25 +24540,25 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K336" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="L336" t="n">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="M336" t="n">
-        <v>63182</v>
+        <v>25000</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>2527</v>
+        <v>1000</v>
       </c>
       <c r="Q336" t="n">
         <v>25</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K337" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="L337" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="M337" t="n">
-        <v>50000</v>
+        <v>63182</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>2000</v>
+        <v>2527</v>
       </c>
       <c r="Q337" t="n">
         <v>25</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24684,25 +24684,25 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="K338" t="n">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="L338" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="M338" t="n">
-        <v>57656</v>
+        <v>50000</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>2306</v>
+        <v>2000</v>
       </c>
       <c r="Q338" t="n">
         <v>25</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K339" t="n">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="L339" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="M339" t="n">
-        <v>50000</v>
+        <v>57656</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>2000</v>
+        <v>2306</v>
       </c>
       <c r="Q339" t="n">
         <v>25</v>
@@ -24828,25 +24828,25 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K340" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="L340" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="M340" t="n">
-        <v>72262</v>
+        <v>50000</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24855,11 +24855,11 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>2890</v>
+        <v>2000</v>
       </c>
       <c r="Q340" t="n">
         <v>25</v>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="K341" t="n">
-        <v>65000</v>
+        <v>70000</v>
       </c>
       <c r="L341" t="n">
-        <v>65000</v>
+        <v>75000</v>
       </c>
       <c r="M341" t="n">
-        <v>65000</v>
+        <v>72262</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>2600</v>
+        <v>2890</v>
       </c>
       <c r="Q341" t="n">
         <v>25</v>
@@ -24972,41 +24972,41 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K342" t="n">
-        <v>23000</v>
+        <v>65000</v>
       </c>
       <c r="L342" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="M342" t="n">
-        <v>24179</v>
+        <v>65000</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>2015</v>
+        <v>2600</v>
       </c>
       <c r="Q342" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25053,32 +25053,32 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K343" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L343" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M343" t="n">
-        <v>33686</v>
+        <v>24179</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>2246</v>
+        <v>2015</v>
       </c>
       <c r="Q343" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K344" t="n">
         <v>33000</v>
@@ -25134,23 +25134,23 @@
         <v>35000</v>
       </c>
       <c r="M344" t="n">
-        <v>33828</v>
+        <v>33686</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>2819</v>
+        <v>2246</v>
       </c>
       <c r="Q344" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25197,32 +25197,32 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="K345" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L345" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M345" t="n">
-        <v>22069</v>
+        <v>33828</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>883</v>
+        <v>2819</v>
       </c>
       <c r="Q345" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25269,29 +25269,29 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K346" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L346" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M346" t="n">
-        <v>16275</v>
+        <v>22069</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>651</v>
+        <v>883</v>
       </c>
       <c r="Q346" t="n">
         <v>25</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25341,32 +25341,32 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K347" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L347" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M347" t="n">
-        <v>9562</v>
+        <v>16275</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="Q347" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25413,32 +25413,32 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="K348" t="n">
-        <v>55000</v>
+        <v>9000</v>
       </c>
       <c r="L348" t="n">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="M348" t="n">
-        <v>58026</v>
+        <v>9562</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>2321</v>
+        <v>637</v>
       </c>
       <c r="Q348" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K349" t="n">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="L349" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="M349" t="n">
-        <v>50000</v>
+        <v>58026</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>2000</v>
+        <v>2321</v>
       </c>
       <c r="Q349" t="n">
         <v>25</v>
@@ -25548,25 +25548,25 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>580</v>
+        <v>10</v>
       </c>
       <c r="K350" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="L350" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="M350" t="n">
-        <v>67759</v>
+        <v>50000</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>2710</v>
+        <v>2000</v>
       </c>
       <c r="Q350" t="n">
         <v>25</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,32 +25629,32 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>39</v>
+        <v>580</v>
       </c>
       <c r="K351" t="n">
-        <v>23000</v>
+        <v>65000</v>
       </c>
       <c r="L351" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M351" t="n">
-        <v>24179</v>
+        <v>67759</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P351" t="n">
-        <v>2015</v>
+        <v>2710</v>
       </c>
       <c r="Q351" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25701,32 +25701,32 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K352" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L352" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M352" t="n">
-        <v>32571</v>
+        <v>24179</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>2171</v>
+        <v>2015</v>
       </c>
       <c r="Q352" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,32 +25773,32 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K353" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L353" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M353" t="n">
-        <v>24143</v>
+        <v>32571</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>966</v>
+        <v>2171</v>
       </c>
       <c r="Q353" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="K354" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L354" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M354" t="n">
-        <v>21172</v>
+        <v>24143</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>847</v>
+        <v>966</v>
       </c>
       <c r="Q354" t="n">
         <v>25</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25917,32 +25917,32 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K355" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L355" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M355" t="n">
-        <v>12850</v>
+        <v>21172</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="Q355" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25989,32 +25989,32 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="K356" t="n">
-        <v>90000</v>
+        <v>12000</v>
       </c>
       <c r="L356" t="n">
-        <v>90000</v>
+        <v>14000</v>
       </c>
       <c r="M356" t="n">
-        <v>90000</v>
+        <v>12850</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>3600</v>
+        <v>857</v>
       </c>
       <c r="Q356" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K357" t="n">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="L357" t="n">
-        <v>65000</v>
+        <v>90000</v>
       </c>
       <c r="M357" t="n">
-        <v>62581</v>
+        <v>90000</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>2503</v>
+        <v>3600</v>
       </c>
       <c r="Q357" t="n">
         <v>25</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K358" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="L358" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="M358" t="n">
-        <v>50000</v>
+        <v>62581</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>2000</v>
+        <v>2503</v>
       </c>
       <c r="Q358" t="n">
         <v>25</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26196,38 +26196,38 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K359" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="L359" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M359" t="n">
-        <v>23947</v>
+        <v>50000</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>958</v>
+        <v>2000</v>
       </c>
       <c r="Q359" t="n">
         <v>25</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="K360" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L360" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M360" t="n">
-        <v>15850</v>
+        <v>23947</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>634</v>
+        <v>958</v>
       </c>
       <c r="Q360" t="n">
         <v>25</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26352,13 +26352,13 @@
         <v>400</v>
       </c>
       <c r="K361" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L361" t="n">
         <v>17000</v>
       </c>
-      <c r="L361" t="n">
-        <v>150000</v>
-      </c>
       <c r="M361" t="n">
-        <v>73525</v>
+        <v>15850</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>2941</v>
+        <v>634</v>
       </c>
       <c r="Q361" t="n">
         <v>25</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,29 +26421,29 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="K362" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="L362" t="n">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="M362" t="n">
-        <v>77083</v>
+        <v>73525</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>3083</v>
+        <v>2941</v>
       </c>
       <c r="Q362" t="n">
         <v>25</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K363" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="L363" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="M363" t="n">
-        <v>70000</v>
+        <v>77083</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>2800</v>
+        <v>3083</v>
       </c>
       <c r="Q363" t="n">
         <v>25</v>
@@ -26556,41 +26556,41 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="K364" t="n">
-        <v>37000</v>
+        <v>70000</v>
       </c>
       <c r="L364" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="M364" t="n">
-        <v>37818</v>
+        <v>70000</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>3152</v>
+        <v>2800</v>
       </c>
       <c r="Q364" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26637,32 +26637,32 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K365" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="L365" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="M365" t="n">
-        <v>59200</v>
+        <v>37818</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>2368</v>
+        <v>3152</v>
       </c>
       <c r="Q365" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K366" t="n">
-        <v>50000</v>
+        <v>58000</v>
       </c>
       <c r="L366" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="M366" t="n">
-        <v>50000</v>
+        <v>59200</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>2000</v>
+        <v>2368</v>
       </c>
       <c r="Q366" t="n">
         <v>25</v>
@@ -26772,25 +26772,25 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K367" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="L367" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="M367" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q367" t="n">
         <v>25</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>400</v>
+        <v>14</v>
       </c>
       <c r="K368" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="L368" t="n">
-        <v>17000</v>
+        <v>70000</v>
       </c>
       <c r="M368" t="n">
-        <v>15850</v>
+        <v>70000</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>634</v>
+        <v>2800</v>
       </c>
       <c r="Q368" t="n">
         <v>25</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,7 +26925,7 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="K369" t="n">
         <v>15000</v>
@@ -26934,20 +26934,20 @@
         <v>17000</v>
       </c>
       <c r="M369" t="n">
-        <v>16077</v>
+        <v>15850</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="Q369" t="n">
         <v>25</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,29 +26997,29 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="K370" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L370" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M370" t="n">
-        <v>33116</v>
+        <v>16077</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>1325</v>
+        <v>643</v>
       </c>
       <c r="Q370" t="n">
         <v>25</v>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="K371" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L371" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M371" t="n">
-        <v>25000</v>
+        <v>33116</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>1000</v>
+        <v>1325</v>
       </c>
       <c r="Q371" t="n">
         <v>25</v>
@@ -27132,25 +27132,25 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="K372" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L372" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M372" t="n">
-        <v>41963</v>
+        <v>25000</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27159,11 +27159,11 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>1679</v>
+        <v>1000</v>
       </c>
       <c r="Q372" t="n">
         <v>25</v>
@@ -27213,29 +27213,29 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="K373" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L373" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M373" t="n">
-        <v>28000</v>
+        <v>41963</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>1120</v>
+        <v>1679</v>
       </c>
       <c r="Q373" t="n">
         <v>25</v>
@@ -27281,33 +27281,33 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="K374" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L374" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M374" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q374" t="n">
         <v>25</v>
@@ -27357,29 +27357,29 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K375" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L375" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M375" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="Q375" t="n">
         <v>25</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27420,29 +27420,29 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K376" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L376" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M376" t="n">
-        <v>42759</v>
+        <v>20000</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>1710</v>
+        <v>800</v>
       </c>
       <c r="Q376" t="n">
         <v>25</v>
@@ -27497,20 +27497,20 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="K377" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L377" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M377" t="n">
-        <v>35000</v>
+        <v>42759</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>1400</v>
+        <v>1710</v>
       </c>
       <c r="Q377" t="n">
         <v>25</v>
@@ -27564,29 +27564,29 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K378" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L378" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M378" t="n">
-        <v>29179</v>
+        <v>35000</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>1167</v>
+        <v>1400</v>
       </c>
       <c r="Q378" t="n">
         <v>25</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,32 +27645,32 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="K379" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L379" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M379" t="n">
-        <v>18897</v>
+        <v>29179</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>1575</v>
+        <v>1167</v>
       </c>
       <c r="Q379" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,32 +27717,32 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="K380" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L380" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M380" t="n">
-        <v>32887</v>
+        <v>18897</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>1315</v>
+        <v>1575</v>
       </c>
       <c r="Q380" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="K381" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L381" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M381" t="n">
-        <v>25000</v>
+        <v>32887</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>1000</v>
+        <v>1315</v>
       </c>
       <c r="Q381" t="n">
         <v>25</v>
@@ -27852,25 +27852,25 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K382" t="n">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="L382" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="M382" t="n">
-        <v>67875</v>
+        <v>25000</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27879,11 +27879,11 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>2715</v>
+        <v>1000</v>
       </c>
       <c r="Q382" t="n">
         <v>25</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K383" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="L383" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="M383" t="n">
-        <v>50000</v>
+        <v>67875</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>2000</v>
+        <v>2715</v>
       </c>
       <c r="Q383" t="n">
         <v>25</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -27996,25 +27996,25 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K384" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="L384" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="M384" t="n">
-        <v>62125</v>
+        <v>50000</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28023,11 +28023,11 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>2485</v>
+        <v>2000</v>
       </c>
       <c r="Q384" t="n">
         <v>25</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K385" t="n">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="L385" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="M385" t="n">
-        <v>55000</v>
+        <v>62125</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>2200</v>
+        <v>2485</v>
       </c>
       <c r="Q385" t="n">
         <v>25</v>
@@ -28140,41 +28140,41 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K386" t="n">
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="L386" t="n">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="M386" t="n">
-        <v>24150</v>
+        <v>55000</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>1610</v>
+        <v>2200</v>
       </c>
       <c r="Q386" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28224,17 +28224,17 @@
         <v>40</v>
       </c>
       <c r="K387" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L387" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M387" t="n">
-        <v>20850</v>
+        <v>24150</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>834</v>
+        <v>1610</v>
       </c>
       <c r="Q387" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K388" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L388" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M388" t="n">
-        <v>24200</v>
+        <v>20850</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>968</v>
+        <v>834</v>
       </c>
       <c r="Q388" t="n">
         <v>25</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,29 +28365,29 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K389" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L389" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M389" t="n">
-        <v>31050</v>
+        <v>24200</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>1242</v>
+        <v>968</v>
       </c>
       <c r="Q389" t="n">
         <v>25</v>
@@ -28433,20 +28433,20 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K390" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L390" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M390" t="n">
-        <v>25000</v>
+        <v>31050</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>1000</v>
+        <v>1242</v>
       </c>
       <c r="Q390" t="n">
         <v>25</v>
@@ -28500,25 +28500,25 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="K391" t="n">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="L391" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="M391" t="n">
-        <v>67321</v>
+        <v>25000</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28527,11 +28527,11 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>2693</v>
+        <v>1000</v>
       </c>
       <c r="Q391" t="n">
         <v>25</v>
@@ -28577,20 +28577,20 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="K392" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="L392" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="M392" t="n">
-        <v>50000</v>
+        <v>67321</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>2000</v>
+        <v>2693</v>
       </c>
       <c r="Q392" t="n">
         <v>25</v>
@@ -28644,29 +28644,29 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="K393" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="L393" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M393" t="n">
-        <v>23929</v>
+        <v>50000</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>1595</v>
+        <v>2000</v>
       </c>
       <c r="Q393" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,32 +28725,32 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="K394" t="n">
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="L394" t="n">
-        <v>55000</v>
+        <v>25000</v>
       </c>
       <c r="M394" t="n">
-        <v>52000</v>
+        <v>23929</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2080</v>
+        <v>1595</v>
       </c>
       <c r="Q394" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28793,20 +28793,20 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K395" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L395" t="n">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="M395" t="n">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>1600</v>
+        <v>2080</v>
       </c>
       <c r="Q395" t="n">
         <v>25</v>
@@ -28860,25 +28860,25 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K396" t="n">
-        <v>65000</v>
+        <v>40000</v>
       </c>
       <c r="L396" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="M396" t="n">
-        <v>66905</v>
+        <v>40000</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28887,11 +28887,11 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>2676</v>
+        <v>1600</v>
       </c>
       <c r="Q396" t="n">
         <v>25</v>
@@ -28937,20 +28937,20 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K397" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="L397" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="M397" t="n">
-        <v>50000</v>
+        <v>66905</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>2000</v>
+        <v>2676</v>
       </c>
       <c r="Q397" t="n">
         <v>25</v>
@@ -29004,41 +29004,41 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="K398" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="L398" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="M398" t="n">
-        <v>18844</v>
+        <v>50000</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>1570</v>
+        <v>2000</v>
       </c>
       <c r="Q398" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29085,32 +29085,32 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K399" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L399" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M399" t="n">
-        <v>23850</v>
+        <v>18844</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>1590</v>
+        <v>1570</v>
       </c>
       <c r="Q399" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,32 +29157,32 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K400" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L400" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M400" t="n">
-        <v>32604</v>
+        <v>23850</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>1304</v>
+        <v>1590</v>
       </c>
       <c r="Q400" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K401" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L401" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M401" t="n">
-        <v>25000</v>
+        <v>32604</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>1000</v>
+        <v>1304</v>
       </c>
       <c r="Q401" t="n">
         <v>25</v>
@@ -29292,25 +29292,25 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="K402" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L402" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M402" t="n">
-        <v>47869</v>
+        <v>25000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29319,11 +29319,11 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>1915</v>
+        <v>1000</v>
       </c>
       <c r="Q402" t="n">
         <v>25</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K403" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="L403" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="M403" t="n">
-        <v>40000</v>
+        <v>47869</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1600</v>
+        <v>1915</v>
       </c>
       <c r="Q403" t="n">
         <v>25</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29436,25 +29436,25 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K404" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="L404" t="n">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="M404" t="n">
-        <v>83750</v>
+        <v>40000</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29463,11 +29463,11 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>3350</v>
+        <v>1600</v>
       </c>
       <c r="Q404" t="n">
         <v>25</v>
@@ -29513,20 +29513,20 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K405" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L405" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="M405" t="n">
-        <v>75000</v>
+        <v>83750</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>3000</v>
+        <v>3350</v>
       </c>
       <c r="Q405" t="n">
         <v>25</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29580,38 +29580,38 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K406" t="n">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="L406" t="n">
-        <v>65000</v>
+        <v>75000</v>
       </c>
       <c r="M406" t="n">
-        <v>60250</v>
+        <v>75000</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>2410</v>
+        <v>3000</v>
       </c>
       <c r="Q406" t="n">
         <v>25</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K407" t="n">
-        <v>13000</v>
+        <v>55000</v>
       </c>
       <c r="L407" t="n">
-        <v>15000</v>
+        <v>65000</v>
       </c>
       <c r="M407" t="n">
-        <v>14150</v>
+        <v>60250</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>566</v>
+        <v>2410</v>
       </c>
       <c r="Q407" t="n">
         <v>25</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,7 +29733,7 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="K408" t="n">
         <v>13000</v>
@@ -29742,7 +29742,7 @@
         <v>15000</v>
       </c>
       <c r="M408" t="n">
-        <v>13261</v>
+        <v>14150</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="Q408" t="n">
         <v>25</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,32 +29805,32 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="K409" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L409" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M409" t="n">
-        <v>21974</v>
+        <v>13261</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>1465</v>
+        <v>530</v>
       </c>
       <c r="Q409" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29880,29 +29880,29 @@
         <v>38</v>
       </c>
       <c r="K410" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L410" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M410" t="n">
-        <v>9605</v>
+        <v>21974</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>384</v>
+        <v>1465</v>
       </c>
       <c r="Q410" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,20 +29949,20 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="K411" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L411" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M411" t="n">
-        <v>6575</v>
+        <v>9605</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="Q411" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30021,32 +30021,32 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="K412" t="n">
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="L412" t="n">
-        <v>65000</v>
+        <v>7000</v>
       </c>
       <c r="M412" t="n">
-        <v>63286</v>
+        <v>6575</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>2531</v>
+        <v>438</v>
       </c>
       <c r="Q412" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K413" t="n">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="L413" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="M413" t="n">
-        <v>55000</v>
+        <v>63286</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>2200</v>
+        <v>2531</v>
       </c>
       <c r="Q413" t="n">
         <v>25</v>
@@ -30156,25 +30156,25 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K414" t="n">
-        <v>29000</v>
+        <v>55000</v>
       </c>
       <c r="L414" t="n">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="M414" t="n">
-        <v>29462</v>
+        <v>55000</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30183,11 +30183,11 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>1178</v>
+        <v>2200</v>
       </c>
       <c r="Q414" t="n">
         <v>25</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="K415" t="n">
-        <v>70000</v>
+        <v>29000</v>
       </c>
       <c r="L415" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="M415" t="n">
-        <v>70000</v>
+        <v>29462</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30255,11 +30255,11 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>2800</v>
+        <v>1178</v>
       </c>
       <c r="Q415" t="n">
         <v>25</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K416" t="n">
-        <v>55000</v>
+        <v>70000</v>
       </c>
       <c r="L416" t="n">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="M416" t="n">
-        <v>58000</v>
+        <v>70000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>2320</v>
+        <v>2800</v>
       </c>
       <c r="Q416" t="n">
         <v>25</v>
@@ -30372,41 +30372,41 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K417" t="n">
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="L417" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="M417" t="n">
-        <v>23960</v>
+        <v>58000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>1997</v>
+        <v>2320</v>
       </c>
       <c r="Q417" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30453,32 +30453,32 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K418" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L418" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M418" t="n">
-        <v>34314</v>
+        <v>23960</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>2288</v>
+        <v>1997</v>
       </c>
       <c r="Q418" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,32 +30525,32 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K419" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L419" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M419" t="n">
-        <v>25000</v>
+        <v>34314</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>1000</v>
+        <v>2288</v>
       </c>
       <c r="Q419" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,7 +30597,7 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K420" t="n">
         <v>25000</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,29 +30669,29 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K421" t="n">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="L421" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="M421" t="n">
-        <v>67125</v>
+        <v>25000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>2685</v>
+        <v>1000</v>
       </c>
       <c r="Q421" t="n">
         <v>25</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K422" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="L422" t="n">
-        <v>45000</v>
+        <v>70000</v>
       </c>
       <c r="M422" t="n">
-        <v>45000</v>
+        <v>67125</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1800</v>
+        <v>2685</v>
       </c>
       <c r="Q422" t="n">
         <v>25</v>
@@ -30804,38 +30804,38 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="K423" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L423" t="n">
-        <v>32000</v>
+        <v>45000</v>
       </c>
       <c r="M423" t="n">
-        <v>31368</v>
+        <v>45000</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1255</v>
+        <v>1800</v>
       </c>
       <c r="Q423" t="n">
         <v>25</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,29 +30885,29 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="K424" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L424" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="M424" t="n">
-        <v>10833</v>
+        <v>31368</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>433</v>
+        <v>1255</v>
       </c>
       <c r="Q424" t="n">
         <v>25</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,29 +30957,29 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K425" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L425" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M425" t="n">
-        <v>20000</v>
+        <v>10833</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>800</v>
+        <v>433</v>
       </c>
       <c r="Q425" t="n">
         <v>25</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K426" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L426" t="n">
         <v>20000</v>
       </c>
       <c r="M426" t="n">
-        <v>18923</v>
+        <v>20000</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>757</v>
+        <v>800</v>
       </c>
       <c r="Q426" t="n">
         <v>25</v>
@@ -31077,58 +31077,130 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E427" t="n">
+        <v>13</v>
+      </c>
+      <c r="F427" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J427" t="n">
+        <v>130</v>
+      </c>
+      <c r="K427" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L427" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M427" t="n">
+        <v>18923</v>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P427" t="n">
+        <v>757</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>25</v>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>6</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D428" s="2" t="n">
         <v>44425</v>
       </c>
-      <c r="E427" t="n">
-        <v>13</v>
-      </c>
-      <c r="F427" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H427" t="inlineStr">
+      <c r="E428" t="n">
+        <v>13</v>
+      </c>
+      <c r="F428" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
         <is>
           <t>Chilena(o)</t>
         </is>
       </c>
-      <c r="I427" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J427" t="n">
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J428" t="n">
         <v>37</v>
       </c>
-      <c r="K427" t="n">
+      <c r="K428" t="n">
         <v>55000</v>
       </c>
-      <c r="L427" t="n">
+      <c r="L428" t="n">
         <v>60000</v>
       </c>
-      <c r="M427" t="n">
+      <c r="M428" t="n">
         <v>58108</v>
       </c>
-      <c r="N427" t="inlineStr">
+      <c r="N428" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O427" t="inlineStr">
+      <c r="O428" t="inlineStr">
         <is>
           <t>La Ligua</t>
         </is>
       </c>
-      <c r="P427" t="n">
+      <c r="P428" t="n">
         <v>2324</v>
       </c>
-      <c r="Q427" t="n">
-        <v>25</v>
-      </c>
-      <c r="R427" t="inlineStr">
+      <c r="Q428" t="n">
+        <v>25</v>
+      </c>
+      <c r="R428" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R429"/>
+  <dimension ref="A1:R432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K396" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="L396" t="n">
-        <v>55000</v>
+        <v>95000</v>
       </c>
       <c r="M396" t="n">
-        <v>52000</v>
+        <v>92727</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>2080</v>
+        <v>3709</v>
       </c>
       <c r="Q396" t="n">
         <v>25</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K397" t="n">
-        <v>40000</v>
+        <v>85000</v>
       </c>
       <c r="L397" t="n">
-        <v>40000</v>
+        <v>85000</v>
       </c>
       <c r="M397" t="n">
-        <v>40000</v>
+        <v>85000</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="Q397" t="n">
         <v>25</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,32 +29013,32 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="K398" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="L398" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="M398" t="n">
-        <v>66905</v>
+        <v>38016</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>2676</v>
+        <v>3168</v>
       </c>
       <c r="Q398" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29076,25 +29076,25 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K399" t="n">
         <v>50000</v>
       </c>
       <c r="L399" t="n">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="M399" t="n">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2000</v>
+        <v>2080</v>
       </c>
       <c r="Q399" t="n">
         <v>25</v>
@@ -29148,41 +29148,41 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K400" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L400" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M400" t="n">
-        <v>18844</v>
+        <v>40000</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>1570</v>
+        <v>1600</v>
       </c>
       <c r="Q400" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,20 +29229,20 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K401" t="n">
-        <v>23000</v>
+        <v>65000</v>
       </c>
       <c r="L401" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M401" t="n">
-        <v>23850</v>
+        <v>66905</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>1590</v>
+        <v>2676</v>
       </c>
       <c r="Q401" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29292,25 +29292,25 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="K402" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L402" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M402" t="n">
-        <v>32604</v>
+        <v>50000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29319,11 +29319,11 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>1304</v>
+        <v>2000</v>
       </c>
       <c r="Q402" t="n">
         <v>25</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29364,41 +29364,41 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K403" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L403" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M403" t="n">
-        <v>25000</v>
+        <v>18844</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1000</v>
+        <v>1570</v>
       </c>
       <c r="Q403" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29445,20 +29445,20 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K404" t="n">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="L404" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M404" t="n">
-        <v>47869</v>
+        <v>23850</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1915</v>
+        <v>1590</v>
       </c>
       <c r="Q404" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29508,25 +29508,25 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="K405" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L405" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="M405" t="n">
-        <v>40000</v>
+        <v>32604</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29535,11 +29535,11 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>1600</v>
+        <v>1304</v>
       </c>
       <c r="Q405" t="n">
         <v>25</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29585,20 +29585,20 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K406" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="L406" t="n">
-        <v>90000</v>
+        <v>25000</v>
       </c>
       <c r="M406" t="n">
-        <v>83750</v>
+        <v>25000</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>3350</v>
+        <v>1000</v>
       </c>
       <c r="Q406" t="n">
         <v>25</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29652,25 +29652,25 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="K407" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="L407" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="M407" t="n">
-        <v>75000</v>
+        <v>47869</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>3000</v>
+        <v>1915</v>
       </c>
       <c r="Q407" t="n">
         <v>25</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29724,38 +29724,38 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="K408" t="n">
-        <v>55000</v>
+        <v>40000</v>
       </c>
       <c r="L408" t="n">
-        <v>65000</v>
+        <v>40000</v>
       </c>
       <c r="M408" t="n">
-        <v>60250</v>
+        <v>40000</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>2410</v>
+        <v>1600</v>
       </c>
       <c r="Q408" t="n">
         <v>25</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29808,26 +29808,26 @@
         <v>40</v>
       </c>
       <c r="K409" t="n">
-        <v>13000</v>
+        <v>80000</v>
       </c>
       <c r="L409" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="M409" t="n">
-        <v>14150</v>
+        <v>83750</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>566</v>
+        <v>3350</v>
       </c>
       <c r="Q409" t="n">
         <v>25</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29868,38 +29868,38 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="K410" t="n">
-        <v>13000</v>
+        <v>75000</v>
       </c>
       <c r="L410" t="n">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="M410" t="n">
-        <v>13261</v>
+        <v>75000</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>530</v>
+        <v>3000</v>
       </c>
       <c r="Q410" t="n">
         <v>25</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,32 +29949,32 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K411" t="n">
-        <v>20000</v>
+        <v>55000</v>
       </c>
       <c r="L411" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="M411" t="n">
-        <v>21974</v>
+        <v>60250</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>1465</v>
+        <v>2410</v>
       </c>
       <c r="Q411" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30021,20 +30021,20 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K412" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L412" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M412" t="n">
-        <v>9605</v>
+        <v>14150</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>384</v>
+        <v>566</v>
       </c>
       <c r="Q412" t="n">
         <v>25</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,20 +30093,20 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>400</v>
+        <v>138</v>
       </c>
       <c r="K413" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L413" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M413" t="n">
-        <v>6575</v>
+        <v>13261</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>438</v>
+        <v>530</v>
       </c>
       <c r="Q413" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,32 +30165,32 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K414" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="L414" t="n">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="M414" t="n">
-        <v>63286</v>
+        <v>21974</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>2531</v>
+        <v>1465</v>
       </c>
       <c r="Q414" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30228,25 +30228,25 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K415" t="n">
-        <v>55000</v>
+        <v>9000</v>
       </c>
       <c r="L415" t="n">
-        <v>55000</v>
+        <v>10000</v>
       </c>
       <c r="M415" t="n">
-        <v>55000</v>
+        <v>9605</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30255,11 +30255,11 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>2200</v>
+        <v>384</v>
       </c>
       <c r="Q415" t="n">
         <v>25</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,32 +30309,32 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="K416" t="n">
-        <v>29000</v>
+        <v>6000</v>
       </c>
       <c r="L416" t="n">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="M416" t="n">
-        <v>29462</v>
+        <v>6575</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1178</v>
+        <v>438</v>
       </c>
       <c r="Q416" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K417" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="L417" t="n">
-        <v>70000</v>
+        <v>65000</v>
       </c>
       <c r="M417" t="n">
-        <v>70000</v>
+        <v>63286</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2800</v>
+        <v>2531</v>
       </c>
       <c r="Q417" t="n">
         <v>25</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K418" t="n">
         <v>55000</v>
       </c>
       <c r="L418" t="n">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="M418" t="n">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30471,11 +30471,11 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>2320</v>
+        <v>2200</v>
       </c>
       <c r="Q418" t="n">
         <v>25</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,32 +30525,32 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K419" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L419" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M419" t="n">
-        <v>23960</v>
+        <v>29462</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>1997</v>
+        <v>1178</v>
       </c>
       <c r="Q419" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,20 +30597,20 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K420" t="n">
-        <v>33000</v>
+        <v>70000</v>
       </c>
       <c r="L420" t="n">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="M420" t="n">
-        <v>34314</v>
+        <v>70000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2288</v>
+        <v>2800</v>
       </c>
       <c r="Q420" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,38 +30660,38 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="K421" t="n">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="L421" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="M421" t="n">
-        <v>25000</v>
+        <v>58000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>1000</v>
+        <v>2320</v>
       </c>
       <c r="Q421" t="n">
         <v>25</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,32 +30741,32 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="K422" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L422" t="n">
         <v>25000</v>
       </c>
       <c r="M422" t="n">
-        <v>25000</v>
+        <v>23960</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1000</v>
+        <v>1997</v>
       </c>
       <c r="Q422" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,32 +30813,32 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K423" t="n">
-        <v>65000</v>
+        <v>33000</v>
       </c>
       <c r="L423" t="n">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="M423" t="n">
-        <v>67125</v>
+        <v>34314</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>2685</v>
+        <v>2288</v>
       </c>
       <c r="Q423" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30876,38 +30876,38 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="K424" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L424" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M424" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q424" t="n">
         <v>25</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="K425" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L425" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M425" t="n">
-        <v>31368</v>
+        <v>25000</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="Q425" t="n">
         <v>25</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K426" t="n">
-        <v>10000</v>
+        <v>65000</v>
       </c>
       <c r="L426" t="n">
-        <v>12000</v>
+        <v>70000</v>
       </c>
       <c r="M426" t="n">
-        <v>10833</v>
+        <v>67125</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>433</v>
+        <v>2685</v>
       </c>
       <c r="Q426" t="n">
         <v>25</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,38 +31092,38 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="K427" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="L427" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M427" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="Q427" t="n">
         <v>25</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="K428" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L428" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="M428" t="n">
-        <v>18923</v>
+        <v>31368</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>757</v>
+        <v>1255</v>
       </c>
       <c r="Q428" t="n">
         <v>25</v>
@@ -31221,58 +31221,274 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E429" t="n">
+        <v>13</v>
+      </c>
+      <c r="F429" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J429" t="n">
+        <v>120</v>
+      </c>
+      <c r="K429" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L429" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M429" t="n">
+        <v>10833</v>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P429" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>25</v>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>6</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D430" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E430" t="n">
+        <v>13</v>
+      </c>
+      <c r="F430" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Cacho cabra verde</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J430" t="n">
+        <v>90</v>
+      </c>
+      <c r="K430" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L430" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M430" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P430" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>25</v>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>6</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D431" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E431" t="n">
+        <v>13</v>
+      </c>
+      <c r="F431" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J431" t="n">
+        <v>130</v>
+      </c>
+      <c r="K431" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L431" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M431" t="n">
+        <v>18923</v>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P431" t="n">
+        <v>757</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>25</v>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>6</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D432" s="2" t="n">
         <v>44425</v>
       </c>
-      <c r="E429" t="n">
-        <v>13</v>
-      </c>
-      <c r="F429" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G429" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H429" t="inlineStr">
+      <c r="E432" t="n">
+        <v>13</v>
+      </c>
+      <c r="F432" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
         <is>
           <t>Chilena(o)</t>
         </is>
       </c>
-      <c r="I429" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J429" t="n">
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J432" t="n">
         <v>37</v>
       </c>
-      <c r="K429" t="n">
+      <c r="K432" t="n">
         <v>55000</v>
       </c>
-      <c r="L429" t="n">
+      <c r="L432" t="n">
         <v>60000</v>
       </c>
-      <c r="M429" t="n">
+      <c r="M432" t="n">
         <v>58108</v>
       </c>
-      <c r="N429" t="inlineStr">
+      <c r="N432" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O429" t="inlineStr">
+      <c r="O432" t="inlineStr">
         <is>
           <t>La Ligua</t>
         </is>
       </c>
-      <c r="P429" t="n">
+      <c r="P432" t="n">
         <v>2324</v>
       </c>
-      <c r="Q429" t="n">
-        <v>25</v>
-      </c>
-      <c r="R429" t="inlineStr">
+      <c r="Q432" t="n">
+        <v>25</v>
+      </c>
+      <c r="R432" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R432"/>
+  <dimension ref="A1:R434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K291" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="L291" t="n">
-        <v>85000</v>
+        <v>100000</v>
       </c>
       <c r="M291" t="n">
-        <v>81875</v>
+        <v>95625</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>3275</v>
+        <v>3825</v>
       </c>
       <c r="Q291" t="n">
         <v>25</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21372,41 +21372,41 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="K292" t="n">
-        <v>75000</v>
+        <v>37000</v>
       </c>
       <c r="L292" t="n">
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="M292" t="n">
-        <v>75000</v>
+        <v>38950</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>3000</v>
+        <v>3246</v>
       </c>
       <c r="Q292" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K293" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="L293" t="n">
-        <v>95000</v>
+        <v>85000</v>
       </c>
       <c r="M293" t="n">
-        <v>92083</v>
+        <v>81875</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>3683</v>
+        <v>3275</v>
       </c>
       <c r="Q293" t="n">
         <v>25</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21516,38 +21516,38 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="K294" t="n">
-        <v>12000</v>
+        <v>75000</v>
       </c>
       <c r="L294" t="n">
-        <v>13000</v>
+        <v>75000</v>
       </c>
       <c r="M294" t="n">
-        <v>12548</v>
+        <v>75000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>502</v>
+        <v>3000</v>
       </c>
       <c r="Q294" t="n">
         <v>25</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,29 +21597,29 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="K295" t="n">
-        <v>14000</v>
+        <v>90000</v>
       </c>
       <c r="L295" t="n">
-        <v>14000</v>
+        <v>95000</v>
       </c>
       <c r="M295" t="n">
-        <v>14000</v>
+        <v>92083</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>560</v>
+        <v>3683</v>
       </c>
       <c r="Q295" t="n">
         <v>25</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="K296" t="n">
         <v>12000</v>
       </c>
       <c r="L296" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M296" t="n">
-        <v>12000</v>
+        <v>12548</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="Q296" t="n">
         <v>25</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,29 +21741,29 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="K297" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="L297" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="M297" t="n">
-        <v>36143</v>
+        <v>14000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>1446</v>
+        <v>560</v>
       </c>
       <c r="Q297" t="n">
         <v>25</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,33 +21809,33 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K298" t="n">
-        <v>55000</v>
+        <v>12000</v>
       </c>
       <c r="L298" t="n">
-        <v>60000</v>
+        <v>12000</v>
       </c>
       <c r="M298" t="n">
-        <v>58250</v>
+        <v>12000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>2330</v>
+        <v>480</v>
       </c>
       <c r="Q298" t="n">
         <v>25</v>
@@ -21876,25 +21876,25 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="K299" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L299" t="n">
-        <v>45000</v>
+        <v>37000</v>
       </c>
       <c r="M299" t="n">
-        <v>45000</v>
+        <v>36143</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>1800</v>
+        <v>1446</v>
       </c>
       <c r="Q299" t="n">
         <v>25</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="K300" t="n">
-        <v>18000</v>
+        <v>55000</v>
       </c>
       <c r="L300" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="M300" t="n">
-        <v>19048</v>
+        <v>58250</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21975,11 +21975,11 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>762</v>
+        <v>2330</v>
       </c>
       <c r="Q300" t="n">
         <v>25</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22020,38 +22020,38 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="K301" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="L301" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M301" t="n">
-        <v>18821</v>
+        <v>45000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>753</v>
+        <v>1800</v>
       </c>
       <c r="Q301" t="n">
         <v>25</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="K302" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L302" t="n">
         <v>20000</v>
       </c>
-      <c r="L302" t="n">
-        <v>22000</v>
-      </c>
       <c r="M302" t="n">
-        <v>20850</v>
+        <v>19048</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22119,11 +22119,11 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>834</v>
+        <v>762</v>
       </c>
       <c r="Q302" t="n">
         <v>25</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="K303" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L303" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M303" t="n">
-        <v>16933</v>
+        <v>18821</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>677</v>
+        <v>753</v>
       </c>
       <c r="Q303" t="n">
         <v>25</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K304" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L304" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M304" t="n">
-        <v>16244</v>
+        <v>20850</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22263,11 +22263,11 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>650</v>
+        <v>834</v>
       </c>
       <c r="Q304" t="n">
         <v>25</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22320,13 +22320,13 @@
         <v>150</v>
       </c>
       <c r="K305" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L305" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M305" t="n">
-        <v>14533</v>
+        <v>16933</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>581</v>
+        <v>677</v>
       </c>
       <c r="Q305" t="n">
         <v>25</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>430</v>
+        <v>90</v>
       </c>
       <c r="K306" t="n">
         <v>15000</v>
@@ -22398,20 +22398,20 @@
         <v>17000</v>
       </c>
       <c r="M306" t="n">
-        <v>15791</v>
+        <v>16244</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="Q306" t="n">
         <v>25</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22461,20 +22461,20 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K307" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L307" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M307" t="n">
-        <v>17000</v>
+        <v>14533</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="Q307" t="n">
         <v>25</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K308" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L308" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M308" t="n">
-        <v>17158</v>
+        <v>15791</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>686</v>
+        <v>632</v>
       </c>
       <c r="Q308" t="n">
         <v>25</v>
@@ -22596,29 +22596,29 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="K309" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L309" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M309" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>480</v>
+        <v>680</v>
       </c>
       <c r="Q309" t="n">
         <v>25</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,29 +22677,29 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="K310" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L310" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M310" t="n">
-        <v>29150</v>
+        <v>17158</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>1166</v>
+        <v>686</v>
       </c>
       <c r="Q310" t="n">
         <v>25</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22740,38 +22740,38 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="K311" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L311" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="M311" t="n">
-        <v>37289</v>
+        <v>12000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>1492</v>
+        <v>480</v>
       </c>
       <c r="Q311" t="n">
         <v>25</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K312" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L312" t="n">
         <v>30000</v>
       </c>
       <c r="M312" t="n">
-        <v>30000</v>
+        <v>29150</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>1200</v>
+        <v>1166</v>
       </c>
       <c r="Q312" t="n">
         <v>25</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44308</v>
+        <v>44187</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="K313" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L313" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="M313" t="n">
-        <v>30850</v>
+        <v>37289</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>1234</v>
+        <v>1492</v>
       </c>
       <c r="Q313" t="n">
         <v>25</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44308</v>
+        <v>44187</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22956,38 +22956,38 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="K314" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L314" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M314" t="n">
-        <v>21700</v>
+        <v>30000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>868</v>
+        <v>1200</v>
       </c>
       <c r="Q314" t="n">
         <v>25</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23040,13 +23040,13 @@
         <v>40</v>
       </c>
       <c r="K315" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L315" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M315" t="n">
-        <v>34150</v>
+        <v>30850</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23055,11 +23055,11 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>1366</v>
+        <v>1234</v>
       </c>
       <c r="Q315" t="n">
         <v>25</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K316" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L316" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M316" t="n">
-        <v>19111</v>
+        <v>21700</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>764</v>
+        <v>868</v>
       </c>
       <c r="Q316" t="n">
         <v>25</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K317" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L317" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M317" t="n">
-        <v>18791</v>
+        <v>34150</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>1253</v>
+        <v>1366</v>
       </c>
       <c r="Q317" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23253,29 +23253,29 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K318" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L318" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M318" t="n">
-        <v>17571</v>
+        <v>19111</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>703</v>
+        <v>764</v>
       </c>
       <c r="Q318" t="n">
         <v>25</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23325,32 +23325,32 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="K319" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L319" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M319" t="n">
-        <v>13821</v>
+        <v>18791</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>553</v>
+        <v>1253</v>
       </c>
       <c r="Q319" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23388,38 +23388,38 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K320" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L320" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M320" t="n">
-        <v>11000</v>
+        <v>17571</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>440</v>
+        <v>703</v>
       </c>
       <c r="Q320" t="n">
         <v>25</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,29 +23469,29 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>40</v>
+        <v>390</v>
       </c>
       <c r="K321" t="n">
-        <v>50000</v>
+        <v>13000</v>
       </c>
       <c r="L321" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="M321" t="n">
-        <v>50000</v>
+        <v>13821</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>2000</v>
+        <v>553</v>
       </c>
       <c r="Q321" t="n">
         <v>25</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,29 +23541,29 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="K322" t="n">
-        <v>40000</v>
+        <v>11000</v>
       </c>
       <c r="L322" t="n">
-        <v>40000</v>
+        <v>11000</v>
       </c>
       <c r="M322" t="n">
-        <v>40000</v>
+        <v>11000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>1600</v>
+        <v>440</v>
       </c>
       <c r="Q322" t="n">
         <v>25</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23616,13 +23616,13 @@
         <v>40</v>
       </c>
       <c r="K323" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="L323" t="n">
-        <v>22000</v>
+        <v>50000</v>
       </c>
       <c r="M323" t="n">
-        <v>21150</v>
+        <v>50000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>846</v>
+        <v>2000</v>
       </c>
       <c r="Q323" t="n">
         <v>25</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23676,38 +23676,38 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="K324" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="L324" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="M324" t="n">
-        <v>16833</v>
+        <v>40000</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>673</v>
+        <v>1600</v>
       </c>
       <c r="Q324" t="n">
         <v>25</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23760,17 +23760,17 @@
         <v>40</v>
       </c>
       <c r="K325" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L325" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M325" t="n">
-        <v>17150</v>
+        <v>21150</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>686</v>
+        <v>846</v>
       </c>
       <c r="Q325" t="n">
         <v>25</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23829,32 +23829,32 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K326" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L326" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M326" t="n">
-        <v>14753</v>
+        <v>16833</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>1229</v>
+        <v>673</v>
       </c>
       <c r="Q326" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23901,32 +23901,32 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K327" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L327" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M327" t="n">
-        <v>15605</v>
+        <v>17150</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>1040</v>
+        <v>686</v>
       </c>
       <c r="Q327" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23973,32 +23973,32 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K328" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L328" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M328" t="n">
-        <v>18750</v>
+        <v>14753</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>750</v>
+        <v>1229</v>
       </c>
       <c r="Q328" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,32 +24045,32 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K329" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L329" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M329" t="n">
-        <v>21077</v>
+        <v>15605</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>843</v>
+        <v>1040</v>
       </c>
       <c r="Q329" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24120,17 +24120,17 @@
         <v>40</v>
       </c>
       <c r="K330" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L330" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M330" t="n">
-        <v>15425</v>
+        <v>18750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>617</v>
+        <v>750</v>
       </c>
       <c r="Q330" t="n">
         <v>25</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="K331" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L331" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M331" t="n">
-        <v>12615</v>
+        <v>21077</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>505</v>
+        <v>843</v>
       </c>
       <c r="Q331" t="n">
         <v>25</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24264,26 +24264,26 @@
         <v>40</v>
       </c>
       <c r="K332" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L332" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M332" t="n">
-        <v>14150</v>
+        <v>15425</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>566</v>
+        <v>617</v>
       </c>
       <c r="Q332" t="n">
         <v>25</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K333" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L333" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M333" t="n">
-        <v>15686</v>
+        <v>12615</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>627</v>
+        <v>505</v>
       </c>
       <c r="Q333" t="n">
         <v>25</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K334" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="L334" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M334" t="n">
-        <v>32917</v>
+        <v>14150</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>1317</v>
+        <v>566</v>
       </c>
       <c r="Q334" t="n">
         <v>25</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24468,38 +24468,38 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K335" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L335" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M335" t="n">
-        <v>25000</v>
+        <v>15686</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>1000</v>
+        <v>627</v>
       </c>
       <c r="Q335" t="n">
         <v>25</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K338" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="L338" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="M338" t="n">
-        <v>63182</v>
+        <v>32917</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>2527</v>
+        <v>1317</v>
       </c>
       <c r="Q338" t="n">
         <v>25</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24768,13 +24768,13 @@
         <v>15</v>
       </c>
       <c r="K339" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L339" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M339" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24783,11 +24783,11 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q339" t="n">
         <v>25</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="K340" t="n">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="L340" t="n">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="M340" t="n">
-        <v>57656</v>
+        <v>63182</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24855,11 +24855,11 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>2306</v>
+        <v>2527</v>
       </c>
       <c r="Q340" t="n">
         <v>25</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24909,7 +24909,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K341" t="n">
         <v>50000</v>
@@ -24927,7 +24927,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P341" t="n">
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K342" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="L342" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="M342" t="n">
-        <v>72262</v>
+        <v>57656</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>2890</v>
+        <v>2306</v>
       </c>
       <c r="Q342" t="n">
         <v>25</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K343" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="L343" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="M343" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25071,11 +25071,11 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="Q343" t="n">
         <v>25</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25125,32 +25125,32 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K344" t="n">
-        <v>23000</v>
+        <v>70000</v>
       </c>
       <c r="L344" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M344" t="n">
-        <v>24179</v>
+        <v>72262</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>2015</v>
+        <v>2890</v>
       </c>
       <c r="Q344" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25188,29 +25188,29 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K345" t="n">
-        <v>33000</v>
+        <v>65000</v>
       </c>
       <c r="L345" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="M345" t="n">
-        <v>33686</v>
+        <v>65000</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>2246</v>
+        <v>2600</v>
       </c>
       <c r="Q345" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K346" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L346" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M346" t="n">
-        <v>33828</v>
+        <v>24179</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>2819</v>
+        <v>2015</v>
       </c>
       <c r="Q346" t="n">
         <v>12</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25341,32 +25341,32 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="K347" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L347" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M347" t="n">
-        <v>22069</v>
+        <v>33686</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>883</v>
+        <v>2246</v>
       </c>
       <c r="Q347" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25413,32 +25413,32 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>400</v>
+        <v>29</v>
       </c>
       <c r="K348" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L348" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M348" t="n">
-        <v>16275</v>
+        <v>33828</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>651</v>
+        <v>2819</v>
       </c>
       <c r="Q348" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,32 +25485,32 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="K349" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L349" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M349" t="n">
-        <v>9562</v>
+        <v>22069</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>637</v>
+        <v>883</v>
       </c>
       <c r="Q349" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25557,29 +25557,29 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="K350" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="L350" t="n">
-        <v>60000</v>
+        <v>18000</v>
       </c>
       <c r="M350" t="n">
-        <v>58026</v>
+        <v>16275</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>2321</v>
+        <v>651</v>
       </c>
       <c r="Q350" t="n">
         <v>25</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25620,41 +25620,41 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="K351" t="n">
-        <v>50000</v>
+        <v>9000</v>
       </c>
       <c r="L351" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="M351" t="n">
-        <v>50000</v>
+        <v>9562</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P351" t="n">
-        <v>2000</v>
+        <v>637</v>
       </c>
       <c r="Q351" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>580</v>
+        <v>38</v>
       </c>
       <c r="K352" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="L352" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="M352" t="n">
-        <v>67759</v>
+        <v>58026</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>2710</v>
+        <v>2321</v>
       </c>
       <c r="Q352" t="n">
         <v>25</v>
@@ -25764,41 +25764,41 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="K353" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="L353" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M353" t="n">
-        <v>24179</v>
+        <v>50000</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="Q353" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25845,32 +25845,32 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>28</v>
+        <v>580</v>
       </c>
       <c r="K354" t="n">
-        <v>32000</v>
+        <v>65000</v>
       </c>
       <c r="L354" t="n">
-        <v>33000</v>
+        <v>70000</v>
       </c>
       <c r="M354" t="n">
-        <v>32571</v>
+        <v>67759</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>2171</v>
+        <v>2710</v>
       </c>
       <c r="Q354" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25917,7 +25917,7 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K355" t="n">
         <v>23000</v>
@@ -25926,23 +25926,23 @@
         <v>25000</v>
       </c>
       <c r="M355" t="n">
-        <v>24143</v>
+        <v>24179</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>966</v>
+        <v>2015</v>
       </c>
       <c r="Q355" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25989,32 +25989,32 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="K356" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="L356" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M356" t="n">
-        <v>21172</v>
+        <v>32571</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>847</v>
+        <v>2171</v>
       </c>
       <c r="Q356" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26061,32 +26061,32 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="K357" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L357" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M357" t="n">
-        <v>12850</v>
+        <v>24143</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>857</v>
+        <v>966</v>
       </c>
       <c r="Q357" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,29 +26133,29 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="K358" t="n">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="L358" t="n">
-        <v>90000</v>
+        <v>22000</v>
       </c>
       <c r="M358" t="n">
-        <v>90000</v>
+        <v>21172</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>3600</v>
+        <v>847</v>
       </c>
       <c r="Q358" t="n">
         <v>25</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26205,32 +26205,32 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="K359" t="n">
-        <v>60000</v>
+        <v>12000</v>
       </c>
       <c r="L359" t="n">
-        <v>65000</v>
+        <v>14000</v>
       </c>
       <c r="M359" t="n">
-        <v>62581</v>
+        <v>12850</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>2503</v>
+        <v>857</v>
       </c>
       <c r="Q359" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26273,20 +26273,20 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K360" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="L360" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="M360" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="Q360" t="n">
         <v>25</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26349,29 +26349,29 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K361" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="L361" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="M361" t="n">
-        <v>23947</v>
+        <v>62581</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>958</v>
+        <v>2503</v>
       </c>
       <c r="Q361" t="n">
         <v>25</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26417,24 +26417,24 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="K362" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="L362" t="n">
-        <v>17000</v>
+        <v>50000</v>
       </c>
       <c r="M362" t="n">
-        <v>15850</v>
+        <v>50000</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>634</v>
+        <v>2000</v>
       </c>
       <c r="Q362" t="n">
         <v>25</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="K363" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L363" t="n">
-        <v>150000</v>
+        <v>25000</v>
       </c>
       <c r="M363" t="n">
-        <v>73525</v>
+        <v>23947</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>2941</v>
+        <v>958</v>
       </c>
       <c r="Q363" t="n">
         <v>25</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26565,20 +26565,20 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="K364" t="n">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="L364" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M364" t="n">
-        <v>77083</v>
+        <v>15850</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>3083</v>
+        <v>634</v>
       </c>
       <c r="Q364" t="n">
         <v>25</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26628,38 +26628,38 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="K365" t="n">
-        <v>70000</v>
+        <v>17000</v>
       </c>
       <c r="L365" t="n">
-        <v>70000</v>
+        <v>150000</v>
       </c>
       <c r="M365" t="n">
-        <v>70000</v>
+        <v>73525</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>2800</v>
+        <v>2941</v>
       </c>
       <c r="Q365" t="n">
         <v>25</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26709,32 +26709,32 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K366" t="n">
-        <v>37000</v>
+        <v>75000</v>
       </c>
       <c r="L366" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="M366" t="n">
-        <v>37818</v>
+        <v>77083</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>3152</v>
+        <v>3083</v>
       </c>
       <c r="Q366" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K367" t="n">
-        <v>58000</v>
+        <v>70000</v>
       </c>
       <c r="L367" t="n">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="M367" t="n">
-        <v>59200</v>
+        <v>70000</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>2368</v>
+        <v>2800</v>
       </c>
       <c r="Q367" t="n">
         <v>25</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26844,41 +26844,41 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="K368" t="n">
-        <v>50000</v>
+        <v>37000</v>
       </c>
       <c r="L368" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="M368" t="n">
-        <v>50000</v>
+        <v>37818</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>2000</v>
+        <v>3152</v>
       </c>
       <c r="Q368" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K369" t="n">
-        <v>70000</v>
+        <v>58000</v>
       </c>
       <c r="L369" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="M369" t="n">
-        <v>70000</v>
+        <v>59200</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>2800</v>
+        <v>2368</v>
       </c>
       <c r="Q369" t="n">
         <v>25</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="K370" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="L370" t="n">
-        <v>17000</v>
+        <v>50000</v>
       </c>
       <c r="M370" t="n">
-        <v>15850</v>
+        <v>50000</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>634</v>
+        <v>2000</v>
       </c>
       <c r="Q370" t="n">
         <v>25</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,29 +27069,29 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="K371" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="L371" t="n">
-        <v>17000</v>
+        <v>70000</v>
       </c>
       <c r="M371" t="n">
-        <v>16077</v>
+        <v>70000</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>643</v>
+        <v>2800</v>
       </c>
       <c r="Q371" t="n">
         <v>25</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>69</v>
+        <v>400</v>
       </c>
       <c r="K372" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L372" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M372" t="n">
-        <v>33116</v>
+        <v>15850</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>1325</v>
+        <v>634</v>
       </c>
       <c r="Q372" t="n">
         <v>25</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27204,38 +27204,38 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="K373" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L373" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M373" t="n">
-        <v>25000</v>
+        <v>16077</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="Q373" t="n">
         <v>25</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="K374" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L374" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M374" t="n">
-        <v>41963</v>
+        <v>33116</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27303,11 +27303,11 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>1679</v>
+        <v>1325</v>
       </c>
       <c r="Q374" t="n">
         <v>25</v>
@@ -27348,38 +27348,38 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="K375" t="n">
         <v>25000</v>
       </c>
       <c r="L375" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M375" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q375" t="n">
         <v>25</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="K376" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L376" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M376" t="n">
-        <v>35000</v>
+        <v>41963</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>1400</v>
+        <v>1679</v>
       </c>
       <c r="Q376" t="n">
         <v>25</v>
@@ -27497,20 +27497,20 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K377" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L377" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M377" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q377" t="n">
         <v>25</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,25 +27564,25 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K378" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L378" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M378" t="n">
-        <v>42759</v>
+        <v>35000</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27591,11 +27591,11 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>1710</v>
+        <v>1400</v>
       </c>
       <c r="Q378" t="n">
         <v>25</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,20 +27645,20 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K379" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L379" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M379" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="Q379" t="n">
         <v>25</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,20 +27717,20 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="K380" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="L380" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M380" t="n">
-        <v>29179</v>
+        <v>42759</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>1167</v>
+        <v>1710</v>
       </c>
       <c r="Q380" t="n">
         <v>25</v>
@@ -27780,41 +27780,41 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K381" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L381" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M381" t="n">
-        <v>18897</v>
+        <v>35000</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>1575</v>
+        <v>1400</v>
       </c>
       <c r="Q381" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27861,29 +27861,29 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="K382" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L382" t="n">
         <v>30000</v>
       </c>
-      <c r="L382" t="n">
-        <v>35000</v>
-      </c>
       <c r="M382" t="n">
-        <v>32887</v>
+        <v>29179</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>1315</v>
+        <v>1167</v>
       </c>
       <c r="Q382" t="n">
         <v>25</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27924,41 +27924,41 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K383" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L383" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M383" t="n">
-        <v>25000</v>
+        <v>18897</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>1000</v>
+        <v>1575</v>
       </c>
       <c r="Q383" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="K384" t="n">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="L384" t="n">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="M384" t="n">
-        <v>67875</v>
+        <v>32887</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28023,11 +28023,11 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>2715</v>
+        <v>1315</v>
       </c>
       <c r="Q384" t="n">
         <v>25</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K385" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L385" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M385" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28095,11 +28095,11 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q385" t="n">
         <v>25</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28152,13 +28152,13 @@
         <v>40</v>
       </c>
       <c r="K386" t="n">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="L386" t="n">
-        <v>65000</v>
+        <v>70000</v>
       </c>
       <c r="M386" t="n">
-        <v>62125</v>
+        <v>67875</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28167,11 +28167,11 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>2485</v>
+        <v>2715</v>
       </c>
       <c r="Q386" t="n">
         <v>25</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K387" t="n">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="L387" t="n">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="M387" t="n">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28239,11 +28239,11 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="Q387" t="n">
         <v>25</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28296,29 +28296,29 @@
         <v>40</v>
       </c>
       <c r="K388" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="L388" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="M388" t="n">
-        <v>24150</v>
+        <v>62125</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>1610</v>
+        <v>2485</v>
       </c>
       <c r="Q388" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28356,38 +28356,38 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K389" t="n">
-        <v>20000</v>
+        <v>55000</v>
       </c>
       <c r="L389" t="n">
-        <v>22000</v>
+        <v>55000</v>
       </c>
       <c r="M389" t="n">
-        <v>20850</v>
+        <v>55000</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>834</v>
+        <v>2200</v>
       </c>
       <c r="Q389" t="n">
         <v>25</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,7 +28437,7 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K390" t="n">
         <v>23000</v>
@@ -28446,11 +28446,11 @@
         <v>25000</v>
       </c>
       <c r="M390" t="n">
-        <v>24200</v>
+        <v>24150</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>968</v>
+        <v>1610</v>
       </c>
       <c r="Q390" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,29 +28509,29 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K391" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L391" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M391" t="n">
-        <v>31050</v>
+        <v>20850</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>1242</v>
+        <v>834</v>
       </c>
       <c r="Q391" t="n">
         <v>25</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28572,38 +28572,38 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="K392" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L392" t="n">
         <v>25000</v>
       </c>
       <c r="M392" t="n">
-        <v>25000</v>
+        <v>24200</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>1000</v>
+        <v>968</v>
       </c>
       <c r="Q392" t="n">
         <v>25</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K393" t="n">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="L393" t="n">
-        <v>70000</v>
+        <v>33000</v>
       </c>
       <c r="M393" t="n">
-        <v>67321</v>
+        <v>31050</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28671,11 +28671,11 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>2693</v>
+        <v>1242</v>
       </c>
       <c r="Q393" t="n">
         <v>25</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28728,13 +28728,13 @@
         <v>25</v>
       </c>
       <c r="K394" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L394" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M394" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,11 +28743,11 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q394" t="n">
         <v>25</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,20 +28797,20 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="K395" t="n">
-        <v>23000</v>
+        <v>65000</v>
       </c>
       <c r="L395" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M395" t="n">
-        <v>23929</v>
+        <v>67321</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>1595</v>
+        <v>2693</v>
       </c>
       <c r="Q395" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,25 +28860,25 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K396" t="n">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="L396" t="n">
-        <v>95000</v>
+        <v>50000</v>
       </c>
       <c r="M396" t="n">
-        <v>92727</v>
+        <v>50000</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28887,11 +28887,11 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>3709</v>
+        <v>2000</v>
       </c>
       <c r="Q396" t="n">
         <v>25</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28932,41 +28932,41 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J397" t="n">
+        <v>56</v>
+      </c>
+      <c r="K397" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L397" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M397" t="n">
+        <v>23929</v>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P397" t="n">
+        <v>1595</v>
+      </c>
+      <c r="Q397" t="n">
         <v>15</v>
-      </c>
-      <c r="K397" t="n">
-        <v>85000</v>
-      </c>
-      <c r="L397" t="n">
-        <v>85000</v>
-      </c>
-      <c r="M397" t="n">
-        <v>85000</v>
-      </c>
-      <c r="N397" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O397" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P397" t="n">
-        <v>3400</v>
-      </c>
-      <c r="Q397" t="n">
-        <v>25</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,32 +29013,32 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K398" t="n">
-        <v>35000</v>
+        <v>90000</v>
       </c>
       <c r="L398" t="n">
-        <v>40000</v>
+        <v>95000</v>
       </c>
       <c r="M398" t="n">
-        <v>38016</v>
+        <v>92727</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>3168</v>
+        <v>3709</v>
       </c>
       <c r="Q398" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K399" t="n">
-        <v>50000</v>
+        <v>85000</v>
       </c>
       <c r="L399" t="n">
-        <v>55000</v>
+        <v>85000</v>
       </c>
       <c r="M399" t="n">
-        <v>52000</v>
+        <v>85000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2080</v>
+        <v>3400</v>
       </c>
       <c r="Q399" t="n">
         <v>25</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29148,41 +29148,41 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="K400" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L400" t="n">
         <v>40000</v>
       </c>
       <c r="M400" t="n">
-        <v>40000</v>
+        <v>38016</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>1600</v>
+        <v>3168</v>
       </c>
       <c r="Q400" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K401" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="L401" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="M401" t="n">
-        <v>66905</v>
+        <v>52000</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>2676</v>
+        <v>2080</v>
       </c>
       <c r="Q401" t="n">
         <v>25</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K402" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L402" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="M402" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29319,11 +29319,11 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="Q402" t="n">
         <v>25</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29373,32 +29373,32 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="K403" t="n">
-        <v>18000</v>
+        <v>65000</v>
       </c>
       <c r="L403" t="n">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="M403" t="n">
-        <v>18844</v>
+        <v>66905</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1570</v>
+        <v>2676</v>
       </c>
       <c r="Q403" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29436,29 +29436,29 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K404" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="L404" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M404" t="n">
-        <v>23850</v>
+        <v>50000</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1590</v>
+        <v>2000</v>
       </c>
       <c r="Q404" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29517,32 +29517,32 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K405" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L405" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M405" t="n">
-        <v>32604</v>
+        <v>18844</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>1304</v>
+        <v>1570</v>
       </c>
       <c r="Q405" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29580,41 +29580,41 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K406" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L406" t="n">
         <v>25000</v>
       </c>
       <c r="M406" t="n">
-        <v>25000</v>
+        <v>23850</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>1000</v>
+        <v>1590</v>
       </c>
       <c r="Q406" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K407" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L407" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M407" t="n">
-        <v>47869</v>
+        <v>32604</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>1915</v>
+        <v>1304</v>
       </c>
       <c r="Q407" t="n">
         <v>25</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K408" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L408" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M408" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29751,11 +29751,11 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="Q408" t="n">
         <v>25</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="K409" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="L409" t="n">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="M409" t="n">
-        <v>83750</v>
+        <v>47869</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>3350</v>
+        <v>1915</v>
       </c>
       <c r="Q409" t="n">
         <v>25</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K410" t="n">
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="L410" t="n">
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="M410" t="n">
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="Q410" t="n">
         <v>25</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,29 +29949,29 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K411" t="n">
-        <v>55000</v>
+        <v>80000</v>
       </c>
       <c r="L411" t="n">
-        <v>65000</v>
+        <v>90000</v>
       </c>
       <c r="M411" t="n">
-        <v>60250</v>
+        <v>83750</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>2410</v>
+        <v>3350</v>
       </c>
       <c r="Q411" t="n">
         <v>25</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30012,38 +30012,38 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K412" t="n">
-        <v>13000</v>
+        <v>75000</v>
       </c>
       <c r="L412" t="n">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="M412" t="n">
-        <v>14150</v>
+        <v>75000</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>566</v>
+        <v>3000</v>
       </c>
       <c r="Q412" t="n">
         <v>25</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="K413" t="n">
-        <v>13000</v>
+        <v>55000</v>
       </c>
       <c r="L413" t="n">
-        <v>15000</v>
+        <v>65000</v>
       </c>
       <c r="M413" t="n">
-        <v>13261</v>
+        <v>60250</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30111,11 +30111,11 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>530</v>
+        <v>2410</v>
       </c>
       <c r="Q413" t="n">
         <v>25</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,32 +30165,32 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K414" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L414" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M414" t="n">
-        <v>21974</v>
+        <v>14150</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>1465</v>
+        <v>566</v>
       </c>
       <c r="Q414" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30237,20 +30237,20 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="K415" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L415" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M415" t="n">
-        <v>9605</v>
+        <v>13261</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>384</v>
+        <v>530</v>
       </c>
       <c r="Q415" t="n">
         <v>25</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="K416" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="L416" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M416" t="n">
-        <v>6575</v>
+        <v>21974</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>438</v>
+        <v>1465</v>
       </c>
       <c r="Q416" t="n">
         <v>15</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K417" t="n">
-        <v>60000</v>
+        <v>9000</v>
       </c>
       <c r="L417" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="M417" t="n">
-        <v>63286</v>
+        <v>9605</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2531</v>
+        <v>384</v>
       </c>
       <c r="Q417" t="n">
         <v>25</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30444,41 +30444,41 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="K418" t="n">
-        <v>55000</v>
+        <v>6000</v>
       </c>
       <c r="L418" t="n">
-        <v>55000</v>
+        <v>7000</v>
       </c>
       <c r="M418" t="n">
-        <v>55000</v>
+        <v>6575</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>2200</v>
+        <v>438</v>
       </c>
       <c r="Q418" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K419" t="n">
-        <v>29000</v>
+        <v>60000</v>
       </c>
       <c r="L419" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="M419" t="n">
-        <v>29462</v>
+        <v>63286</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>1178</v>
+        <v>2531</v>
       </c>
       <c r="Q419" t="n">
         <v>25</v>
@@ -30588,25 +30588,25 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K420" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="L420" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="M420" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30615,11 +30615,11 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="Q420" t="n">
         <v>25</v>
@@ -30660,25 +30660,25 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K421" t="n">
-        <v>55000</v>
+        <v>29000</v>
       </c>
       <c r="L421" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="M421" t="n">
-        <v>58000</v>
+        <v>29462</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30687,11 +30687,11 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>2320</v>
+        <v>1178</v>
       </c>
       <c r="Q421" t="n">
         <v>25</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,32 +30741,32 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="K422" t="n">
-        <v>23000</v>
+        <v>70000</v>
       </c>
       <c r="L422" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M422" t="n">
-        <v>23960</v>
+        <v>70000</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1997</v>
+        <v>2800</v>
       </c>
       <c r="Q422" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30804,29 +30804,29 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K423" t="n">
-        <v>33000</v>
+        <v>55000</v>
       </c>
       <c r="L423" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="M423" t="n">
-        <v>34314</v>
+        <v>58000</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>2288</v>
+        <v>2320</v>
       </c>
       <c r="Q423" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,32 +30885,32 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="K424" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L424" t="n">
         <v>25000</v>
       </c>
       <c r="M424" t="n">
-        <v>25000</v>
+        <v>23960</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>1000</v>
+        <v>1997</v>
       </c>
       <c r="Q424" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,32 +30957,32 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="K425" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L425" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M425" t="n">
-        <v>25000</v>
+        <v>34314</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>1000</v>
+        <v>2288</v>
       </c>
       <c r="Q425" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,29 +31029,29 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="K426" t="n">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="L426" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="M426" t="n">
-        <v>67125</v>
+        <v>25000</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>2685</v>
+        <v>1000</v>
       </c>
       <c r="Q426" t="n">
         <v>25</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,38 +31092,38 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="K427" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L427" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M427" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q427" t="n">
         <v>25</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,29 +31173,29 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K428" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="L428" t="n">
-        <v>32000</v>
+        <v>70000</v>
       </c>
       <c r="M428" t="n">
-        <v>31368</v>
+        <v>67125</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>1255</v>
+        <v>2685</v>
       </c>
       <c r="Q428" t="n">
         <v>25</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="K429" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="L429" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="M429" t="n">
-        <v>10833</v>
+        <v>45000</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>433</v>
+        <v>1800</v>
       </c>
       <c r="Q429" t="n">
         <v>25</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K430" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L430" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="M430" t="n">
-        <v>20000</v>
+        <v>31368</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="Q430" t="n">
         <v>25</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,29 +31389,29 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K431" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L431" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M431" t="n">
-        <v>18923</v>
+        <v>10833</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>757</v>
+        <v>433</v>
       </c>
       <c r="Q431" t="n">
         <v>25</v>
@@ -31437,58 +31437,202 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E432" t="n">
+        <v>13</v>
+      </c>
+      <c r="F432" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Cacho cabra verde</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J432" t="n">
+        <v>90</v>
+      </c>
+      <c r="K432" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L432" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M432" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P432" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>25</v>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>6</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D433" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E433" t="n">
+        <v>13</v>
+      </c>
+      <c r="F433" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J433" t="n">
+        <v>130</v>
+      </c>
+      <c r="K433" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L433" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M433" t="n">
+        <v>18923</v>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P433" t="n">
+        <v>757</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>25</v>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>6</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D434" s="2" t="n">
         <v>44425</v>
       </c>
-      <c r="E432" t="n">
-        <v>13</v>
-      </c>
-      <c r="F432" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G432" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H432" t="inlineStr">
+      <c r="E434" t="n">
+        <v>13</v>
+      </c>
+      <c r="F434" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
         <is>
           <t>Chilena(o)</t>
         </is>
       </c>
-      <c r="I432" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J432" t="n">
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J434" t="n">
         <v>37</v>
       </c>
-      <c r="K432" t="n">
+      <c r="K434" t="n">
         <v>55000</v>
       </c>
-      <c r="L432" t="n">
+      <c r="L434" t="n">
         <v>60000</v>
       </c>
-      <c r="M432" t="n">
+      <c r="M434" t="n">
         <v>58108</v>
       </c>
-      <c r="N432" t="inlineStr">
+      <c r="N434" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O432" t="inlineStr">
+      <c r="O434" t="inlineStr">
         <is>
           <t>La Ligua</t>
         </is>
       </c>
-      <c r="P432" t="n">
+      <c r="P434" t="n">
         <v>2324</v>
       </c>
-      <c r="Q432" t="n">
-        <v>25</v>
-      </c>
-      <c r="R432" t="inlineStr">
+      <c r="Q434" t="n">
+        <v>25</v>
+      </c>
+      <c r="R434" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R438"/>
+  <dimension ref="A1:R439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26988,41 +26988,41 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K370" t="n">
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="L370" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="M370" t="n">
-        <v>77083</v>
+        <v>42875</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>3083</v>
+        <v>2858</v>
       </c>
       <c r="Q370" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K371" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="L371" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="M371" t="n">
-        <v>70000</v>
+        <v>77083</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>2800</v>
+        <v>3083</v>
       </c>
       <c r="Q371" t="n">
         <v>25</v>
@@ -27132,41 +27132,41 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="K372" t="n">
-        <v>37000</v>
+        <v>70000</v>
       </c>
       <c r="L372" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="M372" t="n">
-        <v>37818</v>
+        <v>70000</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>3152</v>
+        <v>2800</v>
       </c>
       <c r="Q372" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27213,32 +27213,32 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K373" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="L373" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="M373" t="n">
-        <v>59200</v>
+        <v>37818</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>2368</v>
+        <v>3152</v>
       </c>
       <c r="Q373" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K374" t="n">
-        <v>50000</v>
+        <v>58000</v>
       </c>
       <c r="L374" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="M374" t="n">
-        <v>50000</v>
+        <v>59200</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>2000</v>
+        <v>2368</v>
       </c>
       <c r="Q374" t="n">
         <v>25</v>
@@ -27348,25 +27348,25 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K375" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="L375" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="M375" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q375" t="n">
         <v>25</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>400</v>
+        <v>14</v>
       </c>
       <c r="K376" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="L376" t="n">
-        <v>17000</v>
+        <v>70000</v>
       </c>
       <c r="M376" t="n">
-        <v>15850</v>
+        <v>70000</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>634</v>
+        <v>2800</v>
       </c>
       <c r="Q376" t="n">
         <v>25</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27501,7 +27501,7 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="K377" t="n">
         <v>15000</v>
@@ -27510,20 +27510,20 @@
         <v>17000</v>
       </c>
       <c r="M377" t="n">
-        <v>16077</v>
+        <v>15850</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="Q377" t="n">
         <v>25</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,29 +27573,29 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="K378" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L378" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M378" t="n">
-        <v>33116</v>
+        <v>16077</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>1325</v>
+        <v>643</v>
       </c>
       <c r="Q378" t="n">
         <v>25</v>
@@ -27641,20 +27641,20 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="K379" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L379" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M379" t="n">
-        <v>25000</v>
+        <v>33116</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>1000</v>
+        <v>1325</v>
       </c>
       <c r="Q379" t="n">
         <v>25</v>
@@ -27708,25 +27708,25 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="K380" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L380" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M380" t="n">
-        <v>41963</v>
+        <v>25000</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>1679</v>
+        <v>1000</v>
       </c>
       <c r="Q380" t="n">
         <v>25</v>
@@ -27789,29 +27789,29 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="K381" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L381" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M381" t="n">
-        <v>28000</v>
+        <v>41963</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>1120</v>
+        <v>1679</v>
       </c>
       <c r="Q381" t="n">
         <v>25</v>
@@ -27857,33 +27857,33 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="K382" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L382" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M382" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q382" t="n">
         <v>25</v>
@@ -27933,29 +27933,29 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K383" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L383" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M383" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="Q383" t="n">
         <v>25</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -27996,29 +27996,29 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K384" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L384" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M384" t="n">
-        <v>42759</v>
+        <v>20000</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>1710</v>
+        <v>800</v>
       </c>
       <c r="Q384" t="n">
         <v>25</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="K385" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L385" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M385" t="n">
-        <v>35000</v>
+        <v>42759</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>1400</v>
+        <v>1710</v>
       </c>
       <c r="Q385" t="n">
         <v>25</v>
@@ -28140,29 +28140,29 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K386" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L386" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M386" t="n">
-        <v>29179</v>
+        <v>35000</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>1167</v>
+        <v>1400</v>
       </c>
       <c r="Q386" t="n">
         <v>25</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,32 +28221,32 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="K387" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L387" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M387" t="n">
-        <v>18897</v>
+        <v>29179</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>1575</v>
+        <v>1167</v>
       </c>
       <c r="Q387" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,32 +28293,32 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="K388" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L388" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M388" t="n">
-        <v>32887</v>
+        <v>18897</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>1315</v>
+        <v>1575</v>
       </c>
       <c r="Q388" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="K389" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L389" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M389" t="n">
-        <v>25000</v>
+        <v>32887</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>1000</v>
+        <v>1315</v>
       </c>
       <c r="Q389" t="n">
         <v>25</v>
@@ -28428,25 +28428,25 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K390" t="n">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="L390" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="M390" t="n">
-        <v>67875</v>
+        <v>25000</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28455,11 +28455,11 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P390" t="n">
-        <v>2715</v>
+        <v>1000</v>
       </c>
       <c r="Q390" t="n">
         <v>25</v>
@@ -28505,20 +28505,20 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K391" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="L391" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="M391" t="n">
-        <v>50000</v>
+        <v>67875</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>2000</v>
+        <v>2715</v>
       </c>
       <c r="Q391" t="n">
         <v>25</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28572,25 +28572,25 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K392" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="L392" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="M392" t="n">
-        <v>62125</v>
+        <v>50000</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28599,11 +28599,11 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>2485</v>
+        <v>2000</v>
       </c>
       <c r="Q392" t="n">
         <v>25</v>
@@ -28649,20 +28649,20 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K393" t="n">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="L393" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="M393" t="n">
-        <v>55000</v>
+        <v>62125</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>2200</v>
+        <v>2485</v>
       </c>
       <c r="Q393" t="n">
         <v>25</v>
@@ -28716,41 +28716,41 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K394" t="n">
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="L394" t="n">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="M394" t="n">
-        <v>24150</v>
+        <v>55000</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>1610</v>
+        <v>2200</v>
       </c>
       <c r="Q394" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28800,17 +28800,17 @@
         <v>40</v>
       </c>
       <c r="K395" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L395" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M395" t="n">
-        <v>20850</v>
+        <v>24150</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>834</v>
+        <v>1610</v>
       </c>
       <c r="Q395" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K396" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L396" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M396" t="n">
-        <v>24200</v>
+        <v>20850</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>968</v>
+        <v>834</v>
       </c>
       <c r="Q396" t="n">
         <v>25</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,29 +28941,29 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K397" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L397" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M397" t="n">
-        <v>31050</v>
+        <v>24200</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>1242</v>
+        <v>968</v>
       </c>
       <c r="Q397" t="n">
         <v>25</v>
@@ -29009,20 +29009,20 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K398" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L398" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M398" t="n">
-        <v>25000</v>
+        <v>31050</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>1000</v>
+        <v>1242</v>
       </c>
       <c r="Q398" t="n">
         <v>25</v>
@@ -29076,25 +29076,25 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="K399" t="n">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="L399" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="M399" t="n">
-        <v>67321</v>
+        <v>25000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2693</v>
+        <v>1000</v>
       </c>
       <c r="Q399" t="n">
         <v>25</v>
@@ -29153,20 +29153,20 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="K400" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="L400" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="M400" t="n">
-        <v>50000</v>
+        <v>67321</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>2000</v>
+        <v>2693</v>
       </c>
       <c r="Q400" t="n">
         <v>25</v>
@@ -29220,29 +29220,29 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="K401" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="L401" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M401" t="n">
-        <v>23929</v>
+        <v>50000</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>1595</v>
+        <v>2000</v>
       </c>
       <c r="Q401" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,32 +29301,32 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K402" t="n">
-        <v>90000</v>
+        <v>23000</v>
       </c>
       <c r="L402" t="n">
-        <v>95000</v>
+        <v>25000</v>
       </c>
       <c r="M402" t="n">
-        <v>92727</v>
+        <v>23929</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>3709</v>
+        <v>1595</v>
       </c>
       <c r="Q402" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K403" t="n">
-        <v>85000</v>
+        <v>90000</v>
       </c>
       <c r="L403" t="n">
-        <v>85000</v>
+        <v>95000</v>
       </c>
       <c r="M403" t="n">
-        <v>85000</v>
+        <v>92727</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>3400</v>
+        <v>3709</v>
       </c>
       <c r="Q403" t="n">
         <v>25</v>
@@ -29436,41 +29436,41 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="K404" t="n">
-        <v>35000</v>
+        <v>85000</v>
       </c>
       <c r="L404" t="n">
-        <v>40000</v>
+        <v>85000</v>
       </c>
       <c r="M404" t="n">
-        <v>38016</v>
+        <v>85000</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>3168</v>
+        <v>3400</v>
       </c>
       <c r="Q404" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29517,32 +29517,32 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="K405" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L405" t="n">
-        <v>55000</v>
+        <v>40000</v>
       </c>
       <c r="M405" t="n">
-        <v>52000</v>
+        <v>38016</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>2080</v>
+        <v>3168</v>
       </c>
       <c r="Q405" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29585,20 +29585,20 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K406" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L406" t="n">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="M406" t="n">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>1600</v>
+        <v>2080</v>
       </c>
       <c r="Q406" t="n">
         <v>25</v>
@@ -29652,25 +29652,25 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K407" t="n">
-        <v>65000</v>
+        <v>40000</v>
       </c>
       <c r="L407" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="M407" t="n">
-        <v>66905</v>
+        <v>40000</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>2676</v>
+        <v>1600</v>
       </c>
       <c r="Q407" t="n">
         <v>25</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K408" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="L408" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="M408" t="n">
-        <v>50000</v>
+        <v>66905</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>2000</v>
+        <v>2676</v>
       </c>
       <c r="Q408" t="n">
         <v>25</v>
@@ -29796,41 +29796,41 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="K409" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="L409" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="M409" t="n">
-        <v>18844</v>
+        <v>50000</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>1570</v>
+        <v>2000</v>
       </c>
       <c r="Q409" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29877,32 +29877,32 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K410" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L410" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M410" t="n">
-        <v>23850</v>
+        <v>18844</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>1590</v>
+        <v>1570</v>
       </c>
       <c r="Q410" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,32 +29949,32 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K411" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L411" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M411" t="n">
-        <v>32604</v>
+        <v>23850</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>1304</v>
+        <v>1590</v>
       </c>
       <c r="Q411" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K412" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L412" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M412" t="n">
-        <v>25000</v>
+        <v>32604</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>1000</v>
+        <v>1304</v>
       </c>
       <c r="Q412" t="n">
         <v>25</v>
@@ -30084,25 +30084,25 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="K413" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L413" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M413" t="n">
-        <v>47869</v>
+        <v>25000</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30111,11 +30111,11 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>1915</v>
+        <v>1000</v>
       </c>
       <c r="Q413" t="n">
         <v>25</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K414" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="L414" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="M414" t="n">
-        <v>40000</v>
+        <v>47869</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>1600</v>
+        <v>1915</v>
       </c>
       <c r="Q414" t="n">
         <v>25</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30228,25 +30228,25 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K415" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="L415" t="n">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="M415" t="n">
-        <v>83750</v>
+        <v>40000</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30255,11 +30255,11 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>3350</v>
+        <v>1600</v>
       </c>
       <c r="Q415" t="n">
         <v>25</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K416" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L416" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="M416" t="n">
-        <v>75000</v>
+        <v>83750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>3000</v>
+        <v>3350</v>
       </c>
       <c r="Q416" t="n">
         <v>25</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30372,38 +30372,38 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K417" t="n">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="L417" t="n">
-        <v>65000</v>
+        <v>75000</v>
       </c>
       <c r="M417" t="n">
-        <v>60250</v>
+        <v>75000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2410</v>
+        <v>3000</v>
       </c>
       <c r="Q417" t="n">
         <v>25</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K418" t="n">
-        <v>13000</v>
+        <v>55000</v>
       </c>
       <c r="L418" t="n">
-        <v>15000</v>
+        <v>65000</v>
       </c>
       <c r="M418" t="n">
-        <v>14150</v>
+        <v>60250</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30471,11 +30471,11 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>566</v>
+        <v>2410</v>
       </c>
       <c r="Q418" t="n">
         <v>25</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,7 +30525,7 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="K419" t="n">
         <v>13000</v>
@@ -30534,7 +30534,7 @@
         <v>15000</v>
       </c>
       <c r="M419" t="n">
-        <v>13261</v>
+        <v>14150</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="Q419" t="n">
         <v>25</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,32 +30597,32 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="K420" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L420" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M420" t="n">
-        <v>21974</v>
+        <v>13261</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>1465</v>
+        <v>530</v>
       </c>
       <c r="Q420" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30672,29 +30672,29 @@
         <v>38</v>
       </c>
       <c r="K421" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L421" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M421" t="n">
-        <v>9605</v>
+        <v>21974</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>384</v>
+        <v>1465</v>
       </c>
       <c r="Q421" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,20 +30741,20 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="K422" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L422" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M422" t="n">
-        <v>6575</v>
+        <v>9605</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="Q422" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,32 +30813,32 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="K423" t="n">
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="L423" t="n">
-        <v>65000</v>
+        <v>7000</v>
       </c>
       <c r="M423" t="n">
-        <v>63286</v>
+        <v>6575</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>2531</v>
+        <v>438</v>
       </c>
       <c r="Q423" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K424" t="n">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="L424" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="M424" t="n">
-        <v>55000</v>
+        <v>63286</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>2200</v>
+        <v>2531</v>
       </c>
       <c r="Q424" t="n">
         <v>25</v>
@@ -30948,25 +30948,25 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K425" t="n">
-        <v>29000</v>
+        <v>55000</v>
       </c>
       <c r="L425" t="n">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="M425" t="n">
-        <v>29462</v>
+        <v>55000</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30975,11 +30975,11 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>1178</v>
+        <v>2200</v>
       </c>
       <c r="Q425" t="n">
         <v>25</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="K426" t="n">
-        <v>70000</v>
+        <v>29000</v>
       </c>
       <c r="L426" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="M426" t="n">
-        <v>70000</v>
+        <v>29462</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31047,11 +31047,11 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>2800</v>
+        <v>1178</v>
       </c>
       <c r="Q426" t="n">
         <v>25</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K427" t="n">
-        <v>55000</v>
+        <v>70000</v>
       </c>
       <c r="L427" t="n">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="M427" t="n">
-        <v>58000</v>
+        <v>70000</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>2320</v>
+        <v>2800</v>
       </c>
       <c r="Q427" t="n">
         <v>25</v>
@@ -31164,41 +31164,41 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K428" t="n">
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="L428" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="M428" t="n">
-        <v>23960</v>
+        <v>58000</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>1997</v>
+        <v>2320</v>
       </c>
       <c r="Q428" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31245,32 +31245,32 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K429" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L429" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M429" t="n">
-        <v>34314</v>
+        <v>23960</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>2288</v>
+        <v>1997</v>
       </c>
       <c r="Q429" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,32 +31317,32 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K430" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L430" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M430" t="n">
-        <v>25000</v>
+        <v>34314</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>1000</v>
+        <v>2288</v>
       </c>
       <c r="Q430" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,7 +31389,7 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K431" t="n">
         <v>25000</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,29 +31461,29 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K432" t="n">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="L432" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="M432" t="n">
-        <v>67125</v>
+        <v>25000</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>2685</v>
+        <v>1000</v>
       </c>
       <c r="Q432" t="n">
         <v>25</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K433" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="L433" t="n">
-        <v>45000</v>
+        <v>70000</v>
       </c>
       <c r="M433" t="n">
-        <v>45000</v>
+        <v>67125</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>1800</v>
+        <v>2685</v>
       </c>
       <c r="Q433" t="n">
         <v>25</v>
@@ -31596,38 +31596,38 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="K434" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L434" t="n">
-        <v>32000</v>
+        <v>45000</v>
       </c>
       <c r="M434" t="n">
-        <v>31368</v>
+        <v>45000</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>1255</v>
+        <v>1800</v>
       </c>
       <c r="Q434" t="n">
         <v>25</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,29 +31677,29 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="K435" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L435" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="M435" t="n">
-        <v>10833</v>
+        <v>31368</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>433</v>
+        <v>1255</v>
       </c>
       <c r="Q435" t="n">
         <v>25</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31749,29 +31749,29 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K436" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L436" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M436" t="n">
-        <v>20000</v>
+        <v>10833</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>800</v>
+        <v>433</v>
       </c>
       <c r="Q436" t="n">
         <v>25</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K437" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L437" t="n">
         <v>20000</v>
       </c>
       <c r="M437" t="n">
-        <v>18923</v>
+        <v>20000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>757</v>
+        <v>800</v>
       </c>
       <c r="Q437" t="n">
         <v>25</v>
@@ -31869,58 +31869,130 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E438" t="n">
+        <v>13</v>
+      </c>
+      <c r="F438" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J438" t="n">
+        <v>130</v>
+      </c>
+      <c r="K438" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L438" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M438" t="n">
+        <v>18923</v>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P438" t="n">
+        <v>757</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>25</v>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>6</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D439" s="2" t="n">
         <v>44425</v>
       </c>
-      <c r="E438" t="n">
-        <v>13</v>
-      </c>
-      <c r="F438" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H438" t="inlineStr">
+      <c r="E439" t="n">
+        <v>13</v>
+      </c>
+      <c r="F439" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
         <is>
           <t>Chilena(o)</t>
         </is>
       </c>
-      <c r="I438" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J438" t="n">
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J439" t="n">
         <v>37</v>
       </c>
-      <c r="K438" t="n">
+      <c r="K439" t="n">
         <v>55000</v>
       </c>
-      <c r="L438" t="n">
+      <c r="L439" t="n">
         <v>60000</v>
       </c>
-      <c r="M438" t="n">
+      <c r="M439" t="n">
         <v>58108</v>
       </c>
-      <c r="N438" t="inlineStr">
+      <c r="N439" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O438" t="inlineStr">
+      <c r="O439" t="inlineStr">
         <is>
           <t>La Ligua</t>
         </is>
       </c>
-      <c r="P438" t="n">
+      <c r="P439" t="n">
         <v>2324</v>
       </c>
-      <c r="Q438" t="n">
-        <v>25</v>
-      </c>
-      <c r="R438" t="inlineStr">
+      <c r="Q439" t="n">
+        <v>25</v>
+      </c>
+      <c r="R439" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R441"/>
+  <dimension ref="A1:R446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K377" t="n">
-        <v>18000</v>
+        <v>90000</v>
       </c>
       <c r="L377" t="n">
-        <v>19000</v>
+        <v>95000</v>
       </c>
       <c r="M377" t="n">
-        <v>18583</v>
+        <v>92812</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>743</v>
+        <v>3712</v>
       </c>
       <c r="Q377" t="n">
         <v>25</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,38 +27564,38 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="K378" t="n">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="L378" t="n">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="M378" t="n">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="Q378" t="n">
         <v>25</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44363</v>
+        <v>44476</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K379" t="n">
-        <v>60000</v>
+        <v>14000</v>
       </c>
       <c r="L379" t="n">
-        <v>65000</v>
+        <v>15000</v>
       </c>
       <c r="M379" t="n">
-        <v>62581</v>
+        <v>14571</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27663,11 +27663,11 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>2503</v>
+        <v>583</v>
       </c>
       <c r="Q379" t="n">
         <v>25</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44363</v>
+        <v>44476</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K380" t="n">
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="L380" t="n">
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="M380" t="n">
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="Q380" t="n">
         <v>25</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44306</v>
+        <v>44476</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,32 +27789,32 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K381" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L381" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="M381" t="n">
-        <v>20850</v>
+        <v>43000</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>834</v>
+        <v>2867</v>
       </c>
       <c r="Q381" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="K382" t="n">
-        <v>55000</v>
+        <v>18000</v>
       </c>
       <c r="L382" t="n">
-        <v>60000</v>
+        <v>19000</v>
       </c>
       <c r="M382" t="n">
-        <v>57656</v>
+        <v>18583</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>2306</v>
+        <v>743</v>
       </c>
       <c r="Q382" t="n">
         <v>25</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27924,38 +27924,38 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="K383" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="L383" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="M383" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="Q383" t="n">
         <v>25</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K384" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="L384" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
       <c r="M384" t="n">
-        <v>72262</v>
+        <v>62581</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28023,11 +28023,11 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>2890</v>
+        <v>2503</v>
       </c>
       <c r="Q384" t="n">
         <v>25</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K385" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="L385" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="M385" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28095,11 +28095,11 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="Q385" t="n">
         <v>25</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,32 +28149,32 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K386" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L386" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M386" t="n">
-        <v>24179</v>
+        <v>20850</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>2015</v>
+        <v>834</v>
       </c>
       <c r="Q386" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,32 +28221,32 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K387" t="n">
-        <v>33000</v>
+        <v>55000</v>
       </c>
       <c r="L387" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="M387" t="n">
-        <v>33686</v>
+        <v>57656</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>2246</v>
+        <v>2306</v>
       </c>
       <c r="Q387" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="K388" t="n">
-        <v>33000</v>
+        <v>50000</v>
       </c>
       <c r="L388" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M388" t="n">
-        <v>34167</v>
+        <v>50000</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>1367</v>
+        <v>2000</v>
       </c>
       <c r="Q388" t="n">
         <v>25</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28356,25 +28356,25 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K389" t="n">
-        <v>28000</v>
+        <v>70000</v>
       </c>
       <c r="L389" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="M389" t="n">
-        <v>28000</v>
+        <v>72262</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28383,11 +28383,11 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>1120</v>
+        <v>2890</v>
       </c>
       <c r="Q389" t="n">
         <v>25</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28433,20 +28433,20 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="K390" t="n">
         <v>65000</v>
       </c>
       <c r="L390" t="n">
-        <v>70000</v>
+        <v>65000</v>
       </c>
       <c r="M390" t="n">
-        <v>68026</v>
+        <v>65000</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>2721</v>
+        <v>2600</v>
       </c>
       <c r="Q390" t="n">
         <v>25</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28500,41 +28500,41 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K391" t="n">
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="L391" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M391" t="n">
-        <v>50000</v>
+        <v>24179</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="Q391" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,32 +28581,32 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="K392" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L392" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M392" t="n">
-        <v>21135</v>
+        <v>33686</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>1761</v>
+        <v>2246</v>
       </c>
       <c r="Q392" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,32 +28653,32 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K393" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L393" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M393" t="n">
-        <v>27609</v>
+        <v>34167</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>1841</v>
+        <v>1367</v>
       </c>
       <c r="Q393" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28721,20 +28721,20 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K394" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L394" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M394" t="n">
-        <v>21150</v>
+        <v>28000</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,11 +28743,11 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>846</v>
+        <v>1120</v>
       </c>
       <c r="Q394" t="n">
         <v>25</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,29 +28797,29 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="K395" t="n">
-        <v>16000</v>
+        <v>65000</v>
       </c>
       <c r="L395" t="n">
-        <v>18000</v>
+        <v>70000</v>
       </c>
       <c r="M395" t="n">
-        <v>16833</v>
+        <v>68026</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>673</v>
+        <v>2721</v>
       </c>
       <c r="Q395" t="n">
         <v>25</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28865,33 +28865,33 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K396" t="n">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="L396" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="M396" t="n">
-        <v>17150</v>
+        <v>50000</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>686</v>
+        <v>2000</v>
       </c>
       <c r="Q396" t="n">
         <v>25</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="K397" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L397" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M397" t="n">
-        <v>14753</v>
+        <v>21135</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>1229</v>
+        <v>1761</v>
       </c>
       <c r="Q397" t="n">
         <v>12</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K398" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L398" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M398" t="n">
-        <v>15605</v>
+        <v>27609</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29031,11 +29031,11 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>1040</v>
+        <v>1841</v>
       </c>
       <c r="Q398" t="n">
         <v>15</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K399" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L399" t="n">
-        <v>55000</v>
+        <v>22000</v>
       </c>
       <c r="M399" t="n">
-        <v>52000</v>
+        <v>21150</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2080</v>
+        <v>846</v>
       </c>
       <c r="Q399" t="n">
         <v>25</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29148,38 +29148,38 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="K400" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L400" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M400" t="n">
-        <v>40000</v>
+        <v>16833</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>1600</v>
+        <v>673</v>
       </c>
       <c r="Q400" t="n">
         <v>25</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,29 +29229,29 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K401" t="n">
-        <v>65000</v>
+        <v>16000</v>
       </c>
       <c r="L401" t="n">
-        <v>70000</v>
+        <v>18000</v>
       </c>
       <c r="M401" t="n">
-        <v>66905</v>
+        <v>17150</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>2676</v>
+        <v>686</v>
       </c>
       <c r="Q401" t="n">
         <v>25</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29292,41 +29292,41 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="K402" t="n">
-        <v>50000</v>
+        <v>14000</v>
       </c>
       <c r="L402" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="M402" t="n">
-        <v>50000</v>
+        <v>14753</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>2000</v>
+        <v>1229</v>
       </c>
       <c r="Q402" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,32 +29373,32 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K403" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L403" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M403" t="n">
-        <v>18844</v>
+        <v>15605</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1570</v>
+        <v>1040</v>
       </c>
       <c r="Q403" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29445,32 +29445,32 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K404" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="L404" t="n">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="M404" t="n">
-        <v>23850</v>
+        <v>52000</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1590</v>
+        <v>2080</v>
       </c>
       <c r="Q404" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29508,41 +29508,41 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="K405" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="L405" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M405" t="n">
-        <v>33317</v>
+        <v>40000</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>2221</v>
+        <v>1600</v>
       </c>
       <c r="Q405" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29580,29 +29580,29 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K406" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="L406" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="M406" t="n">
-        <v>30000</v>
+        <v>66905</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>2000</v>
+        <v>2676</v>
       </c>
       <c r="Q406" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44223</v>
+        <v>44357</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29652,38 +29652,38 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="K407" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="L407" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="M407" t="n">
-        <v>19091</v>
+        <v>50000</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>764</v>
+        <v>2000</v>
       </c>
       <c r="Q407" t="n">
         <v>25</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44223</v>
+        <v>44357</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,32 +29733,32 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="K408" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L408" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M408" t="n">
-        <v>14333</v>
+        <v>18844</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>573</v>
+        <v>1570</v>
       </c>
       <c r="Q408" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,32 +29805,32 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K409" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L409" t="n">
         <v>25000</v>
       </c>
       <c r="M409" t="n">
-        <v>24438</v>
+        <v>23850</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>978</v>
+        <v>1590</v>
       </c>
       <c r="Q409" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K410" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="L410" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M410" t="n">
-        <v>16200</v>
+        <v>33317</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>1080</v>
+        <v>2221</v>
       </c>
       <c r="Q410" t="n">
         <v>15</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29940,29 +29940,29 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K411" t="n">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="L411" t="n">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="M411" t="n">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="Q411" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44333</v>
+        <v>44223</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30021,7 +30021,7 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="K412" t="n">
         <v>18000</v>
@@ -30030,23 +30030,23 @@
         <v>20000</v>
       </c>
       <c r="M412" t="n">
-        <v>19282</v>
+        <v>19091</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>1607</v>
+        <v>764</v>
       </c>
       <c r="Q412" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="K413" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L413" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M413" t="n">
-        <v>22575</v>
+        <v>14333</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>903</v>
+        <v>573</v>
       </c>
       <c r="Q413" t="n">
         <v>25</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44392</v>
+        <v>44298</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K414" t="n">
-        <v>80000</v>
+        <v>24000</v>
       </c>
       <c r="L414" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M414" t="n">
-        <v>80000</v>
+        <v>24438</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30183,11 +30183,11 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>3200</v>
+        <v>978</v>
       </c>
       <c r="Q414" t="n">
         <v>25</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44392</v>
+        <v>44298</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30228,41 +30228,41 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K415" t="n">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="L415" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="M415" t="n">
-        <v>75000</v>
+        <v>16200</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>3000</v>
+        <v>1080</v>
       </c>
       <c r="Q415" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44425</v>
+        <v>44397</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K416" t="n">
-        <v>55000</v>
+        <v>90000</v>
       </c>
       <c r="L416" t="n">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="M416" t="n">
-        <v>58108</v>
+        <v>90000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>2324</v>
+        <v>3600</v>
       </c>
       <c r="Q416" t="n">
         <v>25</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44187</v>
+        <v>44333</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,32 +30381,32 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="K417" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L417" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M417" t="n">
-        <v>37289</v>
+        <v>19282</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>1492</v>
+        <v>1607</v>
       </c>
       <c r="Q417" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44187</v>
+        <v>44314</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30444,38 +30444,38 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K418" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L418" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M418" t="n">
-        <v>30000</v>
+        <v>22575</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>1200</v>
+        <v>903</v>
       </c>
       <c r="Q418" t="n">
         <v>25</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K419" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="L419" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="M419" t="n">
-        <v>95625</v>
+        <v>80000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>3825</v>
+        <v>3200</v>
       </c>
       <c r="Q419" t="n">
         <v>25</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30588,41 +30588,41 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="K420" t="n">
-        <v>37000</v>
+        <v>75000</v>
       </c>
       <c r="L420" t="n">
-        <v>40000</v>
+        <v>75000</v>
       </c>
       <c r="M420" t="n">
-        <v>38950</v>
+        <v>75000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>3246</v>
+        <v>3000</v>
       </c>
       <c r="Q420" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44270</v>
+        <v>44425</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K421" t="n">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="L421" t="n">
-        <v>17000</v>
+        <v>60000</v>
       </c>
       <c r="M421" t="n">
-        <v>16244</v>
+        <v>58108</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30687,11 +30687,11 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>650</v>
+        <v>2324</v>
       </c>
       <c r="Q421" t="n">
         <v>25</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,29 +30741,29 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="K422" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="L422" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M422" t="n">
-        <v>14533</v>
+        <v>37289</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>581</v>
+        <v>1492</v>
       </c>
       <c r="Q422" t="n">
         <v>25</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30804,38 +30804,38 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K423" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L423" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="M423" t="n">
-        <v>12395</v>
+        <v>30000</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>496</v>
+        <v>1200</v>
       </c>
       <c r="Q423" t="n">
         <v>25</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K424" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="L424" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="M424" t="n">
-        <v>77083</v>
+        <v>95625</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>3083</v>
+        <v>3825</v>
       </c>
       <c r="Q424" t="n">
         <v>25</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30948,41 +30948,41 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="K425" t="n">
-        <v>70000</v>
+        <v>37000</v>
       </c>
       <c r="L425" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="M425" t="n">
-        <v>70000</v>
+        <v>38950</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>2800</v>
+        <v>3246</v>
       </c>
       <c r="Q425" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,32 +31029,32 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="K426" t="n">
-        <v>37000</v>
+        <v>15000</v>
       </c>
       <c r="L426" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="M426" t="n">
-        <v>37818</v>
+        <v>16244</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>3152</v>
+        <v>650</v>
       </c>
       <c r="Q426" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44461</v>
+        <v>44270</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,29 +31101,29 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K427" t="n">
-        <v>90000</v>
+        <v>14000</v>
       </c>
       <c r="L427" t="n">
-        <v>95000</v>
+        <v>15000</v>
       </c>
       <c r="M427" t="n">
-        <v>92727</v>
+        <v>14533</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>3709</v>
+        <v>581</v>
       </c>
       <c r="Q427" t="n">
         <v>25</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31164,38 +31164,38 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="K428" t="n">
-        <v>85000</v>
+        <v>12000</v>
       </c>
       <c r="L428" t="n">
-        <v>85000</v>
+        <v>13000</v>
       </c>
       <c r="M428" t="n">
-        <v>85000</v>
+        <v>12395</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>3400</v>
+        <v>496</v>
       </c>
       <c r="Q428" t="n">
         <v>25</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31245,32 +31245,32 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K429" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L429" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="M429" t="n">
-        <v>38016</v>
+        <v>77083</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>3168</v>
+        <v>3083</v>
       </c>
       <c r="Q429" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="K430" t="n">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="L430" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="M430" t="n">
-        <v>37321</v>
+        <v>70000</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>1493</v>
+        <v>2800</v>
       </c>
       <c r="Q430" t="n">
         <v>25</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31380,41 +31380,41 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K431" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="L431" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M431" t="n">
-        <v>30000</v>
+        <v>37818</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>1200</v>
+        <v>3152</v>
       </c>
       <c r="Q431" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K432" t="n">
-        <v>65000</v>
+        <v>90000</v>
       </c>
       <c r="L432" t="n">
-        <v>70000</v>
+        <v>95000</v>
       </c>
       <c r="M432" t="n">
-        <v>67667</v>
+        <v>92727</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>2707</v>
+        <v>3709</v>
       </c>
       <c r="Q432" t="n">
         <v>25</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K433" t="n">
-        <v>55000</v>
+        <v>85000</v>
       </c>
       <c r="L433" t="n">
-        <v>55000</v>
+        <v>85000</v>
       </c>
       <c r="M433" t="n">
-        <v>55000</v>
+        <v>85000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31551,11 +31551,11 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="Q433" t="n">
         <v>25</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,32 +31605,32 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>400</v>
+        <v>63</v>
       </c>
       <c r="K434" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L434" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M434" t="n">
-        <v>15850</v>
+        <v>38016</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>634</v>
+        <v>3168</v>
       </c>
       <c r="Q434" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,29 +31677,29 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K435" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L435" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M435" t="n">
-        <v>16077</v>
+        <v>37321</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>643</v>
+        <v>1493</v>
       </c>
       <c r="Q435" t="n">
         <v>25</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K436" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L436" t="n">
-        <v>85000</v>
+        <v>30000</v>
       </c>
       <c r="M436" t="n">
-        <v>81875</v>
+        <v>30000</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>3275</v>
+        <v>1200</v>
       </c>
       <c r="Q436" t="n">
         <v>25</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31812,25 +31812,25 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K437" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
       <c r="L437" t="n">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="M437" t="n">
-        <v>75000</v>
+        <v>67667</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31839,11 +31839,11 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>3000</v>
+        <v>2707</v>
       </c>
       <c r="Q437" t="n">
         <v>25</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K438" t="n">
-        <v>90000</v>
+        <v>55000</v>
       </c>
       <c r="L438" t="n">
-        <v>95000</v>
+        <v>55000</v>
       </c>
       <c r="M438" t="n">
-        <v>92083</v>
+        <v>55000</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>3683</v>
+        <v>2200</v>
       </c>
       <c r="Q438" t="n">
         <v>25</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K439" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L439" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M439" t="n">
-        <v>29150</v>
+        <v>15850</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>1166</v>
+        <v>634</v>
       </c>
       <c r="Q439" t="n">
         <v>25</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44326</v>
+        <v>44286</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,29 +32037,29 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K440" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L440" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M440" t="n">
-        <v>34150</v>
+        <v>16077</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>1366</v>
+        <v>643</v>
       </c>
       <c r="Q440" t="n">
         <v>25</v>
@@ -32085,58 +32085,418 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E441" t="n">
+        <v>13</v>
+      </c>
+      <c r="F441" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J441" t="n">
+        <v>40</v>
+      </c>
+      <c r="K441" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L441" t="n">
+        <v>85000</v>
+      </c>
+      <c r="M441" t="n">
+        <v>81875</v>
+      </c>
+      <c r="N441" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P441" t="n">
+        <v>3275</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>25</v>
+      </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>6</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D442" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E442" t="n">
+        <v>13</v>
+      </c>
+      <c r="F442" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J442" t="n">
+        <v>10</v>
+      </c>
+      <c r="K442" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L442" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M442" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P442" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>25</v>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>6</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D443" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E443" t="n">
+        <v>13</v>
+      </c>
+      <c r="F443" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J443" t="n">
+        <v>12</v>
+      </c>
+      <c r="K443" t="n">
+        <v>90000</v>
+      </c>
+      <c r="L443" t="n">
+        <v>95000</v>
+      </c>
+      <c r="M443" t="n">
+        <v>92083</v>
+      </c>
+      <c r="N443" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P443" t="n">
+        <v>3683</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>25</v>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>6</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D444" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E444" t="n">
+        <v>13</v>
+      </c>
+      <c r="F444" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J444" t="n">
+        <v>40</v>
+      </c>
+      <c r="K444" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L444" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M444" t="n">
+        <v>29150</v>
+      </c>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P444" t="n">
+        <v>1166</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>25</v>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>6</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D445" s="2" t="n">
         <v>44326</v>
       </c>
-      <c r="E441" t="n">
-        <v>13</v>
-      </c>
-      <c r="F441" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H441" t="inlineStr">
+      <c r="E445" t="n">
+        <v>13</v>
+      </c>
+      <c r="F445" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J445" t="n">
+        <v>40</v>
+      </c>
+      <c r="K445" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L445" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M445" t="n">
+        <v>34150</v>
+      </c>
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P445" t="n">
+        <v>1366</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>25</v>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>6</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D446" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E446" t="n">
+        <v>13</v>
+      </c>
+      <c r="F446" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
         <is>
           <t>Inferno</t>
         </is>
       </c>
-      <c r="I441" t="inlineStr">
+      <c r="I446" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J441" t="n">
+      <c r="J446" t="n">
         <v>30</v>
       </c>
-      <c r="K441" t="n">
+      <c r="K446" t="n">
         <v>18000</v>
       </c>
-      <c r="L441" t="n">
+      <c r="L446" t="n">
         <v>20000</v>
       </c>
-      <c r="M441" t="n">
+      <c r="M446" t="n">
         <v>19133</v>
       </c>
-      <c r="N441" t="inlineStr">
+      <c r="N446" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O441" t="inlineStr">
+      <c r="O446" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P441" t="n">
+      <c r="P446" t="n">
         <v>1276</v>
       </c>
-      <c r="Q441" t="n">
+      <c r="Q446" t="n">
         <v>15</v>
       </c>
-      <c r="R441" t="inlineStr">
+      <c r="R446" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R473"/>
+  <dimension ref="A1:R475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22032,13 +22032,13 @@
         <v>60</v>
       </c>
       <c r="K301" t="n">
-        <v>30000</v>
+        <v>85000</v>
       </c>
       <c r="L301" t="n">
-        <v>35000</v>
+        <v>90000</v>
       </c>
       <c r="M301" t="n">
-        <v>32917</v>
+        <v>87917</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22047,11 +22047,11 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>1317</v>
+        <v>3517</v>
       </c>
       <c r="Q301" t="n">
         <v>25</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22104,13 +22104,13 @@
         <v>15</v>
       </c>
       <c r="K302" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="L302" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M302" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22119,11 +22119,11 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="Q302" t="n">
         <v>25</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K303" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="L303" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="M303" t="n">
-        <v>63182</v>
+        <v>32917</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22191,11 +22191,11 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>2527</v>
+        <v>1317</v>
       </c>
       <c r="Q303" t="n">
         <v>25</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22248,13 +22248,13 @@
         <v>15</v>
       </c>
       <c r="K304" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L304" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M304" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22263,11 +22263,11 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q304" t="n">
         <v>25</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K305" t="n">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="L305" t="n">
-        <v>85000</v>
+        <v>65000</v>
       </c>
       <c r="M305" t="n">
-        <v>82667</v>
+        <v>63182</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22335,11 +22335,11 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3307</v>
+        <v>2527</v>
       </c>
       <c r="Q305" t="n">
         <v>25</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K306" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="L306" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="M306" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22407,11 +22407,11 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q306" t="n">
         <v>25</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22461,32 +22461,32 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K307" t="n">
-        <v>33000</v>
+        <v>80000</v>
       </c>
       <c r="L307" t="n">
-        <v>35000</v>
+        <v>85000</v>
       </c>
       <c r="M307" t="n">
-        <v>34040</v>
+        <v>82667</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>2837</v>
+        <v>3307</v>
       </c>
       <c r="Q307" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22524,38 +22524,38 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="K308" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="L308" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M308" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="Q308" t="n">
         <v>25</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22605,32 +22605,32 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="K309" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L309" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M309" t="n">
-        <v>25000</v>
+        <v>34040</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>1000</v>
+        <v>2837</v>
       </c>
       <c r="Q309" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,29 +22677,29 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K310" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L310" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M310" t="n">
-        <v>32045</v>
+        <v>25000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>1282</v>
+        <v>1000</v>
       </c>
       <c r="Q310" t="n">
         <v>25</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22740,16 +22740,16 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K311" t="n">
         <v>25000</v>
@@ -22762,12 +22762,12 @@
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P311" t="n">
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22821,32 +22821,32 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="K312" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L312" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M312" t="n">
-        <v>19179</v>
+        <v>32045</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>1598</v>
+        <v>1282</v>
       </c>
       <c r="Q312" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K313" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L313" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M313" t="n">
-        <v>10892</v>
+        <v>25000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>436</v>
+        <v>1000</v>
       </c>
       <c r="Q313" t="n">
         <v>25</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22965,32 +22965,32 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="K314" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L314" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M314" t="n">
-        <v>14053</v>
+        <v>19179</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>562</v>
+        <v>1598</v>
       </c>
       <c r="Q314" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K315" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L315" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M315" t="n">
-        <v>19048</v>
+        <v>10892</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>762</v>
+        <v>436</v>
       </c>
       <c r="Q315" t="n">
         <v>25</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="K316" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L316" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M316" t="n">
-        <v>18821</v>
+        <v>14053</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>753</v>
+        <v>562</v>
       </c>
       <c r="Q316" t="n">
         <v>25</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="K317" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L317" t="n">
         <v>20000</v>
       </c>
-      <c r="L317" t="n">
-        <v>22000</v>
-      </c>
       <c r="M317" t="n">
-        <v>20850</v>
+        <v>19048</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>834</v>
+        <v>762</v>
       </c>
       <c r="Q317" t="n">
         <v>25</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="K318" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L318" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M318" t="n">
-        <v>16933</v>
+        <v>18821</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>677</v>
+        <v>753</v>
       </c>
       <c r="Q318" t="n">
         <v>25</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23328,13 +23328,13 @@
         <v>40</v>
       </c>
       <c r="K319" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L319" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M319" t="n">
-        <v>16150</v>
+        <v>20850</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>646</v>
+        <v>834</v>
       </c>
       <c r="Q319" t="n">
         <v>25</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="K320" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L320" t="n">
         <v>18000</v>
       </c>
       <c r="M320" t="n">
-        <v>17419</v>
+        <v>16933</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="Q320" t="n">
         <v>25</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23469,7 +23469,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K321" t="n">
         <v>15000</v>
@@ -23478,23 +23478,23 @@
         <v>17000</v>
       </c>
       <c r="M321" t="n">
-        <v>16067</v>
+        <v>16150</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>1071</v>
+        <v>646</v>
       </c>
       <c r="Q321" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23541,29 +23541,29 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K322" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="L322" t="n">
-        <v>80000</v>
+        <v>18000</v>
       </c>
       <c r="M322" t="n">
-        <v>77700</v>
+        <v>17419</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>3108</v>
+        <v>697</v>
       </c>
       <c r="Q322" t="n">
         <v>25</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23604,41 +23604,41 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J323" t="n">
+        <v>45</v>
+      </c>
+      <c r="K323" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L323" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M323" t="n">
+        <v>16067</v>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P323" t="n">
+        <v>1071</v>
+      </c>
+      <c r="Q323" t="n">
         <v>15</v>
-      </c>
-      <c r="K323" t="n">
-        <v>65000</v>
-      </c>
-      <c r="L323" t="n">
-        <v>65000</v>
-      </c>
-      <c r="M323" t="n">
-        <v>65000</v>
-      </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O323" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P323" t="n">
-        <v>2600</v>
-      </c>
-      <c r="Q323" t="n">
-        <v>25</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23685,32 +23685,32 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K324" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="L324" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="M324" t="n">
-        <v>34091</v>
+        <v>77700</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>2841</v>
+        <v>3108</v>
       </c>
       <c r="Q324" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K325" t="n">
-        <v>13000</v>
+        <v>65000</v>
       </c>
       <c r="L325" t="n">
-        <v>15000</v>
+        <v>65000</v>
       </c>
       <c r="M325" t="n">
-        <v>14268</v>
+        <v>65000</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>571</v>
+        <v>2600</v>
       </c>
       <c r="Q325" t="n">
         <v>25</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23829,32 +23829,32 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="K326" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L326" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M326" t="n">
-        <v>15940</v>
+        <v>34091</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>638</v>
+        <v>2841</v>
       </c>
       <c r="Q326" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23901,20 +23901,20 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K327" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L327" t="n">
         <v>15000</v>
       </c>
-      <c r="L327" t="n">
-        <v>17000</v>
-      </c>
       <c r="M327" t="n">
-        <v>15909</v>
+        <v>14268</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>636</v>
+        <v>571</v>
       </c>
       <c r="Q327" t="n">
         <v>25</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44407</v>
+        <v>44229</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="L328" t="n">
-        <v>60000</v>
+        <v>17000</v>
       </c>
       <c r="M328" t="n">
-        <v>57727</v>
+        <v>15940</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>2309</v>
+        <v>638</v>
       </c>
       <c r="Q328" t="n">
         <v>25</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44358</v>
+        <v>44229</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,29 +24045,29 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K329" t="n">
-        <v>65000</v>
+        <v>15000</v>
       </c>
       <c r="L329" t="n">
-        <v>70000</v>
+        <v>17000</v>
       </c>
       <c r="M329" t="n">
-        <v>67125</v>
+        <v>15909</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>2685</v>
+        <v>636</v>
       </c>
       <c r="Q329" t="n">
         <v>25</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24108,38 +24108,38 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="K330" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="L330" t="n">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="M330" t="n">
-        <v>45000</v>
+        <v>57727</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>1800</v>
+        <v>2309</v>
       </c>
       <c r="Q330" t="n">
         <v>25</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24189,29 +24189,29 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K331" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="L331" t="n">
-        <v>32000</v>
+        <v>70000</v>
       </c>
       <c r="M331" t="n">
-        <v>31368</v>
+        <v>67125</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>1255</v>
+        <v>2685</v>
       </c>
       <c r="Q331" t="n">
         <v>25</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K332" t="n">
-        <v>85000</v>
+        <v>45000</v>
       </c>
       <c r="L332" t="n">
-        <v>85000</v>
+        <v>45000</v>
       </c>
       <c r="M332" t="n">
-        <v>85000</v>
+        <v>45000</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="Q332" t="n">
         <v>25</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,29 +24333,29 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K333" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="L333" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="M333" t="n">
-        <v>9000</v>
+        <v>31368</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>360</v>
+        <v>1255</v>
       </c>
       <c r="Q333" t="n">
         <v>25</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="K334" t="n">
-        <v>35000</v>
+        <v>85000</v>
       </c>
       <c r="L334" t="n">
-        <v>40000</v>
+        <v>85000</v>
       </c>
       <c r="M334" t="n">
-        <v>37869</v>
+        <v>85000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>1515</v>
+        <v>3400</v>
       </c>
       <c r="Q334" t="n">
         <v>25</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24468,25 +24468,25 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K335" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="L335" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="M335" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="Q335" t="n">
         <v>25</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K336" t="n">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="L336" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="M336" t="n">
-        <v>58191</v>
+        <v>37869</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>2328</v>
+        <v>1515</v>
       </c>
       <c r="Q336" t="n">
         <v>25</v>
@@ -24612,38 +24612,38 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="K337" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L337" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M337" t="n">
-        <v>43378</v>
+        <v>30000</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>1735</v>
+        <v>1200</v>
       </c>
       <c r="Q337" t="n">
         <v>25</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24693,32 +24693,32 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K338" t="n">
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="L338" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="M338" t="n">
-        <v>23769</v>
+        <v>58191</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>1981</v>
+        <v>2328</v>
       </c>
       <c r="Q338" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24765,32 +24765,32 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K339" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L339" t="n">
-        <v>32000</v>
+        <v>45000</v>
       </c>
       <c r="M339" t="n">
-        <v>30878</v>
+        <v>43378</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>2059</v>
+        <v>1735</v>
       </c>
       <c r="Q339" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24837,32 +24837,32 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K340" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L340" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M340" t="n">
-        <v>36150</v>
+        <v>23769</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>1446</v>
+        <v>1981</v>
       </c>
       <c r="Q340" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24909,32 +24909,32 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="K341" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L341" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M341" t="n">
-        <v>34100</v>
+        <v>30878</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>1364</v>
+        <v>2059</v>
       </c>
       <c r="Q341" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K342" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L342" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="M342" t="n">
-        <v>28000</v>
+        <v>36150</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>1120</v>
+        <v>1446</v>
       </c>
       <c r="Q342" t="n">
         <v>25</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K343" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L343" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M343" t="n">
-        <v>27000</v>
+        <v>34100</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>1080</v>
+        <v>1364</v>
       </c>
       <c r="Q343" t="n">
         <v>25</v>
@@ -25116,25 +25116,25 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K344" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="L344" t="n">
-        <v>65000</v>
+        <v>28000</v>
       </c>
       <c r="M344" t="n">
-        <v>62875</v>
+        <v>28000</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>2515</v>
+        <v>1120</v>
       </c>
       <c r="Q344" t="n">
         <v>25</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K345" t="n">
-        <v>55000</v>
+        <v>27000</v>
       </c>
       <c r="L345" t="n">
-        <v>55000</v>
+        <v>27000</v>
       </c>
       <c r="M345" t="n">
-        <v>55000</v>
+        <v>27000</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25215,11 +25215,11 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>2200</v>
+        <v>1080</v>
       </c>
       <c r="Q345" t="n">
         <v>25</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25269,29 +25269,29 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="K346" t="n">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="L346" t="n">
-        <v>17000</v>
+        <v>65000</v>
       </c>
       <c r="M346" t="n">
-        <v>16133</v>
+        <v>62875</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>645</v>
+        <v>2515</v>
       </c>
       <c r="Q346" t="n">
         <v>25</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25332,38 +25332,38 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K347" t="n">
-        <v>16000</v>
+        <v>55000</v>
       </c>
       <c r="L347" t="n">
-        <v>18000</v>
+        <v>55000</v>
       </c>
       <c r="M347" t="n">
-        <v>17150</v>
+        <v>55000</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>686</v>
+        <v>2200</v>
       </c>
       <c r="Q347" t="n">
         <v>25</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25413,29 +25413,29 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="K348" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L348" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M348" t="n">
-        <v>19067</v>
+        <v>16133</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>763</v>
+        <v>645</v>
       </c>
       <c r="Q348" t="n">
         <v>25</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,7 +25485,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K349" t="n">
         <v>16000</v>
@@ -25494,7 +25494,7 @@
         <v>18000</v>
       </c>
       <c r="M349" t="n">
-        <v>16800</v>
+        <v>17150</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25503,11 +25503,11 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="Q349" t="n">
         <v>25</v>
@@ -25553,20 +25553,20 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="K350" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L350" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M350" t="n">
-        <v>15000</v>
+        <v>19067</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>600</v>
+        <v>763</v>
       </c>
       <c r="Q350" t="n">
         <v>25</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="K351" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L351" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M351" t="n">
-        <v>23821</v>
+        <v>16800</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>953</v>
+        <v>672</v>
       </c>
       <c r="Q351" t="n">
         <v>25</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25697,33 +25697,33 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K352" t="n">
         <v>15000</v>
       </c>
       <c r="L352" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M352" t="n">
-        <v>15769</v>
+        <v>15000</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="Q352" t="n">
         <v>25</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,29 +25773,29 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K353" t="n">
-        <v>90000</v>
+        <v>23000</v>
       </c>
       <c r="L353" t="n">
-        <v>95000</v>
+        <v>25000</v>
       </c>
       <c r="M353" t="n">
-        <v>93137</v>
+        <v>23821</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>3725</v>
+        <v>953</v>
       </c>
       <c r="Q353" t="n">
         <v>25</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25845,32 +25845,32 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="K354" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
       <c r="L354" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="M354" t="n">
-        <v>38963</v>
+        <v>15769</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>3247</v>
+        <v>631</v>
       </c>
       <c r="Q354" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25908,29 +25908,29 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K355" t="n">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="L355" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="M355" t="n">
-        <v>42875</v>
+        <v>93137</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>2858</v>
+        <v>3725</v>
       </c>
       <c r="Q355" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25989,32 +25989,32 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K356" t="n">
-        <v>13000</v>
+        <v>38000</v>
       </c>
       <c r="L356" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M356" t="n">
-        <v>14150</v>
+        <v>38963</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>566</v>
+        <v>3247</v>
       </c>
       <c r="Q356" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26052,41 +26052,41 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K357" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L357" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="M357" t="n">
-        <v>15686</v>
+        <v>42875</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>627</v>
+        <v>2858</v>
       </c>
       <c r="Q357" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26133,29 +26133,29 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K358" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="L358" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M358" t="n">
-        <v>32875</v>
+        <v>14150</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>1315</v>
+        <v>566</v>
       </c>
       <c r="Q358" t="n">
         <v>25</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K359" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="L359" t="n">
-        <v>60000</v>
+        <v>17000</v>
       </c>
       <c r="M359" t="n">
-        <v>57969</v>
+        <v>15686</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26223,11 +26223,11 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>2319</v>
+        <v>627</v>
       </c>
       <c r="Q359" t="n">
         <v>25</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26268,25 +26268,25 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="K360" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L360" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M360" t="n">
-        <v>50000</v>
+        <v>32875</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>2000</v>
+        <v>1315</v>
       </c>
       <c r="Q360" t="n">
         <v>25</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K361" t="n">
-        <v>18000</v>
+        <v>55000</v>
       </c>
       <c r="L361" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="M361" t="n">
-        <v>18850</v>
+        <v>57969</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>754</v>
+        <v>2319</v>
       </c>
       <c r="Q361" t="n">
         <v>25</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26417,24 +26417,24 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="K362" t="n">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="L362" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="M362" t="n">
-        <v>38905</v>
+        <v>50000</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>1556</v>
+        <v>2000</v>
       </c>
       <c r="Q362" t="n">
         <v>25</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26496,26 +26496,26 @@
         <v>40</v>
       </c>
       <c r="K363" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="L363" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="M363" t="n">
-        <v>37575</v>
+        <v>18850</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>1503</v>
+        <v>754</v>
       </c>
       <c r="Q363" t="n">
         <v>25</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K364" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="L364" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M364" t="n">
-        <v>35000</v>
+        <v>38905</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>1400</v>
+        <v>1556</v>
       </c>
       <c r="Q364" t="n">
         <v>25</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K365" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L365" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="M365" t="n">
-        <v>35000</v>
+        <v>37575</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>1400</v>
+        <v>1503</v>
       </c>
       <c r="Q365" t="n">
         <v>25</v>
@@ -26700,25 +26700,25 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K366" t="n">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="L366" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M366" t="n">
-        <v>72738</v>
+        <v>35000</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>2910</v>
+        <v>1400</v>
       </c>
       <c r="Q366" t="n">
         <v>25</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26784,13 +26784,13 @@
         <v>12</v>
       </c>
       <c r="K367" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="L367" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="M367" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="Q367" t="n">
         <v>25</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K368" t="n">
-        <v>33000</v>
+        <v>70000</v>
       </c>
       <c r="L368" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M368" t="n">
-        <v>34150</v>
+        <v>72738</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>1366</v>
+        <v>2910</v>
       </c>
       <c r="Q368" t="n">
         <v>25</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26916,41 +26916,41 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="K369" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="L369" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="M369" t="n">
-        <v>26109</v>
+        <v>60000</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>2176</v>
+        <v>2400</v>
       </c>
       <c r="Q369" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K370" t="n">
-        <v>58000</v>
+        <v>33000</v>
       </c>
       <c r="L370" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="M370" t="n">
-        <v>59200</v>
+        <v>34150</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>2368</v>
+        <v>1366</v>
       </c>
       <c r="Q370" t="n">
         <v>25</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27060,41 +27060,41 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="K371" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L371" t="n">
-        <v>50000</v>
+        <v>27000</v>
       </c>
       <c r="M371" t="n">
-        <v>50000</v>
+        <v>26109</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>2000</v>
+        <v>2176</v>
       </c>
       <c r="Q371" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K372" t="n">
-        <v>70000</v>
+        <v>58000</v>
       </c>
       <c r="L372" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="M372" t="n">
-        <v>70000</v>
+        <v>59200</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>2800</v>
+        <v>2368</v>
       </c>
       <c r="Q372" t="n">
         <v>25</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="K373" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="L373" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="M373" t="n">
-        <v>37312</v>
+        <v>50000</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>1492</v>
+        <v>2000</v>
       </c>
       <c r="Q373" t="n">
         <v>25</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27276,25 +27276,25 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K374" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="L374" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M374" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="Q374" t="n">
         <v>25</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27357,32 +27357,32 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K375" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L375" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="M375" t="n">
-        <v>27605</v>
+        <v>37312</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>1840</v>
+        <v>1492</v>
       </c>
       <c r="Q375" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27420,38 +27420,38 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="K376" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L376" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M376" t="n">
-        <v>28200</v>
+        <v>25000</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>1128</v>
+        <v>1000</v>
       </c>
       <c r="Q376" t="n">
         <v>25</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27501,32 +27501,32 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K377" t="n">
-        <v>65000</v>
+        <v>27000</v>
       </c>
       <c r="L377" t="n">
-        <v>70000</v>
+        <v>28000</v>
       </c>
       <c r="M377" t="n">
-        <v>67875</v>
+        <v>27605</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>2715</v>
+        <v>1840</v>
       </c>
       <c r="Q377" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27564,38 +27564,38 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="K378" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="L378" t="n">
-        <v>50000</v>
+        <v>29000</v>
       </c>
       <c r="M378" t="n">
-        <v>48148</v>
+        <v>28200</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>1926</v>
+        <v>1128</v>
       </c>
       <c r="Q378" t="n">
         <v>25</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K379" t="n">
-        <v>90000</v>
+        <v>65000</v>
       </c>
       <c r="L379" t="n">
-        <v>95000</v>
+        <v>70000</v>
       </c>
       <c r="M379" t="n">
-        <v>93077</v>
+        <v>67875</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27663,11 +27663,11 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>3723</v>
+        <v>2715</v>
       </c>
       <c r="Q379" t="n">
         <v>25</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K380" t="n">
-        <v>85000</v>
+        <v>45000</v>
       </c>
       <c r="L380" t="n">
-        <v>85000</v>
+        <v>50000</v>
       </c>
       <c r="M380" t="n">
-        <v>85000</v>
+        <v>48148</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>3400</v>
+        <v>1926</v>
       </c>
       <c r="Q380" t="n">
         <v>25</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,20 +27789,20 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K381" t="n">
-        <v>35000</v>
+        <v>90000</v>
       </c>
       <c r="L381" t="n">
-        <v>40000</v>
+        <v>95000</v>
       </c>
       <c r="M381" t="n">
-        <v>38000</v>
+        <v>93077</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>3167</v>
+        <v>3723</v>
       </c>
       <c r="Q381" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27852,38 +27852,38 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J382" t="n">
         <v>40</v>
       </c>
       <c r="K382" t="n">
-        <v>15000</v>
+        <v>85000</v>
       </c>
       <c r="L382" t="n">
-        <v>16000</v>
+        <v>85000</v>
       </c>
       <c r="M382" t="n">
-        <v>15425</v>
+        <v>85000</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>617</v>
+        <v>3400</v>
       </c>
       <c r="Q382" t="n">
         <v>25</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27933,32 +27933,32 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K383" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="L383" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="M383" t="n">
-        <v>12615</v>
+        <v>38000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>505</v>
+        <v>3167</v>
       </c>
       <c r="Q383" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,29 +28005,29 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K384" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="L384" t="n">
-        <v>90000</v>
+        <v>16000</v>
       </c>
       <c r="M384" t="n">
-        <v>83429</v>
+        <v>15425</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>3337</v>
+        <v>617</v>
       </c>
       <c r="Q384" t="n">
         <v>25</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44452</v>
+        <v>44243</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,29 +28077,29 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K385" t="n">
-        <v>100000</v>
+        <v>12000</v>
       </c>
       <c r="L385" t="n">
-        <v>110000</v>
+        <v>13000</v>
       </c>
       <c r="M385" t="n">
-        <v>104737</v>
+        <v>12615</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>4189</v>
+        <v>505</v>
       </c>
       <c r="Q385" t="n">
         <v>25</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,32 +28149,32 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="K386" t="n">
-        <v>33000</v>
+        <v>80000</v>
       </c>
       <c r="L386" t="n">
-        <v>35000</v>
+        <v>90000</v>
       </c>
       <c r="M386" t="n">
-        <v>33943</v>
+        <v>83429</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>2829</v>
+        <v>3337</v>
       </c>
       <c r="Q386" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="K387" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="L387" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="M387" t="n">
-        <v>77241</v>
+        <v>104737</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28239,11 +28239,11 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>3090</v>
+        <v>4189</v>
       </c>
       <c r="Q387" t="n">
         <v>25</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,32 +28293,32 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K388" t="n">
-        <v>70000</v>
+        <v>33000</v>
       </c>
       <c r="L388" t="n">
-        <v>85000</v>
+        <v>35000</v>
       </c>
       <c r="M388" t="n">
-        <v>78450</v>
+        <v>33943</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>3138</v>
+        <v>2829</v>
       </c>
       <c r="Q388" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="K389" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="L389" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="M389" t="n">
-        <v>70000</v>
+        <v>77241</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>2800</v>
+        <v>3090</v>
       </c>
       <c r="Q389" t="n">
         <v>25</v>
@@ -28433,20 +28433,20 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K390" t="n">
-        <v>65000</v>
+        <v>70000</v>
       </c>
       <c r="L390" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="M390" t="n">
-        <v>71053</v>
+        <v>78450</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>2842</v>
+        <v>3138</v>
       </c>
       <c r="Q390" t="n">
         <v>25</v>
@@ -28500,41 +28500,41 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="K391" t="n">
-        <v>33000</v>
+        <v>70000</v>
       </c>
       <c r="L391" t="n">
-        <v>37000</v>
+        <v>70000</v>
       </c>
       <c r="M391" t="n">
-        <v>34654</v>
+        <v>70000</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>2888</v>
+        <v>2800</v>
       </c>
       <c r="Q391" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28577,20 +28577,20 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K392" t="n">
-        <v>15000</v>
+        <v>65000</v>
       </c>
       <c r="L392" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="M392" t="n">
-        <v>15875</v>
+        <v>71053</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>635</v>
+        <v>2842</v>
       </c>
       <c r="Q392" t="n">
         <v>25</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,32 +28653,32 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K393" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L393" t="n">
-        <v>13000</v>
+        <v>37000</v>
       </c>
       <c r="M393" t="n">
-        <v>12378</v>
+        <v>34654</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>495</v>
+        <v>2888</v>
       </c>
       <c r="Q393" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28728,26 +28728,26 @@
         <v>80</v>
       </c>
       <c r="K394" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L394" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M394" t="n">
-        <v>13875</v>
+        <v>15875</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="Q394" t="n">
         <v>25</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,29 +28797,29 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K395" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L395" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M395" t="n">
-        <v>28870</v>
+        <v>12378</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>1155</v>
+        <v>495</v>
       </c>
       <c r="Q395" t="n">
         <v>25</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44433</v>
+        <v>44242</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,32 +28869,32 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="K396" t="n">
-        <v>33000</v>
+        <v>13000</v>
       </c>
       <c r="L396" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M396" t="n">
-        <v>33828</v>
+        <v>13875</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>2819</v>
+        <v>555</v>
       </c>
       <c r="Q396" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="K397" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L397" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M397" t="n">
-        <v>21875</v>
+        <v>28870</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28959,11 +28959,11 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>875</v>
+        <v>1155</v>
       </c>
       <c r="Q397" t="n">
         <v>25</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,32 +29013,32 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="K398" t="n">
-        <v>60000</v>
+        <v>33000</v>
       </c>
       <c r="L398" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="M398" t="n">
-        <v>62273</v>
+        <v>33828</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>2491</v>
+        <v>2819</v>
       </c>
       <c r="Q398" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29076,38 +29076,38 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K399" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L399" t="n">
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="M399" t="n">
-        <v>50000</v>
+        <v>21875</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2000</v>
+        <v>875</v>
       </c>
       <c r="Q399" t="n">
         <v>25</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K400" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="L400" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="M400" t="n">
-        <v>32917</v>
+        <v>62273</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29175,11 +29175,11 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>1317</v>
+        <v>2491</v>
       </c>
       <c r="Q400" t="n">
         <v>25</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29232,13 +29232,13 @@
         <v>15</v>
       </c>
       <c r="K401" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="L401" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M401" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q401" t="n">
         <v>25</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,29 +29301,29 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K402" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L402" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M402" t="n">
-        <v>27425</v>
+        <v>32917</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>1097</v>
+        <v>1317</v>
       </c>
       <c r="Q402" t="n">
         <v>25</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29364,41 +29364,41 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="K403" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L403" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M403" t="n">
-        <v>18135</v>
+        <v>25000</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1209</v>
+        <v>1000</v>
       </c>
       <c r="Q403" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29445,29 +29445,29 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K404" t="n">
-        <v>90000</v>
+        <v>27000</v>
       </c>
       <c r="L404" t="n">
-        <v>95000</v>
+        <v>28000</v>
       </c>
       <c r="M404" t="n">
-        <v>92812</v>
+        <v>27425</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>3712</v>
+        <v>1097</v>
       </c>
       <c r="Q404" t="n">
         <v>25</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29508,41 +29508,41 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K405" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="L405" t="n">
-        <v>75000</v>
+        <v>20000</v>
       </c>
       <c r="M405" t="n">
-        <v>75000</v>
+        <v>18135</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>3000</v>
+        <v>1209</v>
       </c>
       <c r="Q405" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="K406" t="n">
-        <v>14000</v>
+        <v>90000</v>
       </c>
       <c r="L406" t="n">
-        <v>15000</v>
+        <v>95000</v>
       </c>
       <c r="M406" t="n">
-        <v>14571</v>
+        <v>92812</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29607,11 +29607,11 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>583</v>
+        <v>3712</v>
       </c>
       <c r="Q406" t="n">
         <v>25</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K407" t="n">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="L407" t="n">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="M407" t="n">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>4400</v>
+        <v>3000</v>
       </c>
       <c r="Q407" t="n">
         <v>25</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,20 +29733,20 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K408" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="L408" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="M408" t="n">
-        <v>43000</v>
+        <v>14571</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>2867</v>
+        <v>583</v>
       </c>
       <c r="Q408" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29796,25 +29796,25 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="K409" t="n">
-        <v>18000</v>
+        <v>110000</v>
       </c>
       <c r="L409" t="n">
-        <v>19000</v>
+        <v>110000</v>
       </c>
       <c r="M409" t="n">
-        <v>18583</v>
+        <v>110000</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>743</v>
+        <v>4400</v>
       </c>
       <c r="Q409" t="n">
         <v>25</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,32 +29877,32 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="K410" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L410" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="M410" t="n">
-        <v>15000</v>
+        <v>43000</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>600</v>
+        <v>2867</v>
       </c>
       <c r="Q410" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="K411" t="n">
-        <v>60000</v>
+        <v>18000</v>
       </c>
       <c r="L411" t="n">
-        <v>65000</v>
+        <v>19000</v>
       </c>
       <c r="M411" t="n">
-        <v>62581</v>
+        <v>18583</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>2503</v>
+        <v>743</v>
       </c>
       <c r="Q411" t="n">
         <v>25</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30012,38 +30012,38 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="K412" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="L412" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="M412" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="Q412" t="n">
         <v>25</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,29 +30093,29 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K413" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="L413" t="n">
-        <v>22000</v>
+        <v>65000</v>
       </c>
       <c r="M413" t="n">
-        <v>20850</v>
+        <v>62581</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>834</v>
+        <v>2503</v>
       </c>
       <c r="Q413" t="n">
         <v>25</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K414" t="n">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="L414" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="M414" t="n">
-        <v>57656</v>
+        <v>50000</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>2306</v>
+        <v>2000</v>
       </c>
       <c r="Q414" t="n">
         <v>25</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30228,38 +30228,38 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K415" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L415" t="n">
-        <v>50000</v>
+        <v>22000</v>
       </c>
       <c r="M415" t="n">
-        <v>50000</v>
+        <v>20850</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>2000</v>
+        <v>834</v>
       </c>
       <c r="Q415" t="n">
         <v>25</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K416" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="L416" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="M416" t="n">
-        <v>72262</v>
+        <v>57656</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>2890</v>
+        <v>2306</v>
       </c>
       <c r="Q416" t="n">
         <v>25</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K417" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="L417" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="M417" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="Q417" t="n">
         <v>25</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,32 +30453,32 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K418" t="n">
-        <v>23000</v>
+        <v>70000</v>
       </c>
       <c r="L418" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M418" t="n">
-        <v>24179</v>
+        <v>72262</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>2015</v>
+        <v>2890</v>
       </c>
       <c r="Q418" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30516,29 +30516,29 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K419" t="n">
-        <v>33000</v>
+        <v>65000</v>
       </c>
       <c r="L419" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="M419" t="n">
-        <v>33686</v>
+        <v>65000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>2246</v>
+        <v>2600</v>
       </c>
       <c r="Q419" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,32 +30597,32 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="K420" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L420" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M420" t="n">
-        <v>34167</v>
+        <v>24179</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>1367</v>
+        <v>2015</v>
       </c>
       <c r="Q420" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,41 +30660,41 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K421" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L421" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M421" t="n">
-        <v>28000</v>
+        <v>33686</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>1120</v>
+        <v>2246</v>
       </c>
       <c r="Q421" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K422" t="n">
-        <v>65000</v>
+        <v>33000</v>
       </c>
       <c r="L422" t="n">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="M422" t="n">
-        <v>68026</v>
+        <v>34167</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30759,11 +30759,11 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>2721</v>
+        <v>1367</v>
       </c>
       <c r="Q422" t="n">
         <v>25</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K423" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="L423" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="M423" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30831,11 +30831,11 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>2000</v>
+        <v>1120</v>
       </c>
       <c r="Q423" t="n">
         <v>25</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,32 +30885,32 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="K424" t="n">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L424" t="n">
-        <v>22000</v>
+        <v>70000</v>
       </c>
       <c r="M424" t="n">
-        <v>21135</v>
+        <v>68026</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>1761</v>
+        <v>2721</v>
       </c>
       <c r="Q424" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30948,29 +30948,29 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K425" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="L425" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M425" t="n">
-        <v>27609</v>
+        <v>50000</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>1841</v>
+        <v>2000</v>
       </c>
       <c r="Q425" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,7 +31029,7 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="K426" t="n">
         <v>20000</v>
@@ -31038,23 +31038,23 @@
         <v>22000</v>
       </c>
       <c r="M426" t="n">
-        <v>21150</v>
+        <v>21135</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>846</v>
+        <v>1761</v>
       </c>
       <c r="Q426" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,32 +31101,32 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="K427" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L427" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M427" t="n">
-        <v>16833</v>
+        <v>27609</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>673</v>
+        <v>1841</v>
       </c>
       <c r="Q427" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31176,17 +31176,17 @@
         <v>40</v>
       </c>
       <c r="K428" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L428" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M428" t="n">
-        <v>17150</v>
+        <v>21150</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>686</v>
+        <v>846</v>
       </c>
       <c r="Q428" t="n">
         <v>25</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31245,32 +31245,32 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K429" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L429" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M429" t="n">
-        <v>14753</v>
+        <v>16833</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>1229</v>
+        <v>673</v>
       </c>
       <c r="Q429" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,32 +31317,32 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K430" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L430" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M430" t="n">
-        <v>15605</v>
+        <v>17150</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>1040</v>
+        <v>686</v>
       </c>
       <c r="Q430" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,32 +31389,32 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="K431" t="n">
-        <v>50000</v>
+        <v>14000</v>
       </c>
       <c r="L431" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="M431" t="n">
-        <v>52000</v>
+        <v>14753</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>2080</v>
+        <v>1229</v>
       </c>
       <c r="Q431" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31452,41 +31452,41 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K432" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L432" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="M432" t="n">
-        <v>40000</v>
+        <v>15605</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>1600</v>
+        <v>1040</v>
       </c>
       <c r="Q432" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K433" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="L433" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="M433" t="n">
-        <v>66905</v>
+        <v>52000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31551,11 +31551,11 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>2676</v>
+        <v>2080</v>
       </c>
       <c r="Q433" t="n">
         <v>25</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K434" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L434" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="M434" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="Q434" t="n">
         <v>25</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,32 +31677,32 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="K435" t="n">
-        <v>18000</v>
+        <v>65000</v>
       </c>
       <c r="L435" t="n">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="M435" t="n">
-        <v>18844</v>
+        <v>66905</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>1570</v>
+        <v>2676</v>
       </c>
       <c r="Q435" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31740,29 +31740,29 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K436" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="L436" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M436" t="n">
-        <v>23850</v>
+        <v>50000</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,10 +31771,10 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>1590</v>
+        <v>2000</v>
       </c>
       <c r="Q436" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,32 +31821,32 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K437" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L437" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M437" t="n">
-        <v>33317</v>
+        <v>18844</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>2221</v>
+        <v>1570</v>
       </c>
       <c r="Q437" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K438" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L438" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M438" t="n">
-        <v>30000</v>
+        <v>23850</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>2000</v>
+        <v>1590</v>
       </c>
       <c r="Q438" t="n">
         <v>15</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,32 +31965,32 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="K439" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="L439" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M439" t="n">
-        <v>19091</v>
+        <v>33317</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>764</v>
+        <v>2221</v>
       </c>
       <c r="Q439" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32028,41 +32028,41 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="K440" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="L440" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M440" t="n">
-        <v>14333</v>
+        <v>30000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>573</v>
+        <v>2000</v>
       </c>
       <c r="Q440" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,29 +32109,29 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="K441" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L441" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M441" t="n">
-        <v>24438</v>
+        <v>19091</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>978</v>
+        <v>764</v>
       </c>
       <c r="Q441" t="n">
         <v>25</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,32 +32181,32 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="K442" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L442" t="n">
         <v>15000</v>
       </c>
-      <c r="L442" t="n">
-        <v>17000</v>
-      </c>
       <c r="M442" t="n">
-        <v>16200</v>
+        <v>14333</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>1080</v>
+        <v>573</v>
       </c>
       <c r="Q442" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K443" t="n">
-        <v>90000</v>
+        <v>24000</v>
       </c>
       <c r="L443" t="n">
-        <v>90000</v>
+        <v>25000</v>
       </c>
       <c r="M443" t="n">
-        <v>90000</v>
+        <v>24438</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32271,11 +32271,11 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>3600</v>
+        <v>978</v>
       </c>
       <c r="Q443" t="n">
         <v>25</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32325,32 +32325,32 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K444" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L444" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M444" t="n">
-        <v>19282</v>
+        <v>16200</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>1607</v>
+        <v>1080</v>
       </c>
       <c r="Q444" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,29 +32397,29 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K445" t="n">
-        <v>22000</v>
+        <v>90000</v>
       </c>
       <c r="L445" t="n">
-        <v>23000</v>
+        <v>90000</v>
       </c>
       <c r="M445" t="n">
-        <v>22575</v>
+        <v>90000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>903</v>
+        <v>3600</v>
       </c>
       <c r="Q445" t="n">
         <v>25</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,32 +32469,32 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K446" t="n">
-        <v>80000</v>
+        <v>18000</v>
       </c>
       <c r="L446" t="n">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="M446" t="n">
-        <v>80000</v>
+        <v>19282</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>3200</v>
+        <v>1607</v>
       </c>
       <c r="Q446" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,38 +32532,38 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K447" t="n">
-        <v>75000</v>
+        <v>22000</v>
       </c>
       <c r="L447" t="n">
-        <v>75000</v>
+        <v>23000</v>
       </c>
       <c r="M447" t="n">
-        <v>75000</v>
+        <v>22575</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>3000</v>
+        <v>903</v>
       </c>
       <c r="Q447" t="n">
         <v>25</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K448" t="n">
-        <v>55000</v>
+        <v>80000</v>
       </c>
       <c r="L448" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="M448" t="n">
-        <v>58108</v>
+        <v>80000</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2324</v>
+        <v>3200</v>
       </c>
       <c r="Q448" t="n">
         <v>25</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44187</v>
+        <v>44392</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="K449" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L449" t="n">
-        <v>40000</v>
+        <v>75000</v>
       </c>
       <c r="M449" t="n">
-        <v>37289</v>
+        <v>75000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>1492</v>
+        <v>3000</v>
       </c>
       <c r="Q449" t="n">
         <v>25</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32748,25 +32748,25 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K450" t="n">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="L450" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="M450" t="n">
-        <v>30000</v>
+        <v>58108</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>1200</v>
+        <v>2324</v>
       </c>
       <c r="Q450" t="n">
         <v>25</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K451" t="n">
-        <v>90000</v>
+        <v>35000</v>
       </c>
       <c r="L451" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="M451" t="n">
-        <v>95625</v>
+        <v>37289</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>3825</v>
+        <v>1492</v>
       </c>
       <c r="Q451" t="n">
         <v>25</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32892,41 +32892,41 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K452" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="L452" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M452" t="n">
-        <v>38950</v>
+        <v>30000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>3246</v>
+        <v>1200</v>
       </c>
       <c r="Q452" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K453" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="L453" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="M453" t="n">
-        <v>16244</v>
+        <v>95625</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>650</v>
+        <v>3825</v>
       </c>
       <c r="Q453" t="n">
         <v>25</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,32 +33045,32 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K454" t="n">
-        <v>14000</v>
+        <v>37000</v>
       </c>
       <c r="L454" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M454" t="n">
-        <v>14533</v>
+        <v>38950</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>581</v>
+        <v>3246</v>
       </c>
       <c r="Q454" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,29 +33117,29 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K455" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L455" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M455" t="n">
-        <v>12395</v>
+        <v>16244</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>496</v>
+        <v>650</v>
       </c>
       <c r="Q455" t="n">
         <v>25</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,29 +33189,29 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K456" t="n">
-        <v>75000</v>
+        <v>14000</v>
       </c>
       <c r="L456" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="M456" t="n">
-        <v>77083</v>
+        <v>14533</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>3083</v>
+        <v>581</v>
       </c>
       <c r="Q456" t="n">
         <v>25</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33252,38 +33252,38 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="K457" t="n">
-        <v>70000</v>
+        <v>12000</v>
       </c>
       <c r="L457" t="n">
-        <v>70000</v>
+        <v>13000</v>
       </c>
       <c r="M457" t="n">
-        <v>70000</v>
+        <v>12395</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>2800</v>
+        <v>496</v>
       </c>
       <c r="Q457" t="n">
         <v>25</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,32 +33333,32 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K458" t="n">
-        <v>37000</v>
+        <v>75000</v>
       </c>
       <c r="L458" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="M458" t="n">
-        <v>37818</v>
+        <v>77083</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>3152</v>
+        <v>3083</v>
       </c>
       <c r="Q458" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K459" t="n">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="L459" t="n">
-        <v>95000</v>
+        <v>70000</v>
       </c>
       <c r="M459" t="n">
-        <v>92727</v>
+        <v>70000</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>3709</v>
+        <v>2800</v>
       </c>
       <c r="Q459" t="n">
         <v>25</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33468,41 +33468,41 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K460" t="n">
-        <v>85000</v>
+        <v>37000</v>
       </c>
       <c r="L460" t="n">
-        <v>85000</v>
+        <v>40000</v>
       </c>
       <c r="M460" t="n">
-        <v>85000</v>
+        <v>37818</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>3400</v>
+        <v>3152</v>
       </c>
       <c r="Q460" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,32 +33549,32 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K461" t="n">
-        <v>35000</v>
+        <v>90000</v>
       </c>
       <c r="L461" t="n">
-        <v>40000</v>
+        <v>95000</v>
       </c>
       <c r="M461" t="n">
-        <v>38016</v>
+        <v>92727</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>3168</v>
+        <v>3709</v>
       </c>
       <c r="Q461" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="K462" t="n">
-        <v>35000</v>
+        <v>85000</v>
       </c>
       <c r="L462" t="n">
-        <v>40000</v>
+        <v>85000</v>
       </c>
       <c r="M462" t="n">
-        <v>37321</v>
+        <v>85000</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1493</v>
+        <v>3400</v>
       </c>
       <c r="Q462" t="n">
         <v>25</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33684,41 +33684,41 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="K463" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L463" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M463" t="n">
-        <v>30000</v>
+        <v>38016</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1200</v>
+        <v>3168</v>
       </c>
       <c r="Q463" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K464" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="L464" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="M464" t="n">
-        <v>67667</v>
+        <v>37321</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>2707</v>
+        <v>1493</v>
       </c>
       <c r="Q464" t="n">
         <v>25</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K465" t="n">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="L465" t="n">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="M465" t="n">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="Q465" t="n">
         <v>25</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="K466" t="n">
-        <v>15000</v>
+        <v>65000</v>
       </c>
       <c r="L466" t="n">
-        <v>17000</v>
+        <v>70000</v>
       </c>
       <c r="M466" t="n">
-        <v>15850</v>
+        <v>67667</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>634</v>
+        <v>2707</v>
       </c>
       <c r="Q466" t="n">
         <v>25</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33977,33 +33977,33 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="K467" t="n">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="L467" t="n">
-        <v>17000</v>
+        <v>55000</v>
       </c>
       <c r="M467" t="n">
-        <v>16077</v>
+        <v>55000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>643</v>
+        <v>2200</v>
       </c>
       <c r="Q467" t="n">
         <v>25</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K468" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="L468" t="n">
-        <v>85000</v>
+        <v>17000</v>
       </c>
       <c r="M468" t="n">
-        <v>81875</v>
+        <v>15850</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>3275</v>
+        <v>634</v>
       </c>
       <c r="Q468" t="n">
         <v>25</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,38 +34116,38 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="K469" t="n">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="L469" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="M469" t="n">
-        <v>75000</v>
+        <v>16077</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>3000</v>
+        <v>643</v>
       </c>
       <c r="Q469" t="n">
         <v>25</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K470" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="L470" t="n">
-        <v>95000</v>
+        <v>85000</v>
       </c>
       <c r="M470" t="n">
-        <v>92083</v>
+        <v>81875</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>3683</v>
+        <v>3275</v>
       </c>
       <c r="Q470" t="n">
         <v>25</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K471" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="L471" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M471" t="n">
-        <v>29150</v>
+        <v>75000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>1166</v>
+        <v>3000</v>
       </c>
       <c r="Q471" t="n">
         <v>25</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K472" t="n">
-        <v>33000</v>
+        <v>90000</v>
       </c>
       <c r="L472" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="M472" t="n">
-        <v>34150</v>
+        <v>92083</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34359,11 +34359,11 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>1366</v>
+        <v>3683</v>
       </c>
       <c r="Q472" t="n">
         <v>25</v>
@@ -34389,58 +34389,202 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E473" t="n">
+        <v>13</v>
+      </c>
+      <c r="F473" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J473" t="n">
+        <v>40</v>
+      </c>
+      <c r="K473" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L473" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M473" t="n">
+        <v>29150</v>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P473" t="n">
+        <v>1166</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>25</v>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>6</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D474" s="2" t="n">
         <v>44326</v>
       </c>
-      <c r="E473" t="n">
-        <v>13</v>
-      </c>
-      <c r="F473" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H473" t="inlineStr">
+      <c r="E474" t="n">
+        <v>13</v>
+      </c>
+      <c r="F474" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J474" t="n">
+        <v>40</v>
+      </c>
+      <c r="K474" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L474" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M474" t="n">
+        <v>34150</v>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P474" t="n">
+        <v>1366</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>25</v>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>6</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D475" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E475" t="n">
+        <v>13</v>
+      </c>
+      <c r="F475" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
         <is>
           <t>Inferno</t>
         </is>
       </c>
-      <c r="I473" t="inlineStr">
+      <c r="I475" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J473" t="n">
+      <c r="J475" t="n">
         <v>30</v>
       </c>
-      <c r="K473" t="n">
+      <c r="K475" t="n">
         <v>18000</v>
       </c>
-      <c r="L473" t="n">
+      <c r="L475" t="n">
         <v>20000</v>
       </c>
-      <c r="M473" t="n">
+      <c r="M475" t="n">
         <v>19133</v>
       </c>
-      <c r="N473" t="inlineStr">
+      <c r="N475" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O473" t="inlineStr">
+      <c r="O475" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P473" t="n">
+      <c r="P475" t="n">
         <v>1276</v>
       </c>
-      <c r="Q473" t="n">
+      <c r="Q475" t="n">
         <v>15</v>
       </c>
-      <c r="R473" t="inlineStr">
+      <c r="R475" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R475"/>
+  <dimension ref="A1:R479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K331" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="L331" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="M331" t="n">
-        <v>67125</v>
+        <v>57759</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>2685</v>
+        <v>2310</v>
       </c>
       <c r="Q331" t="n">
         <v>25</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,7 +24261,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K332" t="n">
         <v>45000</v>
@@ -24279,7 +24279,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P332" t="n">
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,29 +24333,29 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K333" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L333" t="n">
-        <v>32000</v>
+        <v>80000</v>
       </c>
       <c r="M333" t="n">
-        <v>31368</v>
+        <v>76500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>1255</v>
+        <v>3060</v>
       </c>
       <c r="Q333" t="n">
         <v>25</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24396,25 +24396,25 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
         <v>20</v>
       </c>
       <c r="K334" t="n">
-        <v>85000</v>
+        <v>65000</v>
       </c>
       <c r="L334" t="n">
-        <v>85000</v>
+        <v>65000</v>
       </c>
       <c r="M334" t="n">
-        <v>85000</v>
+        <v>65000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24423,11 +24423,11 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="Q334" t="n">
         <v>25</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="K335" t="n">
-        <v>9000</v>
+        <v>65000</v>
       </c>
       <c r="L335" t="n">
-        <v>9000</v>
+        <v>70000</v>
       </c>
       <c r="M335" t="n">
-        <v>9000</v>
+        <v>67125</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>360</v>
+        <v>2685</v>
       </c>
       <c r="Q335" t="n">
         <v>25</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="K336" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L336" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="M336" t="n">
-        <v>37869</v>
+        <v>45000</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>1515</v>
+        <v>1800</v>
       </c>
       <c r="Q336" t="n">
         <v>25</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24612,38 +24612,38 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="K337" t="n">
         <v>30000</v>
       </c>
       <c r="L337" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M337" t="n">
-        <v>30000</v>
+        <v>31368</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="Q337" t="n">
         <v>25</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="K338" t="n">
-        <v>55000</v>
+        <v>85000</v>
       </c>
       <c r="L338" t="n">
-        <v>60000</v>
+        <v>85000</v>
       </c>
       <c r="M338" t="n">
-        <v>58191</v>
+        <v>85000</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>2328</v>
+        <v>3400</v>
       </c>
       <c r="Q338" t="n">
         <v>25</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,29 +24765,29 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K339" t="n">
-        <v>40000</v>
+        <v>9000</v>
       </c>
       <c r="L339" t="n">
-        <v>45000</v>
+        <v>9000</v>
       </c>
       <c r="M339" t="n">
-        <v>43378</v>
+        <v>9000</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>1735</v>
+        <v>360</v>
       </c>
       <c r="Q339" t="n">
         <v>25</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24837,32 +24837,32 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="K340" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L340" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M340" t="n">
-        <v>23769</v>
+        <v>37869</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>1981</v>
+        <v>1515</v>
       </c>
       <c r="Q340" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24900,41 +24900,41 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K341" t="n">
         <v>30000</v>
       </c>
       <c r="L341" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M341" t="n">
-        <v>30878</v>
+        <v>30000</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>2059</v>
+        <v>1200</v>
       </c>
       <c r="Q341" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K342" t="n">
-        <v>35000</v>
+        <v>55000</v>
       </c>
       <c r="L342" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="M342" t="n">
-        <v>36150</v>
+        <v>58191</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>1446</v>
+        <v>2328</v>
       </c>
       <c r="Q342" t="n">
         <v>25</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25053,29 +25053,29 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="K343" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="L343" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M343" t="n">
-        <v>34100</v>
+        <v>43378</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>1364</v>
+        <v>1735</v>
       </c>
       <c r="Q343" t="n">
         <v>25</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25116,41 +25116,41 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J344" t="n">
+        <v>26</v>
+      </c>
+      <c r="K344" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L344" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M344" t="n">
+        <v>23769</v>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P344" t="n">
+        <v>1981</v>
+      </c>
+      <c r="Q344" t="n">
         <v>12</v>
-      </c>
-      <c r="K344" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L344" t="n">
-        <v>28000</v>
-      </c>
-      <c r="M344" t="n">
-        <v>28000</v>
-      </c>
-      <c r="N344" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O344" t="inlineStr">
-        <is>
-          <t>Provincia de Huasco</t>
-        </is>
-      </c>
-      <c r="P344" t="n">
-        <v>1120</v>
-      </c>
-      <c r="Q344" t="n">
-        <v>25</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25188,41 +25188,41 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K345" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L345" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M345" t="n">
-        <v>27000</v>
+        <v>30878</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>1080</v>
+        <v>2059</v>
       </c>
       <c r="Q345" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25272,13 +25272,13 @@
         <v>40</v>
       </c>
       <c r="K346" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="L346" t="n">
-        <v>65000</v>
+        <v>37000</v>
       </c>
       <c r="M346" t="n">
-        <v>62875</v>
+        <v>36150</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>2515</v>
+        <v>1446</v>
       </c>
       <c r="Q346" t="n">
         <v>25</v>
@@ -25332,25 +25332,25 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="K347" t="n">
-        <v>55000</v>
+        <v>33000</v>
       </c>
       <c r="L347" t="n">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="M347" t="n">
-        <v>55000</v>
+        <v>34100</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25359,11 +25359,11 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>2200</v>
+        <v>1364</v>
       </c>
       <c r="Q347" t="n">
         <v>25</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,33 +25409,33 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="K348" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="L348" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="M348" t="n">
-        <v>16133</v>
+        <v>28000</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>645</v>
+        <v>1120</v>
       </c>
       <c r="Q348" t="n">
         <v>25</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25476,38 +25476,38 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K349" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="L349" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="M349" t="n">
-        <v>17150</v>
+        <v>27000</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>686</v>
+        <v>1080</v>
       </c>
       <c r="Q349" t="n">
         <v>25</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K350" t="n">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="L350" t="n">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="M350" t="n">
-        <v>19067</v>
+        <v>62875</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>763</v>
+        <v>2515</v>
       </c>
       <c r="Q350" t="n">
         <v>25</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25625,33 +25625,33 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="K351" t="n">
-        <v>16000</v>
+        <v>55000</v>
       </c>
       <c r="L351" t="n">
-        <v>18000</v>
+        <v>55000</v>
       </c>
       <c r="M351" t="n">
-        <v>16800</v>
+        <v>55000</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P351" t="n">
-        <v>672</v>
+        <v>2200</v>
       </c>
       <c r="Q351" t="n">
         <v>25</v>
@@ -25692,38 +25692,38 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="K352" t="n">
         <v>15000</v>
       </c>
       <c r="L352" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M352" t="n">
-        <v>15000</v>
+        <v>16133</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="Q352" t="n">
         <v>25</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K353" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L353" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M353" t="n">
-        <v>23821</v>
+        <v>17150</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>953</v>
+        <v>686</v>
       </c>
       <c r="Q353" t="n">
         <v>25</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,29 +25845,29 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="K354" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L354" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M354" t="n">
-        <v>15769</v>
+        <v>19067</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>631</v>
+        <v>763</v>
       </c>
       <c r="Q354" t="n">
         <v>25</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25917,29 +25917,29 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="K355" t="n">
-        <v>90000</v>
+        <v>16000</v>
       </c>
       <c r="L355" t="n">
-        <v>95000</v>
+        <v>18000</v>
       </c>
       <c r="M355" t="n">
-        <v>93137</v>
+        <v>16800</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>3725</v>
+        <v>672</v>
       </c>
       <c r="Q355" t="n">
         <v>25</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25980,41 +25980,41 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="K356" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
       <c r="L356" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="M356" t="n">
-        <v>38963</v>
+        <v>15000</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>3247</v>
+        <v>600</v>
       </c>
       <c r="Q356" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26052,41 +26052,41 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K357" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="L357" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M357" t="n">
-        <v>42875</v>
+        <v>23821</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>2858</v>
+        <v>953</v>
       </c>
       <c r="Q357" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26133,29 +26133,29 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K358" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L358" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M358" t="n">
-        <v>14150</v>
+        <v>15769</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="Q358" t="n">
         <v>25</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26205,29 +26205,29 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="K359" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="L359" t="n">
-        <v>17000</v>
+        <v>95000</v>
       </c>
       <c r="M359" t="n">
-        <v>15686</v>
+        <v>93137</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>627</v>
+        <v>3725</v>
       </c>
       <c r="Q359" t="n">
         <v>25</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44204</v>
+        <v>44475</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26277,32 +26277,32 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>400</v>
+        <v>54</v>
       </c>
       <c r="K360" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="L360" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M360" t="n">
-        <v>32875</v>
+        <v>38963</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>1315</v>
+        <v>3247</v>
       </c>
       <c r="Q360" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26340,29 +26340,29 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K361" t="n">
-        <v>55000</v>
+        <v>40000</v>
       </c>
       <c r="L361" t="n">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="M361" t="n">
-        <v>57969</v>
+        <v>42875</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>2319</v>
+        <v>2858</v>
       </c>
       <c r="Q361" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26417,33 +26417,33 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K362" t="n">
-        <v>50000</v>
+        <v>13000</v>
       </c>
       <c r="L362" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="M362" t="n">
-        <v>50000</v>
+        <v>14150</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>2000</v>
+        <v>566</v>
       </c>
       <c r="Q362" t="n">
         <v>25</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K363" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L363" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M363" t="n">
-        <v>18850</v>
+        <v>15686</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>754</v>
+        <v>627</v>
       </c>
       <c r="Q363" t="n">
         <v>25</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,29 +26565,29 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="K364" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="L364" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="M364" t="n">
-        <v>38905</v>
+        <v>32875</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>1556</v>
+        <v>1315</v>
       </c>
       <c r="Q364" t="n">
         <v>25</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26637,29 +26637,29 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K365" t="n">
-        <v>37000</v>
+        <v>55000</v>
       </c>
       <c r="L365" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="M365" t="n">
-        <v>37575</v>
+        <v>57969</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>1503</v>
+        <v>2319</v>
       </c>
       <c r="Q365" t="n">
         <v>25</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,20 +26709,20 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K366" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="L366" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M366" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="Q366" t="n">
         <v>25</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26772,38 +26772,38 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K367" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L367" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M367" t="n">
-        <v>35000</v>
+        <v>18850</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>1400</v>
+        <v>754</v>
       </c>
       <c r="Q367" t="n">
         <v>25</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26856,13 +26856,13 @@
         <v>42</v>
       </c>
       <c r="K368" t="n">
-        <v>70000</v>
+        <v>38000</v>
       </c>
       <c r="L368" t="n">
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="M368" t="n">
-        <v>72738</v>
+        <v>38905</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>2910</v>
+        <v>1556</v>
       </c>
       <c r="Q368" t="n">
         <v>25</v>
@@ -26916,25 +26916,25 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K369" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="L369" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="M369" t="n">
-        <v>60000</v>
+        <v>37575</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>2400</v>
+        <v>1503</v>
       </c>
       <c r="Q369" t="n">
         <v>25</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K370" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L370" t="n">
         <v>35000</v>
       </c>
       <c r="M370" t="n">
-        <v>34150</v>
+        <v>35000</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>1366</v>
+        <v>1400</v>
       </c>
       <c r="Q370" t="n">
         <v>25</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27060,41 +27060,41 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="K371" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L371" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M371" t="n">
-        <v>26109</v>
+        <v>35000</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>2176</v>
+        <v>1400</v>
       </c>
       <c r="Q371" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K372" t="n">
-        <v>58000</v>
+        <v>70000</v>
       </c>
       <c r="L372" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="M372" t="n">
-        <v>59200</v>
+        <v>72738</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27159,11 +27159,11 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>2368</v>
+        <v>2910</v>
       </c>
       <c r="Q372" t="n">
         <v>25</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K373" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="L373" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="M373" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q373" t="n">
         <v>25</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K374" t="n">
-        <v>70000</v>
+        <v>33000</v>
       </c>
       <c r="L374" t="n">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="M374" t="n">
-        <v>70000</v>
+        <v>34150</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>2800</v>
+        <v>1366</v>
       </c>
       <c r="Q374" t="n">
         <v>25</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27357,32 +27357,32 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K375" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L375" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="M375" t="n">
-        <v>37312</v>
+        <v>26109</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>1492</v>
+        <v>2176</v>
       </c>
       <c r="Q375" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K376" t="n">
-        <v>25000</v>
+        <v>58000</v>
       </c>
       <c r="L376" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="M376" t="n">
-        <v>25000</v>
+        <v>59200</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>1000</v>
+        <v>2368</v>
       </c>
       <c r="Q376" t="n">
         <v>25</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27492,41 +27492,41 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K377" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="L377" t="n">
-        <v>28000</v>
+        <v>50000</v>
       </c>
       <c r="M377" t="n">
-        <v>27605</v>
+        <v>50000</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>1840</v>
+        <v>2000</v>
       </c>
       <c r="Q377" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,29 +27573,29 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="K378" t="n">
-        <v>27000</v>
+        <v>70000</v>
       </c>
       <c r="L378" t="n">
-        <v>29000</v>
+        <v>70000</v>
       </c>
       <c r="M378" t="n">
-        <v>28200</v>
+        <v>70000</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>1128</v>
+        <v>2800</v>
       </c>
       <c r="Q378" t="n">
         <v>25</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K379" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="L379" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="M379" t="n">
-        <v>67875</v>
+        <v>37312</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27663,11 +27663,11 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>2715</v>
+        <v>1492</v>
       </c>
       <c r="Q379" t="n">
         <v>25</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K380" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L380" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M380" t="n">
-        <v>48148</v>
+        <v>25000</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>1926</v>
+        <v>1000</v>
       </c>
       <c r="Q380" t="n">
         <v>25</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,32 +27789,32 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="K381" t="n">
-        <v>90000</v>
+        <v>27000</v>
       </c>
       <c r="L381" t="n">
-        <v>95000</v>
+        <v>28000</v>
       </c>
       <c r="M381" t="n">
-        <v>93077</v>
+        <v>27605</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>3723</v>
+        <v>1840</v>
       </c>
       <c r="Q381" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27852,38 +27852,38 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K382" t="n">
-        <v>85000</v>
+        <v>27000</v>
       </c>
       <c r="L382" t="n">
-        <v>85000</v>
+        <v>29000</v>
       </c>
       <c r="M382" t="n">
-        <v>85000</v>
+        <v>28200</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>3400</v>
+        <v>1128</v>
       </c>
       <c r="Q382" t="n">
         <v>25</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27936,29 +27936,29 @@
         <v>40</v>
       </c>
       <c r="K383" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="L383" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="M383" t="n">
-        <v>38000</v>
+        <v>67875</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>3167</v>
+        <v>2715</v>
       </c>
       <c r="Q383" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44243</v>
+        <v>44350</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -27996,38 +27996,38 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K384" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="L384" t="n">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="M384" t="n">
-        <v>15425</v>
+        <v>48148</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>617</v>
+        <v>1926</v>
       </c>
       <c r="Q384" t="n">
         <v>25</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,29 +28077,29 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K385" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="L385" t="n">
-        <v>13000</v>
+        <v>95000</v>
       </c>
       <c r="M385" t="n">
-        <v>12615</v>
+        <v>93077</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>505</v>
+        <v>3723</v>
       </c>
       <c r="Q385" t="n">
         <v>25</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K386" t="n">
-        <v>80000</v>
+        <v>85000</v>
       </c>
       <c r="L386" t="n">
-        <v>90000</v>
+        <v>85000</v>
       </c>
       <c r="M386" t="n">
-        <v>83429</v>
+        <v>85000</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>3337</v>
+        <v>3400</v>
       </c>
       <c r="Q386" t="n">
         <v>25</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,20 +28221,20 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K387" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="L387" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="M387" t="n">
-        <v>104737</v>
+        <v>38000</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>4189</v>
+        <v>3167</v>
       </c>
       <c r="Q387" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44452</v>
+        <v>44243</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,32 +28293,32 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K388" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L388" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M388" t="n">
-        <v>33943</v>
+        <v>15425</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>2829</v>
+        <v>617</v>
       </c>
       <c r="Q388" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44435</v>
+        <v>44243</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,29 +28365,29 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K389" t="n">
-        <v>75000</v>
+        <v>12000</v>
       </c>
       <c r="L389" t="n">
-        <v>80000</v>
+        <v>13000</v>
       </c>
       <c r="M389" t="n">
-        <v>77241</v>
+        <v>12615</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>3090</v>
+        <v>505</v>
       </c>
       <c r="Q389" t="n">
         <v>25</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="K390" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="L390" t="n">
-        <v>85000</v>
+        <v>90000</v>
       </c>
       <c r="M390" t="n">
-        <v>78450</v>
+        <v>83429</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>3138</v>
+        <v>3337</v>
       </c>
       <c r="Q390" t="n">
         <v>25</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28505,20 +28505,20 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="K391" t="n">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="L391" t="n">
-        <v>70000</v>
+        <v>110000</v>
       </c>
       <c r="M391" t="n">
-        <v>70000</v>
+        <v>104737</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28527,11 +28527,11 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>2800</v>
+        <v>4189</v>
       </c>
       <c r="Q391" t="n">
         <v>25</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28572,41 +28572,41 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K392" t="n">
-        <v>65000</v>
+        <v>33000</v>
       </c>
       <c r="L392" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M392" t="n">
-        <v>71053</v>
+        <v>33943</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>2842</v>
+        <v>2829</v>
       </c>
       <c r="Q392" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,32 +28653,32 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="K393" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="L393" t="n">
-        <v>37000</v>
+        <v>80000</v>
       </c>
       <c r="M393" t="n">
-        <v>34654</v>
+        <v>77241</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>2888</v>
+        <v>3090</v>
       </c>
       <c r="Q393" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K394" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="L394" t="n">
-        <v>17000</v>
+        <v>85000</v>
       </c>
       <c r="M394" t="n">
-        <v>15875</v>
+        <v>78450</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>635</v>
+        <v>3138</v>
       </c>
       <c r="Q394" t="n">
         <v>25</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28788,25 +28788,25 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="K395" t="n">
-        <v>12000</v>
+        <v>70000</v>
       </c>
       <c r="L395" t="n">
-        <v>13000</v>
+        <v>70000</v>
       </c>
       <c r="M395" t="n">
-        <v>12378</v>
+        <v>70000</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28815,11 +28815,11 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>495</v>
+        <v>2800</v>
       </c>
       <c r="Q395" t="n">
         <v>25</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,38 +28860,38 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K396" t="n">
-        <v>13000</v>
+        <v>65000</v>
       </c>
       <c r="L396" t="n">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="M396" t="n">
-        <v>13875</v>
+        <v>71053</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>555</v>
+        <v>2842</v>
       </c>
       <c r="Q396" t="n">
         <v>25</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,32 +28941,32 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="K397" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L397" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M397" t="n">
-        <v>28870</v>
+        <v>34654</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>1155</v>
+        <v>2888</v>
       </c>
       <c r="Q397" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44433</v>
+        <v>44242</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,32 +29013,32 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="K398" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L398" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M398" t="n">
-        <v>33828</v>
+        <v>15875</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>2819</v>
+        <v>635</v>
       </c>
       <c r="Q398" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29085,20 +29085,20 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="K399" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L399" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M399" t="n">
-        <v>21875</v>
+        <v>12378</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>875</v>
+        <v>495</v>
       </c>
       <c r="Q399" t="n">
         <v>25</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,29 +29157,29 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K400" t="n">
-        <v>60000</v>
+        <v>13000</v>
       </c>
       <c r="L400" t="n">
-        <v>65000</v>
+        <v>15000</v>
       </c>
       <c r="M400" t="n">
-        <v>62273</v>
+        <v>13875</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>2491</v>
+        <v>555</v>
       </c>
       <c r="Q400" t="n">
         <v>25</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44159</v>
+        <v>44377</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29220,38 +29220,38 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K401" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="L401" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="M401" t="n">
-        <v>50000</v>
+        <v>28870</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>2000</v>
+        <v>1155</v>
       </c>
       <c r="Q401" t="n">
         <v>25</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,32 +29301,32 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="K402" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L402" t="n">
         <v>35000</v>
       </c>
       <c r="M402" t="n">
-        <v>32917</v>
+        <v>33828</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>1317</v>
+        <v>2819</v>
       </c>
       <c r="Q402" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29364,38 +29364,38 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K403" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L403" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M403" t="n">
-        <v>25000</v>
+        <v>21875</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="Q403" t="n">
         <v>25</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,29 +29445,29 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K404" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="L404" t="n">
-        <v>28000</v>
+        <v>65000</v>
       </c>
       <c r="M404" t="n">
-        <v>27425</v>
+        <v>62273</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1097</v>
+        <v>2491</v>
       </c>
       <c r="Q404" t="n">
         <v>25</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29508,29 +29508,29 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="K405" t="n">
-        <v>17000</v>
+        <v>50000</v>
       </c>
       <c r="L405" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="M405" t="n">
-        <v>18135</v>
+        <v>50000</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>1209</v>
+        <v>2000</v>
       </c>
       <c r="Q405" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K406" t="n">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="L406" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="M406" t="n">
-        <v>92812</v>
+        <v>32917</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>3712</v>
+        <v>1317</v>
       </c>
       <c r="Q406" t="n">
         <v>25</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K407" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="L407" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M407" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q407" t="n">
         <v>25</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,29 +29733,29 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K408" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="L408" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M408" t="n">
-        <v>14571</v>
+        <v>27425</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>583</v>
+        <v>1097</v>
       </c>
       <c r="Q408" t="n">
         <v>25</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29796,29 +29796,29 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="K409" t="n">
-        <v>110000</v>
+        <v>17000</v>
       </c>
       <c r="L409" t="n">
-        <v>110000</v>
+        <v>20000</v>
       </c>
       <c r="M409" t="n">
-        <v>110000</v>
+        <v>18135</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>4400</v>
+        <v>1209</v>
       </c>
       <c r="Q409" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,32 +29877,32 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K410" t="n">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="L410" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="M410" t="n">
-        <v>43000</v>
+        <v>92812</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>2867</v>
+        <v>3712</v>
       </c>
       <c r="Q410" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="K411" t="n">
-        <v>18000</v>
+        <v>75000</v>
       </c>
       <c r="L411" t="n">
-        <v>19000</v>
+        <v>75000</v>
       </c>
       <c r="M411" t="n">
-        <v>18583</v>
+        <v>75000</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>743</v>
+        <v>3000</v>
       </c>
       <c r="Q411" t="n">
         <v>25</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,29 +30021,29 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="K412" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L412" t="n">
         <v>15000</v>
       </c>
       <c r="M412" t="n">
-        <v>15000</v>
+        <v>14571</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="Q412" t="n">
         <v>25</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44363</v>
+        <v>44476</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30084,25 +30084,25 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K413" t="n">
-        <v>60000</v>
+        <v>110000</v>
       </c>
       <c r="L413" t="n">
-        <v>65000</v>
+        <v>110000</v>
       </c>
       <c r="M413" t="n">
-        <v>62581</v>
+        <v>110000</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30111,11 +30111,11 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>2503</v>
+        <v>4400</v>
       </c>
       <c r="Q413" t="n">
         <v>25</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44363</v>
+        <v>44476</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30156,41 +30156,41 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K414" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L414" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="M414" t="n">
-        <v>50000</v>
+        <v>43000</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>2000</v>
+        <v>2867</v>
       </c>
       <c r="Q414" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,29 +30237,29 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K415" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L415" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M415" t="n">
-        <v>20850</v>
+        <v>18583</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>834</v>
+        <v>743</v>
       </c>
       <c r="Q415" t="n">
         <v>25</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,29 +30309,29 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="K416" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="L416" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="M416" t="n">
-        <v>57656</v>
+        <v>15000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>2306</v>
+        <v>600</v>
       </c>
       <c r="Q416" t="n">
         <v>25</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K417" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="L417" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="M417" t="n">
-        <v>50000</v>
+        <v>62581</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2000</v>
+        <v>2503</v>
       </c>
       <c r="Q417" t="n">
         <v>25</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30444,25 +30444,25 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="K418" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="L418" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="M418" t="n">
-        <v>72262</v>
+        <v>50000</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30471,11 +30471,11 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>2890</v>
+        <v>2000</v>
       </c>
       <c r="Q418" t="n">
         <v>25</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30516,38 +30516,38 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K419" t="n">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="L419" t="n">
-        <v>65000</v>
+        <v>22000</v>
       </c>
       <c r="M419" t="n">
-        <v>65000</v>
+        <v>20850</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>2600</v>
+        <v>834</v>
       </c>
       <c r="Q419" t="n">
         <v>25</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,32 +30597,32 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K420" t="n">
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="L420" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="M420" t="n">
-        <v>24179</v>
+        <v>57656</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2015</v>
+        <v>2306</v>
       </c>
       <c r="Q420" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30660,41 +30660,41 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K421" t="n">
-        <v>33000</v>
+        <v>50000</v>
       </c>
       <c r="L421" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M421" t="n">
-        <v>33686</v>
+        <v>50000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>2246</v>
+        <v>2000</v>
       </c>
       <c r="Q421" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="K422" t="n">
-        <v>33000</v>
+        <v>70000</v>
       </c>
       <c r="L422" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M422" t="n">
-        <v>34167</v>
+        <v>72262</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30759,11 +30759,11 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1367</v>
+        <v>2890</v>
       </c>
       <c r="Q422" t="n">
         <v>25</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K423" t="n">
-        <v>28000</v>
+        <v>65000</v>
       </c>
       <c r="L423" t="n">
-        <v>28000</v>
+        <v>65000</v>
       </c>
       <c r="M423" t="n">
-        <v>28000</v>
+        <v>65000</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30831,11 +30831,11 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1120</v>
+        <v>2600</v>
       </c>
       <c r="Q423" t="n">
         <v>25</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,32 +30885,32 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K424" t="n">
-        <v>65000</v>
+        <v>23000</v>
       </c>
       <c r="L424" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="M424" t="n">
-        <v>68026</v>
+        <v>24179</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>2721</v>
+        <v>2015</v>
       </c>
       <c r="Q424" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30948,29 +30948,29 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K425" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="L425" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M425" t="n">
-        <v>50000</v>
+        <v>33686</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>2000</v>
+        <v>2246</v>
       </c>
       <c r="Q425" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,32 +31029,32 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="K426" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L426" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M426" t="n">
-        <v>21135</v>
+        <v>34167</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1761</v>
+        <v>1367</v>
       </c>
       <c r="Q426" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31092,41 +31092,41 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K427" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L427" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M427" t="n">
-        <v>27609</v>
+        <v>28000</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>1841</v>
+        <v>1120</v>
       </c>
       <c r="Q427" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K428" t="n">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L428" t="n">
-        <v>22000</v>
+        <v>70000</v>
       </c>
       <c r="M428" t="n">
-        <v>21150</v>
+        <v>68026</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31191,11 +31191,11 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>846</v>
+        <v>2721</v>
       </c>
       <c r="Q428" t="n">
         <v>25</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31236,38 +31236,38 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="K429" t="n">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="L429" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="M429" t="n">
-        <v>16833</v>
+        <v>50000</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>673</v>
+        <v>2000</v>
       </c>
       <c r="Q429" t="n">
         <v>25</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,32 +31317,32 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="K430" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L430" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M430" t="n">
-        <v>17150</v>
+        <v>21135</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>686</v>
+        <v>1761</v>
       </c>
       <c r="Q430" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,32 +31389,32 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="K431" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L431" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M431" t="n">
-        <v>14753</v>
+        <v>27609</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>1229</v>
+        <v>1841</v>
       </c>
       <c r="Q431" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,32 +31461,32 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K432" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L432" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M432" t="n">
-        <v>15605</v>
+        <v>21150</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>1040</v>
+        <v>846</v>
       </c>
       <c r="Q432" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,29 +31533,29 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K433" t="n">
-        <v>50000</v>
+        <v>16000</v>
       </c>
       <c r="L433" t="n">
-        <v>55000</v>
+        <v>18000</v>
       </c>
       <c r="M433" t="n">
-        <v>52000</v>
+        <v>16833</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>2080</v>
+        <v>673</v>
       </c>
       <c r="Q433" t="n">
         <v>25</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31596,38 +31596,38 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K434" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L434" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M434" t="n">
-        <v>40000</v>
+        <v>17150</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>1600</v>
+        <v>686</v>
       </c>
       <c r="Q434" t="n">
         <v>25</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,32 +31677,32 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="K435" t="n">
-        <v>65000</v>
+        <v>14000</v>
       </c>
       <c r="L435" t="n">
-        <v>70000</v>
+        <v>15000</v>
       </c>
       <c r="M435" t="n">
-        <v>66905</v>
+        <v>14753</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>2676</v>
+        <v>1229</v>
       </c>
       <c r="Q435" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31740,41 +31740,41 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="K436" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="L436" t="n">
-        <v>50000</v>
+        <v>16000</v>
       </c>
       <c r="M436" t="n">
-        <v>50000</v>
+        <v>15605</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2000</v>
+        <v>1040</v>
       </c>
       <c r="Q436" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,32 +31821,32 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K437" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="L437" t="n">
-        <v>20000</v>
+        <v>55000</v>
       </c>
       <c r="M437" t="n">
-        <v>18844</v>
+        <v>52000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>1570</v>
+        <v>2080</v>
       </c>
       <c r="Q437" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31884,41 +31884,41 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K438" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L438" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M438" t="n">
-        <v>23850</v>
+        <v>40000</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1590</v>
+        <v>1600</v>
       </c>
       <c r="Q438" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,20 +31965,20 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="K439" t="n">
-        <v>32000</v>
+        <v>65000</v>
       </c>
       <c r="L439" t="n">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="M439" t="n">
-        <v>33317</v>
+        <v>66905</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>2221</v>
+        <v>2676</v>
       </c>
       <c r="Q439" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,20 +32037,20 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K440" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L440" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M440" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32062,7 +32062,7 @@
         <v>2000</v>
       </c>
       <c r="Q440" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44223</v>
+        <v>44357</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,7 +32109,7 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="K441" t="n">
         <v>18000</v>
@@ -32118,23 +32118,23 @@
         <v>20000</v>
       </c>
       <c r="M441" t="n">
-        <v>19091</v>
+        <v>18844</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>764</v>
+        <v>1570</v>
       </c>
       <c r="Q441" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44223</v>
+        <v>44357</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,32 +32181,32 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K442" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L442" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M442" t="n">
-        <v>14333</v>
+        <v>23850</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>573</v>
+        <v>1590</v>
       </c>
       <c r="Q442" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,32 +32253,32 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="K443" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L443" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M443" t="n">
-        <v>24438</v>
+        <v>33317</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>978</v>
+        <v>2221</v>
       </c>
       <c r="Q443" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K444" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L444" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M444" t="n">
-        <v>16200</v>
+        <v>30000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32343,11 +32343,11 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>1080</v>
+        <v>2000</v>
       </c>
       <c r="Q444" t="n">
         <v>15</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,29 +32397,29 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="K445" t="n">
-        <v>90000</v>
+        <v>18000</v>
       </c>
       <c r="L445" t="n">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="M445" t="n">
-        <v>90000</v>
+        <v>19091</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>3600</v>
+        <v>764</v>
       </c>
       <c r="Q445" t="n">
         <v>25</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44333</v>
+        <v>44223</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,32 +32469,32 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="K446" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L446" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M446" t="n">
-        <v>19282</v>
+        <v>14333</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>1607</v>
+        <v>573</v>
       </c>
       <c r="Q446" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,29 +32541,29 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K447" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L447" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M447" t="n">
-        <v>22575</v>
+        <v>24438</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>903</v>
+        <v>978</v>
       </c>
       <c r="Q447" t="n">
         <v>25</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44392</v>
+        <v>44298</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,32 +32613,32 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K448" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="L448" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M448" t="n">
-        <v>80000</v>
+        <v>16200</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>3200</v>
+        <v>1080</v>
       </c>
       <c r="Q448" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K449" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="L449" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="M449" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="Q449" t="n">
         <v>25</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44425</v>
+        <v>44333</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,32 +32757,32 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K450" t="n">
-        <v>55000</v>
+        <v>18000</v>
       </c>
       <c r="L450" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="M450" t="n">
-        <v>58108</v>
+        <v>19282</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>2324</v>
+        <v>1607</v>
       </c>
       <c r="Q450" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44187</v>
+        <v>44314</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32829,29 +32829,29 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="K451" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L451" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="M451" t="n">
-        <v>37289</v>
+        <v>22575</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>1492</v>
+        <v>903</v>
       </c>
       <c r="Q451" t="n">
         <v>25</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44187</v>
+        <v>44392</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K452" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L452" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M452" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="Q452" t="n">
         <v>25</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="K453" t="n">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="L453" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M453" t="n">
-        <v>95625</v>
+        <v>75000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>3825</v>
+        <v>3000</v>
       </c>
       <c r="Q453" t="n">
         <v>25</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,32 +33045,32 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="K454" t="n">
-        <v>37000</v>
+        <v>55000</v>
       </c>
       <c r="L454" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="M454" t="n">
-        <v>38950</v>
+        <v>58108</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>3246</v>
+        <v>2324</v>
       </c>
       <c r="Q454" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K455" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L455" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M455" t="n">
-        <v>16244</v>
+        <v>37289</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>650</v>
+        <v>1492</v>
       </c>
       <c r="Q455" t="n">
         <v>25</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33180,38 +33180,38 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="K456" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L456" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M456" t="n">
-        <v>14533</v>
+        <v>30000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>581</v>
+        <v>1200</v>
       </c>
       <c r="Q456" t="n">
         <v>25</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,29 +33261,29 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K457" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="L457" t="n">
-        <v>13000</v>
+        <v>100000</v>
       </c>
       <c r="M457" t="n">
-        <v>12395</v>
+        <v>95625</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>496</v>
+        <v>3825</v>
       </c>
       <c r="Q457" t="n">
         <v>25</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,32 +33333,32 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K458" t="n">
-        <v>75000</v>
+        <v>37000</v>
       </c>
       <c r="L458" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="M458" t="n">
-        <v>77083</v>
+        <v>38950</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>3083</v>
+        <v>3246</v>
       </c>
       <c r="Q458" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="K459" t="n">
-        <v>70000</v>
+        <v>15000</v>
       </c>
       <c r="L459" t="n">
-        <v>70000</v>
+        <v>17000</v>
       </c>
       <c r="M459" t="n">
-        <v>70000</v>
+        <v>16244</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>2800</v>
+        <v>650</v>
       </c>
       <c r="Q459" t="n">
         <v>25</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,32 +33477,32 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="K460" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="L460" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="M460" t="n">
-        <v>37818</v>
+        <v>14533</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>3152</v>
+        <v>581</v>
       </c>
       <c r="Q460" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,29 +33549,29 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K461" t="n">
-        <v>90000</v>
+        <v>12000</v>
       </c>
       <c r="L461" t="n">
-        <v>95000</v>
+        <v>13000</v>
       </c>
       <c r="M461" t="n">
-        <v>92727</v>
+        <v>12395</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>3709</v>
+        <v>496</v>
       </c>
       <c r="Q461" t="n">
         <v>25</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K462" t="n">
-        <v>85000</v>
+        <v>75000</v>
       </c>
       <c r="L462" t="n">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="M462" t="n">
-        <v>85000</v>
+        <v>77083</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>3400</v>
+        <v>3083</v>
       </c>
       <c r="Q462" t="n">
         <v>25</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33684,41 +33684,41 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="K463" t="n">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="L463" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="M463" t="n">
-        <v>38016</v>
+        <v>70000</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>3168</v>
+        <v>2800</v>
       </c>
       <c r="Q463" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,32 +33765,32 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="K464" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L464" t="n">
         <v>40000</v>
       </c>
       <c r="M464" t="n">
-        <v>37321</v>
+        <v>37818</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>1493</v>
+        <v>3152</v>
       </c>
       <c r="Q464" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K465" t="n">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="L465" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="M465" t="n">
-        <v>30000</v>
+        <v>92727</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>1200</v>
+        <v>3709</v>
       </c>
       <c r="Q465" t="n">
         <v>25</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33900,25 +33900,25 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K466" t="n">
-        <v>65000</v>
+        <v>85000</v>
       </c>
       <c r="L466" t="n">
-        <v>70000</v>
+        <v>85000</v>
       </c>
       <c r="M466" t="n">
-        <v>67667</v>
+        <v>85000</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>2707</v>
+        <v>3400</v>
       </c>
       <c r="Q466" t="n">
         <v>25</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33972,41 +33972,41 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="K467" t="n">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="L467" t="n">
-        <v>55000</v>
+        <v>40000</v>
       </c>
       <c r="M467" t="n">
-        <v>55000</v>
+        <v>38016</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2200</v>
+        <v>3168</v>
       </c>
       <c r="Q467" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K468" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L468" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M468" t="n">
-        <v>15850</v>
+        <v>37321</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>634</v>
+        <v>1493</v>
       </c>
       <c r="Q468" t="n">
         <v>25</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,38 +34116,38 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="K469" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L469" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M469" t="n">
-        <v>16077</v>
+        <v>30000</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>643</v>
+        <v>1200</v>
       </c>
       <c r="Q469" t="n">
         <v>25</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K470" t="n">
-        <v>80000</v>
+        <v>65000</v>
       </c>
       <c r="L470" t="n">
-        <v>85000</v>
+        <v>70000</v>
       </c>
       <c r="M470" t="n">
-        <v>81875</v>
+        <v>67667</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>3275</v>
+        <v>2707</v>
       </c>
       <c r="Q470" t="n">
         <v>25</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K471" t="n">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="L471" t="n">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="M471" t="n">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q471" t="n">
         <v>25</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="K472" t="n">
-        <v>90000</v>
+        <v>15000</v>
       </c>
       <c r="L472" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="M472" t="n">
-        <v>92083</v>
+        <v>15850</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34359,11 +34359,11 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>3683</v>
+        <v>634</v>
       </c>
       <c r="Q472" t="n">
         <v>25</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,29 +34413,29 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K473" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L473" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M473" t="n">
-        <v>29150</v>
+        <v>16077</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>1166</v>
+        <v>643</v>
       </c>
       <c r="Q473" t="n">
         <v>25</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34488,13 +34488,13 @@
         <v>40</v>
       </c>
       <c r="K474" t="n">
-        <v>33000</v>
+        <v>80000</v>
       </c>
       <c r="L474" t="n">
-        <v>35000</v>
+        <v>85000</v>
       </c>
       <c r="M474" t="n">
-        <v>34150</v>
+        <v>81875</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>1366</v>
+        <v>3275</v>
       </c>
       <c r="Q474" t="n">
         <v>25</v>
@@ -34533,58 +34533,346 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E475" t="n">
+        <v>13</v>
+      </c>
+      <c r="F475" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J475" t="n">
+        <v>10</v>
+      </c>
+      <c r="K475" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L475" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M475" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P475" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>25</v>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>6</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D476" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E476" t="n">
+        <v>13</v>
+      </c>
+      <c r="F476" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J476" t="n">
+        <v>12</v>
+      </c>
+      <c r="K476" t="n">
+        <v>90000</v>
+      </c>
+      <c r="L476" t="n">
+        <v>95000</v>
+      </c>
+      <c r="M476" t="n">
+        <v>92083</v>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P476" t="n">
+        <v>3683</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>25</v>
+      </c>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>6</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D477" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E477" t="n">
+        <v>13</v>
+      </c>
+      <c r="F477" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J477" t="n">
+        <v>40</v>
+      </c>
+      <c r="K477" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L477" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M477" t="n">
+        <v>29150</v>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P477" t="n">
+        <v>1166</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>25</v>
+      </c>
+      <c r="R477" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>6</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D478" s="2" t="n">
         <v>44326</v>
       </c>
-      <c r="E475" t="n">
-        <v>13</v>
-      </c>
-      <c r="F475" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H475" t="inlineStr">
+      <c r="E478" t="n">
+        <v>13</v>
+      </c>
+      <c r="F478" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J478" t="n">
+        <v>40</v>
+      </c>
+      <c r="K478" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L478" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M478" t="n">
+        <v>34150</v>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P478" t="n">
+        <v>1366</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>25</v>
+      </c>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>6</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D479" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E479" t="n">
+        <v>13</v>
+      </c>
+      <c r="F479" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
         <is>
           <t>Inferno</t>
         </is>
       </c>
-      <c r="I475" t="inlineStr">
+      <c r="I479" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J475" t="n">
+      <c r="J479" t="n">
         <v>30</v>
       </c>
-      <c r="K475" t="n">
+      <c r="K479" t="n">
         <v>18000</v>
       </c>
-      <c r="L475" t="n">
+      <c r="L479" t="n">
         <v>20000</v>
       </c>
-      <c r="M475" t="n">
+      <c r="M479" t="n">
         <v>19133</v>
       </c>
-      <c r="N475" t="inlineStr">
+      <c r="N479" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O475" t="inlineStr">
+      <c r="O479" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P475" t="n">
+      <c r="P479" t="n">
         <v>1276</v>
       </c>
-      <c r="Q475" t="n">
+      <c r="Q479" t="n">
         <v>15</v>
       </c>
-      <c r="R475" t="inlineStr">
+      <c r="R479" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R487"/>
+  <dimension ref="A1:R491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K434" t="n">
-        <v>33000</v>
+        <v>60000</v>
       </c>
       <c r="L434" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="M434" t="n">
-        <v>34167</v>
+        <v>63000</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>1367</v>
+        <v>2520</v>
       </c>
       <c r="Q434" t="n">
         <v>25</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="K435" t="n">
-        <v>28000</v>
+        <v>50000</v>
       </c>
       <c r="L435" t="n">
-        <v>28000</v>
+        <v>50000</v>
       </c>
       <c r="M435" t="n">
-        <v>28000</v>
+        <v>50000</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>1120</v>
+        <v>2000</v>
       </c>
       <c r="Q435" t="n">
         <v>25</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K436" t="n">
-        <v>65000</v>
+        <v>85000</v>
       </c>
       <c r="L436" t="n">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="M436" t="n">
-        <v>68026</v>
+        <v>87143</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2721</v>
+        <v>3486</v>
       </c>
       <c r="Q436" t="n">
         <v>25</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31824,13 +31824,13 @@
         <v>10</v>
       </c>
       <c r="K437" t="n">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="L437" t="n">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="M437" t="n">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q437" t="n">
         <v>25</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31893,32 +31893,32 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="K438" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L438" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M438" t="n">
-        <v>21135</v>
+        <v>34167</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1761</v>
+        <v>1367</v>
       </c>
       <c r="Q438" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31956,41 +31956,41 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K439" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L439" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M439" t="n">
-        <v>27609</v>
+        <v>28000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>1841</v>
+        <v>1120</v>
       </c>
       <c r="Q439" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K440" t="n">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L440" t="n">
-        <v>22000</v>
+        <v>70000</v>
       </c>
       <c r="M440" t="n">
-        <v>21150</v>
+        <v>68026</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>846</v>
+        <v>2721</v>
       </c>
       <c r="Q440" t="n">
         <v>25</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32100,38 +32100,38 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="K441" t="n">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="L441" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="M441" t="n">
-        <v>16833</v>
+        <v>50000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>673</v>
+        <v>2000</v>
       </c>
       <c r="Q441" t="n">
         <v>25</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,32 +32181,32 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="K442" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L442" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M442" t="n">
-        <v>17150</v>
+        <v>21135</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>686</v>
+        <v>1761</v>
       </c>
       <c r="Q442" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,32 +32253,32 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="K443" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L443" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M443" t="n">
-        <v>14753</v>
+        <v>27609</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>1229</v>
+        <v>1841</v>
       </c>
       <c r="Q443" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,32 +32325,32 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K444" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L444" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M444" t="n">
-        <v>15605</v>
+        <v>21150</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>1040</v>
+        <v>846</v>
       </c>
       <c r="Q444" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,29 +32397,29 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K445" t="n">
-        <v>50000</v>
+        <v>16000</v>
       </c>
       <c r="L445" t="n">
-        <v>55000</v>
+        <v>18000</v>
       </c>
       <c r="M445" t="n">
-        <v>52000</v>
+        <v>16833</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>2080</v>
+        <v>673</v>
       </c>
       <c r="Q445" t="n">
         <v>25</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32460,38 +32460,38 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K446" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L446" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M446" t="n">
-        <v>40000</v>
+        <v>17150</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>1600</v>
+        <v>686</v>
       </c>
       <c r="Q446" t="n">
         <v>25</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,32 +32541,32 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="K447" t="n">
-        <v>65000</v>
+        <v>14000</v>
       </c>
       <c r="L447" t="n">
-        <v>70000</v>
+        <v>15000</v>
       </c>
       <c r="M447" t="n">
-        <v>66905</v>
+        <v>14753</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>2676</v>
+        <v>1229</v>
       </c>
       <c r="Q447" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32604,41 +32604,41 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="K448" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="L448" t="n">
-        <v>50000</v>
+        <v>16000</v>
       </c>
       <c r="M448" t="n">
-        <v>50000</v>
+        <v>15605</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2000</v>
+        <v>1040</v>
       </c>
       <c r="Q448" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,32 +32685,32 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K449" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="L449" t="n">
-        <v>20000</v>
+        <v>55000</v>
       </c>
       <c r="M449" t="n">
-        <v>18844</v>
+        <v>52000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>1570</v>
+        <v>2080</v>
       </c>
       <c r="Q449" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32748,41 +32748,41 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K450" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L450" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M450" t="n">
-        <v>23850</v>
+        <v>40000</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>1590</v>
+        <v>1600</v>
       </c>
       <c r="Q450" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32829,20 +32829,20 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="K451" t="n">
-        <v>32000</v>
+        <v>65000</v>
       </c>
       <c r="L451" t="n">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="M451" t="n">
-        <v>33317</v>
+        <v>66905</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -32851,10 +32851,10 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>2221</v>
+        <v>2676</v>
       </c>
       <c r="Q451" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,20 +32901,20 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K452" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L452" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M452" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -32926,7 +32926,7 @@
         <v>2000</v>
       </c>
       <c r="Q452" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44223</v>
+        <v>44357</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,7 +32973,7 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="K453" t="n">
         <v>18000</v>
@@ -32982,23 +32982,23 @@
         <v>20000</v>
       </c>
       <c r="M453" t="n">
-        <v>19091</v>
+        <v>18844</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>764</v>
+        <v>1570</v>
       </c>
       <c r="Q453" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44223</v>
+        <v>44357</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,32 +33045,32 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K454" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L454" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M454" t="n">
-        <v>14333</v>
+        <v>23850</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>573</v>
+        <v>1590</v>
       </c>
       <c r="Q454" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,32 +33117,32 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="K455" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L455" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M455" t="n">
-        <v>24438</v>
+        <v>33317</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>978</v>
+        <v>2221</v>
       </c>
       <c r="Q455" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K456" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L456" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M456" t="n">
-        <v>16200</v>
+        <v>30000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>1080</v>
+        <v>2000</v>
       </c>
       <c r="Q456" t="n">
         <v>15</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,29 +33261,29 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="K457" t="n">
-        <v>90000</v>
+        <v>18000</v>
       </c>
       <c r="L457" t="n">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="M457" t="n">
-        <v>90000</v>
+        <v>19091</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>3600</v>
+        <v>764</v>
       </c>
       <c r="Q457" t="n">
         <v>25</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44333</v>
+        <v>44223</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,32 +33333,32 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="K458" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L458" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M458" t="n">
-        <v>19282</v>
+        <v>14333</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>1607</v>
+        <v>573</v>
       </c>
       <c r="Q458" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,29 +33405,29 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K459" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L459" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M459" t="n">
-        <v>22575</v>
+        <v>24438</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>903</v>
+        <v>978</v>
       </c>
       <c r="Q459" t="n">
         <v>25</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44392</v>
+        <v>44298</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,32 +33477,32 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K460" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="L460" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M460" t="n">
-        <v>80000</v>
+        <v>16200</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>3200</v>
+        <v>1080</v>
       </c>
       <c r="Q460" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K461" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="L461" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="M461" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="Q461" t="n">
         <v>25</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44425</v>
+        <v>44333</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,32 +33621,32 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K462" t="n">
-        <v>55000</v>
+        <v>18000</v>
       </c>
       <c r="L462" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="M462" t="n">
-        <v>58108</v>
+        <v>19282</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>2324</v>
+        <v>1607</v>
       </c>
       <c r="Q462" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44187</v>
+        <v>44314</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33693,29 +33693,29 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="K463" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L463" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="M463" t="n">
-        <v>37289</v>
+        <v>22575</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1492</v>
+        <v>903</v>
       </c>
       <c r="Q463" t="n">
         <v>25</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44187</v>
+        <v>44392</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K464" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L464" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M464" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="Q464" t="n">
         <v>25</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="K465" t="n">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="L465" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M465" t="n">
-        <v>95625</v>
+        <v>75000</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>3825</v>
+        <v>3000</v>
       </c>
       <c r="Q465" t="n">
         <v>25</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,32 +33909,32 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="K466" t="n">
-        <v>37000</v>
+        <v>55000</v>
       </c>
       <c r="L466" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="M466" t="n">
-        <v>38950</v>
+        <v>58108</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>3246</v>
+        <v>2324</v>
       </c>
       <c r="Q466" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K467" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L467" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M467" t="n">
-        <v>16244</v>
+        <v>37289</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>650</v>
+        <v>1492</v>
       </c>
       <c r="Q467" t="n">
         <v>25</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34044,38 +34044,38 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="K468" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L468" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M468" t="n">
-        <v>14533</v>
+        <v>30000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>581</v>
+        <v>1200</v>
       </c>
       <c r="Q468" t="n">
         <v>25</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,29 +34125,29 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K469" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="L469" t="n">
-        <v>13000</v>
+        <v>100000</v>
       </c>
       <c r="M469" t="n">
-        <v>12395</v>
+        <v>95625</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>496</v>
+        <v>3825</v>
       </c>
       <c r="Q469" t="n">
         <v>25</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,32 +34197,32 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K470" t="n">
-        <v>75000</v>
+        <v>37000</v>
       </c>
       <c r="L470" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="M470" t="n">
-        <v>77083</v>
+        <v>38950</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>3083</v>
+        <v>3246</v>
       </c>
       <c r="Q470" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="K471" t="n">
-        <v>70000</v>
+        <v>15000</v>
       </c>
       <c r="L471" t="n">
-        <v>70000</v>
+        <v>17000</v>
       </c>
       <c r="M471" t="n">
-        <v>70000</v>
+        <v>16244</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2800</v>
+        <v>650</v>
       </c>
       <c r="Q471" t="n">
         <v>25</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,32 +34341,32 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="K472" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="L472" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="M472" t="n">
-        <v>37818</v>
+        <v>14533</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>3152</v>
+        <v>581</v>
       </c>
       <c r="Q472" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,29 +34413,29 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K473" t="n">
-        <v>90000</v>
+        <v>12000</v>
       </c>
       <c r="L473" t="n">
-        <v>95000</v>
+        <v>13000</v>
       </c>
       <c r="M473" t="n">
-        <v>92727</v>
+        <v>12395</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>3709</v>
+        <v>496</v>
       </c>
       <c r="Q473" t="n">
         <v>25</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K474" t="n">
-        <v>85000</v>
+        <v>75000</v>
       </c>
       <c r="L474" t="n">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="M474" t="n">
-        <v>85000</v>
+        <v>77083</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>3400</v>
+        <v>3083</v>
       </c>
       <c r="Q474" t="n">
         <v>25</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34548,41 +34548,41 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="K475" t="n">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="L475" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="M475" t="n">
-        <v>38016</v>
+        <v>70000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>3168</v>
+        <v>2800</v>
       </c>
       <c r="Q475" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,32 +34629,32 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="K476" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L476" t="n">
         <v>40000</v>
       </c>
       <c r="M476" t="n">
-        <v>37321</v>
+        <v>37818</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>1493</v>
+        <v>3152</v>
       </c>
       <c r="Q476" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K477" t="n">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="L477" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="M477" t="n">
-        <v>30000</v>
+        <v>92727</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>1200</v>
+        <v>3709</v>
       </c>
       <c r="Q477" t="n">
         <v>25</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34764,25 +34764,25 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K478" t="n">
-        <v>65000</v>
+        <v>85000</v>
       </c>
       <c r="L478" t="n">
-        <v>70000</v>
+        <v>85000</v>
       </c>
       <c r="M478" t="n">
-        <v>67667</v>
+        <v>85000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34791,11 +34791,11 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2707</v>
+        <v>3400</v>
       </c>
       <c r="Q478" t="n">
         <v>25</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34836,41 +34836,41 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="K479" t="n">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="L479" t="n">
-        <v>55000</v>
+        <v>40000</v>
       </c>
       <c r="M479" t="n">
-        <v>55000</v>
+        <v>38016</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>2200</v>
+        <v>3168</v>
       </c>
       <c r="Q479" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K480" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L480" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M480" t="n">
-        <v>15850</v>
+        <v>37321</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>634</v>
+        <v>1493</v>
       </c>
       <c r="Q480" t="n">
         <v>25</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34980,38 +34980,38 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="K481" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L481" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M481" t="n">
-        <v>16077</v>
+        <v>30000</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>643</v>
+        <v>1200</v>
       </c>
       <c r="Q481" t="n">
         <v>25</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K482" t="n">
-        <v>80000</v>
+        <v>65000</v>
       </c>
       <c r="L482" t="n">
-        <v>85000</v>
+        <v>70000</v>
       </c>
       <c r="M482" t="n">
-        <v>81875</v>
+        <v>67667</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35079,11 +35079,11 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P482" t="n">
-        <v>3275</v>
+        <v>2707</v>
       </c>
       <c r="Q482" t="n">
         <v>25</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K483" t="n">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="L483" t="n">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="M483" t="n">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35151,11 +35151,11 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q483" t="n">
         <v>25</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="K484" t="n">
-        <v>90000</v>
+        <v>15000</v>
       </c>
       <c r="L484" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="M484" t="n">
-        <v>92083</v>
+        <v>15850</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35223,11 +35223,11 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>3683</v>
+        <v>634</v>
       </c>
       <c r="Q484" t="n">
         <v>25</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,29 +35277,29 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K485" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L485" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M485" t="n">
-        <v>29150</v>
+        <v>16077</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>1166</v>
+        <v>643</v>
       </c>
       <c r="Q485" t="n">
         <v>25</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35352,13 +35352,13 @@
         <v>40</v>
       </c>
       <c r="K486" t="n">
-        <v>33000</v>
+        <v>80000</v>
       </c>
       <c r="L486" t="n">
-        <v>35000</v>
+        <v>85000</v>
       </c>
       <c r="M486" t="n">
-        <v>34150</v>
+        <v>81875</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>1366</v>
+        <v>3275</v>
       </c>
       <c r="Q486" t="n">
         <v>25</v>
@@ -35397,58 +35397,346 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E487" t="n">
+        <v>13</v>
+      </c>
+      <c r="F487" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J487" t="n">
+        <v>10</v>
+      </c>
+      <c r="K487" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L487" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M487" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P487" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>25</v>
+      </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>6</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D488" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E488" t="n">
+        <v>13</v>
+      </c>
+      <c r="F488" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J488" t="n">
+        <v>12</v>
+      </c>
+      <c r="K488" t="n">
+        <v>90000</v>
+      </c>
+      <c r="L488" t="n">
+        <v>95000</v>
+      </c>
+      <c r="M488" t="n">
+        <v>92083</v>
+      </c>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P488" t="n">
+        <v>3683</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>25</v>
+      </c>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>6</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D489" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E489" t="n">
+        <v>13</v>
+      </c>
+      <c r="F489" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J489" t="n">
+        <v>40</v>
+      </c>
+      <c r="K489" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L489" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M489" t="n">
+        <v>29150</v>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P489" t="n">
+        <v>1166</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>25</v>
+      </c>
+      <c r="R489" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>6</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D490" s="2" t="n">
         <v>44326</v>
       </c>
-      <c r="E487" t="n">
-        <v>13</v>
-      </c>
-      <c r="F487" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H487" t="inlineStr">
+      <c r="E490" t="n">
+        <v>13</v>
+      </c>
+      <c r="F490" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J490" t="n">
+        <v>40</v>
+      </c>
+      <c r="K490" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L490" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M490" t="n">
+        <v>34150</v>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P490" t="n">
+        <v>1366</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>25</v>
+      </c>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>6</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D491" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E491" t="n">
+        <v>13</v>
+      </c>
+      <c r="F491" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
         <is>
           <t>Inferno</t>
         </is>
       </c>
-      <c r="I487" t="inlineStr">
+      <c r="I491" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J487" t="n">
+      <c r="J491" t="n">
         <v>30</v>
       </c>
-      <c r="K487" t="n">
+      <c r="K491" t="n">
         <v>18000</v>
       </c>
-      <c r="L487" t="n">
+      <c r="L491" t="n">
         <v>20000</v>
       </c>
-      <c r="M487" t="n">
+      <c r="M491" t="n">
         <v>19133</v>
       </c>
-      <c r="N487" t="inlineStr">
+      <c r="N491" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O487" t="inlineStr">
+      <c r="O491" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P487" t="n">
+      <c r="P491" t="n">
         <v>1276</v>
       </c>
-      <c r="Q487" t="n">
+      <c r="Q491" t="n">
         <v>15</v>
       </c>
-      <c r="R487" t="inlineStr">
+      <c r="R491" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R513"/>
+  <dimension ref="A1:R517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K436" t="n">
+        <v>65000</v>
+      </c>
+      <c r="L436" t="n">
         <v>70000</v>
       </c>
-      <c r="L436" t="n">
-        <v>75000</v>
-      </c>
       <c r="M436" t="n">
-        <v>73026</v>
+        <v>67273</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2921</v>
+        <v>2691</v>
       </c>
       <c r="Q436" t="n">
         <v>25</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K437" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="L437" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="M437" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31839,11 +31839,11 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="Q437" t="n">
         <v>25</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31893,20 +31893,20 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K438" t="n">
-        <v>130000</v>
+        <v>25000</v>
       </c>
       <c r="L438" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="M438" t="n">
-        <v>137895</v>
+        <v>27021</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>5516</v>
+        <v>1801</v>
       </c>
       <c r="Q438" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,20 +31965,20 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K439" t="n">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="L439" t="n">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="M439" t="n">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>4000</v>
+        <v>1333</v>
       </c>
       <c r="Q439" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,32 +32037,32 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K440" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="L440" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="M440" t="n">
-        <v>42875</v>
+        <v>73026</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>3573</v>
+        <v>2921</v>
       </c>
       <c r="Q440" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32100,41 +32100,41 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="K441" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="L441" t="n">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="M441" t="n">
-        <v>57195</v>
+        <v>65000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>3813</v>
+        <v>2600</v>
       </c>
       <c r="Q441" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="K442" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="L442" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="M442" t="n">
-        <v>15000</v>
+        <v>137895</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32199,11 +32199,11 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>600</v>
+        <v>5516</v>
       </c>
       <c r="Q442" t="n">
         <v>25</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32249,33 +32249,33 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="K443" t="n">
-        <v>12000</v>
+        <v>100000</v>
       </c>
       <c r="L443" t="n">
-        <v>13000</v>
+        <v>100000</v>
       </c>
       <c r="M443" t="n">
-        <v>12519</v>
+        <v>100000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>501</v>
+        <v>4000</v>
       </c>
       <c r="Q443" t="n">
         <v>25</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44487</v>
+        <v>44481</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,32 +32325,32 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="K444" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L444" t="n">
         <v>45000</v>
       </c>
-      <c r="L444" t="n">
-        <v>50000</v>
-      </c>
       <c r="M444" t="n">
-        <v>46829</v>
+        <v>42875</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>1873</v>
+        <v>3573</v>
       </c>
       <c r="Q444" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44487</v>
+        <v>44481</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32388,41 +32388,41 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="K445" t="n">
-        <v>35000</v>
+        <v>55000</v>
       </c>
       <c r="L445" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="M445" t="n">
-        <v>35000</v>
+        <v>57195</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>1400</v>
+        <v>3813</v>
       </c>
       <c r="Q445" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="K446" t="n">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="L446" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="M446" t="n">
-        <v>77051</v>
+        <v>15000</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32487,11 +32487,11 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>3082</v>
+        <v>600</v>
       </c>
       <c r="Q446" t="n">
         <v>25</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32537,33 +32537,33 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="K447" t="n">
-        <v>65000</v>
+        <v>12000</v>
       </c>
       <c r="L447" t="n">
-        <v>65000</v>
+        <v>13000</v>
       </c>
       <c r="M447" t="n">
-        <v>65000</v>
+        <v>12519</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>2600</v>
+        <v>501</v>
       </c>
       <c r="Q447" t="n">
         <v>25</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,32 +32613,32 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>63</v>
+        <v>410</v>
       </c>
       <c r="K448" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L448" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="M448" t="n">
-        <v>26175</v>
+        <v>46829</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2181</v>
+        <v>1873</v>
       </c>
       <c r="Q448" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32676,25 +32676,25 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K449" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L449" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M449" t="n">
-        <v>27727</v>
+        <v>35000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>1109</v>
+        <v>1400</v>
       </c>
       <c r="Q449" t="n">
         <v>25</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K450" t="n">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="L450" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="M450" t="n">
-        <v>58108</v>
+        <v>77051</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>2324</v>
+        <v>3082</v>
       </c>
       <c r="Q450" t="n">
         <v>25</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32820,25 +32820,25 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K451" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="L451" t="n">
-        <v>37000</v>
+        <v>65000</v>
       </c>
       <c r="M451" t="n">
-        <v>36143</v>
+        <v>65000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32847,11 +32847,11 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>1446</v>
+        <v>2600</v>
       </c>
       <c r="Q451" t="n">
         <v>25</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,32 +32901,32 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K452" t="n">
-        <v>55000</v>
+        <v>25000</v>
       </c>
       <c r="L452" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="M452" t="n">
-        <v>58250</v>
+        <v>26175</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>2330</v>
+        <v>2181</v>
       </c>
       <c r="Q452" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32964,25 +32964,25 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="K453" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L453" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M453" t="n">
-        <v>45000</v>
+        <v>27727</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>1800</v>
+        <v>1109</v>
       </c>
       <c r="Q453" t="n">
         <v>25</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44168</v>
+        <v>44425</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K454" t="n">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="L454" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="M454" t="n">
-        <v>32917</v>
+        <v>58108</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>1317</v>
+        <v>2324</v>
       </c>
       <c r="Q454" t="n">
         <v>25</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K455" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L455" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M455" t="n">
-        <v>25000</v>
+        <v>36143</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>1000</v>
+        <v>1446</v>
       </c>
       <c r="Q455" t="n">
         <v>25</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K456" t="n">
+        <v>55000</v>
+      </c>
+      <c r="L456" t="n">
         <v>60000</v>
       </c>
-      <c r="L456" t="n">
-        <v>65000</v>
-      </c>
       <c r="M456" t="n">
-        <v>63182</v>
+        <v>58250</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>2527</v>
+        <v>2330</v>
       </c>
       <c r="Q456" t="n">
         <v>25</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K457" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="L457" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="M457" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="Q457" t="n">
         <v>25</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K458" t="n">
         <v>30000</v>
       </c>
       <c r="L458" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M458" t="n">
-        <v>31050</v>
+        <v>32917</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>1242</v>
+        <v>1317</v>
       </c>
       <c r="Q458" t="n">
         <v>25</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,7 +33405,7 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K459" t="n">
         <v>25000</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="K460" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L460" t="n">
         <v>65000</v>
       </c>
-      <c r="L460" t="n">
-        <v>70000</v>
-      </c>
       <c r="M460" t="n">
-        <v>67321</v>
+        <v>63182</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>2693</v>
+        <v>2527</v>
       </c>
       <c r="Q460" t="n">
         <v>25</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,7 +33549,7 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K461" t="n">
         <v>50000</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,32 +33621,32 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K462" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L462" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M462" t="n">
-        <v>23929</v>
+        <v>31050</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1595</v>
+        <v>1242</v>
       </c>
       <c r="Q462" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K463" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="L463" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M463" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="Q463" t="n">
         <v>25</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33756,25 +33756,25 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="K464" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
       <c r="L464" t="n">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="M464" t="n">
-        <v>75000</v>
+        <v>67321</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>3000</v>
+        <v>2693</v>
       </c>
       <c r="Q464" t="n">
         <v>25</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33828,25 +33828,25 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="K465" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="L465" t="n">
-        <v>17000</v>
+        <v>50000</v>
       </c>
       <c r="M465" t="n">
-        <v>15850</v>
+        <v>50000</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>634</v>
+        <v>2000</v>
       </c>
       <c r="Q465" t="n">
         <v>25</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,32 +33909,32 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="K466" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L466" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M466" t="n">
-        <v>16077</v>
+        <v>23929</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>643</v>
+        <v>1595</v>
       </c>
       <c r="Q466" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K467" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="L467" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="M467" t="n">
-        <v>97917</v>
+        <v>80000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -33999,11 +33999,11 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>3917</v>
+        <v>3200</v>
       </c>
       <c r="Q467" t="n">
         <v>25</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34044,41 +34044,41 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K468" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L468" t="n">
-        <v>40000</v>
+        <v>75000</v>
       </c>
       <c r="M468" t="n">
-        <v>37300</v>
+        <v>75000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>3108</v>
+        <v>3000</v>
       </c>
       <c r="Q468" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K469" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="L469" t="n">
-        <v>85000</v>
+        <v>17000</v>
       </c>
       <c r="M469" t="n">
-        <v>82500</v>
+        <v>15850</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>3300</v>
+        <v>634</v>
       </c>
       <c r="Q469" t="n">
         <v>25</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="K470" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="L470" t="n">
-        <v>52000</v>
+        <v>17000</v>
       </c>
       <c r="M470" t="n">
-        <v>50909</v>
+        <v>16077</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>2036</v>
+        <v>643</v>
       </c>
       <c r="Q470" t="n">
         <v>25</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K471" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="L471" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="M471" t="n">
-        <v>77222</v>
+        <v>97917</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>3089</v>
+        <v>3917</v>
       </c>
       <c r="Q471" t="n">
         <v>25</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,41 +34332,41 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
         <v>50</v>
       </c>
       <c r="K472" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="L472" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="M472" t="n">
-        <v>60000</v>
+        <v>37300</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>2400</v>
+        <v>3108</v>
       </c>
       <c r="Q472" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,7 +34413,7 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K473" t="n">
         <v>80000</v>
@@ -34422,7 +34422,7 @@
         <v>85000</v>
       </c>
       <c r="M473" t="n">
-        <v>82759</v>
+        <v>82500</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>3310</v>
+        <v>3300</v>
       </c>
       <c r="Q473" t="n">
         <v>25</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,29 +34476,29 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K474" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="L474" t="n">
-        <v>75000</v>
+        <v>52000</v>
       </c>
       <c r="M474" t="n">
-        <v>75000</v>
+        <v>50909</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>3000</v>
+        <v>2036</v>
       </c>
       <c r="Q474" t="n">
         <v>25</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="K475" t="n">
-        <v>40000</v>
+        <v>75000</v>
       </c>
       <c r="L475" t="n">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="M475" t="n">
-        <v>42241</v>
+        <v>77222</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34575,11 +34575,11 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>1690</v>
+        <v>3089</v>
       </c>
       <c r="Q475" t="n">
         <v>25</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K476" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="L476" t="n">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="M476" t="n">
-        <v>42800</v>
+        <v>60000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>1712</v>
+        <v>2400</v>
       </c>
       <c r="Q476" t="n">
         <v>25</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K477" t="n">
-        <v>65000</v>
+        <v>80000</v>
       </c>
       <c r="L477" t="n">
-        <v>70000</v>
+        <v>85000</v>
       </c>
       <c r="M477" t="n">
-        <v>68125</v>
+        <v>82759</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>2725</v>
+        <v>3310</v>
       </c>
       <c r="Q477" t="n">
         <v>25</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K478" t="n">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="L478" t="n">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="M478" t="n">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q478" t="n">
         <v>25</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,32 +34845,32 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K479" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L479" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M479" t="n">
-        <v>18714</v>
+        <v>42241</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>1560</v>
+        <v>1690</v>
       </c>
       <c r="Q479" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,32 +34917,32 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K480" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="L480" t="n">
-        <v>32000</v>
+        <v>45000</v>
       </c>
       <c r="M480" t="n">
-        <v>29700</v>
+        <v>42800</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>2475</v>
+        <v>1712</v>
       </c>
       <c r="Q480" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K481" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
       <c r="L481" t="n">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="M481" t="n">
-        <v>77700</v>
+        <v>68125</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35007,11 +35007,11 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>3108</v>
+        <v>2725</v>
       </c>
       <c r="Q481" t="n">
         <v>25</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K482" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="L482" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="M482" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35079,11 +35079,11 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P482" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="Q482" t="n">
         <v>25</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="K483" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L483" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M483" t="n">
-        <v>34091</v>
+        <v>18714</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>2841</v>
+        <v>1560</v>
       </c>
       <c r="Q483" t="n">
         <v>12</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,32 +35205,32 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K484" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L484" t="n">
         <v>32000</v>
       </c>
-      <c r="L484" t="n">
-        <v>35000</v>
-      </c>
       <c r="M484" t="n">
-        <v>33317</v>
+        <v>29700</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>2221</v>
+        <v>2475</v>
       </c>
       <c r="Q484" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,41 +35268,41 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="K485" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L485" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M485" t="n">
-        <v>30000</v>
+        <v>77700</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>2000</v>
+        <v>3108</v>
       </c>
       <c r="Q485" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K486" t="n">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L486" t="n">
-        <v>22000</v>
+        <v>65000</v>
       </c>
       <c r="M486" t="n">
-        <v>21150</v>
+        <v>65000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35367,11 +35367,11 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>846</v>
+        <v>2600</v>
       </c>
       <c r="Q486" t="n">
         <v>25</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35421,32 +35421,32 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="K487" t="n">
-        <v>16000</v>
+        <v>33000</v>
       </c>
       <c r="L487" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M487" t="n">
-        <v>16833</v>
+        <v>34091</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P487" t="n">
-        <v>673</v>
+        <v>2841</v>
       </c>
       <c r="Q487" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,32 +35493,32 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K488" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="L488" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M488" t="n">
-        <v>17150</v>
+        <v>33317</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>686</v>
+        <v>2221</v>
       </c>
       <c r="Q488" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35561,36 +35561,36 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="K489" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L489" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M489" t="n">
-        <v>14753</v>
+        <v>30000</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>1229</v>
+        <v>2000</v>
       </c>
       <c r="Q489" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,32 +35637,32 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K490" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L490" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M490" t="n">
-        <v>15605</v>
+        <v>21150</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>1040</v>
+        <v>846</v>
       </c>
       <c r="Q490" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,29 +35709,29 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K491" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L491" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M491" t="n">
-        <v>16244</v>
+        <v>16833</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="Q491" t="n">
         <v>25</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K492" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L492" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M492" t="n">
-        <v>14533</v>
+        <v>17150</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>581</v>
+        <v>686</v>
       </c>
       <c r="Q492" t="n">
         <v>25</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,32 +35853,32 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="K493" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L493" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M493" t="n">
-        <v>20480</v>
+        <v>14753</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>819</v>
+        <v>1229</v>
       </c>
       <c r="Q493" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,32 +35925,32 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="K494" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L494" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M494" t="n">
-        <v>23850</v>
+        <v>15605</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>954</v>
+        <v>1040</v>
       </c>
       <c r="Q494" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -35997,29 +35997,29 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K495" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L495" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M495" t="n">
-        <v>19040</v>
+        <v>16244</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>762</v>
+        <v>650</v>
       </c>
       <c r="Q495" t="n">
         <v>25</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,29 +36069,29 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K496" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L496" t="n">
         <v>15000</v>
       </c>
-      <c r="L496" t="n">
-        <v>18000</v>
-      </c>
       <c r="M496" t="n">
-        <v>16125</v>
+        <v>14533</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>645</v>
+        <v>581</v>
       </c>
       <c r="Q496" t="n">
         <v>25</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K497" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L497" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M497" t="n">
-        <v>14542</v>
+        <v>20480</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>582</v>
+        <v>819</v>
       </c>
       <c r="Q497" t="n">
         <v>25</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K498" t="n">
-        <v>55000</v>
+        <v>23000</v>
       </c>
       <c r="L498" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="M498" t="n">
-        <v>57125</v>
+        <v>23850</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36231,11 +36231,11 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>2285</v>
+        <v>954</v>
       </c>
       <c r="Q498" t="n">
         <v>25</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K499" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L499" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M499" t="n">
-        <v>31150</v>
+        <v>19040</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36303,11 +36303,11 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>1246</v>
+        <v>762</v>
       </c>
       <c r="Q499" t="n">
         <v>25</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36360,26 +36360,26 @@
         <v>80</v>
       </c>
       <c r="K500" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L500" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M500" t="n">
-        <v>21875</v>
+        <v>16125</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>875</v>
+        <v>645</v>
       </c>
       <c r="Q500" t="n">
         <v>25</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44273</v>
+        <v>44217</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K501" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L501" t="n">
         <v>15000</v>
       </c>
-      <c r="L501" t="n">
-        <v>17000</v>
-      </c>
       <c r="M501" t="n">
-        <v>15850</v>
+        <v>14542</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36447,11 +36447,11 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>634</v>
+        <v>582</v>
       </c>
       <c r="Q501" t="n">
         <v>25</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K502" t="n">
-        <v>17000</v>
+        <v>55000</v>
       </c>
       <c r="L502" t="n">
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="M502" t="n">
-        <v>73525</v>
+        <v>57125</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36519,11 +36519,11 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>2941</v>
+        <v>2285</v>
       </c>
       <c r="Q502" t="n">
         <v>25</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,32 +36573,32 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K503" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L503" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M503" t="n">
-        <v>33828</v>
+        <v>31150</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>2819</v>
+        <v>1246</v>
       </c>
       <c r="Q503" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K504" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L504" t="n">
         <v>23000</v>
       </c>
       <c r="M504" t="n">
-        <v>22400</v>
+        <v>21875</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="Q504" t="n">
         <v>25</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K505" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L505" t="n">
         <v>17000</v>
       </c>
-      <c r="L505" t="n">
-        <v>18000</v>
-      </c>
       <c r="M505" t="n">
-        <v>17575</v>
+        <v>15850</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36735,11 +36735,11 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>703</v>
+        <v>634</v>
       </c>
       <c r="Q505" t="n">
         <v>25</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36789,32 +36789,32 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="K506" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L506" t="n">
-        <v>16000</v>
+        <v>150000</v>
       </c>
       <c r="M506" t="n">
-        <v>15343</v>
+        <v>73525</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>1023</v>
+        <v>2941</v>
       </c>
       <c r="Q506" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,32 +36861,32 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="K507" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="L507" t="n">
         <v>35000</v>
       </c>
       <c r="M507" t="n">
-        <v>35000</v>
+        <v>33828</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>1400</v>
+        <v>2819</v>
       </c>
       <c r="Q507" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R507" t="inlineStr">
         <is>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36924,38 +36924,38 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K508" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L508" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M508" t="n">
-        <v>30000</v>
+        <v>22400</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>1200</v>
+        <v>896</v>
       </c>
       <c r="Q508" t="n">
         <v>25</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,32 +37005,32 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K509" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L509" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M509" t="n">
-        <v>23000</v>
+        <v>17575</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>1917</v>
+        <v>703</v>
       </c>
       <c r="Q509" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,32 +37077,32 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K510" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="L510" t="n">
-        <v>65000</v>
+        <v>16000</v>
       </c>
       <c r="M510" t="n">
-        <v>63000</v>
+        <v>15343</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>2520</v>
+        <v>1023</v>
       </c>
       <c r="Q510" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K511" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L511" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M511" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="Q511" t="n">
         <v>25</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37212,25 +37212,25 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J512" t="n">
         <v>35</v>
       </c>
       <c r="K512" t="n">
-        <v>85000</v>
+        <v>30000</v>
       </c>
       <c r="L512" t="n">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="M512" t="n">
-        <v>87143</v>
+        <v>30000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37239,11 +37239,11 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>3486</v>
+        <v>1200</v>
       </c>
       <c r="Q512" t="n">
         <v>25</v>
@@ -37269,58 +37269,346 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E513" t="n">
+        <v>13</v>
+      </c>
+      <c r="F513" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>Inferno</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J513" t="n">
+        <v>70</v>
+      </c>
+      <c r="K513" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L513" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M513" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P513" t="n">
+        <v>1917</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>12</v>
+      </c>
+      <c r="R513" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>6</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D514" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E513" t="n">
-        <v>13</v>
-      </c>
-      <c r="F513" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H513" t="inlineStr">
+      <c r="E514" t="n">
+        <v>13</v>
+      </c>
+      <c r="F514" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J514" t="n">
+        <v>200</v>
+      </c>
+      <c r="K514" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L514" t="n">
+        <v>65000</v>
+      </c>
+      <c r="M514" t="n">
+        <v>63000</v>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P514" t="n">
+        <v>2520</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>25</v>
+      </c>
+      <c r="R514" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>6</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D515" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E515" t="n">
+        <v>13</v>
+      </c>
+      <c r="F515" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J515" t="n">
+        <v>50</v>
+      </c>
+      <c r="K515" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L515" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M515" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P515" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>25</v>
+      </c>
+      <c r="R515" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>6</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D516" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E516" t="n">
+        <v>13</v>
+      </c>
+      <c r="F516" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
         <is>
           <t>Chilena(o)</t>
         </is>
       </c>
-      <c r="I513" t="inlineStr">
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J516" t="n">
+        <v>35</v>
+      </c>
+      <c r="K516" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L516" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M516" t="n">
+        <v>87143</v>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P516" t="n">
+        <v>3486</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>25</v>
+      </c>
+      <c r="R516" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>6</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D517" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E517" t="n">
+        <v>13</v>
+      </c>
+      <c r="F517" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J513" t="n">
+      <c r="J517" t="n">
         <v>10</v>
       </c>
-      <c r="K513" t="n">
+      <c r="K517" t="n">
         <v>75000</v>
       </c>
-      <c r="L513" t="n">
+      <c r="L517" t="n">
         <v>75000</v>
       </c>
-      <c r="M513" t="n">
+      <c r="M517" t="n">
         <v>75000</v>
       </c>
-      <c r="N513" t="inlineStr">
+      <c r="N517" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O513" t="inlineStr">
+      <c r="O517" t="inlineStr">
         <is>
           <t>Provincia de Huasco</t>
         </is>
       </c>
-      <c r="P513" t="n">
+      <c r="P517" t="n">
         <v>3000</v>
       </c>
-      <c r="Q513" t="n">
-        <v>25</v>
-      </c>
-      <c r="R513" t="inlineStr">
+      <c r="Q517" t="n">
+        <v>25</v>
+      </c>
+      <c r="R517" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R517"/>
+  <dimension ref="A1:R520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="K448" t="n">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="L448" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="M448" t="n">
-        <v>46829</v>
+        <v>62875</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>1873</v>
+        <v>2515</v>
       </c>
       <c r="Q448" t="n">
         <v>25</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K449" t="n">
-        <v>35000</v>
+        <v>55000</v>
       </c>
       <c r="L449" t="n">
-        <v>35000</v>
+        <v>55000</v>
       </c>
       <c r="M449" t="n">
-        <v>35000</v>
+        <v>55000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="Q449" t="n">
         <v>25</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,20 +32757,20 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K450" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="L450" t="n">
-        <v>80000</v>
+        <v>27000</v>
       </c>
       <c r="M450" t="n">
-        <v>77051</v>
+        <v>26250</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32779,10 +32779,10 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>3082</v>
+        <v>1750</v>
       </c>
       <c r="Q450" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32820,25 +32820,25 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>10</v>
+        <v>410</v>
       </c>
       <c r="K451" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="L451" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="M451" t="n">
-        <v>65000</v>
+        <v>46829</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32847,11 +32847,11 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>2600</v>
+        <v>1873</v>
       </c>
       <c r="Q451" t="n">
         <v>25</v>
@@ -32892,41 +32892,41 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="K452" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L452" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M452" t="n">
-        <v>26175</v>
+        <v>35000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>2181</v>
+        <v>1400</v>
       </c>
       <c r="Q452" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="K453" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="L453" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M453" t="n">
-        <v>27727</v>
+        <v>77051</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>1109</v>
+        <v>3082</v>
       </c>
       <c r="Q453" t="n">
         <v>25</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="K454" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="L454" t="n">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="M454" t="n">
-        <v>58108</v>
+        <v>65000</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>2324</v>
+        <v>2600</v>
       </c>
       <c r="Q454" t="n">
         <v>25</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,32 +33117,32 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="K455" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L455" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M455" t="n">
-        <v>36143</v>
+        <v>26175</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>1446</v>
+        <v>2181</v>
       </c>
       <c r="Q455" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K456" t="n">
-        <v>55000</v>
+        <v>25000</v>
       </c>
       <c r="L456" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="M456" t="n">
-        <v>58250</v>
+        <v>27727</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>2330</v>
+        <v>1109</v>
       </c>
       <c r="Q456" t="n">
         <v>25</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="K457" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="L457" t="n">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="M457" t="n">
-        <v>45000</v>
+        <v>58108</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33279,11 +33279,11 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>1800</v>
+        <v>2324</v>
       </c>
       <c r="Q457" t="n">
         <v>25</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="K458" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L458" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M458" t="n">
-        <v>32917</v>
+        <v>36143</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>1317</v>
+        <v>1446</v>
       </c>
       <c r="Q458" t="n">
         <v>25</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33396,25 +33396,25 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K459" t="n">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="L459" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="M459" t="n">
-        <v>25000</v>
+        <v>58250</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33423,11 +33423,11 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>1000</v>
+        <v>2330</v>
       </c>
       <c r="Q459" t="n">
         <v>25</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="K460" t="n">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="L460" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="M460" t="n">
-        <v>63182</v>
+        <v>45000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>2527</v>
+        <v>1800</v>
       </c>
       <c r="Q460" t="n">
         <v>25</v>
@@ -33540,25 +33540,25 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K461" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L461" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M461" t="n">
-        <v>50000</v>
+        <v>32917</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>2000</v>
+        <v>1317</v>
       </c>
       <c r="Q461" t="n">
         <v>25</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K462" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L462" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M462" t="n">
-        <v>31050</v>
+        <v>25000</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1242</v>
+        <v>1000</v>
       </c>
       <c r="Q462" t="n">
         <v>25</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33684,25 +33684,25 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K463" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="L463" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="M463" t="n">
-        <v>25000</v>
+        <v>63182</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1000</v>
+        <v>2527</v>
       </c>
       <c r="Q463" t="n">
         <v>25</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="K464" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="L464" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="M464" t="n">
-        <v>67321</v>
+        <v>50000</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>2693</v>
+        <v>2000</v>
       </c>
       <c r="Q464" t="n">
         <v>25</v>
@@ -33828,25 +33828,25 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K465" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L465" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="M465" t="n">
-        <v>50000</v>
+        <v>31050</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>2000</v>
+        <v>1242</v>
       </c>
       <c r="Q465" t="n">
         <v>25</v>
@@ -33900,41 +33900,41 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="K466" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L466" t="n">
         <v>25000</v>
       </c>
       <c r="M466" t="n">
-        <v>23929</v>
+        <v>25000</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>1595</v>
+        <v>1000</v>
       </c>
       <c r="Q466" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="K467" t="n">
-        <v>80000</v>
+        <v>65000</v>
       </c>
       <c r="L467" t="n">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="M467" t="n">
-        <v>80000</v>
+        <v>67321</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>3200</v>
+        <v>2693</v>
       </c>
       <c r="Q467" t="n">
         <v>25</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K468" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="L468" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="M468" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q468" t="n">
         <v>25</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,32 +34125,32 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>400</v>
+        <v>56</v>
       </c>
       <c r="K469" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L469" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M469" t="n">
-        <v>15850</v>
+        <v>23929</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>634</v>
+        <v>1595</v>
       </c>
       <c r="Q469" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,29 +34197,29 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="K470" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="L470" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="M470" t="n">
-        <v>16077</v>
+        <v>80000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>643</v>
+        <v>3200</v>
       </c>
       <c r="Q470" t="n">
         <v>25</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K471" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="L471" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M471" t="n">
-        <v>97917</v>
+        <v>75000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>3917</v>
+        <v>3000</v>
       </c>
       <c r="Q471" t="n">
         <v>25</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,32 +34341,32 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K472" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L472" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="M472" t="n">
-        <v>37300</v>
+        <v>15850</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>3108</v>
+        <v>634</v>
       </c>
       <c r="Q472" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,29 +34413,29 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K473" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="L473" t="n">
-        <v>85000</v>
+        <v>17000</v>
       </c>
       <c r="M473" t="n">
-        <v>82500</v>
+        <v>16077</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>3300</v>
+        <v>643</v>
       </c>
       <c r="Q473" t="n">
         <v>25</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,29 +34485,29 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K474" t="n">
-        <v>50000</v>
+        <v>95000</v>
       </c>
       <c r="L474" t="n">
-        <v>52000</v>
+        <v>100000</v>
       </c>
       <c r="M474" t="n">
-        <v>50909</v>
+        <v>97917</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>2036</v>
+        <v>3917</v>
       </c>
       <c r="Q474" t="n">
         <v>25</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,32 +34557,32 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K475" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L475" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="M475" t="n">
-        <v>77222</v>
+        <v>37300</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>3089</v>
+        <v>3108</v>
       </c>
       <c r="Q475" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K476" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="L476" t="n">
-        <v>60000</v>
+        <v>85000</v>
       </c>
       <c r="M476" t="n">
-        <v>60000</v>
+        <v>82500</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34647,11 +34647,11 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="Q476" t="n">
         <v>25</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,20 +34701,20 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K477" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="L477" t="n">
-        <v>85000</v>
+        <v>52000</v>
       </c>
       <c r="M477" t="n">
-        <v>82759</v>
+        <v>50909</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>3310</v>
+        <v>2036</v>
       </c>
       <c r="Q477" t="n">
         <v>25</v>
@@ -34764,25 +34764,25 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="K478" t="n">
         <v>75000</v>
       </c>
       <c r="L478" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M478" t="n">
-        <v>75000</v>
+        <v>77222</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34791,11 +34791,11 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>3000</v>
+        <v>3089</v>
       </c>
       <c r="Q478" t="n">
         <v>25</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K479" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="L479" t="n">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="M479" t="n">
-        <v>42241</v>
+        <v>60000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34863,11 +34863,11 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>1690</v>
+        <v>2400</v>
       </c>
       <c r="Q479" t="n">
         <v>25</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K480" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="L480" t="n">
-        <v>45000</v>
+        <v>85000</v>
       </c>
       <c r="M480" t="n">
-        <v>42800</v>
+        <v>82759</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34935,11 +34935,11 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>1712</v>
+        <v>3310</v>
       </c>
       <c r="Q480" t="n">
         <v>25</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K481" t="n">
-        <v>65000</v>
+        <v>75000</v>
       </c>
       <c r="L481" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="M481" t="n">
-        <v>68125</v>
+        <v>75000</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>2725</v>
+        <v>3000</v>
       </c>
       <c r="Q481" t="n">
         <v>25</v>
@@ -35052,25 +35052,25 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="K482" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L482" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="M482" t="n">
-        <v>50000</v>
+        <v>42241</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>2000</v>
+        <v>1690</v>
       </c>
       <c r="Q482" t="n">
         <v>25</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,32 +35133,32 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K483" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L483" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M483" t="n">
-        <v>18714</v>
+        <v>42800</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>1560</v>
+        <v>1712</v>
       </c>
       <c r="Q483" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35208,29 +35208,29 @@
         <v>40</v>
       </c>
       <c r="K484" t="n">
-        <v>28000</v>
+        <v>65000</v>
       </c>
       <c r="L484" t="n">
-        <v>32000</v>
+        <v>70000</v>
       </c>
       <c r="M484" t="n">
-        <v>29700</v>
+        <v>68125</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>2475</v>
+        <v>2725</v>
       </c>
       <c r="Q484" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,25 +35268,25 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K485" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="L485" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="M485" t="n">
-        <v>77700</v>
+        <v>50000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35295,11 +35295,11 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>3108</v>
+        <v>2000</v>
       </c>
       <c r="Q485" t="n">
         <v>25</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35340,41 +35340,41 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="K486" t="n">
-        <v>65000</v>
+        <v>18000</v>
       </c>
       <c r="L486" t="n">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="M486" t="n">
-        <v>65000</v>
+        <v>18714</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>2600</v>
+        <v>1560</v>
       </c>
       <c r="Q486" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K487" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L487" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M487" t="n">
-        <v>34091</v>
+        <v>29700</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>2841</v>
+        <v>2475</v>
       </c>
       <c r="Q487" t="n">
         <v>12</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,32 +35493,32 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K488" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="L488" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="M488" t="n">
-        <v>33317</v>
+        <v>77700</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>2221</v>
+        <v>3108</v>
       </c>
       <c r="Q488" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,32 +35565,32 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K489" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="L489" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="M489" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="Q489" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,32 +35637,32 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K490" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L490" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M490" t="n">
-        <v>21150</v>
+        <v>34091</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>846</v>
+        <v>2841</v>
       </c>
       <c r="Q490" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,32 +35709,32 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="K491" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="L491" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M491" t="n">
-        <v>16833</v>
+        <v>33317</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>673</v>
+        <v>2221</v>
       </c>
       <c r="Q491" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35772,41 +35772,41 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K492" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L492" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M492" t="n">
-        <v>17150</v>
+        <v>30000</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>686</v>
+        <v>2000</v>
       </c>
       <c r="Q492" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,32 +35853,32 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="K493" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L493" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M493" t="n">
-        <v>14753</v>
+        <v>21150</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>1229</v>
+        <v>846</v>
       </c>
       <c r="Q493" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,32 +35925,32 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="K494" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L494" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M494" t="n">
-        <v>15605</v>
+        <v>16833</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>1040</v>
+        <v>673</v>
       </c>
       <c r="Q494" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -35997,29 +35997,29 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K495" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L495" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M495" t="n">
-        <v>16244</v>
+        <v>17150</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>650</v>
+        <v>686</v>
       </c>
       <c r="Q495" t="n">
         <v>25</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,7 +36069,7 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="K496" t="n">
         <v>14000</v>
@@ -36078,23 +36078,23 @@
         <v>15000</v>
       </c>
       <c r="M496" t="n">
-        <v>14533</v>
+        <v>14753</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>581</v>
+        <v>1229</v>
       </c>
       <c r="Q496" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,32 +36141,32 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="K497" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L497" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M497" t="n">
-        <v>20480</v>
+        <v>15605</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>819</v>
+        <v>1040</v>
       </c>
       <c r="Q497" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,29 +36213,29 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K498" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L498" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M498" t="n">
-        <v>23850</v>
+        <v>16244</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>954</v>
+        <v>650</v>
       </c>
       <c r="Q498" t="n">
         <v>25</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="K499" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L499" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M499" t="n">
-        <v>19040</v>
+        <v>14533</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>762</v>
+        <v>581</v>
       </c>
       <c r="Q499" t="n">
         <v>25</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,29 +36357,29 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K500" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L500" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M500" t="n">
-        <v>16125</v>
+        <v>20480</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>645</v>
+        <v>819</v>
       </c>
       <c r="Q500" t="n">
         <v>25</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K501" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L501" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M501" t="n">
-        <v>14542</v>
+        <v>23850</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>582</v>
+        <v>954</v>
       </c>
       <c r="Q501" t="n">
         <v>25</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K502" t="n">
-        <v>55000</v>
+        <v>18000</v>
       </c>
       <c r="L502" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="M502" t="n">
-        <v>57125</v>
+        <v>19040</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36519,11 +36519,11 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>2285</v>
+        <v>762</v>
       </c>
       <c r="Q502" t="n">
         <v>25</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,29 +36573,29 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K503" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L503" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="M503" t="n">
-        <v>31150</v>
+        <v>16125</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>1246</v>
+        <v>645</v>
       </c>
       <c r="Q503" t="n">
         <v>25</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36636,7 +36636,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="K504" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L504" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M504" t="n">
-        <v>21875</v>
+        <v>14542</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>875</v>
+        <v>582</v>
       </c>
       <c r="Q504" t="n">
         <v>25</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K505" t="n">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="L505" t="n">
-        <v>17000</v>
+        <v>60000</v>
       </c>
       <c r="M505" t="n">
-        <v>15850</v>
+        <v>57125</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36735,11 +36735,11 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>634</v>
+        <v>2285</v>
       </c>
       <c r="Q505" t="n">
         <v>25</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K506" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L506" t="n">
-        <v>150000</v>
+        <v>32000</v>
       </c>
       <c r="M506" t="n">
-        <v>73525</v>
+        <v>31150</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36807,11 +36807,11 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>2941</v>
+        <v>1246</v>
       </c>
       <c r="Q506" t="n">
         <v>25</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,32 +36861,32 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="K507" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L507" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M507" t="n">
-        <v>33828</v>
+        <v>21875</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>2819</v>
+        <v>875</v>
       </c>
       <c r="Q507" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R507" t="inlineStr">
         <is>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="K508" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L508" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M508" t="n">
-        <v>22400</v>
+        <v>15850</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36951,11 +36951,11 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>896</v>
+        <v>634</v>
       </c>
       <c r="Q508" t="n">
         <v>25</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K509" t="n">
         <v>17000</v>
       </c>
       <c r="L509" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="M509" t="n">
-        <v>17575</v>
+        <v>73525</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>703</v>
+        <v>2941</v>
       </c>
       <c r="Q509" t="n">
         <v>25</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37077,32 +37077,32 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K510" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L510" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M510" t="n">
-        <v>15343</v>
+        <v>33828</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>1023</v>
+        <v>2819</v>
       </c>
       <c r="Q510" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,29 +37149,29 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K511" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L511" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M511" t="n">
-        <v>35000</v>
+        <v>22400</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>1400</v>
+        <v>896</v>
       </c>
       <c r="Q511" t="n">
         <v>25</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37212,38 +37212,38 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K512" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L512" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M512" t="n">
-        <v>30000</v>
+        <v>17575</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1200</v>
+        <v>703</v>
       </c>
       <c r="Q512" t="n">
         <v>25</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37293,32 +37293,32 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="K513" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L513" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M513" t="n">
-        <v>23000</v>
+        <v>15343</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>1917</v>
+        <v>1023</v>
       </c>
       <c r="Q513" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R513" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K514" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="L514" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="M514" t="n">
-        <v>63000</v>
+        <v>35000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>2520</v>
+        <v>1400</v>
       </c>
       <c r="Q514" t="n">
         <v>25</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K515" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L515" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="M515" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="Q515" t="n">
         <v>25</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,32 +37509,32 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K516" t="n">
-        <v>85000</v>
+        <v>22000</v>
       </c>
       <c r="L516" t="n">
-        <v>90000</v>
+        <v>24000</v>
       </c>
       <c r="M516" t="n">
-        <v>87143</v>
+        <v>23000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>3486</v>
+        <v>1917</v>
       </c>
       <c r="Q516" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37572,43 +37572,259 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J517" t="n">
+        <v>200</v>
+      </c>
+      <c r="K517" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L517" t="n">
+        <v>65000</v>
+      </c>
+      <c r="M517" t="n">
+        <v>63000</v>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P517" t="n">
+        <v>2520</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>25</v>
+      </c>
+      <c r="R517" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>6</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D518" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E518" t="n">
+        <v>13</v>
+      </c>
+      <c r="F518" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J518" t="n">
+        <v>50</v>
+      </c>
+      <c r="K518" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L518" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M518" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P518" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>25</v>
+      </c>
+      <c r="R518" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>6</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D519" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E519" t="n">
+        <v>13</v>
+      </c>
+      <c r="F519" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
           <t>Chilena(o)</t>
         </is>
       </c>
-      <c r="I517" t="inlineStr">
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J519" t="n">
+        <v>35</v>
+      </c>
+      <c r="K519" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L519" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M519" t="n">
+        <v>87143</v>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P519" t="n">
+        <v>3486</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>25</v>
+      </c>
+      <c r="R519" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>6</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D520" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E520" t="n">
+        <v>13</v>
+      </c>
+      <c r="F520" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J517" t="n">
+      <c r="J520" t="n">
         <v>10</v>
       </c>
-      <c r="K517" t="n">
+      <c r="K520" t="n">
         <v>75000</v>
       </c>
-      <c r="L517" t="n">
+      <c r="L520" t="n">
         <v>75000</v>
       </c>
-      <c r="M517" t="n">
+      <c r="M520" t="n">
         <v>75000</v>
       </c>
-      <c r="N517" t="inlineStr">
+      <c r="N520" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O517" t="inlineStr">
+      <c r="O520" t="inlineStr">
         <is>
           <t>Provincia de Huasco</t>
         </is>
       </c>
-      <c r="P517" t="n">
+      <c r="P520" t="n">
         <v>3000</v>
       </c>
-      <c r="Q517" t="n">
-        <v>25</v>
-      </c>
-      <c r="R517" t="inlineStr">
+      <c r="Q520" t="n">
+        <v>25</v>
+      </c>
+      <c r="R520" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R520"/>
+  <dimension ref="A1:R526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,32 +30453,32 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>39</v>
+        <v>595</v>
       </c>
       <c r="K418" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L418" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M418" t="n">
-        <v>19282</v>
+        <v>30378</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>1607</v>
+        <v>1215</v>
       </c>
       <c r="Q418" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="K419" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L419" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="M419" t="n">
-        <v>42759</v>
+        <v>31125</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>1710</v>
+        <v>1245</v>
       </c>
       <c r="Q419" t="n">
         <v>25</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30588,25 +30588,25 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K420" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="L420" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="M420" t="n">
-        <v>35000</v>
+        <v>62738</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30615,11 +30615,11 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>1400</v>
+        <v>2510</v>
       </c>
       <c r="Q420" t="n">
         <v>25</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,38 +30660,38 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="K421" t="n">
-        <v>28000</v>
+        <v>50000</v>
       </c>
       <c r="L421" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M421" t="n">
-        <v>29179</v>
+        <v>50000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>1167</v>
+        <v>2000</v>
       </c>
       <c r="Q421" t="n">
         <v>25</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="K422" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L422" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M422" t="n">
-        <v>18897</v>
+        <v>21286</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1575</v>
+        <v>1774</v>
       </c>
       <c r="Q422" t="n">
         <v>12</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44306</v>
+        <v>44508</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,32 +30813,32 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K423" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L423" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M423" t="n">
-        <v>20850</v>
+        <v>26875</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>834</v>
+        <v>1792</v>
       </c>
       <c r="Q423" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44211</v>
+        <v>44333</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,32 +30885,32 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="K424" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L424" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M424" t="n">
-        <v>10833</v>
+        <v>19282</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>433</v>
+        <v>1607</v>
       </c>
       <c r="Q424" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44211</v>
+        <v>44356</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,20 +30957,20 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="K425" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L425" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M425" t="n">
-        <v>20000</v>
+        <v>42759</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>800</v>
+        <v>1710</v>
       </c>
       <c r="Q425" t="n">
         <v>25</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44211</v>
+        <v>44356</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31020,29 +31020,29 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="K426" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L426" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M426" t="n">
-        <v>18923</v>
+        <v>35000</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>757</v>
+        <v>1400</v>
       </c>
       <c r="Q426" t="n">
         <v>25</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44469</v>
+        <v>44356</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,29 +31101,29 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="K427" t="n">
-        <v>90000</v>
+        <v>28000</v>
       </c>
       <c r="L427" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="M427" t="n">
-        <v>92273</v>
+        <v>29179</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>3691</v>
+        <v>1167</v>
       </c>
       <c r="Q427" t="n">
         <v>25</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44215</v>
+        <v>44356</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,32 +31173,32 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="K428" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L428" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M428" t="n">
-        <v>24200</v>
+        <v>18897</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>968</v>
+        <v>1575</v>
       </c>
       <c r="Q428" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44407</v>
+        <v>44306</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K429" t="n">
-        <v>55000</v>
+        <v>20000</v>
       </c>
       <c r="L429" t="n">
-        <v>60000</v>
+        <v>22000</v>
       </c>
       <c r="M429" t="n">
-        <v>57727</v>
+        <v>20850</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31263,11 +31263,11 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>2309</v>
+        <v>834</v>
       </c>
       <c r="Q429" t="n">
         <v>25</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44186</v>
+        <v>44211</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="K430" t="n">
-        <v>38000</v>
+        <v>10000</v>
       </c>
       <c r="L430" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="M430" t="n">
-        <v>38905</v>
+        <v>10833</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31335,11 +31335,11 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>1556</v>
+        <v>433</v>
       </c>
       <c r="Q430" t="n">
         <v>25</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44186</v>
+        <v>44211</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,29 +31389,29 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K431" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="L431" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="M431" t="n">
-        <v>37575</v>
+        <v>20000</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>1503</v>
+        <v>800</v>
       </c>
       <c r="Q431" t="n">
         <v>25</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44186</v>
+        <v>44211</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31452,38 +31452,38 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="K432" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L432" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M432" t="n">
-        <v>35000</v>
+        <v>18923</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>1400</v>
+        <v>757</v>
       </c>
       <c r="Q432" t="n">
         <v>25</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44186</v>
+        <v>44469</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K433" t="n">
-        <v>35000</v>
+        <v>90000</v>
       </c>
       <c r="L433" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="M433" t="n">
-        <v>35000</v>
+        <v>92273</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>1400</v>
+        <v>3691</v>
       </c>
       <c r="Q433" t="n">
         <v>25</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,29 +31605,29 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="K434" t="n">
-        <v>70000</v>
+        <v>23000</v>
       </c>
       <c r="L434" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M434" t="n">
-        <v>72738</v>
+        <v>24200</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>2910</v>
+        <v>968</v>
       </c>
       <c r="Q434" t="n">
         <v>25</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31673,33 +31673,33 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="K435" t="n">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="L435" t="n">
         <v>60000</v>
       </c>
       <c r="M435" t="n">
-        <v>60000</v>
+        <v>57727</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>2400</v>
+        <v>2309</v>
       </c>
       <c r="Q435" t="n">
         <v>25</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K436" t="n">
-        <v>65000</v>
+        <v>38000</v>
       </c>
       <c r="L436" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="M436" t="n">
-        <v>67273</v>
+        <v>38905</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2691</v>
+        <v>1556</v>
       </c>
       <c r="Q436" t="n">
         <v>25</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31812,25 +31812,25 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K437" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="L437" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="M437" t="n">
-        <v>60000</v>
+        <v>37575</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31839,11 +31839,11 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>2400</v>
+        <v>1503</v>
       </c>
       <c r="Q437" t="n">
         <v>25</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31884,29 +31884,29 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="K438" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L438" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M438" t="n">
-        <v>27021</v>
+        <v>35000</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1801</v>
+        <v>1400</v>
       </c>
       <c r="Q438" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,32 +31965,32 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K439" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L439" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M439" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="Q439" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44481</v>
+        <v>44186</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,7 +32037,7 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K440" t="n">
         <v>70000</v>
@@ -32046,7 +32046,7 @@
         <v>75000</v>
       </c>
       <c r="M440" t="n">
-        <v>73026</v>
+        <v>72738</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>2921</v>
+        <v>2910</v>
       </c>
       <c r="Q440" t="n">
         <v>25</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44481</v>
+        <v>44186</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K441" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="L441" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="M441" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32127,11 +32127,11 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="Q441" t="n">
         <v>25</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K442" t="n">
-        <v>130000</v>
+        <v>65000</v>
       </c>
       <c r="L442" t="n">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="M442" t="n">
-        <v>137895</v>
+        <v>67273</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>5516</v>
+        <v>2691</v>
       </c>
       <c r="Q442" t="n">
         <v>25</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K443" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="L443" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="M443" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="Q443" t="n">
         <v>25</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32325,32 +32325,32 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K444" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L444" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M444" t="n">
-        <v>42875</v>
+        <v>27021</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>3573</v>
+        <v>1801</v>
       </c>
       <c r="Q444" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K445" t="n">
-        <v>55000</v>
+        <v>20000</v>
       </c>
       <c r="L445" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="M445" t="n">
-        <v>57195</v>
+        <v>20000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>3813</v>
+        <v>1333</v>
       </c>
       <c r="Q445" t="n">
         <v>15</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="K446" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="L446" t="n">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="M446" t="n">
-        <v>15000</v>
+        <v>73026</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32487,11 +32487,11 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>600</v>
+        <v>2921</v>
       </c>
       <c r="Q446" t="n">
         <v>25</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,38 +32532,38 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="K447" t="n">
-        <v>12000</v>
+        <v>65000</v>
       </c>
       <c r="L447" t="n">
-        <v>13000</v>
+        <v>65000</v>
       </c>
       <c r="M447" t="n">
-        <v>12519</v>
+        <v>65000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>501</v>
+        <v>2600</v>
       </c>
       <c r="Q447" t="n">
         <v>25</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44505</v>
+        <v>44481</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K448" t="n">
-        <v>60000</v>
+        <v>130000</v>
       </c>
       <c r="L448" t="n">
-        <v>65000</v>
+        <v>150000</v>
       </c>
       <c r="M448" t="n">
-        <v>62875</v>
+        <v>137895</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2515</v>
+        <v>5516</v>
       </c>
       <c r="Q448" t="n">
         <v>25</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44505</v>
+        <v>44481</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K449" t="n">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="L449" t="n">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="M449" t="n">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="Q449" t="n">
         <v>25</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44505</v>
+        <v>44481</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32760,29 +32760,29 @@
         <v>40</v>
       </c>
       <c r="K450" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L450" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M450" t="n">
-        <v>26250</v>
+        <v>42875</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>1750</v>
+        <v>3573</v>
       </c>
       <c r="Q450" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44487</v>
+        <v>44481</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32829,32 +32829,32 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>410</v>
+        <v>41</v>
       </c>
       <c r="K451" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="L451" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="M451" t="n">
-        <v>46829</v>
+        <v>57195</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>1873</v>
+        <v>3813</v>
       </c>
       <c r="Q451" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K452" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L452" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M452" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="Q452" t="n">
         <v>25</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,29 +32973,29 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="K453" t="n">
-        <v>75000</v>
+        <v>12000</v>
       </c>
       <c r="L453" t="n">
-        <v>80000</v>
+        <v>13000</v>
       </c>
       <c r="M453" t="n">
-        <v>77051</v>
+        <v>12519</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>3082</v>
+        <v>501</v>
       </c>
       <c r="Q453" t="n">
         <v>25</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K454" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="L454" t="n">
         <v>65000</v>
       </c>
       <c r="M454" t="n">
-        <v>65000</v>
+        <v>62875</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>2600</v>
+        <v>2515</v>
       </c>
       <c r="Q454" t="n">
         <v>25</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33108,41 +33108,41 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="K455" t="n">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="L455" t="n">
-        <v>27000</v>
+        <v>55000</v>
       </c>
       <c r="M455" t="n">
-        <v>26175</v>
+        <v>55000</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>2181</v>
+        <v>2200</v>
       </c>
       <c r="Q455" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,20 +33189,20 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K456" t="n">
         <v>25000</v>
       </c>
       <c r="L456" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M456" t="n">
-        <v>27727</v>
+        <v>26250</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>1109</v>
+        <v>1750</v>
       </c>
       <c r="Q456" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="K457" t="n">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="L457" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="M457" t="n">
-        <v>58108</v>
+        <v>46829</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33279,11 +33279,11 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>2324</v>
+        <v>1873</v>
       </c>
       <c r="Q457" t="n">
         <v>25</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="K458" t="n">
         <v>35000</v>
       </c>
       <c r="L458" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="M458" t="n">
-        <v>36143</v>
+        <v>35000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>1446</v>
+        <v>1400</v>
       </c>
       <c r="Q458" t="n">
         <v>25</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K459" t="n">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="L459" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="M459" t="n">
-        <v>58250</v>
+        <v>77051</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>2330</v>
+        <v>3082</v>
       </c>
       <c r="Q459" t="n">
         <v>25</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K460" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="L460" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="M460" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="Q460" t="n">
         <v>25</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,32 +33549,32 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K461" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L461" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M461" t="n">
-        <v>32917</v>
+        <v>26175</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>1317</v>
+        <v>2181</v>
       </c>
       <c r="Q461" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33612,25 +33612,25 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K462" t="n">
         <v>25000</v>
       </c>
       <c r="L462" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M462" t="n">
-        <v>25000</v>
+        <v>27727</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33639,11 +33639,11 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1000</v>
+        <v>1109</v>
       </c>
       <c r="Q462" t="n">
         <v>25</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44168</v>
+        <v>44425</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K463" t="n">
+        <v>55000</v>
+      </c>
+      <c r="L463" t="n">
         <v>60000</v>
       </c>
-      <c r="L463" t="n">
-        <v>65000</v>
-      </c>
       <c r="M463" t="n">
-        <v>63182</v>
+        <v>58108</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>2527</v>
+        <v>2324</v>
       </c>
       <c r="Q463" t="n">
         <v>25</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33756,25 +33756,25 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K464" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L464" t="n">
-        <v>50000</v>
+        <v>37000</v>
       </c>
       <c r="M464" t="n">
-        <v>50000</v>
+        <v>36143</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>2000</v>
+        <v>1446</v>
       </c>
       <c r="Q464" t="n">
         <v>25</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K465" t="n">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="L465" t="n">
-        <v>33000</v>
+        <v>60000</v>
       </c>
       <c r="M465" t="n">
-        <v>31050</v>
+        <v>58250</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>1242</v>
+        <v>2330</v>
       </c>
       <c r="Q465" t="n">
         <v>25</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K466" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L466" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M466" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q466" t="n">
         <v>25</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="K467" t="n">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="L467" t="n">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="M467" t="n">
-        <v>67321</v>
+        <v>32917</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -33999,11 +33999,11 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2693</v>
+        <v>1317</v>
       </c>
       <c r="Q467" t="n">
         <v>25</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K468" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L468" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M468" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34071,11 +34071,11 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q468" t="n">
         <v>25</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,20 +34125,20 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K469" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="L469" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="M469" t="n">
-        <v>23929</v>
+        <v>63182</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>1595</v>
+        <v>2527</v>
       </c>
       <c r="Q469" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34188,25 +34188,25 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K470" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="L470" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="M470" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="Q470" t="n">
         <v>25</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K471" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L471" t="n">
-        <v>75000</v>
+        <v>33000</v>
       </c>
       <c r="M471" t="n">
-        <v>75000</v>
+        <v>31050</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>3000</v>
+        <v>1242</v>
       </c>
       <c r="Q471" t="n">
         <v>25</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="K472" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L472" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M472" t="n">
-        <v>15850</v>
+        <v>25000</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>634</v>
+        <v>1000</v>
       </c>
       <c r="Q472" t="n">
         <v>25</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,29 +34413,29 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K473" t="n">
-        <v>15000</v>
+        <v>65000</v>
       </c>
       <c r="L473" t="n">
-        <v>17000</v>
+        <v>70000</v>
       </c>
       <c r="M473" t="n">
-        <v>16077</v>
+        <v>67321</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>643</v>
+        <v>2693</v>
       </c>
       <c r="Q473" t="n">
         <v>25</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,25 +34476,25 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K474" t="n">
-        <v>95000</v>
+        <v>50000</v>
       </c>
       <c r="L474" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M474" t="n">
-        <v>97917</v>
+        <v>50000</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>3917</v>
+        <v>2000</v>
       </c>
       <c r="Q474" t="n">
         <v>25</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,32 +34557,32 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K475" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L475" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M475" t="n">
-        <v>37300</v>
+        <v>23929</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>3108</v>
+        <v>1595</v>
       </c>
       <c r="Q475" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K476" t="n">
         <v>80000</v>
       </c>
       <c r="L476" t="n">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="M476" t="n">
-        <v>82500</v>
+        <v>80000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="Q476" t="n">
         <v>25</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34692,29 +34692,29 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="K477" t="n">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="L477" t="n">
-        <v>52000</v>
+        <v>75000</v>
       </c>
       <c r="M477" t="n">
-        <v>50909</v>
+        <v>75000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>2036</v>
+        <v>3000</v>
       </c>
       <c r="Q477" t="n">
         <v>25</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44484</v>
+        <v>44286</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K478" t="n">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="L478" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M478" t="n">
-        <v>77222</v>
+        <v>15850</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>3089</v>
+        <v>634</v>
       </c>
       <c r="Q478" t="n">
         <v>25</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44484</v>
+        <v>44286</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34836,38 +34836,38 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K479" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="L479" t="n">
-        <v>60000</v>
+        <v>17000</v>
       </c>
       <c r="M479" t="n">
-        <v>60000</v>
+        <v>16077</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>2400</v>
+        <v>643</v>
       </c>
       <c r="Q479" t="n">
         <v>25</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K480" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L480" t="n">
-        <v>85000</v>
+        <v>100000</v>
       </c>
       <c r="M480" t="n">
-        <v>82759</v>
+        <v>97917</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34935,11 +34935,11 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>3310</v>
+        <v>3917</v>
       </c>
       <c r="Q480" t="n">
         <v>25</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34980,41 +34980,41 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K481" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L481" t="n">
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="M481" t="n">
-        <v>75000</v>
+        <v>37300</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>3000</v>
+        <v>3108</v>
       </c>
       <c r="Q481" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K482" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="L482" t="n">
-        <v>45000</v>
+        <v>85000</v>
       </c>
       <c r="M482" t="n">
-        <v>42241</v>
+        <v>82500</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>1690</v>
+        <v>3300</v>
       </c>
       <c r="Q482" t="n">
         <v>25</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,29 +35133,29 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="K483" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L483" t="n">
-        <v>45000</v>
+        <v>52000</v>
       </c>
       <c r="M483" t="n">
-        <v>42800</v>
+        <v>50909</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>1712</v>
+        <v>2036</v>
       </c>
       <c r="Q483" t="n">
         <v>25</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="K484" t="n">
-        <v>65000</v>
+        <v>75000</v>
       </c>
       <c r="L484" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="M484" t="n">
-        <v>68125</v>
+        <v>77222</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35223,11 +35223,11 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>2725</v>
+        <v>3089</v>
       </c>
       <c r="Q484" t="n">
         <v>25</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K485" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="L485" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="M485" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35295,11 +35295,11 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q485" t="n">
         <v>25</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,32 +35349,32 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K486" t="n">
-        <v>18000</v>
+        <v>80000</v>
       </c>
       <c r="L486" t="n">
-        <v>20000</v>
+        <v>85000</v>
       </c>
       <c r="M486" t="n">
-        <v>18714</v>
+        <v>82759</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>1560</v>
+        <v>3310</v>
       </c>
       <c r="Q486" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35412,41 +35412,41 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K487" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="L487" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="M487" t="n">
-        <v>29700</v>
+        <v>75000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P487" t="n">
-        <v>2475</v>
+        <v>3000</v>
       </c>
       <c r="Q487" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K488" t="n">
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="L488" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="M488" t="n">
-        <v>77700</v>
+        <v>42241</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35511,11 +35511,11 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>3108</v>
+        <v>1690</v>
       </c>
       <c r="Q488" t="n">
         <v>25</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="K489" t="n">
-        <v>65000</v>
+        <v>40000</v>
       </c>
       <c r="L489" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="M489" t="n">
-        <v>65000</v>
+        <v>42800</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>2600</v>
+        <v>1712</v>
       </c>
       <c r="Q489" t="n">
         <v>25</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,32 +35637,32 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K490" t="n">
-        <v>33000</v>
+        <v>65000</v>
       </c>
       <c r="L490" t="n">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="M490" t="n">
-        <v>34091</v>
+        <v>68125</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>2841</v>
+        <v>2725</v>
       </c>
       <c r="Q490" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,29 +35700,29 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="K491" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="L491" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M491" t="n">
-        <v>33317</v>
+        <v>50000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -35731,10 +35731,10 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>2221</v>
+        <v>2000</v>
       </c>
       <c r="Q491" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35777,36 +35777,36 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J492" t="n">
+        <v>70</v>
+      </c>
+      <c r="K492" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L492" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M492" t="n">
+        <v>18714</v>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P492" t="n">
+        <v>1560</v>
+      </c>
+      <c r="Q492" t="n">
         <v>12</v>
-      </c>
-      <c r="K492" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L492" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M492" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N492" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O492" t="inlineStr">
-        <is>
-          <t>Provincia de Huasco</t>
-        </is>
-      </c>
-      <c r="P492" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q492" t="n">
-        <v>15</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35856,29 +35856,29 @@
         <v>40</v>
       </c>
       <c r="K493" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L493" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M493" t="n">
-        <v>21150</v>
+        <v>29700</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>846</v>
+        <v>2475</v>
       </c>
       <c r="Q493" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,29 +35925,29 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K494" t="n">
-        <v>16000</v>
+        <v>75000</v>
       </c>
       <c r="L494" t="n">
-        <v>18000</v>
+        <v>80000</v>
       </c>
       <c r="M494" t="n">
-        <v>16833</v>
+        <v>77700</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>673</v>
+        <v>3108</v>
       </c>
       <c r="Q494" t="n">
         <v>25</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35988,38 +35988,38 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K495" t="n">
-        <v>16000</v>
+        <v>65000</v>
       </c>
       <c r="L495" t="n">
-        <v>18000</v>
+        <v>65000</v>
       </c>
       <c r="M495" t="n">
-        <v>17150</v>
+        <v>65000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>686</v>
+        <v>2600</v>
       </c>
       <c r="Q495" t="n">
         <v>25</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="K496" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="L496" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M496" t="n">
-        <v>14753</v>
+        <v>34091</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>1229</v>
+        <v>2841</v>
       </c>
       <c r="Q496" t="n">
         <v>12</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K497" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="L497" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M497" t="n">
-        <v>15605</v>
+        <v>33317</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>1040</v>
+        <v>2221</v>
       </c>
       <c r="Q497" t="n">
         <v>15</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36204,41 +36204,41 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="K498" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L498" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M498" t="n">
-        <v>16244</v>
+        <v>30000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>650</v>
+        <v>2000</v>
       </c>
       <c r="Q498" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,20 +36285,20 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K499" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L499" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M499" t="n">
-        <v>14533</v>
+        <v>21150</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>581</v>
+        <v>846</v>
       </c>
       <c r="Q499" t="n">
         <v>25</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K500" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L500" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M500" t="n">
-        <v>20480</v>
+        <v>16833</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36375,11 +36375,11 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>819</v>
+        <v>673</v>
       </c>
       <c r="Q500" t="n">
         <v>25</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K501" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L501" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M501" t="n">
-        <v>23850</v>
+        <v>17150</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>954</v>
+        <v>686</v>
       </c>
       <c r="Q501" t="n">
         <v>25</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36501,32 +36501,32 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="K502" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L502" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M502" t="n">
-        <v>19040</v>
+        <v>14753</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>762</v>
+        <v>1229</v>
       </c>
       <c r="Q502" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44217</v>
+        <v>44301</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,32 +36573,32 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K503" t="n">
         <v>15000</v>
       </c>
       <c r="L503" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M503" t="n">
-        <v>16125</v>
+        <v>15605</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>645</v>
+        <v>1040</v>
       </c>
       <c r="Q503" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36636,7 +36636,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -36645,29 +36645,29 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K504" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L504" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M504" t="n">
-        <v>14542</v>
+        <v>16244</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="Q504" t="n">
         <v>25</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="K505" t="n">
-        <v>55000</v>
+        <v>14000</v>
       </c>
       <c r="L505" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="M505" t="n">
-        <v>57125</v>
+        <v>14533</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36735,11 +36735,11 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>2285</v>
+        <v>581</v>
       </c>
       <c r="Q505" t="n">
         <v>25</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="K506" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L506" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="M506" t="n">
-        <v>31150</v>
+        <v>20480</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36807,11 +36807,11 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>1246</v>
+        <v>819</v>
       </c>
       <c r="Q506" t="n">
         <v>25</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44307</v>
+        <v>44295</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K507" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L507" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M507" t="n">
-        <v>21875</v>
+        <v>23850</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>875</v>
+        <v>954</v>
       </c>
       <c r="Q507" t="n">
         <v>25</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44273</v>
+        <v>44295</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="K508" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L508" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M508" t="n">
-        <v>15850</v>
+        <v>19040</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36951,11 +36951,11 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>634</v>
+        <v>762</v>
       </c>
       <c r="Q508" t="n">
         <v>25</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44273</v>
+        <v>44217</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,29 +37005,29 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K509" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L509" t="n">
-        <v>150000</v>
+        <v>18000</v>
       </c>
       <c r="M509" t="n">
-        <v>73525</v>
+        <v>16125</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>2941</v>
+        <v>645</v>
       </c>
       <c r="Q509" t="n">
         <v>25</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44433</v>
+        <v>44217</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,32 +37077,32 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="K510" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="L510" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M510" t="n">
-        <v>33828</v>
+        <v>14542</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>2819</v>
+        <v>582</v>
       </c>
       <c r="Q510" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44302</v>
+        <v>44421</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K511" t="n">
-        <v>22000</v>
+        <v>55000</v>
       </c>
       <c r="L511" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="M511" t="n">
-        <v>22400</v>
+        <v>57125</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>896</v>
+        <v>2285</v>
       </c>
       <c r="Q511" t="n">
         <v>25</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44302</v>
+        <v>44383</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37224,13 +37224,13 @@
         <v>40</v>
       </c>
       <c r="K512" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L512" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="M512" t="n">
-        <v>17575</v>
+        <v>31150</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37239,11 +37239,11 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>703</v>
+        <v>1246</v>
       </c>
       <c r="Q512" t="n">
         <v>25</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,32 +37293,32 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K513" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L513" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M513" t="n">
-        <v>15343</v>
+        <v>21875</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>1023</v>
+        <v>875</v>
       </c>
       <c r="Q513" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R513" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37365,20 +37365,20 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="K514" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L514" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M514" t="n">
-        <v>35000</v>
+        <v>15850</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>1400</v>
+        <v>634</v>
       </c>
       <c r="Q514" t="n">
         <v>25</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37428,38 +37428,38 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="K515" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L515" t="n">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="M515" t="n">
-        <v>30000</v>
+        <v>73525</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>1200</v>
+        <v>2941</v>
       </c>
       <c r="Q515" t="n">
         <v>25</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="K516" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L516" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M516" t="n">
-        <v>23000</v>
+        <v>33828</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>1917</v>
+        <v>2819</v>
       </c>
       <c r="Q516" t="n">
         <v>12</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,29 +37581,29 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K517" t="n">
-        <v>60000</v>
+        <v>22000</v>
       </c>
       <c r="L517" t="n">
-        <v>65000</v>
+        <v>23000</v>
       </c>
       <c r="M517" t="n">
-        <v>63000</v>
+        <v>22400</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>2520</v>
+        <v>896</v>
       </c>
       <c r="Q517" t="n">
         <v>25</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37644,38 +37644,38 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K518" t="n">
-        <v>50000</v>
+        <v>17000</v>
       </c>
       <c r="L518" t="n">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="M518" t="n">
-        <v>50000</v>
+        <v>17575</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>2000</v>
+        <v>703</v>
       </c>
       <c r="Q518" t="n">
         <v>25</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37728,29 +37728,29 @@
         <v>35</v>
       </c>
       <c r="K519" t="n">
-        <v>85000</v>
+        <v>15000</v>
       </c>
       <c r="L519" t="n">
-        <v>90000</v>
+        <v>16000</v>
       </c>
       <c r="M519" t="n">
-        <v>87143</v>
+        <v>15343</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>3486</v>
+        <v>1023</v>
       </c>
       <c r="Q519" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R519" t="inlineStr">
         <is>
@@ -37773,58 +37773,490 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E520" t="n">
+        <v>13</v>
+      </c>
+      <c r="F520" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J520" t="n">
+        <v>70</v>
+      </c>
+      <c r="K520" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L520" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M520" t="n">
+        <v>35000</v>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P520" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>25</v>
+      </c>
+      <c r="R520" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>6</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D521" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E521" t="n">
+        <v>13</v>
+      </c>
+      <c r="F521" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J521" t="n">
+        <v>35</v>
+      </c>
+      <c r="K521" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L521" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M521" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P521" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>25</v>
+      </c>
+      <c r="R521" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>6</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D522" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E522" t="n">
+        <v>13</v>
+      </c>
+      <c r="F522" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>Inferno</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J522" t="n">
+        <v>70</v>
+      </c>
+      <c r="K522" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L522" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M522" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P522" t="n">
+        <v>1917</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>12</v>
+      </c>
+      <c r="R522" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>6</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D523" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E520" t="n">
-        <v>13</v>
-      </c>
-      <c r="F520" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H520" t="inlineStr">
+      <c r="E523" t="n">
+        <v>13</v>
+      </c>
+      <c r="F523" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J523" t="n">
+        <v>200</v>
+      </c>
+      <c r="K523" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L523" t="n">
+        <v>65000</v>
+      </c>
+      <c r="M523" t="n">
+        <v>63000</v>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P523" t="n">
+        <v>2520</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>25</v>
+      </c>
+      <c r="R523" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>6</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D524" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E524" t="n">
+        <v>13</v>
+      </c>
+      <c r="F524" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J524" t="n">
+        <v>50</v>
+      </c>
+      <c r="K524" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L524" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M524" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N524" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P524" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>25</v>
+      </c>
+      <c r="R524" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>6</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D525" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E525" t="n">
+        <v>13</v>
+      </c>
+      <c r="F525" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
         <is>
           <t>Chilena(o)</t>
         </is>
       </c>
-      <c r="I520" t="inlineStr">
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J525" t="n">
+        <v>35</v>
+      </c>
+      <c r="K525" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L525" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M525" t="n">
+        <v>87143</v>
+      </c>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P525" t="n">
+        <v>3486</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>25</v>
+      </c>
+      <c r="R525" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>6</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D526" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E526" t="n">
+        <v>13</v>
+      </c>
+      <c r="F526" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J520" t="n">
+      <c r="J526" t="n">
         <v>10</v>
       </c>
-      <c r="K520" t="n">
+      <c r="K526" t="n">
         <v>75000</v>
       </c>
-      <c r="L520" t="n">
+      <c r="L526" t="n">
         <v>75000</v>
       </c>
-      <c r="M520" t="n">
+      <c r="M526" t="n">
         <v>75000</v>
       </c>
-      <c r="N520" t="inlineStr">
+      <c r="N526" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O520" t="inlineStr">
+      <c r="O526" t="inlineStr">
         <is>
           <t>Provincia de Huasco</t>
         </is>
       </c>
-      <c r="P520" t="n">
+      <c r="P526" t="n">
         <v>3000</v>
       </c>
-      <c r="Q520" t="n">
-        <v>25</v>
-      </c>
-      <c r="R520" t="inlineStr">
+      <c r="Q526" t="n">
+        <v>25</v>
+      </c>
+      <c r="R526" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R526"/>
+  <dimension ref="A1:R528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K511" t="n">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="L511" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="M511" t="n">
-        <v>57125</v>
+        <v>32600</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2285</v>
+        <v>1304</v>
       </c>
       <c r="Q511" t="n">
         <v>25</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37221,32 +37221,32 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K512" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L512" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M512" t="n">
-        <v>31150</v>
+        <v>22143</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1246</v>
+        <v>1476</v>
       </c>
       <c r="Q512" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R512" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K513" t="n">
-        <v>20000</v>
+        <v>55000</v>
       </c>
       <c r="L513" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="M513" t="n">
-        <v>21875</v>
+        <v>57125</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>875</v>
+        <v>2285</v>
       </c>
       <c r="Q513" t="n">
         <v>25</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K514" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L514" t="n">
-        <v>17000</v>
+        <v>32000</v>
       </c>
       <c r="M514" t="n">
-        <v>15850</v>
+        <v>31150</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>634</v>
+        <v>1246</v>
       </c>
       <c r="Q514" t="n">
         <v>25</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K515" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L515" t="n">
-        <v>150000</v>
+        <v>23000</v>
       </c>
       <c r="M515" t="n">
-        <v>73525</v>
+        <v>21875</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>2941</v>
+        <v>875</v>
       </c>
       <c r="Q515" t="n">
         <v>25</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,32 +37509,32 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="K516" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L516" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M516" t="n">
-        <v>33828</v>
+        <v>15850</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>2819</v>
+        <v>634</v>
       </c>
       <c r="Q516" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="K517" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L517" t="n">
-        <v>23000</v>
+        <v>150000</v>
       </c>
       <c r="M517" t="n">
-        <v>22400</v>
+        <v>73525</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>896</v>
+        <v>2941</v>
       </c>
       <c r="Q517" t="n">
         <v>25</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,32 +37653,32 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K518" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L518" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M518" t="n">
-        <v>17575</v>
+        <v>33828</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>703</v>
+        <v>2819</v>
       </c>
       <c r="Q518" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37725,32 +37725,32 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K519" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L519" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M519" t="n">
-        <v>15343</v>
+        <v>22400</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>1023</v>
+        <v>896</v>
       </c>
       <c r="Q519" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R519" t="inlineStr">
         <is>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37797,29 +37797,29 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K520" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L520" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M520" t="n">
-        <v>35000</v>
+        <v>17575</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>1400</v>
+        <v>703</v>
       </c>
       <c r="Q520" t="n">
         <v>25</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37860,41 +37860,41 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J521" t="n">
         <v>35</v>
       </c>
       <c r="K521" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L521" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M521" t="n">
-        <v>30000</v>
+        <v>15343</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>1200</v>
+        <v>1023</v>
       </c>
       <c r="Q521" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R521" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37944,29 +37944,29 @@
         <v>70</v>
       </c>
       <c r="K522" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L522" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M522" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>1917</v>
+        <v>1400</v>
       </c>
       <c r="Q522" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R522" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K523" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="L523" t="n">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="M523" t="n">
-        <v>63000</v>
+        <v>30000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>2520</v>
+        <v>1200</v>
       </c>
       <c r="Q523" t="n">
         <v>25</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38076,41 +38076,41 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K524" t="n">
-        <v>50000</v>
+        <v>22000</v>
       </c>
       <c r="L524" t="n">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="M524" t="n">
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>2000</v>
+        <v>1917</v>
       </c>
       <c r="Q524" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="K525" t="n">
-        <v>85000</v>
+        <v>60000</v>
       </c>
       <c r="L525" t="n">
-        <v>90000</v>
+        <v>65000</v>
       </c>
       <c r="M525" t="n">
-        <v>87143</v>
+        <v>63000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>3486</v>
+        <v>2520</v>
       </c>
       <c r="Q525" t="n">
         <v>25</v>
@@ -38220,43 +38220,187 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J526" t="n">
+        <v>50</v>
+      </c>
+      <c r="K526" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L526" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M526" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N526" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P526" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>25</v>
+      </c>
+      <c r="R526" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>6</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D527" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E527" t="n">
+        <v>13</v>
+      </c>
+      <c r="F527" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
           <t>Chilena(o)</t>
         </is>
       </c>
-      <c r="I526" t="inlineStr">
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J527" t="n">
+        <v>35</v>
+      </c>
+      <c r="K527" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L527" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M527" t="n">
+        <v>87143</v>
+      </c>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O527" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P527" t="n">
+        <v>3486</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>25</v>
+      </c>
+      <c r="R527" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>6</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D528" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E528" t="n">
+        <v>13</v>
+      </c>
+      <c r="F528" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J526" t="n">
+      <c r="J528" t="n">
         <v>10</v>
       </c>
-      <c r="K526" t="n">
+      <c r="K528" t="n">
         <v>75000</v>
       </c>
-      <c r="L526" t="n">
+      <c r="L528" t="n">
         <v>75000</v>
       </c>
-      <c r="M526" t="n">
+      <c r="M528" t="n">
         <v>75000</v>
       </c>
-      <c r="N526" t="inlineStr">
+      <c r="N528" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O526" t="inlineStr">
+      <c r="O528" t="inlineStr">
         <is>
           <t>Provincia de Huasco</t>
         </is>
       </c>
-      <c r="P526" t="n">
+      <c r="P528" t="n">
         <v>3000</v>
       </c>
-      <c r="Q526" t="n">
-        <v>25</v>
-      </c>
-      <c r="R526" t="inlineStr">
+      <c r="Q528" t="n">
+        <v>25</v>
+      </c>
+      <c r="R528" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R528"/>
+  <dimension ref="A1:R534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K367" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L367" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M367" t="n">
-        <v>31526</v>
+        <v>42917</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>1261</v>
+        <v>1717</v>
       </c>
       <c r="Q367" t="n">
         <v>25</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26844,25 +26844,25 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K368" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L368" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M368" t="n">
-        <v>42125</v>
+        <v>35000</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>1685</v>
+        <v>1400</v>
       </c>
       <c r="Q368" t="n">
         <v>25</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,20 +26925,20 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K369" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="L369" t="n">
-        <v>27000</v>
+        <v>65000</v>
       </c>
       <c r="M369" t="n">
-        <v>26133</v>
+        <v>63026</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>1742</v>
+        <v>2521</v>
       </c>
       <c r="Q369" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26988,25 +26988,25 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="K370" t="n">
-        <v>13000</v>
+        <v>50000</v>
       </c>
       <c r="L370" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="M370" t="n">
-        <v>14268</v>
+        <v>50000</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>571</v>
+        <v>2000</v>
       </c>
       <c r="Q370" t="n">
         <v>25</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27072,29 +27072,29 @@
         <v>100</v>
       </c>
       <c r="K371" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L371" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M371" t="n">
-        <v>15940</v>
+        <v>22250</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>638</v>
+        <v>1854</v>
       </c>
       <c r="Q371" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27141,32 +27141,32 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K372" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L372" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M372" t="n">
-        <v>15909</v>
+        <v>31691</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>636</v>
+        <v>2113</v>
       </c>
       <c r="Q372" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44376</v>
+        <v>44329</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K373" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="L373" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="M373" t="n">
-        <v>63286</v>
+        <v>31526</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>2531</v>
+        <v>1261</v>
       </c>
       <c r="Q373" t="n">
         <v>25</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44376</v>
+        <v>44329</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27276,25 +27276,25 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K374" t="n">
-        <v>55000</v>
+        <v>40000</v>
       </c>
       <c r="L374" t="n">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="M374" t="n">
-        <v>55000</v>
+        <v>42125</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27303,11 +27303,11 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>2200</v>
+        <v>1685</v>
       </c>
       <c r="Q374" t="n">
         <v>25</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44376</v>
+        <v>44329</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27357,32 +27357,32 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K375" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L375" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M375" t="n">
-        <v>29462</v>
+        <v>26133</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>1178</v>
+        <v>1742</v>
       </c>
       <c r="Q375" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="K376" t="n">
-        <v>70000</v>
+        <v>13000</v>
       </c>
       <c r="L376" t="n">
-        <v>70000</v>
+        <v>15000</v>
       </c>
       <c r="M376" t="n">
-        <v>70000</v>
+        <v>14268</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27447,11 +27447,11 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>2800</v>
+        <v>571</v>
       </c>
       <c r="Q376" t="n">
         <v>25</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27492,38 +27492,38 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K377" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="L377" t="n">
-        <v>60000</v>
+        <v>17000</v>
       </c>
       <c r="M377" t="n">
-        <v>58000</v>
+        <v>15940</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>2320</v>
+        <v>638</v>
       </c>
       <c r="Q377" t="n">
         <v>25</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,32 +27573,32 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K378" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L378" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M378" t="n">
-        <v>23960</v>
+        <v>15909</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>1997</v>
+        <v>636</v>
       </c>
       <c r="Q378" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27648,29 +27648,29 @@
         <v>35</v>
       </c>
       <c r="K379" t="n">
-        <v>33000</v>
+        <v>60000</v>
       </c>
       <c r="L379" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="M379" t="n">
-        <v>34314</v>
+        <v>63286</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>2288</v>
+        <v>2531</v>
       </c>
       <c r="Q379" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27708,38 +27708,38 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K380" t="n">
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="L380" t="n">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="M380" t="n">
-        <v>24143</v>
+        <v>55000</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>966</v>
+        <v>2200</v>
       </c>
       <c r="Q380" t="n">
         <v>25</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44466</v>
+        <v>44376</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="K381" t="n">
-        <v>90000</v>
+        <v>29000</v>
       </c>
       <c r="L381" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="M381" t="n">
-        <v>95625</v>
+        <v>29462</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27807,11 +27807,11 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>3825</v>
+        <v>1178</v>
       </c>
       <c r="Q381" t="n">
         <v>25</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44466</v>
+        <v>44376</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27861,32 +27861,32 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="K382" t="n">
-        <v>37000</v>
+        <v>70000</v>
       </c>
       <c r="L382" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="M382" t="n">
-        <v>38950</v>
+        <v>70000</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>3246</v>
+        <v>2800</v>
       </c>
       <c r="Q382" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44242</v>
+        <v>44376</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27924,25 +27924,25 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K383" t="n">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="L383" t="n">
-        <v>17000</v>
+        <v>60000</v>
       </c>
       <c r="M383" t="n">
-        <v>15875</v>
+        <v>58000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27951,11 +27951,11 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>635</v>
+        <v>2320</v>
       </c>
       <c r="Q383" t="n">
         <v>25</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44242</v>
+        <v>44376</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,32 +28005,32 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K384" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L384" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="M384" t="n">
-        <v>12378</v>
+        <v>23960</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>495</v>
+        <v>1997</v>
       </c>
       <c r="Q384" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44242</v>
+        <v>44376</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,32 +28077,32 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K385" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="L385" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M385" t="n">
-        <v>13875</v>
+        <v>34314</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>555</v>
+        <v>2288</v>
       </c>
       <c r="Q385" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="K386" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L386" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M386" t="n">
-        <v>21172</v>
+        <v>24143</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>847</v>
+        <v>966</v>
       </c>
       <c r="Q386" t="n">
         <v>25</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44279</v>
+        <v>44466</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,32 +28221,32 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K387" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="L387" t="n">
-        <v>14000</v>
+        <v>100000</v>
       </c>
       <c r="M387" t="n">
-        <v>12850</v>
+        <v>95625</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>857</v>
+        <v>3825</v>
       </c>
       <c r="Q387" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44280</v>
+        <v>44466</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,32 +28293,32 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="K388" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="L388" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M388" t="n">
-        <v>19048</v>
+        <v>38950</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>762</v>
+        <v>3246</v>
       </c>
       <c r="Q388" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44280</v>
+        <v>44242</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,29 +28365,29 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="K389" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L389" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M389" t="n">
-        <v>18821</v>
+        <v>15875</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>753</v>
+        <v>635</v>
       </c>
       <c r="Q389" t="n">
         <v>25</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44280</v>
+        <v>44242</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K390" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L390" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M390" t="n">
-        <v>20850</v>
+        <v>12378</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28455,11 +28455,11 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P390" t="n">
-        <v>834</v>
+        <v>495</v>
       </c>
       <c r="Q390" t="n">
         <v>25</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44280</v>
+        <v>44242</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K391" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L391" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M391" t="n">
-        <v>16933</v>
+        <v>13875</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>677</v>
+        <v>555</v>
       </c>
       <c r="Q391" t="n">
         <v>25</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44389</v>
+        <v>44279</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,29 +28581,29 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="K392" t="n">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="L392" t="n">
-        <v>85000</v>
+        <v>22000</v>
       </c>
       <c r="M392" t="n">
-        <v>81875</v>
+        <v>21172</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>3275</v>
+        <v>847</v>
       </c>
       <c r="Q392" t="n">
         <v>25</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44389</v>
+        <v>44279</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28644,41 +28644,41 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="K393" t="n">
-        <v>75000</v>
+        <v>12000</v>
       </c>
       <c r="L393" t="n">
-        <v>75000</v>
+        <v>14000</v>
       </c>
       <c r="M393" t="n">
-        <v>75000</v>
+        <v>12850</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>3000</v>
+        <v>857</v>
       </c>
       <c r="Q393" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="K394" t="n">
-        <v>90000</v>
+        <v>18000</v>
       </c>
       <c r="L394" t="n">
-        <v>95000</v>
+        <v>20000</v>
       </c>
       <c r="M394" t="n">
-        <v>92083</v>
+        <v>19048</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,11 +28743,11 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>3683</v>
+        <v>762</v>
       </c>
       <c r="Q394" t="n">
         <v>25</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,29 +28797,29 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="K395" t="n">
-        <v>90000</v>
+        <v>18000</v>
       </c>
       <c r="L395" t="n">
-        <v>95000</v>
+        <v>20000</v>
       </c>
       <c r="M395" t="n">
-        <v>92812</v>
+        <v>18821</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>3712</v>
+        <v>753</v>
       </c>
       <c r="Q395" t="n">
         <v>25</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,25 +28860,25 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K396" t="n">
-        <v>75000</v>
+        <v>20000</v>
       </c>
       <c r="L396" t="n">
-        <v>75000</v>
+        <v>22000</v>
       </c>
       <c r="M396" t="n">
-        <v>75000</v>
+        <v>20850</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28887,11 +28887,11 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>3000</v>
+        <v>834</v>
       </c>
       <c r="Q396" t="n">
         <v>25</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,29 +28941,29 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="K397" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L397" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M397" t="n">
-        <v>14571</v>
+        <v>16933</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>583</v>
+        <v>677</v>
       </c>
       <c r="Q397" t="n">
         <v>25</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44476</v>
+        <v>44389</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29004,25 +29004,25 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K398" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="L398" t="n">
-        <v>110000</v>
+        <v>85000</v>
       </c>
       <c r="M398" t="n">
-        <v>110000</v>
+        <v>81875</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29031,11 +29031,11 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>4400</v>
+        <v>3275</v>
       </c>
       <c r="Q398" t="n">
         <v>25</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44476</v>
+        <v>44389</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29076,41 +29076,41 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K399" t="n">
-        <v>40000</v>
+        <v>75000</v>
       </c>
       <c r="L399" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="M399" t="n">
-        <v>43000</v>
+        <v>75000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2867</v>
+        <v>3000</v>
       </c>
       <c r="Q399" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44372</v>
+        <v>44389</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K400" t="n">
-        <v>58000</v>
+        <v>90000</v>
       </c>
       <c r="L400" t="n">
-        <v>60000</v>
+        <v>95000</v>
       </c>
       <c r="M400" t="n">
-        <v>59200</v>
+        <v>92083</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29175,11 +29175,11 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>2368</v>
+        <v>3683</v>
       </c>
       <c r="Q400" t="n">
         <v>25</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K401" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="L401" t="n">
-        <v>50000</v>
+        <v>95000</v>
       </c>
       <c r="M401" t="n">
-        <v>50000</v>
+        <v>92812</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>2000</v>
+        <v>3712</v>
       </c>
       <c r="Q401" t="n">
         <v>25</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29292,25 +29292,25 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K402" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="L402" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="M402" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q402" t="n">
         <v>25</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44482</v>
+        <v>44476</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K403" t="n">
-        <v>90000</v>
+        <v>14000</v>
       </c>
       <c r="L403" t="n">
-        <v>95000</v>
+        <v>15000</v>
       </c>
       <c r="M403" t="n">
-        <v>92273</v>
+        <v>14571</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>3691</v>
+        <v>583</v>
       </c>
       <c r="Q403" t="n">
         <v>25</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44204</v>
+        <v>44476</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29441,33 +29441,33 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="K404" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="L404" t="n">
-        <v>35000</v>
+        <v>110000</v>
       </c>
       <c r="M404" t="n">
-        <v>32875</v>
+        <v>110000</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1315</v>
+        <v>4400</v>
       </c>
       <c r="Q404" t="n">
         <v>25</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44277</v>
+        <v>44476</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29517,32 +29517,32 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K405" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L405" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M405" t="n">
-        <v>23947</v>
+        <v>43000</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>958</v>
+        <v>2867</v>
       </c>
       <c r="Q405" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44218</v>
+        <v>44372</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,20 +29589,20 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="K406" t="n">
-        <v>15000</v>
+        <v>58000</v>
       </c>
       <c r="L406" t="n">
-        <v>17000</v>
+        <v>60000</v>
       </c>
       <c r="M406" t="n">
-        <v>15850</v>
+        <v>59200</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>634</v>
+        <v>2368</v>
       </c>
       <c r="Q406" t="n">
         <v>25</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44218</v>
+        <v>44372</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29652,38 +29652,38 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="K407" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="L407" t="n">
-        <v>17000</v>
+        <v>50000</v>
       </c>
       <c r="M407" t="n">
-        <v>16231</v>
+        <v>50000</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>649</v>
+        <v>2000</v>
       </c>
       <c r="Q407" t="n">
         <v>25</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44221</v>
+        <v>44372</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="K408" t="n">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="L408" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M408" t="n">
-        <v>22069</v>
+        <v>70000</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>883</v>
+        <v>2800</v>
       </c>
       <c r="Q408" t="n">
         <v>25</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44221</v>
+        <v>44482</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,33 +29801,33 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="K409" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="L409" t="n">
-        <v>18000</v>
+        <v>95000</v>
       </c>
       <c r="M409" t="n">
-        <v>16275</v>
+        <v>92273</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>651</v>
+        <v>3691</v>
       </c>
       <c r="Q409" t="n">
         <v>25</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44221</v>
+        <v>44204</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,32 +29877,32 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K410" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="L410" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M410" t="n">
-        <v>9562</v>
+        <v>32875</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>637</v>
+        <v>1315</v>
       </c>
       <c r="Q410" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44166</v>
+        <v>44277</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,29 +29949,29 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K411" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L411" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M411" t="n">
-        <v>32917</v>
+        <v>23947</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>1317</v>
+        <v>958</v>
       </c>
       <c r="Q411" t="n">
         <v>25</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30017,24 +30017,24 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="K412" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L412" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M412" t="n">
-        <v>25000</v>
+        <v>15850</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>1000</v>
+        <v>634</v>
       </c>
       <c r="Q412" t="n">
         <v>25</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44477</v>
+        <v>44218</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,29 +30093,29 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="K413" t="n">
-        <v>90000</v>
+        <v>15000</v>
       </c>
       <c r="L413" t="n">
-        <v>90000</v>
+        <v>17000</v>
       </c>
       <c r="M413" t="n">
-        <v>90000</v>
+        <v>16231</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>3600</v>
+        <v>649</v>
       </c>
       <c r="Q413" t="n">
         <v>25</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44477</v>
+        <v>44221</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="K414" t="n">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="L414" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M414" t="n">
-        <v>80000</v>
+        <v>22069</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>3200</v>
+        <v>883</v>
       </c>
       <c r="Q414" t="n">
         <v>25</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44477</v>
+        <v>44221</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30237,29 +30237,29 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="K415" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="L415" t="n">
-        <v>150000</v>
+        <v>18000</v>
       </c>
       <c r="M415" t="n">
-        <v>150000</v>
+        <v>16275</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>6000</v>
+        <v>651</v>
       </c>
       <c r="Q415" t="n">
         <v>25</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44292</v>
+        <v>44221</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,32 +30309,32 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K416" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="L416" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M416" t="n">
-        <v>25000</v>
+        <v>9562</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1000</v>
+        <v>637</v>
       </c>
       <c r="Q416" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44292</v>
+        <v>44166</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,29 +30381,29 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K417" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L417" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M417" t="n">
-        <v>25000</v>
+        <v>32917</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>1000</v>
+        <v>1317</v>
       </c>
       <c r="Q417" t="n">
         <v>25</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44508</v>
+        <v>44166</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>595</v>
+        <v>15</v>
       </c>
       <c r="K418" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L418" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M418" t="n">
-        <v>30378</v>
+        <v>25000</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30471,11 +30471,11 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>1215</v>
+        <v>1000</v>
       </c>
       <c r="Q418" t="n">
         <v>25</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44508</v>
+        <v>44477</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="K419" t="n">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="L419" t="n">
-        <v>32000</v>
+        <v>90000</v>
       </c>
       <c r="M419" t="n">
-        <v>31125</v>
+        <v>90000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>1245</v>
+        <v>3600</v>
       </c>
       <c r="Q419" t="n">
         <v>25</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44508</v>
+        <v>44477</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30588,25 +30588,25 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K420" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="L420" t="n">
-        <v>65000</v>
+        <v>80000</v>
       </c>
       <c r="M420" t="n">
-        <v>62738</v>
+        <v>80000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30615,11 +30615,11 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2510</v>
+        <v>3200</v>
       </c>
       <c r="Q420" t="n">
         <v>25</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44508</v>
+        <v>44477</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K421" t="n">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="L421" t="n">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="M421" t="n">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="Q421" t="n">
         <v>25</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,32 +30741,32 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="K422" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L422" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M422" t="n">
-        <v>21286</v>
+        <v>25000</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1774</v>
+        <v>1000</v>
       </c>
       <c r="Q422" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,32 +30813,32 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K423" t="n">
         <v>25000</v>
       </c>
       <c r="L423" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M423" t="n">
-        <v>26875</v>
+        <v>25000</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1792</v>
+        <v>1000</v>
       </c>
       <c r="Q423" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,32 +30885,32 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>39</v>
+        <v>595</v>
       </c>
       <c r="K424" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L424" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M424" t="n">
-        <v>19282</v>
+        <v>30378</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>1607</v>
+        <v>1215</v>
       </c>
       <c r="Q424" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="K425" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L425" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="M425" t="n">
-        <v>42759</v>
+        <v>31125</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30975,11 +30975,11 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>1710</v>
+        <v>1245</v>
       </c>
       <c r="Q425" t="n">
         <v>25</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31020,25 +31020,25 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K426" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="L426" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="M426" t="n">
-        <v>35000</v>
+        <v>62738</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31047,11 +31047,11 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1400</v>
+        <v>2510</v>
       </c>
       <c r="Q426" t="n">
         <v>25</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,38 +31092,38 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="K427" t="n">
-        <v>28000</v>
+        <v>50000</v>
       </c>
       <c r="L427" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M427" t="n">
-        <v>29179</v>
+        <v>50000</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>1167</v>
+        <v>2000</v>
       </c>
       <c r="Q427" t="n">
         <v>25</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="K428" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L428" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M428" t="n">
-        <v>18897</v>
+        <v>21286</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>1575</v>
+        <v>1774</v>
       </c>
       <c r="Q428" t="n">
         <v>12</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44306</v>
+        <v>44508</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31245,32 +31245,32 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K429" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L429" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M429" t="n">
-        <v>20850</v>
+        <v>26875</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>834</v>
+        <v>1792</v>
       </c>
       <c r="Q429" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44211</v>
+        <v>44333</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,32 +31317,32 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="K430" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L430" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M430" t="n">
-        <v>10833</v>
+        <v>19282</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>433</v>
+        <v>1607</v>
       </c>
       <c r="Q430" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44211</v>
+        <v>44356</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,20 +31389,20 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="K431" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L431" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M431" t="n">
-        <v>20000</v>
+        <v>42759</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>800</v>
+        <v>1710</v>
       </c>
       <c r="Q431" t="n">
         <v>25</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44211</v>
+        <v>44356</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31452,29 +31452,29 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="K432" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L432" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M432" t="n">
-        <v>18923</v>
+        <v>35000</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>757</v>
+        <v>1400</v>
       </c>
       <c r="Q432" t="n">
         <v>25</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44469</v>
+        <v>44356</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,29 +31533,29 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="K433" t="n">
-        <v>90000</v>
+        <v>28000</v>
       </c>
       <c r="L433" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="M433" t="n">
-        <v>92273</v>
+        <v>29179</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>3691</v>
+        <v>1167</v>
       </c>
       <c r="Q433" t="n">
         <v>25</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44215</v>
+        <v>44356</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,32 +31605,32 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="K434" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L434" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M434" t="n">
-        <v>24200</v>
+        <v>18897</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>968</v>
+        <v>1575</v>
       </c>
       <c r="Q434" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44407</v>
+        <v>44306</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K435" t="n">
-        <v>55000</v>
+        <v>20000</v>
       </c>
       <c r="L435" t="n">
-        <v>60000</v>
+        <v>22000</v>
       </c>
       <c r="M435" t="n">
-        <v>57727</v>
+        <v>20850</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>2309</v>
+        <v>834</v>
       </c>
       <c r="Q435" t="n">
         <v>25</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44186</v>
+        <v>44211</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="K436" t="n">
-        <v>38000</v>
+        <v>10000</v>
       </c>
       <c r="L436" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="M436" t="n">
-        <v>38905</v>
+        <v>10833</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>1556</v>
+        <v>433</v>
       </c>
       <c r="Q436" t="n">
         <v>25</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44186</v>
+        <v>44211</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,29 +31821,29 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K437" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="L437" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="M437" t="n">
-        <v>37575</v>
+        <v>20000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>1503</v>
+        <v>800</v>
       </c>
       <c r="Q437" t="n">
         <v>25</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44186</v>
+        <v>44211</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31884,38 +31884,38 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="K438" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L438" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M438" t="n">
-        <v>35000</v>
+        <v>18923</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1400</v>
+        <v>757</v>
       </c>
       <c r="Q438" t="n">
         <v>25</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44186</v>
+        <v>44469</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K439" t="n">
-        <v>35000</v>
+        <v>90000</v>
       </c>
       <c r="L439" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="M439" t="n">
-        <v>35000</v>
+        <v>92273</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>1400</v>
+        <v>3691</v>
       </c>
       <c r="Q439" t="n">
         <v>25</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,29 +32037,29 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="K440" t="n">
-        <v>70000</v>
+        <v>23000</v>
       </c>
       <c r="L440" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M440" t="n">
-        <v>72738</v>
+        <v>24200</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>2910</v>
+        <v>968</v>
       </c>
       <c r="Q440" t="n">
         <v>25</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32105,33 +32105,33 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="K441" t="n">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="L441" t="n">
         <v>60000</v>
       </c>
       <c r="M441" t="n">
-        <v>60000</v>
+        <v>57727</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>2400</v>
+        <v>2309</v>
       </c>
       <c r="Q441" t="n">
         <v>25</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K442" t="n">
-        <v>65000</v>
+        <v>38000</v>
       </c>
       <c r="L442" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="M442" t="n">
-        <v>67273</v>
+        <v>38905</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>2691</v>
+        <v>1556</v>
       </c>
       <c r="Q442" t="n">
         <v>25</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32244,25 +32244,25 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K443" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="L443" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="M443" t="n">
-        <v>60000</v>
+        <v>37575</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32271,11 +32271,11 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>2400</v>
+        <v>1503</v>
       </c>
       <c r="Q443" t="n">
         <v>25</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32316,29 +32316,29 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="K444" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L444" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M444" t="n">
-        <v>27021</v>
+        <v>35000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>1801</v>
+        <v>1400</v>
       </c>
       <c r="Q444" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,32 +32397,32 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K445" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L445" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M445" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="Q445" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44481</v>
+        <v>44186</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,7 +32469,7 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K446" t="n">
         <v>70000</v>
@@ -32478,7 +32478,7 @@
         <v>75000</v>
       </c>
       <c r="M446" t="n">
-        <v>73026</v>
+        <v>72738</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32487,11 +32487,11 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>2921</v>
+        <v>2910</v>
       </c>
       <c r="Q446" t="n">
         <v>25</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44481</v>
+        <v>44186</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K447" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="L447" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="M447" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32559,11 +32559,11 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="Q447" t="n">
         <v>25</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K448" t="n">
-        <v>130000</v>
+        <v>65000</v>
       </c>
       <c r="L448" t="n">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="M448" t="n">
-        <v>137895</v>
+        <v>67273</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>5516</v>
+        <v>2691</v>
       </c>
       <c r="Q448" t="n">
         <v>25</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K449" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="L449" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="M449" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="Q449" t="n">
         <v>25</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,32 +32757,32 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K450" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L450" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M450" t="n">
-        <v>42875</v>
+        <v>27021</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>3573</v>
+        <v>1801</v>
       </c>
       <c r="Q450" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K451" t="n">
-        <v>55000</v>
+        <v>20000</v>
       </c>
       <c r="L451" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="M451" t="n">
-        <v>57195</v>
+        <v>20000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>3813</v>
+        <v>1333</v>
       </c>
       <c r="Q451" t="n">
         <v>15</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="K452" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="L452" t="n">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="M452" t="n">
-        <v>15000</v>
+        <v>73026</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>600</v>
+        <v>2921</v>
       </c>
       <c r="Q452" t="n">
         <v>25</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32964,38 +32964,38 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="K453" t="n">
-        <v>12000</v>
+        <v>65000</v>
       </c>
       <c r="L453" t="n">
-        <v>13000</v>
+        <v>65000</v>
       </c>
       <c r="M453" t="n">
-        <v>12519</v>
+        <v>65000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>501</v>
+        <v>2600</v>
       </c>
       <c r="Q453" t="n">
         <v>25</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44505</v>
+        <v>44481</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K454" t="n">
-        <v>60000</v>
+        <v>130000</v>
       </c>
       <c r="L454" t="n">
-        <v>65000</v>
+        <v>150000</v>
       </c>
       <c r="M454" t="n">
-        <v>62875</v>
+        <v>137895</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>2515</v>
+        <v>5516</v>
       </c>
       <c r="Q454" t="n">
         <v>25</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44505</v>
+        <v>44481</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K455" t="n">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="L455" t="n">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="M455" t="n">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="Q455" t="n">
         <v>25</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44505</v>
+        <v>44481</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33192,29 +33192,29 @@
         <v>40</v>
       </c>
       <c r="K456" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L456" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M456" t="n">
-        <v>26250</v>
+        <v>42875</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>1750</v>
+        <v>3573</v>
       </c>
       <c r="Q456" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44487</v>
+        <v>44481</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,32 +33261,32 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>410</v>
+        <v>41</v>
       </c>
       <c r="K457" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="L457" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="M457" t="n">
-        <v>46829</v>
+        <v>57195</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>1873</v>
+        <v>3813</v>
       </c>
       <c r="Q457" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K458" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L458" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M458" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33351,11 +33351,11 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="Q458" t="n">
         <v>25</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,29 +33405,29 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="K459" t="n">
-        <v>75000</v>
+        <v>12000</v>
       </c>
       <c r="L459" t="n">
-        <v>80000</v>
+        <v>13000</v>
       </c>
       <c r="M459" t="n">
-        <v>77051</v>
+        <v>12519</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>3082</v>
+        <v>501</v>
       </c>
       <c r="Q459" t="n">
         <v>25</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K460" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="L460" t="n">
         <v>65000</v>
       </c>
       <c r="M460" t="n">
-        <v>65000</v>
+        <v>62875</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>2600</v>
+        <v>2515</v>
       </c>
       <c r="Q460" t="n">
         <v>25</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33540,41 +33540,41 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="K461" t="n">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="L461" t="n">
-        <v>27000</v>
+        <v>55000</v>
       </c>
       <c r="M461" t="n">
-        <v>26175</v>
+        <v>55000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>2181</v>
+        <v>2200</v>
       </c>
       <c r="Q461" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,20 +33621,20 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K462" t="n">
         <v>25000</v>
       </c>
       <c r="L462" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M462" t="n">
-        <v>27727</v>
+        <v>26250</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1109</v>
+        <v>1750</v>
       </c>
       <c r="Q462" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="K463" t="n">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="L463" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="M463" t="n">
-        <v>58108</v>
+        <v>46829</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>2324</v>
+        <v>1873</v>
       </c>
       <c r="Q463" t="n">
         <v>25</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="K464" t="n">
         <v>35000</v>
       </c>
       <c r="L464" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="M464" t="n">
-        <v>36143</v>
+        <v>35000</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>1446</v>
+        <v>1400</v>
       </c>
       <c r="Q464" t="n">
         <v>25</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K465" t="n">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="L465" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="M465" t="n">
-        <v>58250</v>
+        <v>77051</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>2330</v>
+        <v>3082</v>
       </c>
       <c r="Q465" t="n">
         <v>25</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K466" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="L466" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="M466" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="Q466" t="n">
         <v>25</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,32 +33981,32 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K467" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L467" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M467" t="n">
-        <v>32917</v>
+        <v>26175</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>1317</v>
+        <v>2181</v>
       </c>
       <c r="Q467" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34044,25 +34044,25 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K468" t="n">
         <v>25000</v>
       </c>
       <c r="L468" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M468" t="n">
-        <v>25000</v>
+        <v>27727</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34071,11 +34071,11 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>1000</v>
+        <v>1109</v>
       </c>
       <c r="Q468" t="n">
         <v>25</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44168</v>
+        <v>44425</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K469" t="n">
+        <v>55000</v>
+      </c>
+      <c r="L469" t="n">
         <v>60000</v>
       </c>
-      <c r="L469" t="n">
-        <v>65000</v>
-      </c>
       <c r="M469" t="n">
-        <v>63182</v>
+        <v>58108</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>2527</v>
+        <v>2324</v>
       </c>
       <c r="Q469" t="n">
         <v>25</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34188,25 +34188,25 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K470" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L470" t="n">
-        <v>50000</v>
+        <v>37000</v>
       </c>
       <c r="M470" t="n">
-        <v>50000</v>
+        <v>36143</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>2000</v>
+        <v>1446</v>
       </c>
       <c r="Q470" t="n">
         <v>25</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K471" t="n">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="L471" t="n">
-        <v>33000</v>
+        <v>60000</v>
       </c>
       <c r="M471" t="n">
-        <v>31050</v>
+        <v>58250</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>1242</v>
+        <v>2330</v>
       </c>
       <c r="Q471" t="n">
         <v>25</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K472" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L472" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M472" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34359,11 +34359,11 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q472" t="n">
         <v>25</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="K473" t="n">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="L473" t="n">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="M473" t="n">
-        <v>67321</v>
+        <v>32917</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>2693</v>
+        <v>1317</v>
       </c>
       <c r="Q473" t="n">
         <v>25</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K474" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L474" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M474" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q474" t="n">
         <v>25</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,20 +34557,20 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K475" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="L475" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="M475" t="n">
-        <v>23929</v>
+        <v>63182</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>1595</v>
+        <v>2527</v>
       </c>
       <c r="Q475" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34620,25 +34620,25 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K476" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="L476" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="M476" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="Q476" t="n">
         <v>25</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K477" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L477" t="n">
-        <v>75000</v>
+        <v>33000</v>
       </c>
       <c r="M477" t="n">
-        <v>75000</v>
+        <v>31050</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>3000</v>
+        <v>1242</v>
       </c>
       <c r="Q477" t="n">
         <v>25</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="K478" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L478" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M478" t="n">
-        <v>15850</v>
+        <v>25000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>634</v>
+        <v>1000</v>
       </c>
       <c r="Q478" t="n">
         <v>25</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34845,29 +34845,29 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K479" t="n">
-        <v>15000</v>
+        <v>65000</v>
       </c>
       <c r="L479" t="n">
-        <v>17000</v>
+        <v>70000</v>
       </c>
       <c r="M479" t="n">
-        <v>16077</v>
+        <v>67321</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>643</v>
+        <v>2693</v>
       </c>
       <c r="Q479" t="n">
         <v>25</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34908,25 +34908,25 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K480" t="n">
-        <v>95000</v>
+        <v>50000</v>
       </c>
       <c r="L480" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M480" t="n">
-        <v>97917</v>
+        <v>50000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34935,11 +34935,11 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>3917</v>
+        <v>2000</v>
       </c>
       <c r="Q480" t="n">
         <v>25</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,32 +34989,32 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K481" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L481" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M481" t="n">
-        <v>37300</v>
+        <v>23929</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>3108</v>
+        <v>1595</v>
       </c>
       <c r="Q481" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K482" t="n">
         <v>80000</v>
       </c>
       <c r="L482" t="n">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="M482" t="n">
-        <v>82500</v>
+        <v>80000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="Q482" t="n">
         <v>25</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35124,29 +35124,29 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="K483" t="n">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="L483" t="n">
-        <v>52000</v>
+        <v>75000</v>
       </c>
       <c r="M483" t="n">
-        <v>50909</v>
+        <v>75000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>2036</v>
+        <v>3000</v>
       </c>
       <c r="Q483" t="n">
         <v>25</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44484</v>
+        <v>44286</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K484" t="n">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="L484" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M484" t="n">
-        <v>77222</v>
+        <v>15850</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>3089</v>
+        <v>634</v>
       </c>
       <c r="Q484" t="n">
         <v>25</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44484</v>
+        <v>44286</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,38 +35268,38 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K485" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="L485" t="n">
-        <v>60000</v>
+        <v>17000</v>
       </c>
       <c r="M485" t="n">
-        <v>60000</v>
+        <v>16077</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>2400</v>
+        <v>643</v>
       </c>
       <c r="Q485" t="n">
         <v>25</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K486" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L486" t="n">
-        <v>85000</v>
+        <v>100000</v>
       </c>
       <c r="M486" t="n">
-        <v>82759</v>
+        <v>97917</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35367,11 +35367,11 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>3310</v>
+        <v>3917</v>
       </c>
       <c r="Q486" t="n">
         <v>25</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35412,41 +35412,41 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K487" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L487" t="n">
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="M487" t="n">
-        <v>75000</v>
+        <v>37300</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P487" t="n">
-        <v>3000</v>
+        <v>3108</v>
       </c>
       <c r="Q487" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K488" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="L488" t="n">
-        <v>45000</v>
+        <v>85000</v>
       </c>
       <c r="M488" t="n">
-        <v>42241</v>
+        <v>82500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>1690</v>
+        <v>3300</v>
       </c>
       <c r="Q488" t="n">
         <v>25</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,29 +35565,29 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="K489" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L489" t="n">
-        <v>45000</v>
+        <v>52000</v>
       </c>
       <c r="M489" t="n">
-        <v>42800</v>
+        <v>50909</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>1712</v>
+        <v>2036</v>
       </c>
       <c r="Q489" t="n">
         <v>25</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="K490" t="n">
-        <v>65000</v>
+        <v>75000</v>
       </c>
       <c r="L490" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="M490" t="n">
-        <v>68125</v>
+        <v>77222</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35655,11 +35655,11 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>2725</v>
+        <v>3089</v>
       </c>
       <c r="Q490" t="n">
         <v>25</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K491" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="L491" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="M491" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35727,11 +35727,11 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q491" t="n">
         <v>25</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,32 +35781,32 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K492" t="n">
-        <v>18000</v>
+        <v>80000</v>
       </c>
       <c r="L492" t="n">
-        <v>20000</v>
+        <v>85000</v>
       </c>
       <c r="M492" t="n">
-        <v>18714</v>
+        <v>82759</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>1560</v>
+        <v>3310</v>
       </c>
       <c r="Q492" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35844,41 +35844,41 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K493" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="L493" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="M493" t="n">
-        <v>29700</v>
+        <v>75000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>2475</v>
+        <v>3000</v>
       </c>
       <c r="Q493" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K494" t="n">
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="L494" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="M494" t="n">
-        <v>77700</v>
+        <v>42241</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>3108</v>
+        <v>1690</v>
       </c>
       <c r="Q494" t="n">
         <v>25</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="K495" t="n">
-        <v>65000</v>
+        <v>40000</v>
       </c>
       <c r="L495" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="M495" t="n">
-        <v>65000</v>
+        <v>42800</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>2600</v>
+        <v>1712</v>
       </c>
       <c r="Q495" t="n">
         <v>25</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,32 +36069,32 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K496" t="n">
-        <v>33000</v>
+        <v>65000</v>
       </c>
       <c r="L496" t="n">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="M496" t="n">
-        <v>34091</v>
+        <v>68125</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>2841</v>
+        <v>2725</v>
       </c>
       <c r="Q496" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36132,29 +36132,29 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="K497" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="L497" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M497" t="n">
-        <v>33317</v>
+        <v>50000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -36163,10 +36163,10 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>2221</v>
+        <v>2000</v>
       </c>
       <c r="Q497" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36209,36 +36209,36 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J498" t="n">
+        <v>70</v>
+      </c>
+      <c r="K498" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L498" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M498" t="n">
+        <v>18714</v>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P498" t="n">
+        <v>1560</v>
+      </c>
+      <c r="Q498" t="n">
         <v>12</v>
-      </c>
-      <c r="K498" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L498" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M498" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N498" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O498" t="inlineStr">
-        <is>
-          <t>Provincia de Huasco</t>
-        </is>
-      </c>
-      <c r="P498" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q498" t="n">
-        <v>15</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36288,29 +36288,29 @@
         <v>40</v>
       </c>
       <c r="K499" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L499" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M499" t="n">
-        <v>21150</v>
+        <v>29700</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>846</v>
+        <v>2475</v>
       </c>
       <c r="Q499" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,29 +36357,29 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K500" t="n">
-        <v>16000</v>
+        <v>75000</v>
       </c>
       <c r="L500" t="n">
-        <v>18000</v>
+        <v>80000</v>
       </c>
       <c r="M500" t="n">
-        <v>16833</v>
+        <v>77700</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>673</v>
+        <v>3108</v>
       </c>
       <c r="Q500" t="n">
         <v>25</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36420,38 +36420,38 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K501" t="n">
-        <v>16000</v>
+        <v>65000</v>
       </c>
       <c r="L501" t="n">
-        <v>18000</v>
+        <v>65000</v>
       </c>
       <c r="M501" t="n">
-        <v>17150</v>
+        <v>65000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>686</v>
+        <v>2600</v>
       </c>
       <c r="Q501" t="n">
         <v>25</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="K502" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="L502" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M502" t="n">
-        <v>14753</v>
+        <v>34091</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>1229</v>
+        <v>2841</v>
       </c>
       <c r="Q502" t="n">
         <v>12</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K503" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="L503" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M503" t="n">
-        <v>15605</v>
+        <v>33317</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36591,11 +36591,11 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>1040</v>
+        <v>2221</v>
       </c>
       <c r="Q503" t="n">
         <v>15</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36636,41 +36636,41 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="K504" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L504" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M504" t="n">
-        <v>16244</v>
+        <v>30000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>650</v>
+        <v>2000</v>
       </c>
       <c r="Q504" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -36717,20 +36717,20 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K505" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L505" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M505" t="n">
-        <v>14533</v>
+        <v>21150</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>581</v>
+        <v>846</v>
       </c>
       <c r="Q505" t="n">
         <v>25</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K506" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L506" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M506" t="n">
-        <v>20480</v>
+        <v>16833</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36807,11 +36807,11 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>819</v>
+        <v>673</v>
       </c>
       <c r="Q506" t="n">
         <v>25</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K507" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L507" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M507" t="n">
-        <v>23850</v>
+        <v>17150</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>954</v>
+        <v>686</v>
       </c>
       <c r="Q507" t="n">
         <v>25</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,32 +36933,32 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="K508" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L508" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M508" t="n">
-        <v>19040</v>
+        <v>14753</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>762</v>
+        <v>1229</v>
       </c>
       <c r="Q508" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44217</v>
+        <v>44301</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,32 +37005,32 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K509" t="n">
         <v>15000</v>
       </c>
       <c r="L509" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M509" t="n">
-        <v>16125</v>
+        <v>15605</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>645</v>
+        <v>1040</v>
       </c>
       <c r="Q509" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,29 +37077,29 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K510" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L510" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M510" t="n">
-        <v>14542</v>
+        <v>16244</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="Q510" t="n">
         <v>25</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44509</v>
+        <v>44270</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K511" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="L511" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M511" t="n">
-        <v>32600</v>
+        <v>14533</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>1304</v>
+        <v>581</v>
       </c>
       <c r="Q511" t="n">
         <v>25</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37221,32 +37221,32 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K512" t="n">
         <v>20000</v>
       </c>
       <c r="L512" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M512" t="n">
-        <v>22143</v>
+        <v>20480</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1476</v>
+        <v>819</v>
       </c>
       <c r="Q512" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R512" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K513" t="n">
-        <v>55000</v>
+        <v>23000</v>
       </c>
       <c r="L513" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="M513" t="n">
-        <v>57125</v>
+        <v>23850</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>2285</v>
+        <v>954</v>
       </c>
       <c r="Q513" t="n">
         <v>25</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K514" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L514" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M514" t="n">
-        <v>31150</v>
+        <v>19040</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>1246</v>
+        <v>762</v>
       </c>
       <c r="Q514" t="n">
         <v>25</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37440,26 +37440,26 @@
         <v>80</v>
       </c>
       <c r="K515" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L515" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M515" t="n">
-        <v>21875</v>
+        <v>16125</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>875</v>
+        <v>645</v>
       </c>
       <c r="Q515" t="n">
         <v>25</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44273</v>
+        <v>44217</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K516" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L516" t="n">
         <v>15000</v>
       </c>
-      <c r="L516" t="n">
-        <v>17000</v>
-      </c>
       <c r="M516" t="n">
-        <v>15850</v>
+        <v>14542</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37527,11 +37527,11 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>634</v>
+        <v>582</v>
       </c>
       <c r="Q516" t="n">
         <v>25</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44273</v>
+        <v>44509</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K517" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L517" t="n">
-        <v>150000</v>
+        <v>35000</v>
       </c>
       <c r="M517" t="n">
-        <v>73525</v>
+        <v>32600</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37599,11 +37599,11 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>2941</v>
+        <v>1304</v>
       </c>
       <c r="Q517" t="n">
         <v>25</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44433</v>
+        <v>44509</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37653,32 +37653,32 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="K518" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L518" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M518" t="n">
-        <v>33828</v>
+        <v>22143</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>2819</v>
+        <v>1476</v>
       </c>
       <c r="Q518" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44302</v>
+        <v>44421</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K519" t="n">
-        <v>22000</v>
+        <v>55000</v>
       </c>
       <c r="L519" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="M519" t="n">
-        <v>22400</v>
+        <v>57125</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37743,11 +37743,11 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>896</v>
+        <v>2285</v>
       </c>
       <c r="Q519" t="n">
         <v>25</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44302</v>
+        <v>44383</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37800,13 +37800,13 @@
         <v>40</v>
       </c>
       <c r="K520" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L520" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="M520" t="n">
-        <v>17575</v>
+        <v>31150</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37815,11 +37815,11 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>703</v>
+        <v>1246</v>
       </c>
       <c r="Q520" t="n">
         <v>25</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,32 +37869,32 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K521" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L521" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M521" t="n">
-        <v>15343</v>
+        <v>21875</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>1023</v>
+        <v>875</v>
       </c>
       <c r="Q521" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R521" t="inlineStr">
         <is>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37941,20 +37941,20 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="K522" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L522" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M522" t="n">
-        <v>35000</v>
+        <v>15850</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>1400</v>
+        <v>634</v>
       </c>
       <c r="Q522" t="n">
         <v>25</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38004,38 +38004,38 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="K523" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L523" t="n">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="M523" t="n">
-        <v>30000</v>
+        <v>73525</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>1200</v>
+        <v>2941</v>
       </c>
       <c r="Q523" t="n">
         <v>25</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="K524" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L524" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M524" t="n">
-        <v>23000</v>
+        <v>33828</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>1917</v>
+        <v>2819</v>
       </c>
       <c r="Q524" t="n">
         <v>12</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -38157,29 +38157,29 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K525" t="n">
-        <v>60000</v>
+        <v>22000</v>
       </c>
       <c r="L525" t="n">
-        <v>65000</v>
+        <v>23000</v>
       </c>
       <c r="M525" t="n">
-        <v>63000</v>
+        <v>22400</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>2520</v>
+        <v>896</v>
       </c>
       <c r="Q525" t="n">
         <v>25</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38220,38 +38220,38 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K526" t="n">
-        <v>50000</v>
+        <v>17000</v>
       </c>
       <c r="L526" t="n">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="M526" t="n">
-        <v>50000</v>
+        <v>17575</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>2000</v>
+        <v>703</v>
       </c>
       <c r="Q526" t="n">
         <v>25</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38292,7 +38292,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -38304,29 +38304,29 @@
         <v>35</v>
       </c>
       <c r="K527" t="n">
-        <v>85000</v>
+        <v>15000</v>
       </c>
       <c r="L527" t="n">
-        <v>90000</v>
+        <v>16000</v>
       </c>
       <c r="M527" t="n">
-        <v>87143</v>
+        <v>15343</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>3486</v>
+        <v>1023</v>
       </c>
       <c r="Q527" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
@@ -38349,58 +38349,490 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E528" t="n">
+        <v>13</v>
+      </c>
+      <c r="F528" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J528" t="n">
+        <v>70</v>
+      </c>
+      <c r="K528" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L528" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M528" t="n">
+        <v>35000</v>
+      </c>
+      <c r="N528" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P528" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>25</v>
+      </c>
+      <c r="R528" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>6</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D529" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E529" t="n">
+        <v>13</v>
+      </c>
+      <c r="F529" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J529" t="n">
+        <v>35</v>
+      </c>
+      <c r="K529" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L529" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M529" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N529" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P529" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>25</v>
+      </c>
+      <c r="R529" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>6</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D530" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E530" t="n">
+        <v>13</v>
+      </c>
+      <c r="F530" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>Inferno</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J530" t="n">
+        <v>70</v>
+      </c>
+      <c r="K530" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L530" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M530" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P530" t="n">
+        <v>1917</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>12</v>
+      </c>
+      <c r="R530" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>6</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D531" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E528" t="n">
-        <v>13</v>
-      </c>
-      <c r="F528" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H528" t="inlineStr">
+      <c r="E531" t="n">
+        <v>13</v>
+      </c>
+      <c r="F531" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J531" t="n">
+        <v>200</v>
+      </c>
+      <c r="K531" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L531" t="n">
+        <v>65000</v>
+      </c>
+      <c r="M531" t="n">
+        <v>63000</v>
+      </c>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O531" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P531" t="n">
+        <v>2520</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>25</v>
+      </c>
+      <c r="R531" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>6</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D532" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E532" t="n">
+        <v>13</v>
+      </c>
+      <c r="F532" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J532" t="n">
+        <v>50</v>
+      </c>
+      <c r="K532" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L532" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M532" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P532" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>25</v>
+      </c>
+      <c r="R532" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>6</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D533" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E533" t="n">
+        <v>13</v>
+      </c>
+      <c r="F533" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
         <is>
           <t>Chilena(o)</t>
         </is>
       </c>
-      <c r="I528" t="inlineStr">
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J533" t="n">
+        <v>35</v>
+      </c>
+      <c r="K533" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L533" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M533" t="n">
+        <v>87143</v>
+      </c>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P533" t="n">
+        <v>3486</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>25</v>
+      </c>
+      <c r="R533" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>6</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D534" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E534" t="n">
+        <v>13</v>
+      </c>
+      <c r="F534" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J528" t="n">
+      <c r="J534" t="n">
         <v>10</v>
       </c>
-      <c r="K528" t="n">
+      <c r="K534" t="n">
         <v>75000</v>
       </c>
-      <c r="L528" t="n">
+      <c r="L534" t="n">
         <v>75000</v>
       </c>
-      <c r="M528" t="n">
+      <c r="M534" t="n">
         <v>75000</v>
       </c>
-      <c r="N528" t="inlineStr">
+      <c r="N534" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O528" t="inlineStr">
+      <c r="O534" t="inlineStr">
         <is>
           <t>Provincia de Huasco</t>
         </is>
       </c>
-      <c r="P528" t="n">
+      <c r="P534" t="n">
         <v>3000</v>
       </c>
-      <c r="Q528" t="n">
-        <v>25</v>
-      </c>
-      <c r="R528" t="inlineStr">
+      <c r="Q534" t="n">
+        <v>25</v>
+      </c>
+      <c r="R534" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R534"/>
+  <dimension ref="A1:R536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,29 +31677,29 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K435" t="n">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="L435" t="n">
-        <v>22000</v>
+        <v>70000</v>
       </c>
       <c r="M435" t="n">
-        <v>20850</v>
+        <v>67188</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>834</v>
+        <v>2688</v>
       </c>
       <c r="Q435" t="n">
         <v>25</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31740,25 +31740,25 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="K436" t="n">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="L436" t="n">
-        <v>12000</v>
+        <v>60000</v>
       </c>
       <c r="M436" t="n">
-        <v>10833</v>
+        <v>60000</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>433</v>
+        <v>2400</v>
       </c>
       <c r="Q436" t="n">
         <v>25</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Cacho cabra verde</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K437" t="n">
         <v>20000</v>
       </c>
       <c r="L437" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M437" t="n">
-        <v>20000</v>
+        <v>20850</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="Q437" t="n">
         <v>25</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31893,29 +31893,29 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K438" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L438" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M438" t="n">
-        <v>18923</v>
+        <v>10833</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>757</v>
+        <v>433</v>
       </c>
       <c r="Q438" t="n">
         <v>25</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra verde</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,29 +31965,29 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="K439" t="n">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="L439" t="n">
-        <v>95000</v>
+        <v>20000</v>
       </c>
       <c r="M439" t="n">
-        <v>92273</v>
+        <v>20000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>3691</v>
+        <v>800</v>
       </c>
       <c r="Q439" t="n">
         <v>25</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="K440" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L440" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M440" t="n">
-        <v>24200</v>
+        <v>18923</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>968</v>
+        <v>757</v>
       </c>
       <c r="Q440" t="n">
         <v>25</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,29 +32109,29 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="K441" t="n">
-        <v>55000</v>
+        <v>90000</v>
       </c>
       <c r="L441" t="n">
-        <v>60000</v>
+        <v>95000</v>
       </c>
       <c r="M441" t="n">
-        <v>57727</v>
+        <v>92273</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>2309</v>
+        <v>3691</v>
       </c>
       <c r="Q441" t="n">
         <v>25</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,29 +32181,29 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="K442" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="L442" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M442" t="n">
-        <v>38905</v>
+        <v>24200</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>1556</v>
+        <v>968</v>
       </c>
       <c r="Q442" t="n">
         <v>25</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,29 +32253,29 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K443" t="n">
-        <v>37000</v>
+        <v>55000</v>
       </c>
       <c r="L443" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="M443" t="n">
-        <v>37575</v>
+        <v>57727</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>1503</v>
+        <v>2309</v>
       </c>
       <c r="Q443" t="n">
         <v>25</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K444" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="L444" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M444" t="n">
-        <v>35000</v>
+        <v>38905</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>1400</v>
+        <v>1556</v>
       </c>
       <c r="Q444" t="n">
         <v>25</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K445" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L445" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="M445" t="n">
-        <v>35000</v>
+        <v>37575</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>1400</v>
+        <v>1503</v>
       </c>
       <c r="Q445" t="n">
         <v>25</v>
@@ -32460,25 +32460,25 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K446" t="n">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="L446" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M446" t="n">
-        <v>72738</v>
+        <v>35000</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>2910</v>
+        <v>1400</v>
       </c>
       <c r="Q446" t="n">
         <v>25</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32544,13 +32544,13 @@
         <v>12</v>
       </c>
       <c r="K447" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="L447" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="M447" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32559,11 +32559,11 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="Q447" t="n">
         <v>25</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K448" t="n">
-        <v>65000</v>
+        <v>70000</v>
       </c>
       <c r="L448" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="M448" t="n">
-        <v>67273</v>
+        <v>72738</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2691</v>
+        <v>2910</v>
       </c>
       <c r="Q448" t="n">
         <v>25</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,7 +32685,7 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K449" t="n">
         <v>60000</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,20 +32757,20 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K450" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="L450" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="M450" t="n">
-        <v>27021</v>
+        <v>67273</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32779,10 +32779,10 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>1801</v>
+        <v>2691</v>
       </c>
       <c r="Q450" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32832,17 +32832,17 @@
         <v>15</v>
       </c>
       <c r="K451" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="L451" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="M451" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -32851,10 +32851,10 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>1333</v>
+        <v>2400</v>
       </c>
       <c r="Q451" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,32 +32901,32 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K452" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="L452" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M452" t="n">
-        <v>73026</v>
+        <v>27021</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>2921</v>
+        <v>1801</v>
       </c>
       <c r="Q452" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,32 +32973,32 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K453" t="n">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="L453" t="n">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="M453" t="n">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>2600</v>
+        <v>1333</v>
       </c>
       <c r="Q453" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33048,13 +33048,13 @@
         <v>38</v>
       </c>
       <c r="K454" t="n">
-        <v>130000</v>
+        <v>70000</v>
       </c>
       <c r="L454" t="n">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="M454" t="n">
-        <v>137895</v>
+        <v>73026</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>5516</v>
+        <v>2921</v>
       </c>
       <c r="Q454" t="n">
         <v>25</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33120,13 +33120,13 @@
         <v>10</v>
       </c>
       <c r="K455" t="n">
-        <v>100000</v>
+        <v>65000</v>
       </c>
       <c r="L455" t="n">
-        <v>100000</v>
+        <v>65000</v>
       </c>
       <c r="M455" t="n">
-        <v>100000</v>
+        <v>65000</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33135,11 +33135,11 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="Q455" t="n">
         <v>25</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,32 +33189,32 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K456" t="n">
-        <v>40000</v>
+        <v>130000</v>
       </c>
       <c r="L456" t="n">
-        <v>45000</v>
+        <v>150000</v>
       </c>
       <c r="M456" t="n">
-        <v>42875</v>
+        <v>137895</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>3573</v>
+        <v>5516</v>
       </c>
       <c r="Q456" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33252,29 +33252,29 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="K457" t="n">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="L457" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="M457" t="n">
-        <v>57195</v>
+        <v>100000</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33283,10 +33283,10 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>3813</v>
+        <v>4000</v>
       </c>
       <c r="Q457" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,32 +33333,32 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K458" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L458" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="M458" t="n">
-        <v>15000</v>
+        <v>42875</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>600</v>
+        <v>3573</v>
       </c>
       <c r="Q458" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,32 +33405,32 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="K459" t="n">
-        <v>12000</v>
+        <v>55000</v>
       </c>
       <c r="L459" t="n">
-        <v>13000</v>
+        <v>60000</v>
       </c>
       <c r="M459" t="n">
-        <v>12519</v>
+        <v>57195</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>501</v>
+        <v>3813</v>
       </c>
       <c r="Q459" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K460" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="L460" t="n">
-        <v>65000</v>
+        <v>15000</v>
       </c>
       <c r="M460" t="n">
-        <v>62875</v>
+        <v>15000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>2515</v>
+        <v>600</v>
       </c>
       <c r="Q460" t="n">
         <v>25</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,33 +33545,33 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="K461" t="n">
-        <v>55000</v>
+        <v>12000</v>
       </c>
       <c r="L461" t="n">
-        <v>55000</v>
+        <v>13000</v>
       </c>
       <c r="M461" t="n">
-        <v>55000</v>
+        <v>12519</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>2200</v>
+        <v>501</v>
       </c>
       <c r="Q461" t="n">
         <v>25</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33624,17 +33624,17 @@
         <v>40</v>
       </c>
       <c r="K462" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="L462" t="n">
-        <v>27000</v>
+        <v>65000</v>
       </c>
       <c r="M462" t="n">
-        <v>26250</v>
+        <v>62875</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1750</v>
+        <v>2515</v>
       </c>
       <c r="Q462" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33684,25 +33684,25 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>410</v>
+        <v>15</v>
       </c>
       <c r="K463" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="L463" t="n">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="M463" t="n">
-        <v>46829</v>
+        <v>55000</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1873</v>
+        <v>2200</v>
       </c>
       <c r="Q463" t="n">
         <v>25</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33756,41 +33756,41 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K464" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L464" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M464" t="n">
-        <v>35000</v>
+        <v>26250</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>1400</v>
+        <v>1750</v>
       </c>
       <c r="Q464" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>39</v>
+        <v>410</v>
       </c>
       <c r="K465" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="L465" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="M465" t="n">
-        <v>77051</v>
+        <v>46829</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>3082</v>
+        <v>1873</v>
       </c>
       <c r="Q465" t="n">
         <v>25</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K466" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="L466" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="M466" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="Q466" t="n">
         <v>25</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,32 +33981,32 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="K467" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="L467" t="n">
-        <v>27000</v>
+        <v>80000</v>
       </c>
       <c r="M467" t="n">
-        <v>26175</v>
+        <v>77051</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2181</v>
+        <v>3082</v>
       </c>
       <c r="Q467" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34044,25 +34044,25 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="K468" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="L468" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="M468" t="n">
-        <v>27727</v>
+        <v>65000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>1109</v>
+        <v>2600</v>
       </c>
       <c r="Q468" t="n">
         <v>25</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,32 +34125,32 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="K469" t="n">
-        <v>55000</v>
+        <v>25000</v>
       </c>
       <c r="L469" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="M469" t="n">
-        <v>58108</v>
+        <v>26175</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>2324</v>
+        <v>2181</v>
       </c>
       <c r="Q469" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="K470" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L470" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="M470" t="n">
-        <v>36143</v>
+        <v>27727</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>1446</v>
+        <v>1109</v>
       </c>
       <c r="Q470" t="n">
         <v>25</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,7 +34269,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K471" t="n">
         <v>55000</v>
@@ -34278,7 +34278,7 @@
         <v>60000</v>
       </c>
       <c r="M471" t="n">
-        <v>58250</v>
+        <v>58108</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="Q471" t="n">
         <v>25</v>
@@ -34332,25 +34332,25 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="K472" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L472" t="n">
-        <v>45000</v>
+        <v>37000</v>
       </c>
       <c r="M472" t="n">
-        <v>45000</v>
+        <v>36143</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34359,11 +34359,11 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>1800</v>
+        <v>1446</v>
       </c>
       <c r="Q472" t="n">
         <v>25</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K473" t="n">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="L473" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="M473" t="n">
-        <v>32917</v>
+        <v>58250</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>1317</v>
+        <v>2330</v>
       </c>
       <c r="Q473" t="n">
         <v>25</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K474" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L474" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M474" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q474" t="n">
         <v>25</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K475" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="L475" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="M475" t="n">
-        <v>63182</v>
+        <v>32917</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34575,11 +34575,11 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>2527</v>
+        <v>1317</v>
       </c>
       <c r="Q475" t="n">
         <v>25</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34632,13 +34632,13 @@
         <v>15</v>
       </c>
       <c r="K476" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L476" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M476" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34647,11 +34647,11 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q476" t="n">
         <v>25</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="K477" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="L477" t="n">
-        <v>33000</v>
+        <v>65000</v>
       </c>
       <c r="M477" t="n">
-        <v>31050</v>
+        <v>63182</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>1242</v>
+        <v>2527</v>
       </c>
       <c r="Q477" t="n">
         <v>25</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K478" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="L478" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M478" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34791,11 +34791,11 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q478" t="n">
         <v>25</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K479" t="n">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="L479" t="n">
-        <v>70000</v>
+        <v>33000</v>
       </c>
       <c r="M479" t="n">
-        <v>67321</v>
+        <v>31050</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34863,11 +34863,11 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>2693</v>
+        <v>1242</v>
       </c>
       <c r="Q479" t="n">
         <v>25</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34920,13 +34920,13 @@
         <v>25</v>
       </c>
       <c r="K480" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L480" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M480" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34935,11 +34935,11 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q480" t="n">
         <v>25</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,20 +34989,20 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="K481" t="n">
-        <v>23000</v>
+        <v>65000</v>
       </c>
       <c r="L481" t="n">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="M481" t="n">
-        <v>23929</v>
+        <v>67321</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -35011,10 +35011,10 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>1595</v>
+        <v>2693</v>
       </c>
       <c r="Q481" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35052,25 +35052,25 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K482" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="L482" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="M482" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="Q482" t="n">
         <v>25</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35124,29 +35124,29 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="K483" t="n">
-        <v>75000</v>
+        <v>23000</v>
       </c>
       <c r="L483" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M483" t="n">
-        <v>75000</v>
+        <v>23929</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>3000</v>
+        <v>1595</v>
       </c>
       <c r="Q483" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="K484" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="L484" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="M484" t="n">
-        <v>15850</v>
+        <v>80000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35223,11 +35223,11 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>634</v>
+        <v>3200</v>
       </c>
       <c r="Q484" t="n">
         <v>25</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,38 +35268,38 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="K485" t="n">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="L485" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="M485" t="n">
-        <v>16077</v>
+        <v>75000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>643</v>
+        <v>3000</v>
       </c>
       <c r="Q485" t="n">
         <v>25</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="K486" t="n">
-        <v>95000</v>
+        <v>15000</v>
       </c>
       <c r="L486" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="M486" t="n">
-        <v>97917</v>
+        <v>15850</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>3917</v>
+        <v>634</v>
       </c>
       <c r="Q486" t="n">
         <v>25</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35421,32 +35421,32 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K487" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L487" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="M487" t="n">
-        <v>37300</v>
+        <v>16077</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P487" t="n">
-        <v>3108</v>
+        <v>643</v>
       </c>
       <c r="Q487" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K488" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L488" t="n">
-        <v>85000</v>
+        <v>100000</v>
       </c>
       <c r="M488" t="n">
-        <v>82500</v>
+        <v>97917</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35511,11 +35511,11 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>3300</v>
+        <v>3917</v>
       </c>
       <c r="Q488" t="n">
         <v>25</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,32 +35565,32 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K489" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L489" t="n">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="M489" t="n">
-        <v>50909</v>
+        <v>37300</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>2036</v>
+        <v>3108</v>
       </c>
       <c r="Q489" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="K490" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L490" t="n">
-        <v>80000</v>
+        <v>85000</v>
       </c>
       <c r="M490" t="n">
-        <v>77222</v>
+        <v>82500</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35655,11 +35655,11 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>3089</v>
+        <v>3300</v>
       </c>
       <c r="Q490" t="n">
         <v>25</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,38 +35700,38 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K491" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="L491" t="n">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="M491" t="n">
-        <v>60000</v>
+        <v>50909</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>2400</v>
+        <v>2036</v>
       </c>
       <c r="Q491" t="n">
         <v>25</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="K492" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L492" t="n">
         <v>80000</v>
       </c>
-      <c r="L492" t="n">
-        <v>85000</v>
-      </c>
       <c r="M492" t="n">
-        <v>82759</v>
+        <v>77222</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>3310</v>
+        <v>3089</v>
       </c>
       <c r="Q492" t="n">
         <v>25</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K493" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="L493" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="M493" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q493" t="n">
         <v>25</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35928,13 +35928,13 @@
         <v>58</v>
       </c>
       <c r="K494" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="L494" t="n">
-        <v>45000</v>
+        <v>85000</v>
       </c>
       <c r="M494" t="n">
-        <v>42241</v>
+        <v>82759</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>1690</v>
+        <v>3310</v>
       </c>
       <c r="Q494" t="n">
         <v>25</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35988,25 +35988,25 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K495" t="n">
-        <v>40000</v>
+        <v>75000</v>
       </c>
       <c r="L495" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="M495" t="n">
-        <v>42800</v>
+        <v>75000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36015,11 +36015,11 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>1712</v>
+        <v>3000</v>
       </c>
       <c r="Q495" t="n">
         <v>25</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K496" t="n">
-        <v>65000</v>
+        <v>40000</v>
       </c>
       <c r="L496" t="n">
-        <v>70000</v>
+        <v>45000</v>
       </c>
       <c r="M496" t="n">
-        <v>68125</v>
+        <v>42241</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>2725</v>
+        <v>1690</v>
       </c>
       <c r="Q496" t="n">
         <v>25</v>
@@ -36132,25 +36132,25 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K497" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L497" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="M497" t="n">
-        <v>50000</v>
+        <v>42800</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>2000</v>
+        <v>1712</v>
       </c>
       <c r="Q497" t="n">
         <v>25</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,32 +36213,32 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K498" t="n">
-        <v>18000</v>
+        <v>65000</v>
       </c>
       <c r="L498" t="n">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="M498" t="n">
-        <v>18714</v>
+        <v>68125</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>1560</v>
+        <v>2725</v>
       </c>
       <c r="Q498" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36276,41 +36276,41 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K499" t="n">
-        <v>28000</v>
+        <v>50000</v>
       </c>
       <c r="L499" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="M499" t="n">
-        <v>29700</v>
+        <v>50000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>2475</v>
+        <v>2000</v>
       </c>
       <c r="Q499" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,32 +36357,32 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K500" t="n">
-        <v>75000</v>
+        <v>18000</v>
       </c>
       <c r="L500" t="n">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="M500" t="n">
-        <v>77700</v>
+        <v>18714</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>3108</v>
+        <v>1560</v>
       </c>
       <c r="Q500" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R500" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36420,41 +36420,41 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K501" t="n">
-        <v>65000</v>
+        <v>28000</v>
       </c>
       <c r="L501" t="n">
-        <v>65000</v>
+        <v>32000</v>
       </c>
       <c r="M501" t="n">
-        <v>65000</v>
+        <v>29700</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>2600</v>
+        <v>2475</v>
       </c>
       <c r="Q501" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R501" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36501,32 +36501,32 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K502" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="L502" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="M502" t="n">
-        <v>34091</v>
+        <v>77700</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>2841</v>
+        <v>3108</v>
       </c>
       <c r="Q502" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36564,41 +36564,41 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K503" t="n">
-        <v>32000</v>
+        <v>65000</v>
       </c>
       <c r="L503" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="M503" t="n">
-        <v>33317</v>
+        <v>65000</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>2221</v>
+        <v>2600</v>
       </c>
       <c r="Q503" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,36 +36641,36 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
+        <v>22</v>
+      </c>
+      <c r="K504" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L504" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M504" t="n">
+        <v>34091</v>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P504" t="n">
+        <v>2841</v>
+      </c>
+      <c r="Q504" t="n">
         <v>12</v>
-      </c>
-      <c r="K504" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L504" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M504" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N504" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O504" t="inlineStr">
-        <is>
-          <t>Provincia de Huasco</t>
-        </is>
-      </c>
-      <c r="P504" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q504" t="n">
-        <v>15</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -36717,32 +36717,32 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K505" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="L505" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M505" t="n">
-        <v>21150</v>
+        <v>33317</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>846</v>
+        <v>2221</v>
       </c>
       <c r="Q505" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36780,41 +36780,41 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="K506" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L506" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M506" t="n">
-        <v>16833</v>
+        <v>30000</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>673</v>
+        <v>2000</v>
       </c>
       <c r="Q506" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36864,17 +36864,17 @@
         <v>40</v>
       </c>
       <c r="K507" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L507" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M507" t="n">
-        <v>17150</v>
+        <v>21150</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>686</v>
+        <v>846</v>
       </c>
       <c r="Q507" t="n">
         <v>25</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,32 +36933,32 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K508" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L508" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M508" t="n">
-        <v>14753</v>
+        <v>16833</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>1229</v>
+        <v>673</v>
       </c>
       <c r="Q508" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,32 +37005,32 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K509" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L509" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M509" t="n">
-        <v>15605</v>
+        <v>17150</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>1040</v>
+        <v>686</v>
       </c>
       <c r="Q509" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,32 +37077,32 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K510" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L510" t="n">
         <v>15000</v>
       </c>
-      <c r="L510" t="n">
-        <v>17000</v>
-      </c>
       <c r="M510" t="n">
-        <v>16244</v>
+        <v>14753</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>650</v>
+        <v>1229</v>
       </c>
       <c r="Q510" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,32 +37149,32 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="K511" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L511" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M511" t="n">
-        <v>14533</v>
+        <v>15605</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>581</v>
+        <v>1040</v>
       </c>
       <c r="Q511" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R511" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37221,29 +37221,29 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K512" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L512" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="M512" t="n">
-        <v>20480</v>
+        <v>16244</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>819</v>
+        <v>650</v>
       </c>
       <c r="Q512" t="n">
         <v>25</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K513" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L513" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M513" t="n">
-        <v>23850</v>
+        <v>14533</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>954</v>
+        <v>581</v>
       </c>
       <c r="Q513" t="n">
         <v>25</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K514" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L514" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M514" t="n">
-        <v>19040</v>
+        <v>20480</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>762</v>
+        <v>819</v>
       </c>
       <c r="Q514" t="n">
         <v>25</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37437,29 +37437,29 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K515" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L515" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M515" t="n">
-        <v>16125</v>
+        <v>23850</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>645</v>
+        <v>954</v>
       </c>
       <c r="Q515" t="n">
         <v>25</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="K516" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L516" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M516" t="n">
-        <v>14542</v>
+        <v>19040</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>582</v>
+        <v>762</v>
       </c>
       <c r="Q516" t="n">
         <v>25</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37581,20 +37581,20 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K517" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L517" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M517" t="n">
-        <v>32600</v>
+        <v>16125</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>1304</v>
+        <v>645</v>
       </c>
       <c r="Q517" t="n">
         <v>25</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,32 +37653,32 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="K518" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L518" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M518" t="n">
-        <v>22143</v>
+        <v>14542</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>1476</v>
+        <v>582</v>
       </c>
       <c r="Q518" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K519" t="n">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="L519" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="M519" t="n">
-        <v>57125</v>
+        <v>32600</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37743,11 +37743,11 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>2285</v>
+        <v>1304</v>
       </c>
       <c r="Q519" t="n">
         <v>25</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37797,32 +37797,32 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K520" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L520" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M520" t="n">
-        <v>31150</v>
+        <v>22143</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>1246</v>
+        <v>1476</v>
       </c>
       <c r="Q520" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R520" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K521" t="n">
-        <v>20000</v>
+        <v>55000</v>
       </c>
       <c r="L521" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="M521" t="n">
-        <v>21875</v>
+        <v>57125</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37887,11 +37887,11 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>875</v>
+        <v>2285</v>
       </c>
       <c r="Q521" t="n">
         <v>25</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K522" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L522" t="n">
-        <v>17000</v>
+        <v>32000</v>
       </c>
       <c r="M522" t="n">
-        <v>15850</v>
+        <v>31150</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>634</v>
+        <v>1246</v>
       </c>
       <c r="Q522" t="n">
         <v>25</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K523" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L523" t="n">
-        <v>150000</v>
+        <v>23000</v>
       </c>
       <c r="M523" t="n">
-        <v>73525</v>
+        <v>21875</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>2941</v>
+        <v>875</v>
       </c>
       <c r="Q523" t="n">
         <v>25</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -38085,32 +38085,32 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="K524" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L524" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M524" t="n">
-        <v>33828</v>
+        <v>15850</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>2819</v>
+        <v>634</v>
       </c>
       <c r="Q524" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="K525" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L525" t="n">
-        <v>23000</v>
+        <v>150000</v>
       </c>
       <c r="M525" t="n">
-        <v>22400</v>
+        <v>73525</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>896</v>
+        <v>2941</v>
       </c>
       <c r="Q525" t="n">
         <v>25</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38220,7 +38220,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -38229,32 +38229,32 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K526" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L526" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M526" t="n">
-        <v>17575</v>
+        <v>33828</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>703</v>
+        <v>2819</v>
       </c>
       <c r="Q526" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R526" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -38301,32 +38301,32 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K527" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L527" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M527" t="n">
-        <v>15343</v>
+        <v>22400</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>1023</v>
+        <v>896</v>
       </c>
       <c r="Q527" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38364,7 +38364,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -38373,29 +38373,29 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K528" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L528" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M528" t="n">
-        <v>35000</v>
+        <v>17575</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>1400</v>
+        <v>703</v>
       </c>
       <c r="Q528" t="n">
         <v>25</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38436,41 +38436,41 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
         <v>35</v>
       </c>
       <c r="K529" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L529" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M529" t="n">
-        <v>30000</v>
+        <v>15343</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>1200</v>
+        <v>1023</v>
       </c>
       <c r="Q529" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R529" t="inlineStr">
         <is>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38520,29 +38520,29 @@
         <v>70</v>
       </c>
       <c r="K530" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L530" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M530" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>1917</v>
+        <v>1400</v>
       </c>
       <c r="Q530" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K531" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="L531" t="n">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="M531" t="n">
-        <v>63000</v>
+        <v>30000</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>2520</v>
+        <v>1200</v>
       </c>
       <c r="Q531" t="n">
         <v>25</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38652,41 +38652,41 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K532" t="n">
-        <v>50000</v>
+        <v>22000</v>
       </c>
       <c r="L532" t="n">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="M532" t="n">
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>2000</v>
+        <v>1917</v>
       </c>
       <c r="Q532" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38724,7 +38724,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="K533" t="n">
-        <v>85000</v>
+        <v>60000</v>
       </c>
       <c r="L533" t="n">
-        <v>90000</v>
+        <v>65000</v>
       </c>
       <c r="M533" t="n">
-        <v>87143</v>
+        <v>63000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>3486</v>
+        <v>2520</v>
       </c>
       <c r="Q533" t="n">
         <v>25</v>
@@ -38796,43 +38796,187 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J534" t="n">
+        <v>50</v>
+      </c>
+      <c r="K534" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L534" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M534" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N534" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P534" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>25</v>
+      </c>
+      <c r="R534" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>6</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D535" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E535" t="n">
+        <v>13</v>
+      </c>
+      <c r="F535" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
           <t>Chilena(o)</t>
         </is>
       </c>
-      <c r="I534" t="inlineStr">
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J535" t="n">
+        <v>35</v>
+      </c>
+      <c r="K535" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L535" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M535" t="n">
+        <v>87143</v>
+      </c>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O535" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P535" t="n">
+        <v>3486</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>25</v>
+      </c>
+      <c r="R535" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>6</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D536" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E536" t="n">
+        <v>13</v>
+      </c>
+      <c r="F536" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J534" t="n">
+      <c r="J536" t="n">
         <v>10</v>
       </c>
-      <c r="K534" t="n">
+      <c r="K536" t="n">
         <v>75000</v>
       </c>
-      <c r="L534" t="n">
+      <c r="L536" t="n">
         <v>75000</v>
       </c>
-      <c r="M534" t="n">
+      <c r="M536" t="n">
         <v>75000</v>
       </c>
-      <c r="N534" t="inlineStr">
+      <c r="N536" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O534" t="inlineStr">
+      <c r="O536" t="inlineStr">
         <is>
           <t>Provincia de Huasco</t>
         </is>
       </c>
-      <c r="P534" t="n">
+      <c r="P536" t="n">
         <v>3000</v>
       </c>
-      <c r="Q534" t="n">
-        <v>25</v>
-      </c>
-      <c r="R534" t="inlineStr">
+      <c r="Q536" t="n">
+        <v>25</v>
+      </c>
+      <c r="R536" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R540"/>
+  <dimension ref="A1:R544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K516" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L516" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M516" t="n">
-        <v>16244</v>
+        <v>27083</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>650</v>
+        <v>1083</v>
       </c>
       <c r="Q516" t="n">
         <v>25</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37572,38 +37572,38 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="K517" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L517" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M517" t="n">
-        <v>14533</v>
+        <v>20000</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>581</v>
+        <v>800</v>
       </c>
       <c r="Q517" t="n">
         <v>25</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,29 +37653,29 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="K518" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L518" t="n">
-        <v>21000</v>
+        <v>45000</v>
       </c>
       <c r="M518" t="n">
-        <v>20480</v>
+        <v>43000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>819</v>
+        <v>1720</v>
       </c>
       <c r="Q518" t="n">
         <v>25</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37716,38 +37716,38 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="K519" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L519" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M519" t="n">
-        <v>23850</v>
+        <v>30000</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>954</v>
+        <v>1200</v>
       </c>
       <c r="Q519" t="n">
         <v>25</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37797,29 +37797,29 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K520" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L520" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M520" t="n">
-        <v>19040</v>
+        <v>16244</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>762</v>
+        <v>650</v>
       </c>
       <c r="Q520" t="n">
         <v>25</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,29 +37869,29 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K521" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L521" t="n">
         <v>15000</v>
       </c>
-      <c r="L521" t="n">
-        <v>18000</v>
-      </c>
       <c r="M521" t="n">
-        <v>16125</v>
+        <v>14533</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>645</v>
+        <v>581</v>
       </c>
       <c r="Q521" t="n">
         <v>25</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K522" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L522" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M522" t="n">
-        <v>14542</v>
+        <v>20480</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>582</v>
+        <v>819</v>
       </c>
       <c r="Q522" t="n">
         <v>25</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K523" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L523" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M523" t="n">
-        <v>32600</v>
+        <v>23850</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>1304</v>
+        <v>954</v>
       </c>
       <c r="Q523" t="n">
         <v>25</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -38085,32 +38085,32 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K524" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L524" t="n">
         <v>20000</v>
       </c>
-      <c r="L524" t="n">
-        <v>25000</v>
-      </c>
       <c r="M524" t="n">
-        <v>22143</v>
+        <v>19040</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>1476</v>
+        <v>762</v>
       </c>
       <c r="Q524" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -38157,29 +38157,29 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K525" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="L525" t="n">
-        <v>60000</v>
+        <v>18000</v>
       </c>
       <c r="M525" t="n">
-        <v>57125</v>
+        <v>16125</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>2285</v>
+        <v>645</v>
       </c>
       <c r="Q525" t="n">
         <v>25</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38220,7 +38220,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="K526" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="L526" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="M526" t="n">
-        <v>31150</v>
+        <v>14542</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>1246</v>
+        <v>582</v>
       </c>
       <c r="Q526" t="n">
         <v>25</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44307</v>
+        <v>44509</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38292,7 +38292,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K527" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L527" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M527" t="n">
-        <v>21875</v>
+        <v>32600</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>875</v>
+        <v>1304</v>
       </c>
       <c r="Q527" t="n">
         <v>25</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44273</v>
+        <v>44509</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38364,7 +38364,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -38373,32 +38373,32 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K528" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L528" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M528" t="n">
-        <v>15850</v>
+        <v>22143</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>634</v>
+        <v>1476</v>
       </c>
       <c r="Q528" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R528" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K529" t="n">
-        <v>17000</v>
+        <v>55000</v>
       </c>
       <c r="L529" t="n">
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="M529" t="n">
-        <v>73525</v>
+        <v>57125</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2941</v>
+        <v>2285</v>
       </c>
       <c r="Q529" t="n">
         <v>25</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38517,32 +38517,32 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K530" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L530" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M530" t="n">
-        <v>33828</v>
+        <v>31150</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>2819</v>
+        <v>1246</v>
       </c>
       <c r="Q530" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K531" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L531" t="n">
         <v>23000</v>
       </c>
       <c r="M531" t="n">
-        <v>22400</v>
+        <v>21875</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="Q531" t="n">
         <v>25</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38652,7 +38652,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K532" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L532" t="n">
         <v>17000</v>
       </c>
-      <c r="L532" t="n">
-        <v>18000</v>
-      </c>
       <c r="M532" t="n">
-        <v>17575</v>
+        <v>15850</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>703</v>
+        <v>634</v>
       </c>
       <c r="Q532" t="n">
         <v>25</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38724,7 +38724,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -38733,32 +38733,32 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="K533" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L533" t="n">
-        <v>16000</v>
+        <v>150000</v>
       </c>
       <c r="M533" t="n">
-        <v>15343</v>
+        <v>73525</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>1023</v>
+        <v>2941</v>
       </c>
       <c r="Q533" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R533" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -38805,32 +38805,32 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="K534" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="L534" t="n">
         <v>35000</v>
       </c>
       <c r="M534" t="n">
-        <v>35000</v>
+        <v>33828</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>1400</v>
+        <v>2819</v>
       </c>
       <c r="Q534" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38868,38 +38868,38 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K535" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L535" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M535" t="n">
-        <v>30000</v>
+        <v>22400</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>1200</v>
+        <v>896</v>
       </c>
       <c r="Q535" t="n">
         <v>25</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38940,7 +38940,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -38949,32 +38949,32 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K536" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L536" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M536" t="n">
-        <v>23000</v>
+        <v>17575</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>1917</v>
+        <v>703</v>
       </c>
       <c r="Q536" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39012,7 +39012,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -39021,32 +39021,32 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K537" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="L537" t="n">
-        <v>65000</v>
+        <v>16000</v>
       </c>
       <c r="M537" t="n">
-        <v>63000</v>
+        <v>15343</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>2520</v>
+        <v>1023</v>
       </c>
       <c r="Q537" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K538" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L538" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M538" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39111,11 +39111,11 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="Q538" t="n">
         <v>25</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39156,25 +39156,25 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J539" t="n">
         <v>35</v>
       </c>
       <c r="K539" t="n">
-        <v>85000</v>
+        <v>30000</v>
       </c>
       <c r="L539" t="n">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="M539" t="n">
-        <v>87143</v>
+        <v>30000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>3486</v>
+        <v>1200</v>
       </c>
       <c r="Q539" t="n">
         <v>25</v>
@@ -39213,58 +39213,346 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E540" t="n">
+        <v>13</v>
+      </c>
+      <c r="F540" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>Inferno</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J540" t="n">
+        <v>70</v>
+      </c>
+      <c r="K540" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L540" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M540" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="O540" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P540" t="n">
+        <v>1917</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>12</v>
+      </c>
+      <c r="R540" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>6</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D541" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E540" t="n">
-        <v>13</v>
-      </c>
-      <c r="F540" t="n">
-        <v>100112021</v>
-      </c>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>Ají</t>
-        </is>
-      </c>
-      <c r="H540" t="inlineStr">
+      <c r="E541" t="n">
+        <v>13</v>
+      </c>
+      <c r="F541" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J541" t="n">
+        <v>200</v>
+      </c>
+      <c r="K541" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L541" t="n">
+        <v>65000</v>
+      </c>
+      <c r="M541" t="n">
+        <v>63000</v>
+      </c>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P541" t="n">
+        <v>2520</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>25</v>
+      </c>
+      <c r="R541" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>6</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D542" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E542" t="n">
+        <v>13</v>
+      </c>
+      <c r="F542" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J542" t="n">
+        <v>50</v>
+      </c>
+      <c r="K542" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L542" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M542" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N542" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P542" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>25</v>
+      </c>
+      <c r="R542" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>6</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D543" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E543" t="n">
+        <v>13</v>
+      </c>
+      <c r="F543" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
         <is>
           <t>Chilena(o)</t>
         </is>
       </c>
-      <c r="I540" t="inlineStr">
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J543" t="n">
+        <v>35</v>
+      </c>
+      <c r="K543" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L543" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M543" t="n">
+        <v>87143</v>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>Provincia de Huasco</t>
+        </is>
+      </c>
+      <c r="P543" t="n">
+        <v>3486</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>25</v>
+      </c>
+      <c r="R543" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>6</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D544" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E544" t="n">
+        <v>13</v>
+      </c>
+      <c r="F544" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>Chilena(o)</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J540" t="n">
+      <c r="J544" t="n">
         <v>10</v>
       </c>
-      <c r="K540" t="n">
+      <c r="K544" t="n">
         <v>75000</v>
       </c>
-      <c r="L540" t="n">
+      <c r="L544" t="n">
         <v>75000</v>
       </c>
-      <c r="M540" t="n">
+      <c r="M544" t="n">
         <v>75000</v>
       </c>
-      <c r="N540" t="inlineStr">
+      <c r="N544" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O540" t="inlineStr">
+      <c r="O544" t="inlineStr">
         <is>
           <t>Provincia de Huasco</t>
         </is>
       </c>
-      <c r="P540" t="n">
+      <c r="P544" t="n">
         <v>3000</v>
       </c>
-      <c r="Q540" t="n">
-        <v>25</v>
-      </c>
-      <c r="R540" t="inlineStr">
+      <c r="Q544" t="n">
+        <v>25</v>
+      </c>
+      <c r="R544" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R561"/>
+  <dimension ref="A1:R566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K494" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L494" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M494" t="n">
-        <v>15000</v>
+        <v>23125</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>600</v>
+        <v>925</v>
       </c>
       <c r="Q494" t="n">
         <v>25</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35988,38 +35988,38 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="K495" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L495" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M495" t="n">
-        <v>12519</v>
+        <v>15000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>501</v>
+        <v>600</v>
       </c>
       <c r="Q495" t="n">
         <v>25</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K496" t="n">
+        <v>55000</v>
+      </c>
+      <c r="L496" t="n">
         <v>60000</v>
       </c>
-      <c r="L496" t="n">
-        <v>65000</v>
-      </c>
       <c r="M496" t="n">
-        <v>63000</v>
+        <v>57857</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>2520</v>
+        <v>2314</v>
       </c>
       <c r="Q496" t="n">
         <v>25</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,7 +36141,7 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K497" t="n">
         <v>50000</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,32 +36213,32 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="K498" t="n">
-        <v>85000</v>
+        <v>18000</v>
       </c>
       <c r="L498" t="n">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="M498" t="n">
-        <v>87143</v>
+        <v>18769</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>3486</v>
+        <v>1564</v>
       </c>
       <c r="Q498" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36276,25 +36276,25 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="K499" t="n">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="L499" t="n">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="M499" t="n">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36303,11 +36303,11 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="Q499" t="n">
         <v>25</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44166</v>
+        <v>44246</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,29 +36357,29 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="K500" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L500" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="M500" t="n">
-        <v>32917</v>
+        <v>12519</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>1317</v>
+        <v>501</v>
       </c>
       <c r="Q500" t="n">
         <v>25</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="K501" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="L501" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="M501" t="n">
-        <v>25000</v>
+        <v>63000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36447,11 +36447,11 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>1000</v>
+        <v>2520</v>
       </c>
       <c r="Q501" t="n">
         <v>25</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44225</v>
+        <v>44491</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K502" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="L502" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="M502" t="n">
-        <v>18850</v>
+        <v>50000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36519,11 +36519,11 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>754</v>
+        <v>2000</v>
       </c>
       <c r="Q502" t="n">
         <v>25</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44225</v>
+        <v>44491</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,29 +36573,29 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K503" t="n">
-        <v>15000</v>
+        <v>85000</v>
       </c>
       <c r="L503" t="n">
-        <v>17000</v>
+        <v>90000</v>
       </c>
       <c r="M503" t="n">
-        <v>15800</v>
+        <v>87143</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>632</v>
+        <v>3486</v>
       </c>
       <c r="Q503" t="n">
         <v>25</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44425</v>
+        <v>44491</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="K504" t="n">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="L504" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="M504" t="n">
-        <v>58108</v>
+        <v>75000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36663,11 +36663,11 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>2324</v>
+        <v>3000</v>
       </c>
       <c r="Q504" t="n">
         <v>25</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44315</v>
+        <v>44166</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K505" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L505" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M505" t="n">
-        <v>28958</v>
+        <v>32917</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>1158</v>
+        <v>1317</v>
       </c>
       <c r="Q505" t="n">
         <v>25</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44315</v>
+        <v>44166</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36780,38 +36780,38 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="K506" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L506" t="n">
         <v>25000</v>
       </c>
       <c r="M506" t="n">
-        <v>24103</v>
+        <v>25000</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="Q506" t="n">
         <v>25</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K507" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L507" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M507" t="n">
-        <v>37763</v>
+        <v>18850</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36879,11 +36879,11 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>1511</v>
+        <v>754</v>
       </c>
       <c r="Q507" t="n">
         <v>25</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44348</v>
+        <v>44225</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,20 +36933,20 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="K508" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L508" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M508" t="n">
-        <v>19020</v>
+        <v>15800</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -36955,10 +36955,10 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>1268</v>
+        <v>632</v>
       </c>
       <c r="Q508" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,29 +37005,29 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="K509" t="n">
-        <v>28000</v>
+        <v>55000</v>
       </c>
       <c r="L509" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="M509" t="n">
-        <v>29125</v>
+        <v>58108</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>1165</v>
+        <v>2324</v>
       </c>
       <c r="Q509" t="n">
         <v>25</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,7 +37077,7 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K510" t="n">
         <v>28000</v>
@@ -37086,23 +37086,23 @@
         <v>30000</v>
       </c>
       <c r="M510" t="n">
-        <v>29111</v>
+        <v>28958</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>1941</v>
+        <v>1158</v>
       </c>
       <c r="Q510" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K511" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L511" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M511" t="n">
-        <v>21380</v>
+        <v>24103</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>855</v>
+        <v>964</v>
       </c>
       <c r="Q511" t="n">
         <v>25</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44495</v>
+        <v>44315</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="K512" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L512" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="M512" t="n">
-        <v>47273</v>
+        <v>37763</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1891</v>
+        <v>1511</v>
       </c>
       <c r="Q512" t="n">
         <v>25</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K513" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L513" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M513" t="n">
-        <v>32935</v>
+        <v>19020</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>2196</v>
+        <v>1268</v>
       </c>
       <c r="Q513" t="n">
         <v>15</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44232</v>
+        <v>44348</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,20 +37365,20 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K514" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="L514" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M514" t="n">
-        <v>14667</v>
+        <v>29125</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>587</v>
+        <v>1165</v>
       </c>
       <c r="Q514" t="n">
         <v>25</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44232</v>
+        <v>44348</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37437,32 +37437,32 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K515" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="L515" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M515" t="n">
-        <v>15425</v>
+        <v>29111</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>617</v>
+        <v>1941</v>
       </c>
       <c r="Q515" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K516" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L516" t="n">
         <v>23000</v>
       </c>
-      <c r="L516" t="n">
-        <v>25000</v>
-      </c>
       <c r="M516" t="n">
-        <v>24095</v>
+        <v>21380</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>964</v>
+        <v>855</v>
       </c>
       <c r="Q516" t="n">
         <v>25</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44510</v>
+        <v>44495</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="K517" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="L517" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="M517" t="n">
-        <v>42917</v>
+        <v>47273</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>1717</v>
+        <v>1891</v>
       </c>
       <c r="Q517" t="n">
         <v>25</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44510</v>
+        <v>44495</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37644,29 +37644,29 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K518" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L518" t="n">
         <v>35000</v>
       </c>
       <c r="M518" t="n">
-        <v>35000</v>
+        <v>32935</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
@@ -37675,10 +37675,10 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>1400</v>
+        <v>2196</v>
       </c>
       <c r="Q518" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K519" t="n">
-        <v>60000</v>
+        <v>14000</v>
       </c>
       <c r="L519" t="n">
-        <v>65000</v>
+        <v>15000</v>
       </c>
       <c r="M519" t="n">
-        <v>63026</v>
+        <v>14667</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37743,11 +37743,11 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>2521</v>
+        <v>587</v>
       </c>
       <c r="Q519" t="n">
         <v>25</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37793,33 +37793,33 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K520" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="L520" t="n">
-        <v>50000</v>
+        <v>16000</v>
       </c>
       <c r="M520" t="n">
-        <v>50000</v>
+        <v>15425</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>2000</v>
+        <v>617</v>
       </c>
       <c r="Q520" t="n">
         <v>25</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,32 +37869,32 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K521" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L521" t="n">
         <v>25000</v>
       </c>
       <c r="M521" t="n">
-        <v>22250</v>
+        <v>24095</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>1854</v>
+        <v>964</v>
       </c>
       <c r="Q521" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R521" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,20 +37941,20 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K522" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L522" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M522" t="n">
-        <v>31691</v>
+        <v>42917</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -37963,10 +37963,10 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>2113</v>
+        <v>1717</v>
       </c>
       <c r="Q522" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R522" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K523" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L523" t="n">
         <v>35000</v>
       </c>
       <c r="M523" t="n">
-        <v>32045</v>
+        <v>35000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>1282</v>
+        <v>1400</v>
       </c>
       <c r="Q523" t="n">
         <v>25</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38076,25 +38076,25 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K524" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="L524" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="M524" t="n">
-        <v>25000</v>
+        <v>63026</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38103,11 +38103,11 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>1000</v>
+        <v>2521</v>
       </c>
       <c r="Q524" t="n">
         <v>25</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38148,41 +38148,41 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="K525" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="L525" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="M525" t="n">
-        <v>19179</v>
+        <v>50000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>1598</v>
+        <v>2000</v>
       </c>
       <c r="Q525" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R525" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44517</v>
+        <v>44510</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="K526" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L526" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M526" t="n">
-        <v>13582</v>
+        <v>22250</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>1132</v>
+        <v>1854</v>
       </c>
       <c r="Q526" t="n">
         <v>12</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44517</v>
+        <v>44510</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38297,36 +38297,36 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="K527" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L527" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M527" t="n">
-        <v>10000</v>
+        <v>31691</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>833</v>
+        <v>2113</v>
       </c>
       <c r="Q527" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38373,20 +38373,20 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="K528" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L528" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M528" t="n">
-        <v>16098</v>
+        <v>32045</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>644</v>
+        <v>1282</v>
       </c>
       <c r="Q528" t="n">
         <v>25</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38445,20 +38445,20 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="K529" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L529" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M529" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="Q529" t="n">
         <v>25</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38517,32 +38517,32 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K530" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L530" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M530" t="n">
-        <v>14333</v>
+        <v>19179</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>573</v>
+        <v>1598</v>
       </c>
       <c r="Q530" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38580,7 +38580,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -38589,32 +38589,32 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="K531" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L531" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M531" t="n">
-        <v>11167</v>
+        <v>13582</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>447</v>
+        <v>1132</v>
       </c>
       <c r="Q531" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R531" t="inlineStr">
         <is>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38657,36 +38657,36 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="K532" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L532" t="n">
         <v>10000</v>
       </c>
       <c r="M532" t="n">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>640</v>
+        <v>833</v>
       </c>
       <c r="Q532" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38733,20 +38733,20 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="K533" t="n">
-        <v>85000</v>
+        <v>15000</v>
       </c>
       <c r="L533" t="n">
-        <v>85000</v>
+        <v>17000</v>
       </c>
       <c r="M533" t="n">
-        <v>85000</v>
+        <v>16098</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>3400</v>
+        <v>644</v>
       </c>
       <c r="Q533" t="n">
         <v>25</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38796,38 +38796,38 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K534" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L534" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M534" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="Q534" t="n">
         <v>25</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="K535" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L535" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M535" t="n">
-        <v>11410</v>
+        <v>14333</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>456</v>
+        <v>573</v>
       </c>
       <c r="Q535" t="n">
         <v>25</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38952,13 +38952,13 @@
         <v>120</v>
       </c>
       <c r="K536" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L536" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M536" t="n">
-        <v>14167</v>
+        <v>11167</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>567</v>
+        <v>447</v>
       </c>
       <c r="Q536" t="n">
         <v>25</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39021,32 +39021,32 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K537" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L537" t="n">
         <v>10000</v>
       </c>
-      <c r="L537" t="n">
-        <v>12000</v>
-      </c>
       <c r="M537" t="n">
-        <v>11143</v>
+        <v>9600</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>929</v>
+        <v>640</v>
       </c>
       <c r="Q537" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K538" t="n">
-        <v>80000</v>
+        <v>85000</v>
       </c>
       <c r="L538" t="n">
         <v>85000</v>
       </c>
       <c r="M538" t="n">
-        <v>81875</v>
+        <v>85000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>3275</v>
+        <v>3400</v>
       </c>
       <c r="Q538" t="n">
         <v>25</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39156,25 +39156,25 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K539" t="n">
-        <v>75000</v>
+        <v>9000</v>
       </c>
       <c r="L539" t="n">
-        <v>75000</v>
+        <v>9000</v>
       </c>
       <c r="M539" t="n">
-        <v>75000</v>
+        <v>9000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>3000</v>
+        <v>360</v>
       </c>
       <c r="Q539" t="n">
         <v>25</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="K540" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="L540" t="n">
-        <v>95000</v>
+        <v>12000</v>
       </c>
       <c r="M540" t="n">
-        <v>92083</v>
+        <v>11410</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39255,11 +39255,11 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>3683</v>
+        <v>456</v>
       </c>
       <c r="Q540" t="n">
         <v>25</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39300,7 +39300,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -39309,20 +39309,20 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K541" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L541" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M541" t="n">
-        <v>18750</v>
+        <v>14167</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>750</v>
+        <v>567</v>
       </c>
       <c r="Q541" t="n">
         <v>25</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39372,7 +39372,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -39381,32 +39381,32 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K542" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L542" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M542" t="n">
-        <v>21077</v>
+        <v>11143</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>843</v>
+        <v>929</v>
       </c>
       <c r="Q542" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R542" t="inlineStr">
         <is>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="K543" t="n">
-        <v>33000</v>
+        <v>80000</v>
       </c>
       <c r="L543" t="n">
-        <v>35000</v>
+        <v>85000</v>
       </c>
       <c r="M543" t="n">
-        <v>34877</v>
+        <v>81875</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>1395</v>
+        <v>3275</v>
       </c>
       <c r="Q543" t="n">
         <v>25</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39516,41 +39516,41 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K544" t="n">
-        <v>26000</v>
+        <v>75000</v>
       </c>
       <c r="L544" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="M544" t="n">
-        <v>26694</v>
+        <v>75000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>2224</v>
+        <v>3000</v>
       </c>
       <c r="Q544" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R544" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44515</v>
+        <v>44389</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39588,7 +39588,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="K545" t="n">
-        <v>25000</v>
+        <v>90000</v>
       </c>
       <c r="L545" t="n">
-        <v>27000</v>
+        <v>95000</v>
       </c>
       <c r="M545" t="n">
-        <v>25957</v>
+        <v>92083</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>1038</v>
+        <v>3683</v>
       </c>
       <c r="Q545" t="n">
         <v>25</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39660,25 +39660,25 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K546" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L546" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M546" t="n">
-        <v>23000</v>
+        <v>18750</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39687,11 +39687,11 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>920</v>
+        <v>750</v>
       </c>
       <c r="Q546" t="n">
         <v>25</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39732,7 +39732,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Cacho cabra rojo</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -39741,32 +39741,32 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="K547" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L547" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M547" t="n">
-        <v>14471</v>
+        <v>21077</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>1206</v>
+        <v>843</v>
       </c>
       <c r="Q547" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R547" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39804,41 +39804,41 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>50</v>
+        <v>277</v>
       </c>
       <c r="K548" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L548" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M548" t="n">
-        <v>12000</v>
+        <v>34877</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>1000</v>
+        <v>1395</v>
       </c>
       <c r="Q548" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44194</v>
+        <v>44340</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39876,7 +39876,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -39885,32 +39885,32 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K549" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L549" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="M549" t="n">
-        <v>37917</v>
+        <v>26694</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>1517</v>
+        <v>2224</v>
       </c>
       <c r="Q549" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R549" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44194</v>
+        <v>44515</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="K550" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L550" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M550" t="n">
-        <v>30000</v>
+        <v>25957</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>1200</v>
+        <v>1038</v>
       </c>
       <c r="Q550" t="n">
         <v>25</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44271</v>
+        <v>44515</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K551" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L551" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M551" t="n">
-        <v>16038</v>
+        <v>23000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>642</v>
+        <v>920</v>
       </c>
       <c r="Q551" t="n">
         <v>25</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44307</v>
+        <v>44515</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40101,32 +40101,32 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K552" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L552" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M552" t="n">
-        <v>21875</v>
+        <v>14471</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>875</v>
+        <v>1206</v>
       </c>
       <c r="Q552" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44400</v>
+        <v>44515</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40164,41 +40164,41 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K553" t="n">
-        <v>80000</v>
+        <v>12000</v>
       </c>
       <c r="L553" t="n">
-        <v>85000</v>
+        <v>12000</v>
       </c>
       <c r="M553" t="n">
-        <v>82500</v>
+        <v>12000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="Q553" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44400</v>
+        <v>44194</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40236,7 +40236,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Cacho cabra rojo</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -40245,29 +40245,29 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K554" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L554" t="n">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="M554" t="n">
-        <v>50909</v>
+        <v>37917</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>2036</v>
+        <v>1517</v>
       </c>
       <c r="Q554" t="n">
         <v>25</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44309</v>
+        <v>44194</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40308,38 +40308,38 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Chilena(o)</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K555" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L555" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M555" t="n">
-        <v>21209</v>
+        <v>30000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>848</v>
+        <v>1200</v>
       </c>
       <c r="Q555" t="n">
         <v>25</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>595</v>
+        <v>52</v>
       </c>
       <c r="K556" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L556" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M556" t="n">
-    